--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B77C1-E903-A24A-8A2B-CC4E9F744368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96506B-BE63-B44E-A63C-62E2BED2D760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="700" windowWidth="27640" windowHeight="16940" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6976" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7414" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>✅</t>
+  </si>
+  <si>
+    <t>❌</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,8 +1017,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:W974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z150" sqref="Z150"/>
+    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y681" sqref="Y681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7382,7 +7388,9 @@
         <v>0</v>
       </c>
       <c r="V151" s="43"/>
-      <c r="W151" s="82"/>
+      <c r="W151" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="152" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="92"/>
@@ -7422,7 +7430,9 @@
       <c r="V152" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W152" s="82"/>
+      <c r="W152" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="153" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="92"/>
@@ -7462,6 +7472,9 @@
       </c>
       <c r="U153" s="43"/>
       <c r="V153" s="43"/>
+      <c r="W153" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="154" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="92"/>
@@ -7501,6 +7514,9 @@
         <v>0</v>
       </c>
       <c r="V154" s="43"/>
+      <c r="W154" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="155" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="92"/>
@@ -7540,6 +7556,9 @@
       <c r="V155" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W155" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="156" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="92"/>
@@ -7579,6 +7598,9 @@
       </c>
       <c r="U156" s="43"/>
       <c r="V156" s="43"/>
+      <c r="W156" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="157" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="92"/>
@@ -7618,6 +7640,9 @@
         <v>0</v>
       </c>
       <c r="V157" s="43"/>
+      <c r="W157" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="158" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="92"/>
@@ -7657,6 +7682,9 @@
       <c r="V158" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W158" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="159" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="92"/>
@@ -7696,6 +7724,9 @@
       </c>
       <c r="U159" s="43"/>
       <c r="V159" s="43"/>
+      <c r="W159" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="160" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="92"/>
@@ -7735,6 +7766,9 @@
         <v>0</v>
       </c>
       <c r="V160" s="43"/>
+      <c r="W160" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="161" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="92"/>
@@ -7774,6 +7808,9 @@
       <c r="V161" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W161" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="162" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="92"/>
@@ -7813,6 +7850,9 @@
       </c>
       <c r="U162" s="43"/>
       <c r="V162" s="43"/>
+      <c r="W162" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="163" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="92"/>
@@ -7852,6 +7892,9 @@
         <v>0</v>
       </c>
       <c r="V163" s="43"/>
+      <c r="W163" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="164" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="92"/>
@@ -7891,6 +7934,9 @@
       <c r="V164" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W164" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="165" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="92"/>
@@ -7930,6 +7976,9 @@
       </c>
       <c r="U165" s="43"/>
       <c r="V165" s="43"/>
+      <c r="W165" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="166" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="92"/>
@@ -7969,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="V166" s="43"/>
+      <c r="W166" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="167" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="92"/>
@@ -8008,6 +8060,9 @@
       <c r="V167" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W167" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="168" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="92"/>
@@ -8047,6 +8102,9 @@
       </c>
       <c r="U168" s="43"/>
       <c r="V168" s="43"/>
+      <c r="W168" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="169" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="92"/>
@@ -8086,6 +8144,9 @@
         <v>0</v>
       </c>
       <c r="V169" s="43"/>
+      <c r="W169" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="170" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="92"/>
@@ -8125,6 +8186,9 @@
       <c r="V170" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W170" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="171" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="92"/>
@@ -8164,6 +8228,9 @@
       </c>
       <c r="U171" s="43"/>
       <c r="V171" s="43"/>
+      <c r="W171" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="92"/>
@@ -8203,6 +8270,9 @@
         <v>0</v>
       </c>
       <c r="V172" s="43"/>
+      <c r="W172" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="173" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="92"/>
@@ -8242,6 +8312,9 @@
       <c r="V173" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W173" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="174" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="92"/>
@@ -8281,6 +8354,9 @@
       </c>
       <c r="U174" s="43"/>
       <c r="V174" s="43"/>
+      <c r="W174" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="175" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="92"/>
@@ -8320,7 +8396,9 @@
         <v>0</v>
       </c>
       <c r="V175" s="43"/>
-      <c r="W175" s="51"/>
+      <c r="W175" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="176" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="92"/>
@@ -8360,7 +8438,9 @@
       <c r="V176" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W176" s="51"/>
+      <c r="W176" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="177" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="92"/>
@@ -8400,7 +8480,9 @@
       </c>
       <c r="U177" s="43"/>
       <c r="V177" s="43"/>
-      <c r="W177" s="51"/>
+      <c r="W177" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="178" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="92"/>
@@ -8440,6 +8522,9 @@
         <v>0</v>
       </c>
       <c r="V178" s="43"/>
+      <c r="W178" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="179" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="92"/>
@@ -8479,6 +8564,9 @@
       <c r="V179" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W179" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="180" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="92"/>
@@ -8518,6 +8606,9 @@
       </c>
       <c r="U180" s="43"/>
       <c r="V180" s="43"/>
+      <c r="W180" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="181" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="92"/>
@@ -8557,7 +8648,9 @@
         <v>0</v>
       </c>
       <c r="V181" s="43"/>
-      <c r="W181" s="51"/>
+      <c r="W181" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="182" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="92"/>
@@ -8597,7 +8690,9 @@
       <c r="V182" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W182" s="51"/>
+      <c r="W182" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="183" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="92"/>
@@ -8637,7 +8732,9 @@
       </c>
       <c r="U183" s="43"/>
       <c r="V183" s="43"/>
-      <c r="W183" s="51"/>
+      <c r="W183" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="184" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="92"/>
@@ -8677,7 +8774,9 @@
         <v>0</v>
       </c>
       <c r="V184" s="43"/>
-      <c r="W184" s="51"/>
+      <c r="W184" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="185" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="92"/>
@@ -8717,7 +8816,9 @@
       <c r="V185" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W185" s="51"/>
+      <c r="W185" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="186" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="92"/>
@@ -8757,6 +8858,9 @@
       </c>
       <c r="U186" s="43"/>
       <c r="V186" s="43"/>
+      <c r="W186" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="187" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="92"/>
@@ -8796,6 +8900,9 @@
         <v>0</v>
       </c>
       <c r="V187" s="43"/>
+      <c r="W187" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="188" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="92"/>
@@ -8835,6 +8942,9 @@
       <c r="V188" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W188" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="189" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="92"/>
@@ -8874,6 +8984,9 @@
       </c>
       <c r="U189" s="43"/>
       <c r="V189" s="43"/>
+      <c r="W189" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="190" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="92"/>
@@ -8913,7 +9026,9 @@
         <v>0</v>
       </c>
       <c r="V190" s="43"/>
-      <c r="W190" s="51"/>
+      <c r="W190" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="191" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="92"/>
@@ -8953,7 +9068,9 @@
       <c r="V191" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W191" s="51"/>
+      <c r="W191" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="192" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="92"/>
@@ -8993,9 +9110,11 @@
       </c>
       <c r="U192" s="43"/>
       <c r="V192" s="43"/>
-      <c r="W192" s="51"/>
-    </row>
-    <row r="193" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W192" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="92"/>
       <c r="C193" s="49">
         <v>191</v>
@@ -9033,8 +9152,11 @@
         <v>0</v>
       </c>
       <c r="V193" s="43"/>
-    </row>
-    <row r="194" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W193" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="92"/>
       <c r="C194" s="49">
         <v>192</v>
@@ -9072,8 +9194,11 @@
       <c r="V194" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W194" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="92"/>
       <c r="C195" s="49">
         <v>193</v>
@@ -9111,8 +9236,11 @@
       </c>
       <c r="U195" s="43"/>
       <c r="V195" s="43"/>
-    </row>
-    <row r="196" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W195" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="92"/>
       <c r="C196" s="49">
         <v>194</v>
@@ -9150,8 +9278,11 @@
         <v>0</v>
       </c>
       <c r="V196" s="43"/>
-    </row>
-    <row r="197" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W196" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="92"/>
       <c r="C197" s="49">
         <v>195</v>
@@ -9189,8 +9320,11 @@
       <c r="V197" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W197" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="92"/>
       <c r="C198" s="49">
         <v>196</v>
@@ -9228,8 +9362,11 @@
       </c>
       <c r="U198" s="43"/>
       <c r="V198" s="43"/>
-    </row>
-    <row r="199" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W198" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="92"/>
       <c r="C199" s="49">
         <v>197</v>
@@ -9267,8 +9404,11 @@
         <v>0</v>
       </c>
       <c r="V199" s="43"/>
-    </row>
-    <row r="200" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W199" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="92"/>
       <c r="C200" s="49">
         <v>198</v>
@@ -9306,8 +9446,11 @@
       <c r="V200" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W200" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="92"/>
       <c r="C201" s="49">
         <v>199</v>
@@ -9345,8 +9488,11 @@
       </c>
       <c r="U201" s="43"/>
       <c r="V201" s="43"/>
-    </row>
-    <row r="202" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W201" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="92"/>
       <c r="C202" s="49">
         <v>200</v>
@@ -9384,8 +9530,11 @@
         <v>0</v>
       </c>
       <c r="V202" s="43"/>
-    </row>
-    <row r="203" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W202" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="92"/>
       <c r="C203" s="49">
         <v>201</v>
@@ -9423,8 +9572,11 @@
       <c r="V203" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W203" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="92"/>
       <c r="C204" s="49">
         <v>202</v>
@@ -9462,8 +9614,11 @@
       </c>
       <c r="U204" s="43"/>
       <c r="V204" s="43"/>
-    </row>
-    <row r="205" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W204" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="92"/>
       <c r="C205" s="49">
         <v>203</v>
@@ -9501,8 +9656,11 @@
         <v>0</v>
       </c>
       <c r="V205" s="43"/>
-    </row>
-    <row r="206" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W205" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="92"/>
       <c r="C206" s="49">
         <v>204</v>
@@ -9540,8 +9698,11 @@
       <c r="V206" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W206" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="92"/>
       <c r="C207" s="49">
         <v>205</v>
@@ -9579,8 +9740,11 @@
       </c>
       <c r="U207" s="43"/>
       <c r="V207" s="43"/>
-    </row>
-    <row r="208" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W207" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="92"/>
       <c r="C208" s="49">
         <v>206</v>
@@ -9618,6 +9782,9 @@
         <v>0</v>
       </c>
       <c r="V208" s="43"/>
+      <c r="W208" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="209" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="92"/>
@@ -9657,6 +9824,9 @@
       <c r="V209" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W209" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="210" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="92"/>
@@ -9696,6 +9866,9 @@
       </c>
       <c r="U210" s="43"/>
       <c r="V210" s="43"/>
+      <c r="W210" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="211" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="92"/>
@@ -9735,6 +9908,9 @@
         <v>0</v>
       </c>
       <c r="V211" s="43"/>
+      <c r="W211" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="212" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="92"/>
@@ -9774,6 +9950,9 @@
       <c r="V212" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W212" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="213" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="92"/>
@@ -9813,6 +9992,9 @@
       </c>
       <c r="U213" s="43"/>
       <c r="V213" s="43"/>
+      <c r="W213" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="214" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="92"/>
@@ -9852,6 +10034,9 @@
         <v>0</v>
       </c>
       <c r="V214" s="43"/>
+      <c r="W214" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="215" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="92"/>
@@ -9891,6 +10076,9 @@
       <c r="V215" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W215" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="216" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="92"/>
@@ -9930,6 +10118,9 @@
       </c>
       <c r="U216" s="43"/>
       <c r="V216" s="43"/>
+      <c r="W216" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="217" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="92"/>
@@ -9969,6 +10160,9 @@
         <v>0</v>
       </c>
       <c r="V217" s="43"/>
+      <c r="W217" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="218" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="93"/>
@@ -10007,6 +10201,9 @@
       <c r="U218" s="43"/>
       <c r="V218" s="43" t="s">
         <v>0</v>
+      </c>
+      <c r="W218" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10049,7 +10246,9 @@
       </c>
       <c r="U219" s="43"/>
       <c r="V219" s="43"/>
-      <c r="W219" s="1"/>
+      <c r="W219" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="220" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="92"/>
@@ -10089,7 +10288,9 @@
         <v>0</v>
       </c>
       <c r="V220" s="43"/>
-      <c r="W220" s="1"/>
+      <c r="W220" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="221" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="92"/>
@@ -10129,7 +10330,9 @@
       <c r="V221" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W221" s="1"/>
+      <c r="W221" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="222" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="92"/>
@@ -10169,6 +10372,9 @@
       </c>
       <c r="U222" s="43"/>
       <c r="V222" s="43"/>
+      <c r="W222" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="223" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="92"/>
@@ -10208,6 +10414,9 @@
         <v>0</v>
       </c>
       <c r="V223" s="43"/>
+      <c r="W223" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="224" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="92"/>
@@ -10247,6 +10456,9 @@
       <c r="V224" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W224" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="225" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="92"/>
@@ -10286,7 +10498,9 @@
       </c>
       <c r="U225" s="43"/>
       <c r="V225" s="43"/>
-      <c r="W225" s="1"/>
+      <c r="W225" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="226" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="92"/>
@@ -10326,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="V226" s="43"/>
-      <c r="W226" s="1"/>
+      <c r="W226" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="227" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="92"/>
@@ -10366,7 +10582,9 @@
       <c r="V227" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W227" s="1"/>
+      <c r="W227" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="228" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="92"/>
@@ -10406,7 +10624,9 @@
       </c>
       <c r="U228" s="43"/>
       <c r="V228" s="43"/>
-      <c r="W228" s="1"/>
+      <c r="W228" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="229" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="92"/>
@@ -10446,7 +10666,9 @@
         <v>0</v>
       </c>
       <c r="V229" s="43"/>
-      <c r="W229" s="1"/>
+      <c r="W229" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="92"/>
@@ -10486,6 +10708,9 @@
       <c r="V230" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W230" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="231" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="92"/>
@@ -10525,6 +10750,9 @@
       </c>
       <c r="U231" s="43"/>
       <c r="V231" s="43"/>
+      <c r="W231" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="232" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="92"/>
@@ -10564,6 +10792,9 @@
         <v>0</v>
       </c>
       <c r="V232" s="43"/>
+      <c r="W232" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="233" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="92"/>
@@ -10603,6 +10834,9 @@
       <c r="V233" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W233" s="95" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="234" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="92"/>
@@ -10642,7 +10876,9 @@
       </c>
       <c r="U234" s="43"/>
       <c r="V234" s="43"/>
-      <c r="W234" s="1"/>
+      <c r="W234" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="235" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="92"/>
@@ -10682,7 +10918,9 @@
         <v>0</v>
       </c>
       <c r="V235" s="43"/>
-      <c r="W235" s="1"/>
+      <c r="W235" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="236" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="92"/>
@@ -10722,7 +10960,9 @@
       <c r="V236" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W236" s="1"/>
+      <c r="W236" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="237" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="92"/>
@@ -10762,6 +11002,9 @@
       </c>
       <c r="U237" s="43"/>
       <c r="V237" s="43"/>
+      <c r="W237" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="238" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="92"/>
@@ -10801,6 +11044,9 @@
         <v>0</v>
       </c>
       <c r="V238" s="43"/>
+      <c r="W238" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="239" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="92"/>
@@ -10840,6 +11086,9 @@
       <c r="V239" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="W239" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="240" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="92"/>
@@ -10879,8 +11128,11 @@
       </c>
       <c r="U240" s="43"/>
       <c r="V240" s="43"/>
-    </row>
-    <row r="241" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W240" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="92"/>
       <c r="C241" s="49">
         <v>239</v>
@@ -10918,8 +11170,11 @@
         <v>0</v>
       </c>
       <c r="V241" s="43"/>
-    </row>
-    <row r="242" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W241" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="92"/>
       <c r="C242" s="49">
         <v>240</v>
@@ -10957,8 +11212,11 @@
       <c r="V242" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W242" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="92"/>
       <c r="C243" s="49">
         <v>241</v>
@@ -10996,8 +11254,11 @@
       </c>
       <c r="U243" s="43"/>
       <c r="V243" s="43"/>
-    </row>
-    <row r="244" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W243" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="92"/>
       <c r="C244" s="49">
         <v>242</v>
@@ -11035,8 +11296,11 @@
         <v>0</v>
       </c>
       <c r="V244" s="43"/>
-    </row>
-    <row r="245" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W244" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="92"/>
       <c r="C245" s="49">
         <v>243</v>
@@ -11074,8 +11338,11 @@
       <c r="V245" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W245" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="92"/>
       <c r="C246" s="49">
         <v>244</v>
@@ -11113,8 +11380,11 @@
       </c>
       <c r="U246" s="43"/>
       <c r="V246" s="43"/>
-    </row>
-    <row r="247" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W246" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="92"/>
       <c r="C247" s="49">
         <v>245</v>
@@ -11152,8 +11422,11 @@
         <v>0</v>
       </c>
       <c r="V247" s="43"/>
-    </row>
-    <row r="248" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W247" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="92"/>
       <c r="C248" s="49">
         <v>246</v>
@@ -11191,8 +11464,11 @@
       <c r="V248" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W248" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="92"/>
       <c r="C249" s="49">
         <v>247</v>
@@ -11230,8 +11506,11 @@
       </c>
       <c r="U249" s="43"/>
       <c r="V249" s="43"/>
-    </row>
-    <row r="250" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W249" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="92"/>
       <c r="C250" s="49">
         <v>248</v>
@@ -11269,8 +11548,11 @@
         <v>0</v>
       </c>
       <c r="V250" s="43"/>
-    </row>
-    <row r="251" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W250" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="92"/>
       <c r="C251" s="49">
         <v>249</v>
@@ -11308,8 +11590,11 @@
       <c r="V251" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W251" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="92"/>
       <c r="C252" s="49">
         <v>250</v>
@@ -11347,8 +11632,11 @@
       </c>
       <c r="U252" s="43"/>
       <c r="V252" s="43"/>
-    </row>
-    <row r="253" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W252" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="92"/>
       <c r="C253" s="49">
         <v>251</v>
@@ -11386,8 +11674,11 @@
         <v>0</v>
       </c>
       <c r="V253" s="43"/>
-    </row>
-    <row r="254" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W253" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="92"/>
       <c r="C254" s="49">
         <v>252</v>
@@ -11425,8 +11716,11 @@
       <c r="V254" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W254" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="92"/>
       <c r="C255" s="49">
         <v>253</v>
@@ -11464,8 +11758,11 @@
       </c>
       <c r="U255" s="43"/>
       <c r="V255" s="43"/>
-    </row>
-    <row r="256" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W255" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="92"/>
       <c r="C256" s="49">
         <v>254</v>
@@ -11503,8 +11800,11 @@
         <v>0</v>
       </c>
       <c r="V256" s="43"/>
-    </row>
-    <row r="257" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W256" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="92"/>
       <c r="C257" s="49">
         <v>255</v>
@@ -11542,8 +11842,11 @@
       <c r="V257" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W257" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="92"/>
       <c r="C258" s="49">
         <v>256</v>
@@ -11581,8 +11884,11 @@
       </c>
       <c r="U258" s="43"/>
       <c r="V258" s="43"/>
-    </row>
-    <row r="259" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W258" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="92"/>
       <c r="C259" s="49">
         <v>257</v>
@@ -11620,8 +11926,11 @@
         <v>0</v>
       </c>
       <c r="V259" s="43"/>
-    </row>
-    <row r="260" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W259" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="92"/>
       <c r="C260" s="49">
         <v>258</v>
@@ -11659,8 +11968,11 @@
       <c r="V260" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W260" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="92"/>
       <c r="C261" s="49">
         <v>259</v>
@@ -11698,8 +12010,11 @@
       </c>
       <c r="U261" s="43"/>
       <c r="V261" s="43"/>
-    </row>
-    <row r="262" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W261" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="92"/>
       <c r="C262" s="49">
         <v>260</v>
@@ -11737,8 +12052,11 @@
         <v>0</v>
       </c>
       <c r="V262" s="43"/>
-    </row>
-    <row r="263" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W262" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="92"/>
       <c r="C263" s="49">
         <v>261</v>
@@ -11776,8 +12094,11 @@
       <c r="V263" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W263" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="92"/>
       <c r="C264" s="49">
         <v>262</v>
@@ -11815,8 +12136,11 @@
       </c>
       <c r="U264" s="43"/>
       <c r="V264" s="43"/>
-    </row>
-    <row r="265" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W264" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="92"/>
       <c r="C265" s="49">
         <v>263</v>
@@ -11854,8 +12178,11 @@
         <v>0</v>
       </c>
       <c r="V265" s="43"/>
-    </row>
-    <row r="266" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W265" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="92"/>
       <c r="C266" s="49">
         <v>264</v>
@@ -11893,8 +12220,11 @@
       <c r="V266" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W266" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="92"/>
       <c r="C267" s="49">
         <v>265</v>
@@ -11932,8 +12262,11 @@
       </c>
       <c r="U267" s="43"/>
       <c r="V267" s="43"/>
-    </row>
-    <row r="268" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W267" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="92"/>
       <c r="C268" s="49">
         <v>266</v>
@@ -11971,8 +12304,11 @@
         <v>0</v>
       </c>
       <c r="V268" s="43"/>
-    </row>
-    <row r="269" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W268" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="92"/>
       <c r="C269" s="49">
         <v>267</v>
@@ -12010,8 +12346,11 @@
       <c r="V269" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W269" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="92"/>
       <c r="C270" s="49">
         <v>268</v>
@@ -12049,8 +12388,11 @@
       </c>
       <c r="U270" s="43"/>
       <c r="V270" s="43"/>
-    </row>
-    <row r="271" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W270" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="92"/>
       <c r="C271" s="49">
         <v>269</v>
@@ -12088,8 +12430,11 @@
         <v>0</v>
       </c>
       <c r="V271" s="43"/>
-    </row>
-    <row r="272" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W271" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="92"/>
       <c r="C272" s="49">
         <v>270</v>
@@ -12127,8 +12472,11 @@
       <c r="V272" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W272" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="92"/>
       <c r="C273" s="49">
         <v>271</v>
@@ -12166,8 +12514,11 @@
       </c>
       <c r="U273" s="43"/>
       <c r="V273" s="43"/>
-    </row>
-    <row r="274" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W273" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="92"/>
       <c r="C274" s="49">
         <v>272</v>
@@ -12205,8 +12556,11 @@
         <v>0</v>
       </c>
       <c r="V274" s="43"/>
-    </row>
-    <row r="275" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W274" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="92"/>
       <c r="C275" s="49">
         <v>273</v>
@@ -12244,8 +12598,11 @@
       <c r="V275" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W275" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="92"/>
       <c r="C276" s="49">
         <v>274</v>
@@ -12283,8 +12640,11 @@
       </c>
       <c r="U276" s="43"/>
       <c r="V276" s="43"/>
-    </row>
-    <row r="277" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W276" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="92"/>
       <c r="C277" s="49">
         <v>275</v>
@@ -12322,8 +12682,11 @@
         <v>0</v>
       </c>
       <c r="V277" s="43"/>
-    </row>
-    <row r="278" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W277" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="92"/>
       <c r="C278" s="49">
         <v>276</v>
@@ -12361,8 +12724,11 @@
       <c r="V278" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W278" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="92"/>
       <c r="C279" s="49">
         <v>277</v>
@@ -12400,8 +12766,11 @@
       </c>
       <c r="U279" s="43"/>
       <c r="V279" s="43"/>
-    </row>
-    <row r="280" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W279" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="92"/>
       <c r="C280" s="49">
         <v>278</v>
@@ -12439,8 +12808,11 @@
         <v>0</v>
       </c>
       <c r="V280" s="43"/>
-    </row>
-    <row r="281" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W280" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="92"/>
       <c r="C281" s="49">
         <v>279</v>
@@ -12478,8 +12850,11 @@
       <c r="V281" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W281" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="92"/>
       <c r="C282" s="49">
         <v>280</v>
@@ -12517,8 +12892,11 @@
       </c>
       <c r="U282" s="43"/>
       <c r="V282" s="43"/>
-    </row>
-    <row r="283" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W282" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="92"/>
       <c r="C283" s="49">
         <v>281</v>
@@ -12556,8 +12934,11 @@
         <v>0</v>
       </c>
       <c r="V283" s="43"/>
-    </row>
-    <row r="284" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W283" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="92"/>
       <c r="C284" s="49">
         <v>282</v>
@@ -12595,8 +12976,11 @@
       <c r="V284" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W284" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="92"/>
       <c r="C285" s="49">
         <v>283</v>
@@ -12634,8 +13018,11 @@
       </c>
       <c r="U285" s="43"/>
       <c r="V285" s="43"/>
-    </row>
-    <row r="286" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W285" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="92"/>
       <c r="C286" s="49">
         <v>284</v>
@@ -12673,8 +13060,11 @@
         <v>0</v>
       </c>
       <c r="V286" s="43"/>
-    </row>
-    <row r="287" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W286" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="92"/>
       <c r="C287" s="49">
         <v>285</v>
@@ -12712,8 +13102,11 @@
       <c r="V287" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W287" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="92"/>
       <c r="C288" s="49">
         <v>286</v>
@@ -12751,8 +13144,11 @@
       </c>
       <c r="U288" s="43"/>
       <c r="V288" s="43"/>
-    </row>
-    <row r="289" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W288" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="92"/>
       <c r="C289" s="49">
         <v>287</v>
@@ -12790,8 +13186,11 @@
         <v>0</v>
       </c>
       <c r="V289" s="43"/>
-    </row>
-    <row r="290" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W289" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="92"/>
       <c r="C290" s="49">
         <v>288</v>
@@ -12829,8 +13228,11 @@
       <c r="V290" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W290" s="95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="92"/>
       <c r="C291" s="49">
         <v>289</v>
@@ -12868,8 +13270,11 @@
       </c>
       <c r="U291" s="43"/>
       <c r="V291" s="43"/>
-    </row>
-    <row r="292" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W291" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="92"/>
       <c r="C292" s="49">
         <v>290</v>
@@ -12907,8 +13312,11 @@
         <v>0</v>
       </c>
       <c r="V292" s="43"/>
-    </row>
-    <row r="293" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W292" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="92"/>
       <c r="C293" s="49">
         <v>291</v>
@@ -12946,8 +13354,11 @@
       <c r="V293" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W293" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="92"/>
       <c r="C294" s="49">
         <v>292</v>
@@ -12985,8 +13396,11 @@
       </c>
       <c r="U294" s="43"/>
       <c r="V294" s="43"/>
-    </row>
-    <row r="295" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W294" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="92"/>
       <c r="C295" s="49">
         <v>293</v>
@@ -13024,8 +13438,11 @@
         <v>0</v>
       </c>
       <c r="V295" s="43"/>
-    </row>
-    <row r="296" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W295" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="92"/>
       <c r="C296" s="49">
         <v>294</v>
@@ -13063,8 +13480,11 @@
       <c r="V296" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W296" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="92"/>
       <c r="C297" s="49">
         <v>295</v>
@@ -13102,8 +13522,11 @@
       </c>
       <c r="U297" s="43"/>
       <c r="V297" s="43"/>
-    </row>
-    <row r="298" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W297" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="92"/>
       <c r="C298" s="49">
         <v>296</v>
@@ -13141,8 +13564,11 @@
         <v>0</v>
       </c>
       <c r="V298" s="43"/>
-    </row>
-    <row r="299" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W298" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="92"/>
       <c r="C299" s="49">
         <v>297</v>
@@ -13180,8 +13606,11 @@
       <c r="V299" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W299" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="92"/>
       <c r="C300" s="49">
         <v>298</v>
@@ -13219,8 +13648,11 @@
       </c>
       <c r="U300" s="43"/>
       <c r="V300" s="43"/>
-    </row>
-    <row r="301" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W300" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="92"/>
       <c r="C301" s="49">
         <v>299</v>
@@ -13258,8 +13690,11 @@
         <v>0</v>
       </c>
       <c r="V301" s="43"/>
-    </row>
-    <row r="302" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W301" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="302" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="92"/>
       <c r="C302" s="49">
         <v>300</v>
@@ -13297,8 +13732,11 @@
       <c r="V302" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W302" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="92"/>
       <c r="C303" s="49">
         <v>301</v>
@@ -13336,8 +13774,11 @@
       </c>
       <c r="U303" s="43"/>
       <c r="V303" s="43"/>
-    </row>
-    <row r="304" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W303" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="92"/>
       <c r="C304" s="49">
         <v>302</v>
@@ -13375,8 +13816,11 @@
         <v>0</v>
       </c>
       <c r="V304" s="43"/>
-    </row>
-    <row r="305" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W304" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="92"/>
       <c r="C305" s="49">
         <v>303</v>
@@ -13414,8 +13858,11 @@
       <c r="V305" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W305" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="306" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="92"/>
       <c r="C306" s="49">
         <v>304</v>
@@ -13453,8 +13900,11 @@
       </c>
       <c r="U306" s="43"/>
       <c r="V306" s="43"/>
-    </row>
-    <row r="307" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W306" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="92"/>
       <c r="C307" s="49">
         <v>305</v>
@@ -13492,8 +13942,11 @@
         <v>0</v>
       </c>
       <c r="V307" s="43"/>
-    </row>
-    <row r="308" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W307" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="92"/>
       <c r="C308" s="49">
         <v>306</v>
@@ -13531,8 +13984,11 @@
       <c r="V308" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W308" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="92"/>
       <c r="C309" s="49">
         <v>307</v>
@@ -13570,8 +14026,11 @@
       </c>
       <c r="U309" s="43"/>
       <c r="V309" s="43"/>
-    </row>
-    <row r="310" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W309" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="310" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="92"/>
       <c r="C310" s="49">
         <v>308</v>
@@ -13609,8 +14068,11 @@
         <v>0</v>
       </c>
       <c r="V310" s="43"/>
-    </row>
-    <row r="311" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W310" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="92"/>
       <c r="C311" s="49">
         <v>309</v>
@@ -13648,8 +14110,11 @@
       <c r="V311" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W311" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="92"/>
       <c r="C312" s="49">
         <v>310</v>
@@ -13687,8 +14152,11 @@
       </c>
       <c r="U312" s="43"/>
       <c r="V312" s="43"/>
-    </row>
-    <row r="313" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W312" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="92"/>
       <c r="C313" s="49">
         <v>311</v>
@@ -13726,8 +14194,11 @@
         <v>0</v>
       </c>
       <c r="V313" s="43"/>
-    </row>
-    <row r="314" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W313" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="92"/>
       <c r="C314" s="49">
         <v>312</v>
@@ -13765,8 +14236,11 @@
       <c r="V314" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W314" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="92"/>
       <c r="C315" s="49">
         <v>313</v>
@@ -13804,8 +14278,11 @@
       </c>
       <c r="U315" s="43"/>
       <c r="V315" s="43"/>
-    </row>
-    <row r="316" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W315" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="316" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="92"/>
       <c r="C316" s="49">
         <v>314</v>
@@ -13843,8 +14320,11 @@
         <v>0</v>
       </c>
       <c r="V316" s="43"/>
-    </row>
-    <row r="317" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W316" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="92"/>
       <c r="C317" s="49">
         <v>315</v>
@@ -13882,8 +14362,11 @@
       <c r="V317" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W317" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="92"/>
       <c r="C318" s="49">
         <v>316</v>
@@ -13921,8 +14404,11 @@
       </c>
       <c r="U318" s="43"/>
       <c r="V318" s="43"/>
-    </row>
-    <row r="319" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W318" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="319" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="92"/>
       <c r="C319" s="49">
         <v>317</v>
@@ -13960,8 +14446,11 @@
         <v>0</v>
       </c>
       <c r="V319" s="43"/>
-    </row>
-    <row r="320" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W319" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="92"/>
       <c r="C320" s="49">
         <v>318</v>
@@ -13999,8 +14488,11 @@
       <c r="V320" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W320" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="321" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="92"/>
       <c r="C321" s="49">
         <v>319</v>
@@ -14038,8 +14530,11 @@
       </c>
       <c r="U321" s="43"/>
       <c r="V321" s="43"/>
-    </row>
-    <row r="322" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W321" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="92"/>
       <c r="C322" s="49">
         <v>320</v>
@@ -14077,8 +14572,11 @@
         <v>0</v>
       </c>
       <c r="V322" s="43"/>
-    </row>
-    <row r="323" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W322" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="92"/>
       <c r="C323" s="49">
         <v>321</v>
@@ -14116,8 +14614,11 @@
       <c r="V323" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W323" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="92"/>
       <c r="C324" s="49">
         <v>322</v>
@@ -14155,8 +14656,11 @@
       </c>
       <c r="U324" s="43"/>
       <c r="V324" s="43"/>
-    </row>
-    <row r="325" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W324" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="92"/>
       <c r="C325" s="49">
         <v>323</v>
@@ -14194,8 +14698,11 @@
         <v>0</v>
       </c>
       <c r="V325" s="43"/>
-    </row>
-    <row r="326" spans="2:22" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W325" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B326" s="93"/>
       <c r="C326" s="86">
         <v>324</v>
@@ -14233,8 +14740,11 @@
       <c r="V326" s="37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W326" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="89">
         <v>325</v>
       </c>
@@ -14271,8 +14781,11 @@
       </c>
       <c r="U327" s="23"/>
       <c r="V327" s="23"/>
-    </row>
-    <row r="328" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W327" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="87">
         <v>326</v>
       </c>
@@ -14309,8 +14822,11 @@
         <v>0</v>
       </c>
       <c r="V328" s="23"/>
-    </row>
-    <row r="329" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W328" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="87">
         <v>327</v>
       </c>
@@ -14347,8 +14863,11 @@
       <c r="V329" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W329" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="87">
         <v>328</v>
       </c>
@@ -14385,8 +14904,11 @@
       </c>
       <c r="U330" s="23"/>
       <c r="V330" s="23"/>
-    </row>
-    <row r="331" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W330" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="87">
         <v>329</v>
       </c>
@@ -14423,8 +14945,11 @@
         <v>0</v>
       </c>
       <c r="V331" s="23"/>
-    </row>
-    <row r="332" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W331" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="87">
         <v>330</v>
       </c>
@@ -14461,8 +14986,11 @@
       <c r="V332" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W332" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="87">
         <v>331</v>
       </c>
@@ -14499,8 +15027,11 @@
       </c>
       <c r="U333" s="23"/>
       <c r="V333" s="23"/>
-    </row>
-    <row r="334" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W333" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="87">
         <v>332</v>
       </c>
@@ -14537,8 +15068,11 @@
         <v>0</v>
       </c>
       <c r="V334" s="23"/>
-    </row>
-    <row r="335" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W334" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="87">
         <v>333</v>
       </c>
@@ -14575,8 +15109,11 @@
       <c r="V335" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W335" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="87">
         <v>334</v>
       </c>
@@ -14613,8 +15150,11 @@
       </c>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-    </row>
-    <row r="337" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W336" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="87">
         <v>335</v>
       </c>
@@ -14651,8 +15191,11 @@
         <v>0</v>
       </c>
       <c r="V337" s="23"/>
-    </row>
-    <row r="338" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W337" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="87">
         <v>336</v>
       </c>
@@ -14689,8 +15232,11 @@
       <c r="V338" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W338" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="87">
         <v>337</v>
       </c>
@@ -14727,8 +15273,11 @@
       </c>
       <c r="U339" s="23"/>
       <c r="V339" s="23"/>
-    </row>
-    <row r="340" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W339" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="87">
         <v>338</v>
       </c>
@@ -14765,8 +15314,11 @@
         <v>0</v>
       </c>
       <c r="V340" s="23"/>
-    </row>
-    <row r="341" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W340" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="87">
         <v>339</v>
       </c>
@@ -14803,8 +15355,11 @@
       <c r="V341" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W341" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="87">
         <v>340</v>
       </c>
@@ -14841,8 +15396,11 @@
       </c>
       <c r="U342" s="23"/>
       <c r="V342" s="23"/>
-    </row>
-    <row r="343" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W342" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="87">
         <v>341</v>
       </c>
@@ -14879,8 +15437,11 @@
         <v>0</v>
       </c>
       <c r="V343" s="23"/>
-    </row>
-    <row r="344" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W343" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="87">
         <v>342</v>
       </c>
@@ -14917,8 +15478,11 @@
       <c r="V344" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W344" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="87">
         <v>343</v>
       </c>
@@ -14955,8 +15519,11 @@
       </c>
       <c r="U345" s="23"/>
       <c r="V345" s="23"/>
-    </row>
-    <row r="346" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W345" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="87">
         <v>344</v>
       </c>
@@ -14993,8 +15560,11 @@
         <v>0</v>
       </c>
       <c r="V346" s="23"/>
-    </row>
-    <row r="347" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W346" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="87">
         <v>345</v>
       </c>
@@ -15031,8 +15601,11 @@
       <c r="V347" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W347" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="87">
         <v>346</v>
       </c>
@@ -15069,8 +15642,11 @@
       </c>
       <c r="U348" s="23"/>
       <c r="V348" s="23"/>
-    </row>
-    <row r="349" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W348" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="87">
         <v>347</v>
       </c>
@@ -15107,8 +15683,11 @@
         <v>0</v>
       </c>
       <c r="V349" s="23"/>
-    </row>
-    <row r="350" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W349" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="87">
         <v>348</v>
       </c>
@@ -15145,8 +15724,11 @@
       <c r="V350" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W350" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="87">
         <v>349</v>
       </c>
@@ -15183,8 +15765,11 @@
       </c>
       <c r="U351" s="23"/>
       <c r="V351" s="23"/>
-    </row>
-    <row r="352" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W351" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="87">
         <v>350</v>
       </c>
@@ -15221,8 +15806,11 @@
         <v>0</v>
       </c>
       <c r="V352" s="23"/>
-    </row>
-    <row r="353" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W352" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="87">
         <v>351</v>
       </c>
@@ -15259,8 +15847,11 @@
       <c r="V353" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W353" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="87">
         <v>352</v>
       </c>
@@ -15297,8 +15888,11 @@
       </c>
       <c r="U354" s="23"/>
       <c r="V354" s="23"/>
-    </row>
-    <row r="355" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W354" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="87">
         <v>353</v>
       </c>
@@ -15335,8 +15929,11 @@
         <v>0</v>
       </c>
       <c r="V355" s="23"/>
-    </row>
-    <row r="356" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W355" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="87">
         <v>354</v>
       </c>
@@ -15373,8 +15970,11 @@
       <c r="V356" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W356" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="87">
         <v>355</v>
       </c>
@@ -15411,8 +16011,11 @@
       </c>
       <c r="U357" s="23"/>
       <c r="V357" s="23"/>
-    </row>
-    <row r="358" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W357" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="87">
         <v>356</v>
       </c>
@@ -15449,8 +16052,11 @@
         <v>0</v>
       </c>
       <c r="V358" s="23"/>
-    </row>
-    <row r="359" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W358" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="87">
         <v>357</v>
       </c>
@@ -15487,8 +16093,11 @@
       <c r="V359" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W359" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="87">
         <v>358</v>
       </c>
@@ -15525,8 +16134,11 @@
       </c>
       <c r="U360" s="23"/>
       <c r="V360" s="23"/>
-    </row>
-    <row r="361" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W360" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="87">
         <v>359</v>
       </c>
@@ -15563,8 +16175,11 @@
         <v>0</v>
       </c>
       <c r="V361" s="23"/>
-    </row>
-    <row r="362" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W361" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="87">
         <v>360</v>
       </c>
@@ -15601,8 +16216,11 @@
       <c r="V362" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W362" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="87">
         <v>361</v>
       </c>
@@ -15639,8 +16257,11 @@
       </c>
       <c r="U363" s="23"/>
       <c r="V363" s="23"/>
-    </row>
-    <row r="364" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W363" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="87">
         <v>362</v>
       </c>
@@ -15677,8 +16298,11 @@
         <v>0</v>
       </c>
       <c r="V364" s="23"/>
-    </row>
-    <row r="365" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W364" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="87">
         <v>363</v>
       </c>
@@ -15715,8 +16339,11 @@
       <c r="V365" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W365" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="87">
         <v>364</v>
       </c>
@@ -15753,8 +16380,11 @@
       </c>
       <c r="U366" s="23"/>
       <c r="V366" s="23"/>
-    </row>
-    <row r="367" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W366" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="87">
         <v>365</v>
       </c>
@@ -15791,8 +16421,11 @@
         <v>0</v>
       </c>
       <c r="V367" s="23"/>
-    </row>
-    <row r="368" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W367" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="87">
         <v>366</v>
       </c>
@@ -15829,8 +16462,11 @@
       <c r="V368" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W368" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="87">
         <v>367</v>
       </c>
@@ -15867,8 +16503,11 @@
       </c>
       <c r="U369" s="23"/>
       <c r="V369" s="23"/>
-    </row>
-    <row r="370" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W369" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="87">
         <v>368</v>
       </c>
@@ -15905,8 +16544,11 @@
         <v>0</v>
       </c>
       <c r="V370" s="23"/>
-    </row>
-    <row r="371" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W370" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="87">
         <v>369</v>
       </c>
@@ -15943,8 +16585,11 @@
       <c r="V371" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W371" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="87">
         <v>370</v>
       </c>
@@ -15981,8 +16626,11 @@
       </c>
       <c r="U372" s="23"/>
       <c r="V372" s="23"/>
-    </row>
-    <row r="373" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W372" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="87">
         <v>371</v>
       </c>
@@ -16019,8 +16667,11 @@
         <v>0</v>
       </c>
       <c r="V373" s="23"/>
-    </row>
-    <row r="374" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W373" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="87">
         <v>372</v>
       </c>
@@ -16057,8 +16708,11 @@
       <c r="V374" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W374" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="87">
         <v>373</v>
       </c>
@@ -16095,8 +16749,11 @@
       </c>
       <c r="U375" s="23"/>
       <c r="V375" s="23"/>
-    </row>
-    <row r="376" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W375" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="87">
         <v>374</v>
       </c>
@@ -16133,8 +16790,11 @@
         <v>0</v>
       </c>
       <c r="V376" s="23"/>
-    </row>
-    <row r="377" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W376" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="87">
         <v>375</v>
       </c>
@@ -16171,8 +16831,11 @@
       <c r="V377" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W377" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="87">
         <v>376</v>
       </c>
@@ -16209,8 +16872,11 @@
       </c>
       <c r="U378" s="23"/>
       <c r="V378" s="23"/>
-    </row>
-    <row r="379" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W378" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="87">
         <v>377</v>
       </c>
@@ -16247,8 +16913,11 @@
         <v>0</v>
       </c>
       <c r="V379" s="23"/>
-    </row>
-    <row r="380" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W379" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="87">
         <v>378</v>
       </c>
@@ -16285,8 +16954,11 @@
       <c r="V380" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W380" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="87">
         <v>379</v>
       </c>
@@ -16323,8 +16995,11 @@
       </c>
       <c r="U381" s="23"/>
       <c r="V381" s="23"/>
-    </row>
-    <row r="382" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W381" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="87">
         <v>380</v>
       </c>
@@ -16361,8 +17036,11 @@
         <v>0</v>
       </c>
       <c r="V382" s="23"/>
-    </row>
-    <row r="383" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W382" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="87">
         <v>381</v>
       </c>
@@ -16399,8 +17077,11 @@
       <c r="V383" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W383" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="87">
         <v>382</v>
       </c>
@@ -16437,8 +17118,11 @@
       </c>
       <c r="U384" s="23"/>
       <c r="V384" s="23"/>
-    </row>
-    <row r="385" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W384" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="87">
         <v>383</v>
       </c>
@@ -16475,8 +17159,11 @@
         <v>0</v>
       </c>
       <c r="V385" s="23"/>
-    </row>
-    <row r="386" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W385" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="87">
         <v>384</v>
       </c>
@@ -16513,8 +17200,11 @@
       <c r="V386" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W386" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="87">
         <v>385</v>
       </c>
@@ -16551,8 +17241,11 @@
       </c>
       <c r="U387" s="23"/>
       <c r="V387" s="23"/>
-    </row>
-    <row r="388" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W387" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="388" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="87">
         <v>386</v>
       </c>
@@ -16589,8 +17282,11 @@
         <v>0</v>
       </c>
       <c r="V388" s="23"/>
-    </row>
-    <row r="389" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W388" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="87">
         <v>387</v>
       </c>
@@ -16627,8 +17323,11 @@
       <c r="V389" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W389" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="87">
         <v>388</v>
       </c>
@@ -16665,8 +17364,11 @@
       </c>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-    </row>
-    <row r="391" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W390" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="87">
         <v>389</v>
       </c>
@@ -16703,8 +17405,11 @@
         <v>0</v>
       </c>
       <c r="V391" s="23"/>
-    </row>
-    <row r="392" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W391" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="87">
         <v>390</v>
       </c>
@@ -16741,8 +17446,11 @@
       <c r="V392" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W392" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="87">
         <v>391</v>
       </c>
@@ -16779,8 +17487,11 @@
       </c>
       <c r="U393" s="23"/>
       <c r="V393" s="23"/>
-    </row>
-    <row r="394" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W393" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="87">
         <v>392</v>
       </c>
@@ -16817,8 +17528,11 @@
         <v>0</v>
       </c>
       <c r="V394" s="23"/>
-    </row>
-    <row r="395" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W394" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="87">
         <v>393</v>
       </c>
@@ -16855,8 +17569,11 @@
       <c r="V395" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W395" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="87">
         <v>394</v>
       </c>
@@ -16893,8 +17610,11 @@
       </c>
       <c r="U396" s="23"/>
       <c r="V396" s="23"/>
-    </row>
-    <row r="397" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W396" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="87">
         <v>395</v>
       </c>
@@ -16931,8 +17651,11 @@
         <v>0</v>
       </c>
       <c r="V397" s="23"/>
-    </row>
-    <row r="398" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W397" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="87">
         <v>396</v>
       </c>
@@ -16969,8 +17692,11 @@
       <c r="V398" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W398" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="87">
         <v>397</v>
       </c>
@@ -17007,8 +17733,11 @@
       </c>
       <c r="U399" s="23"/>
       <c r="V399" s="23"/>
-    </row>
-    <row r="400" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W399" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="87">
         <v>398</v>
       </c>
@@ -17045,8 +17774,11 @@
         <v>0</v>
       </c>
       <c r="V400" s="23"/>
-    </row>
-    <row r="401" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W400" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="87">
         <v>399</v>
       </c>
@@ -17083,8 +17815,11 @@
       <c r="V401" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W401" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="87">
         <v>400</v>
       </c>
@@ -17121,8 +17856,11 @@
       </c>
       <c r="U402" s="23"/>
       <c r="V402" s="23"/>
-    </row>
-    <row r="403" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W402" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="87">
         <v>401</v>
       </c>
@@ -17159,8 +17897,11 @@
         <v>0</v>
       </c>
       <c r="V403" s="23"/>
-    </row>
-    <row r="404" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W403" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="87">
         <v>402</v>
       </c>
@@ -17197,8 +17938,11 @@
       <c r="V404" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W404" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="87">
         <v>403</v>
       </c>
@@ -17235,8 +17979,11 @@
       </c>
       <c r="U405" s="23"/>
       <c r="V405" s="23"/>
-    </row>
-    <row r="406" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W405" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="87">
         <v>404</v>
       </c>
@@ -17273,8 +18020,11 @@
         <v>0</v>
       </c>
       <c r="V406" s="23"/>
-    </row>
-    <row r="407" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W406" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="407" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="87">
         <v>405</v>
       </c>
@@ -17311,8 +18061,11 @@
       <c r="V407" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W407" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="408" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="87">
         <v>406</v>
       </c>
@@ -17349,8 +18102,11 @@
       </c>
       <c r="U408" s="23"/>
       <c r="V408" s="23"/>
-    </row>
-    <row r="409" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W408" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="87">
         <v>407</v>
       </c>
@@ -17387,8 +18143,11 @@
         <v>0</v>
       </c>
       <c r="V409" s="23"/>
-    </row>
-    <row r="410" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W409" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="410" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="87">
         <v>408</v>
       </c>
@@ -17425,8 +18184,11 @@
       <c r="V410" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W410" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="87">
         <v>409</v>
       </c>
@@ -17463,8 +18225,11 @@
       </c>
       <c r="U411" s="23"/>
       <c r="V411" s="23"/>
-    </row>
-    <row r="412" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W411" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="87">
         <v>410</v>
       </c>
@@ -17501,8 +18266,11 @@
         <v>0</v>
       </c>
       <c r="V412" s="23"/>
-    </row>
-    <row r="413" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W412" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="87">
         <v>411</v>
       </c>
@@ -17539,8 +18307,11 @@
       <c r="V413" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W413" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="87">
         <v>412</v>
       </c>
@@ -17577,8 +18348,11 @@
       </c>
       <c r="U414" s="23"/>
       <c r="V414" s="23"/>
-    </row>
-    <row r="415" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W414" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="415" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="87">
         <v>413</v>
       </c>
@@ -17615,8 +18389,11 @@
         <v>0</v>
       </c>
       <c r="V415" s="23"/>
-    </row>
-    <row r="416" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W415" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="87">
         <v>414</v>
       </c>
@@ -17653,8 +18430,11 @@
       <c r="V416" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W416" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="87">
         <v>415</v>
       </c>
@@ -17691,8 +18471,11 @@
       </c>
       <c r="U417" s="23"/>
       <c r="V417" s="23"/>
-    </row>
-    <row r="418" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W417" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="87">
         <v>416</v>
       </c>
@@ -17729,8 +18512,11 @@
         <v>0</v>
       </c>
       <c r="V418" s="23"/>
-    </row>
-    <row r="419" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W418" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="87">
         <v>417</v>
       </c>
@@ -17767,8 +18553,11 @@
       <c r="V419" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W419" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="87">
         <v>418</v>
       </c>
@@ -17805,8 +18594,11 @@
       </c>
       <c r="U420" s="23"/>
       <c r="V420" s="23"/>
-    </row>
-    <row r="421" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W420" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="421" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="87">
         <v>419</v>
       </c>
@@ -17843,8 +18635,11 @@
         <v>0</v>
       </c>
       <c r="V421" s="23"/>
-    </row>
-    <row r="422" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W421" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="87">
         <v>420</v>
       </c>
@@ -17881,8 +18676,11 @@
       <c r="V422" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W422" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="87">
         <v>421</v>
       </c>
@@ -17919,8 +18717,11 @@
       </c>
       <c r="U423" s="23"/>
       <c r="V423" s="23"/>
-    </row>
-    <row r="424" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W423" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="87">
         <v>422</v>
       </c>
@@ -17957,8 +18758,11 @@
         <v>0</v>
       </c>
       <c r="V424" s="23"/>
-    </row>
-    <row r="425" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W424" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="87">
         <v>423</v>
       </c>
@@ -17995,8 +18799,11 @@
       <c r="V425" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W425" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="87">
         <v>424</v>
       </c>
@@ -18033,8 +18840,11 @@
       </c>
       <c r="U426" s="23"/>
       <c r="V426" s="23"/>
-    </row>
-    <row r="427" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W426" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="87">
         <v>425</v>
       </c>
@@ -18071,8 +18881,11 @@
         <v>0</v>
       </c>
       <c r="V427" s="23"/>
-    </row>
-    <row r="428" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W427" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="87">
         <v>426</v>
       </c>
@@ -18109,8 +18922,11 @@
       <c r="V428" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W428" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="87">
         <v>427</v>
       </c>
@@ -18147,8 +18963,11 @@
       </c>
       <c r="U429" s="23"/>
       <c r="V429" s="23"/>
-    </row>
-    <row r="430" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W429" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="430" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="87">
         <v>428</v>
       </c>
@@ -18185,8 +19004,11 @@
         <v>0</v>
       </c>
       <c r="V430" s="23"/>
-    </row>
-    <row r="431" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W430" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="87">
         <v>429</v>
       </c>
@@ -18223,8 +19045,11 @@
       <c r="V431" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W431" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="87">
         <v>430</v>
       </c>
@@ -18261,8 +19086,11 @@
       </c>
       <c r="U432" s="23"/>
       <c r="V432" s="23"/>
-    </row>
-    <row r="433" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W432" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="433" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="87">
         <v>431</v>
       </c>
@@ -18299,8 +19127,11 @@
         <v>0</v>
       </c>
       <c r="V433" s="23"/>
-    </row>
-    <row r="434" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W433" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="434" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="87">
         <v>432</v>
       </c>
@@ -18337,8 +19168,11 @@
       <c r="V434" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W434" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="87">
         <v>433</v>
       </c>
@@ -18375,8 +19209,11 @@
       </c>
       <c r="U435" s="30"/>
       <c r="V435" s="30"/>
-    </row>
-    <row r="436" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W435" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="87">
         <v>434</v>
       </c>
@@ -18413,8 +19250,11 @@
         <v>0</v>
       </c>
       <c r="V436" s="23"/>
-    </row>
-    <row r="437" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W436" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="437" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="87">
         <v>435</v>
       </c>
@@ -18451,8 +19291,11 @@
       <c r="V437" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W437" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="87">
         <v>436</v>
       </c>
@@ -18489,8 +19332,11 @@
       </c>
       <c r="U438" s="23"/>
       <c r="V438" s="23"/>
-    </row>
-    <row r="439" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W438" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="87">
         <v>437</v>
       </c>
@@ -18527,8 +19373,11 @@
         <v>0</v>
       </c>
       <c r="V439" s="23"/>
-    </row>
-    <row r="440" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W439" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="87">
         <v>438</v>
       </c>
@@ -18565,8 +19414,11 @@
       <c r="V440" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W440" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="87">
         <v>439</v>
       </c>
@@ -18603,8 +19455,11 @@
       </c>
       <c r="U441" s="23"/>
       <c r="V441" s="23"/>
-    </row>
-    <row r="442" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W441" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="87">
         <v>440</v>
       </c>
@@ -18641,8 +19496,11 @@
         <v>0</v>
       </c>
       <c r="V442" s="23"/>
-    </row>
-    <row r="443" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W442" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="87">
         <v>441</v>
       </c>
@@ -18679,8 +19537,11 @@
       <c r="V443" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W443" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="87">
         <v>442</v>
       </c>
@@ -18717,8 +19578,11 @@
       </c>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-    </row>
-    <row r="445" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W444" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="87">
         <v>443</v>
       </c>
@@ -18755,8 +19619,11 @@
         <v>0</v>
       </c>
       <c r="V445" s="23"/>
-    </row>
-    <row r="446" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W445" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="87">
         <v>444</v>
       </c>
@@ -18793,8 +19660,11 @@
       <c r="V446" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W446" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="87">
         <v>445</v>
       </c>
@@ -18831,8 +19701,11 @@
       </c>
       <c r="U447" s="23"/>
       <c r="V447" s="23"/>
-    </row>
-    <row r="448" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W447" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="448" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="87">
         <v>446</v>
       </c>
@@ -18869,8 +19742,11 @@
         <v>0</v>
       </c>
       <c r="V448" s="23"/>
-    </row>
-    <row r="449" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W448" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="87">
         <v>447</v>
       </c>
@@ -18907,8 +19783,11 @@
       <c r="V449" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W449" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="87">
         <v>448</v>
       </c>
@@ -18945,8 +19824,11 @@
       </c>
       <c r="U450" s="23"/>
       <c r="V450" s="23"/>
-    </row>
-    <row r="451" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W450" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="87">
         <v>449</v>
       </c>
@@ -18983,8 +19865,11 @@
         <v>0</v>
       </c>
       <c r="V451" s="23"/>
-    </row>
-    <row r="452" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W451" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="87">
         <v>450</v>
       </c>
@@ -19021,8 +19906,11 @@
       <c r="V452" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W452" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="87">
         <v>451</v>
       </c>
@@ -19059,8 +19947,11 @@
       </c>
       <c r="U453" s="23"/>
       <c r="V453" s="23"/>
-    </row>
-    <row r="454" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W453" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="87">
         <v>452</v>
       </c>
@@ -19097,8 +19988,11 @@
         <v>0</v>
       </c>
       <c r="V454" s="23"/>
-    </row>
-    <row r="455" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W454" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="87">
         <v>453</v>
       </c>
@@ -19135,8 +20029,11 @@
       <c r="V455" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W455" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="87">
         <v>454</v>
       </c>
@@ -19173,8 +20070,11 @@
       </c>
       <c r="U456" s="23"/>
       <c r="V456" s="23"/>
-    </row>
-    <row r="457" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W456" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="87">
         <v>455</v>
       </c>
@@ -19211,8 +20111,11 @@
         <v>0</v>
       </c>
       <c r="V457" s="23"/>
-    </row>
-    <row r="458" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W457" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="87">
         <v>456</v>
       </c>
@@ -19249,8 +20152,11 @@
       <c r="V458" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W458" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="87">
         <v>457</v>
       </c>
@@ -19287,8 +20193,11 @@
       </c>
       <c r="U459" s="23"/>
       <c r="V459" s="23"/>
-    </row>
-    <row r="460" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W459" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="87">
         <v>458</v>
       </c>
@@ -19325,8 +20234,11 @@
         <v>0</v>
       </c>
       <c r="V460" s="23"/>
-    </row>
-    <row r="461" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W460" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="87">
         <v>459</v>
       </c>
@@ -19363,8 +20275,11 @@
       <c r="V461" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W461" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="87">
         <v>460</v>
       </c>
@@ -19401,8 +20316,11 @@
       </c>
       <c r="U462" s="23"/>
       <c r="V462" s="23"/>
-    </row>
-    <row r="463" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W462" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="87">
         <v>461</v>
       </c>
@@ -19439,8 +20357,11 @@
         <v>0</v>
       </c>
       <c r="V463" s="23"/>
-    </row>
-    <row r="464" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W463" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="87">
         <v>462</v>
       </c>
@@ -19477,8 +20398,11 @@
       <c r="V464" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W464" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="87">
         <v>463</v>
       </c>
@@ -19515,8 +20439,11 @@
       </c>
       <c r="U465" s="23"/>
       <c r="V465" s="23"/>
-    </row>
-    <row r="466" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W465" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="87">
         <v>464</v>
       </c>
@@ -19553,8 +20480,11 @@
         <v>0</v>
       </c>
       <c r="V466" s="23"/>
-    </row>
-    <row r="467" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W466" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="87">
         <v>465</v>
       </c>
@@ -19591,8 +20521,11 @@
       <c r="V467" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W467" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="87">
         <v>466</v>
       </c>
@@ -19629,8 +20562,11 @@
       </c>
       <c r="U468" s="23"/>
       <c r="V468" s="23"/>
-    </row>
-    <row r="469" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W468" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="87">
         <v>467</v>
       </c>
@@ -19667,8 +20603,11 @@
         <v>0</v>
       </c>
       <c r="V469" s="23"/>
-    </row>
-    <row r="470" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W469" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="87">
         <v>468</v>
       </c>
@@ -19705,8 +20644,11 @@
       <c r="V470" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W470" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="471" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="87">
         <v>469</v>
       </c>
@@ -19743,8 +20685,11 @@
       </c>
       <c r="U471" s="23"/>
       <c r="V471" s="23"/>
-    </row>
-    <row r="472" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W471" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="87">
         <v>470</v>
       </c>
@@ -19781,8 +20726,11 @@
         <v>0</v>
       </c>
       <c r="V472" s="23"/>
-    </row>
-    <row r="473" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W472" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="87">
         <v>471</v>
       </c>
@@ -19819,8 +20767,11 @@
       <c r="V473" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W473" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="87">
         <v>472</v>
       </c>
@@ -19857,8 +20808,11 @@
       </c>
       <c r="U474" s="23"/>
       <c r="V474" s="23"/>
-    </row>
-    <row r="475" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W474" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="87">
         <v>473</v>
       </c>
@@ -19895,8 +20849,11 @@
         <v>0</v>
       </c>
       <c r="V475" s="23"/>
-    </row>
-    <row r="476" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W475" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="87">
         <v>474</v>
       </c>
@@ -19933,8 +20890,11 @@
       <c r="V476" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W476" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="477" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="87">
         <v>475</v>
       </c>
@@ -19971,8 +20931,11 @@
       </c>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-    </row>
-    <row r="478" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W477" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="87">
         <v>476</v>
       </c>
@@ -20009,8 +20972,11 @@
         <v>0</v>
       </c>
       <c r="V478" s="23"/>
-    </row>
-    <row r="479" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W478" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="479" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="87">
         <v>477</v>
       </c>
@@ -20047,8 +21013,11 @@
       <c r="V479" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W479" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="87">
         <v>478</v>
       </c>
@@ -20085,8 +21054,11 @@
       </c>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-    </row>
-    <row r="481" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W480" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="87">
         <v>479</v>
       </c>
@@ -20123,8 +21095,11 @@
         <v>0</v>
       </c>
       <c r="V481" s="23"/>
-    </row>
-    <row r="482" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W481" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="482" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="87">
         <v>480</v>
       </c>
@@ -20161,8 +21136,11 @@
       <c r="V482" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W482" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="483" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="87">
         <v>481</v>
       </c>
@@ -20199,8 +21177,11 @@
       </c>
       <c r="U483" s="23"/>
       <c r="V483" s="23"/>
-    </row>
-    <row r="484" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W483" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="484" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="87">
         <v>482</v>
       </c>
@@ -20237,8 +21218,11 @@
         <v>0</v>
       </c>
       <c r="V484" s="23"/>
-    </row>
-    <row r="485" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W484" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="485" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="87">
         <v>483</v>
       </c>
@@ -20275,8 +21259,11 @@
       <c r="V485" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W485" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="486" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="87">
         <v>484</v>
       </c>
@@ -20313,8 +21300,11 @@
       </c>
       <c r="U486" s="23"/>
       <c r="V486" s="23"/>
-    </row>
-    <row r="487" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W486" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="487" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="87">
         <v>485</v>
       </c>
@@ -20351,8 +21341,11 @@
         <v>0</v>
       </c>
       <c r="V487" s="23"/>
-    </row>
-    <row r="488" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W487" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="488" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="87">
         <v>486</v>
       </c>
@@ -20389,8 +21382,11 @@
       <c r="V488" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W488" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="489" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="87">
         <v>487</v>
       </c>
@@ -20427,8 +21423,11 @@
       </c>
       <c r="U489" s="23"/>
       <c r="V489" s="23"/>
-    </row>
-    <row r="490" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W489" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="490" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="87">
         <v>488</v>
       </c>
@@ -20465,8 +21464,11 @@
         <v>0</v>
       </c>
       <c r="V490" s="23"/>
-    </row>
-    <row r="491" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W490" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="491" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="87">
         <v>489</v>
       </c>
@@ -20503,8 +21505,11 @@
       <c r="V491" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W491" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="492" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="87">
         <v>490</v>
       </c>
@@ -20541,8 +21546,11 @@
       </c>
       <c r="U492" s="23"/>
       <c r="V492" s="23"/>
-    </row>
-    <row r="493" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W492" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="493" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="87">
         <v>491</v>
       </c>
@@ -20579,8 +21587,11 @@
         <v>0</v>
       </c>
       <c r="V493" s="23"/>
-    </row>
-    <row r="494" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W493" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="494" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="87">
         <v>492</v>
       </c>
@@ -20617,8 +21628,11 @@
       <c r="V494" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W494" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="87">
         <v>493</v>
       </c>
@@ -20655,8 +21669,11 @@
       </c>
       <c r="U495" s="23"/>
       <c r="V495" s="23"/>
-    </row>
-    <row r="496" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W495" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="87">
         <v>494</v>
       </c>
@@ -20693,8 +21710,11 @@
         <v>0</v>
       </c>
       <c r="V496" s="23"/>
-    </row>
-    <row r="497" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W496" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="497" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="87">
         <v>495</v>
       </c>
@@ -20731,8 +21751,11 @@
       <c r="V497" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W497" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="87">
         <v>496</v>
       </c>
@@ -20769,8 +21792,11 @@
       </c>
       <c r="U498" s="23"/>
       <c r="V498" s="23"/>
-    </row>
-    <row r="499" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W498" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="499" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="87">
         <v>497</v>
       </c>
@@ -20807,8 +21833,11 @@
         <v>0</v>
       </c>
       <c r="V499" s="23"/>
-    </row>
-    <row r="500" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W499" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="500" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="87">
         <v>498</v>
       </c>
@@ -20845,8 +21874,11 @@
       <c r="V500" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W500" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="501" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="87">
         <v>499</v>
       </c>
@@ -20883,8 +21915,11 @@
       </c>
       <c r="U501" s="23"/>
       <c r="V501" s="23"/>
-    </row>
-    <row r="502" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W501" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="502" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="87">
         <v>500</v>
       </c>
@@ -20921,8 +21956,11 @@
         <v>0</v>
       </c>
       <c r="V502" s="23"/>
-    </row>
-    <row r="503" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W502" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="87">
         <v>501</v>
       </c>
@@ -20959,8 +21997,11 @@
       <c r="V503" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W503" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="87">
         <v>502</v>
       </c>
@@ -20997,8 +22038,11 @@
       </c>
       <c r="U504" s="23"/>
       <c r="V504" s="23"/>
-    </row>
-    <row r="505" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W504" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="87">
         <v>503</v>
       </c>
@@ -21035,8 +22079,11 @@
         <v>0</v>
       </c>
       <c r="V505" s="23"/>
-    </row>
-    <row r="506" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W505" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="87">
         <v>504</v>
       </c>
@@ -21073,8 +22120,11 @@
       <c r="V506" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W506" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="507" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="87">
         <v>505</v>
       </c>
@@ -21111,8 +22161,11 @@
       </c>
       <c r="U507" s="23"/>
       <c r="V507" s="23"/>
-    </row>
-    <row r="508" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W507" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="87">
         <v>506</v>
       </c>
@@ -21149,8 +22202,11 @@
         <v>0</v>
       </c>
       <c r="V508" s="23"/>
-    </row>
-    <row r="509" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W508" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="87">
         <v>507</v>
       </c>
@@ -21187,8 +22243,11 @@
       <c r="V509" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W509" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="87">
         <v>508</v>
       </c>
@@ -21225,8 +22284,11 @@
       </c>
       <c r="U510" s="23"/>
       <c r="V510" s="23"/>
-    </row>
-    <row r="511" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W510" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="511" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="87">
         <v>509</v>
       </c>
@@ -21263,8 +22325,11 @@
         <v>0</v>
       </c>
       <c r="V511" s="23"/>
-    </row>
-    <row r="512" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W511" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="512" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="87">
         <v>510</v>
       </c>
@@ -21301,8 +22366,11 @@
       <c r="V512" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W512" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="513" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="87">
         <v>511</v>
       </c>
@@ -21339,8 +22407,11 @@
       </c>
       <c r="U513" s="23"/>
       <c r="V513" s="23"/>
-    </row>
-    <row r="514" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W513" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="514" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="87">
         <v>512</v>
       </c>
@@ -21377,8 +22448,11 @@
         <v>0</v>
       </c>
       <c r="V514" s="23"/>
-    </row>
-    <row r="515" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W514" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="515" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="87">
         <v>513</v>
       </c>
@@ -21415,8 +22489,11 @@
       <c r="V515" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W515" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="516" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="87">
         <v>514</v>
       </c>
@@ -21453,8 +22530,11 @@
       </c>
       <c r="U516" s="23"/>
       <c r="V516" s="23"/>
-    </row>
-    <row r="517" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W516" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="517" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="87">
         <v>515</v>
       </c>
@@ -21491,8 +22571,11 @@
         <v>0</v>
       </c>
       <c r="V517" s="23"/>
-    </row>
-    <row r="518" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W517" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="518" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="87">
         <v>516</v>
       </c>
@@ -21529,8 +22612,11 @@
       <c r="V518" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W518" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="87">
         <v>517</v>
       </c>
@@ -21567,8 +22653,11 @@
       </c>
       <c r="U519" s="23"/>
       <c r="V519" s="23"/>
-    </row>
-    <row r="520" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W519" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="520" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="87">
         <v>518</v>
       </c>
@@ -21605,8 +22694,11 @@
         <v>0</v>
       </c>
       <c r="V520" s="23"/>
-    </row>
-    <row r="521" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W520" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="521" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="87">
         <v>519</v>
       </c>
@@ -21643,8 +22735,11 @@
       <c r="V521" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W521" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="522" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="87">
         <v>520</v>
       </c>
@@ -21681,8 +22776,11 @@
       </c>
       <c r="U522" s="23"/>
       <c r="V522" s="23"/>
-    </row>
-    <row r="523" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W522" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="523" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="87">
         <v>521</v>
       </c>
@@ -21719,8 +22817,11 @@
         <v>0</v>
       </c>
       <c r="V523" s="23"/>
-    </row>
-    <row r="524" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W523" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="87">
         <v>522</v>
       </c>
@@ -21757,8 +22858,11 @@
       <c r="V524" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W524" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="87">
         <v>523</v>
       </c>
@@ -21795,8 +22899,11 @@
       </c>
       <c r="U525" s="23"/>
       <c r="V525" s="23"/>
-    </row>
-    <row r="526" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W525" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="87">
         <v>524</v>
       </c>
@@ -21833,8 +22940,11 @@
         <v>0</v>
       </c>
       <c r="V526" s="23"/>
-    </row>
-    <row r="527" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W526" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="527" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="87">
         <v>525</v>
       </c>
@@ -21871,8 +22981,11 @@
       <c r="V527" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W527" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="87">
         <v>526</v>
       </c>
@@ -21909,8 +23022,11 @@
       </c>
       <c r="U528" s="23"/>
       <c r="V528" s="23"/>
-    </row>
-    <row r="529" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W528" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="529" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="87">
         <v>527</v>
       </c>
@@ -21947,8 +23063,11 @@
         <v>0</v>
       </c>
       <c r="V529" s="23"/>
-    </row>
-    <row r="530" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W529" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="530" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="87">
         <v>528</v>
       </c>
@@ -21985,8 +23104,11 @@
       <c r="V530" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W530" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="531" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="87">
         <v>529</v>
       </c>
@@ -22023,8 +23145,11 @@
       </c>
       <c r="U531" s="23"/>
       <c r="V531" s="23"/>
-    </row>
-    <row r="532" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W531" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="532" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="87">
         <v>530</v>
       </c>
@@ -22061,8 +23186,11 @@
         <v>0</v>
       </c>
       <c r="V532" s="23"/>
-    </row>
-    <row r="533" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W532" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="533" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="87">
         <v>531</v>
       </c>
@@ -22099,8 +23227,11 @@
       <c r="V533" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W533" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="534" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="87">
         <v>532</v>
       </c>
@@ -22137,8 +23268,11 @@
       </c>
       <c r="U534" s="23"/>
       <c r="V534" s="23"/>
-    </row>
-    <row r="535" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W534" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="535" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="87">
         <v>533</v>
       </c>
@@ -22175,8 +23309,11 @@
         <v>0</v>
       </c>
       <c r="V535" s="23"/>
-    </row>
-    <row r="536" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W535" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="536" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="87">
         <v>534</v>
       </c>
@@ -22213,8 +23350,11 @@
       <c r="V536" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W536" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="537" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="87">
         <v>535</v>
       </c>
@@ -22251,8 +23391,11 @@
       </c>
       <c r="U537" s="23"/>
       <c r="V537" s="23"/>
-    </row>
-    <row r="538" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W537" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="538" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="87">
         <v>536</v>
       </c>
@@ -22289,8 +23432,11 @@
         <v>0</v>
       </c>
       <c r="V538" s="23"/>
-    </row>
-    <row r="539" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W538" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="539" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="87">
         <v>537</v>
       </c>
@@ -22327,8 +23473,11 @@
       <c r="V539" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W539" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="87">
         <v>538</v>
       </c>
@@ -22365,8 +23514,11 @@
       </c>
       <c r="U540" s="23"/>
       <c r="V540" s="23"/>
-    </row>
-    <row r="541" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W540" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="87">
         <v>539</v>
       </c>
@@ -22403,8 +23555,11 @@
         <v>0</v>
       </c>
       <c r="V541" s="23"/>
-    </row>
-    <row r="542" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W541" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="542" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="87">
         <v>540</v>
       </c>
@@ -22441,8 +23596,11 @@
       <c r="V542" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W542" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="87">
         <v>541</v>
       </c>
@@ -22479,8 +23637,11 @@
       </c>
       <c r="U543" s="23"/>
       <c r="V543" s="23"/>
-    </row>
-    <row r="544" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W543" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="544" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="87">
         <v>542</v>
       </c>
@@ -22517,8 +23678,11 @@
         <v>0</v>
       </c>
       <c r="V544" s="23"/>
-    </row>
-    <row r="545" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W544" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="545" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="87">
         <v>543</v>
       </c>
@@ -22555,8 +23719,11 @@
       <c r="V545" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W545" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="546" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="87">
         <v>544</v>
       </c>
@@ -22593,8 +23760,11 @@
       </c>
       <c r="U546" s="23"/>
       <c r="V546" s="23"/>
-    </row>
-    <row r="547" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W546" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="547" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="87">
         <v>545</v>
       </c>
@@ -22631,8 +23801,11 @@
         <v>0</v>
       </c>
       <c r="V547" s="23"/>
-    </row>
-    <row r="548" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W547" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="548" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="87">
         <v>546</v>
       </c>
@@ -22669,8 +23842,11 @@
       <c r="V548" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W548" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="549" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="87">
         <v>547</v>
       </c>
@@ -22707,8 +23883,11 @@
       </c>
       <c r="U549" s="23"/>
       <c r="V549" s="23"/>
-    </row>
-    <row r="550" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W549" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="87">
         <v>548</v>
       </c>
@@ -22745,8 +23924,11 @@
         <v>0</v>
       </c>
       <c r="V550" s="23"/>
-    </row>
-    <row r="551" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W550" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="87">
         <v>549</v>
       </c>
@@ -22783,8 +23965,11 @@
       <c r="V551" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W551" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="552" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="87">
         <v>550</v>
       </c>
@@ -22821,8 +24006,11 @@
       </c>
       <c r="U552" s="23"/>
       <c r="V552" s="23"/>
-    </row>
-    <row r="553" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W552" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="553" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="87">
         <v>551</v>
       </c>
@@ -22859,8 +24047,11 @@
         <v>0</v>
       </c>
       <c r="V553" s="23"/>
-    </row>
-    <row r="554" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W553" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="554" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="87">
         <v>552</v>
       </c>
@@ -22897,8 +24088,11 @@
       <c r="V554" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W554" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="555" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="87">
         <v>553</v>
       </c>
@@ -22935,8 +24129,11 @@
       </c>
       <c r="U555" s="23"/>
       <c r="V555" s="23"/>
-    </row>
-    <row r="556" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W555" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="556" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="87">
         <v>554</v>
       </c>
@@ -22973,8 +24170,11 @@
         <v>0</v>
       </c>
       <c r="V556" s="23"/>
-    </row>
-    <row r="557" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W556" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="87">
         <v>555</v>
       </c>
@@ -23011,8 +24211,11 @@
       <c r="V557" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W557" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="87">
         <v>556</v>
       </c>
@@ -23049,8 +24252,11 @@
       </c>
       <c r="U558" s="23"/>
       <c r="V558" s="23"/>
-    </row>
-    <row r="559" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W558" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="559" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="87">
         <v>557</v>
       </c>
@@ -23087,8 +24293,11 @@
         <v>0</v>
       </c>
       <c r="V559" s="23"/>
-    </row>
-    <row r="560" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W559" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="87">
         <v>558</v>
       </c>
@@ -23125,8 +24334,11 @@
       <c r="V560" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W560" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="561" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="87">
         <v>559</v>
       </c>
@@ -23163,8 +24375,11 @@
       </c>
       <c r="U561" s="23"/>
       <c r="V561" s="23"/>
-    </row>
-    <row r="562" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W561" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="562" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="87">
         <v>560</v>
       </c>
@@ -23201,8 +24416,11 @@
         <v>0</v>
       </c>
       <c r="V562" s="23"/>
-    </row>
-    <row r="563" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W562" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="87">
         <v>561</v>
       </c>
@@ -23239,8 +24457,11 @@
       <c r="V563" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W563" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="87">
         <v>562</v>
       </c>
@@ -23277,8 +24498,11 @@
       </c>
       <c r="U564" s="23"/>
       <c r="V564" s="23"/>
-    </row>
-    <row r="565" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W564" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="87">
         <v>563</v>
       </c>
@@ -23316,7 +24540,7 @@
       </c>
       <c r="V565" s="23"/>
     </row>
-    <row r="566" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="87">
         <v>564</v>
       </c>
@@ -23354,7 +24578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="87">
         <v>565</v>
       </c>
@@ -23392,7 +24616,7 @@
       <c r="U567" s="23"/>
       <c r="V567" s="23"/>
     </row>
-    <row r="568" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="87">
         <v>566</v>
       </c>
@@ -23430,7 +24654,7 @@
       </c>
       <c r="V568" s="23"/>
     </row>
-    <row r="569" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="87">
         <v>567</v>
       </c>
@@ -23468,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="87">
         <v>568</v>
       </c>
@@ -23506,7 +24730,7 @@
       <c r="U570" s="23"/>
       <c r="V570" s="23"/>
     </row>
-    <row r="571" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="87">
         <v>569</v>
       </c>
@@ -23544,7 +24768,7 @@
       </c>
       <c r="V571" s="23"/>
     </row>
-    <row r="572" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="87">
         <v>570</v>
       </c>
@@ -23582,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="87">
         <v>571</v>
       </c>
@@ -23620,7 +24844,7 @@
       <c r="U573" s="23"/>
       <c r="V573" s="23"/>
     </row>
-    <row r="574" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="87">
         <v>572</v>
       </c>
@@ -23658,7 +24882,7 @@
       </c>
       <c r="V574" s="23"/>
     </row>
-    <row r="575" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="87">
         <v>573</v>
       </c>
@@ -23696,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="87">
         <v>574</v>
       </c>
@@ -26166,7 +27390,7 @@
       </c>
       <c r="V640" s="23"/>
     </row>
-    <row r="641" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="87">
         <v>639</v>
       </c>
@@ -26204,7 +27428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="87">
         <v>640</v>
       </c>
@@ -26242,7 +27466,7 @@
       <c r="U642" s="23"/>
       <c r="V642" s="23"/>
     </row>
-    <row r="643" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="87">
         <v>641</v>
       </c>
@@ -26280,7 +27504,7 @@
       </c>
       <c r="V643" s="23"/>
     </row>
-    <row r="644" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="87">
         <v>642</v>
       </c>
@@ -26318,7 +27542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="87">
         <v>643</v>
       </c>
@@ -26356,7 +27580,7 @@
       <c r="U645" s="23"/>
       <c r="V645" s="23"/>
     </row>
-    <row r="646" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="87">
         <v>644</v>
       </c>
@@ -26394,7 +27618,7 @@
       </c>
       <c r="V646" s="23"/>
     </row>
-    <row r="647" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="87">
         <v>645</v>
       </c>
@@ -26432,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="87">
         <v>646</v>
       </c>
@@ -26470,7 +27694,7 @@
       <c r="U648" s="23"/>
       <c r="V648" s="23"/>
     </row>
-    <row r="649" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="87">
         <v>647</v>
       </c>
@@ -26508,7 +27732,7 @@
       </c>
       <c r="V649" s="23"/>
     </row>
-    <row r="650" spans="3:22" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C650" s="88">
         <v>648</v>
       </c>
@@ -26546,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C651" s="85">
         <v>649</v>
       </c>
@@ -26583,8 +27807,11 @@
       </c>
       <c r="U651" s="3"/>
       <c r="V651" s="3"/>
-    </row>
-    <row r="652" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W651" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="652" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C652" s="83">
         <v>650</v>
       </c>
@@ -26621,8 +27848,11 @@
         <v>0</v>
       </c>
       <c r="V652" s="3"/>
-    </row>
-    <row r="653" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W652" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C653" s="83">
         <v>651</v>
       </c>
@@ -26659,8 +27889,11 @@
       <c r="V653" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="654" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W653" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="654" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C654" s="83">
         <v>652</v>
       </c>
@@ -26697,8 +27930,11 @@
       </c>
       <c r="U654" s="3"/>
       <c r="V654" s="3"/>
-    </row>
-    <row r="655" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W654" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="655" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C655" s="83">
         <v>653</v>
       </c>
@@ -26735,8 +27971,11 @@
         <v>0</v>
       </c>
       <c r="V655" s="3"/>
-    </row>
-    <row r="656" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W655" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="656" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C656" s="83">
         <v>654</v>
       </c>
@@ -26773,8 +28012,11 @@
       <c r="V656" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="657" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W656" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="657" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C657" s="83">
         <v>655</v>
       </c>
@@ -26811,8 +28053,11 @@
       </c>
       <c r="U657" s="3"/>
       <c r="V657" s="3"/>
-    </row>
-    <row r="658" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W657" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="658" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C658" s="83">
         <v>656</v>
       </c>
@@ -26849,8 +28094,11 @@
         <v>0</v>
       </c>
       <c r="V658" s="3"/>
-    </row>
-    <row r="659" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W658" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="659" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C659" s="83">
         <v>657</v>
       </c>
@@ -26887,8 +28135,11 @@
       <c r="V659" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="660" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W659" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="660" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C660" s="83">
         <v>658</v>
       </c>
@@ -26925,8 +28176,11 @@
       </c>
       <c r="U660" s="3"/>
       <c r="V660" s="3"/>
-    </row>
-    <row r="661" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W660" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="661" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="83">
         <v>659</v>
       </c>
@@ -26963,8 +28217,11 @@
         <v>0</v>
       </c>
       <c r="V661" s="3"/>
-    </row>
-    <row r="662" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W661" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="83">
         <v>660</v>
       </c>
@@ -27001,8 +28258,11 @@
       <c r="V662" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="663" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W662" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="663" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C663" s="83">
         <v>661</v>
       </c>
@@ -27039,8 +28299,11 @@
       </c>
       <c r="U663" s="3"/>
       <c r="V663" s="3"/>
-    </row>
-    <row r="664" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W663" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C664" s="83">
         <v>662</v>
       </c>
@@ -27077,8 +28340,11 @@
         <v>0</v>
       </c>
       <c r="V664" s="3"/>
-    </row>
-    <row r="665" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W664" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="665" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C665" s="83">
         <v>663</v>
       </c>
@@ -27115,8 +28381,11 @@
       <c r="V665" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="666" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W665" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="666" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C666" s="83">
         <v>664</v>
       </c>
@@ -27153,8 +28422,11 @@
       </c>
       <c r="U666" s="3"/>
       <c r="V666" s="3"/>
-    </row>
-    <row r="667" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W666" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="667" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C667" s="83">
         <v>665</v>
       </c>
@@ -27191,8 +28463,11 @@
         <v>0</v>
       </c>
       <c r="V667" s="3"/>
-    </row>
-    <row r="668" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W667" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="668" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C668" s="83">
         <v>666</v>
       </c>
@@ -27229,8 +28504,11 @@
       <c r="V668" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="669" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W668" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="669" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C669" s="83">
         <v>667</v>
       </c>
@@ -27267,8 +28545,11 @@
       </c>
       <c r="U669" s="3"/>
       <c r="V669" s="3"/>
-    </row>
-    <row r="670" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W669" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="670" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C670" s="83">
         <v>668</v>
       </c>
@@ -27305,8 +28586,11 @@
         <v>0</v>
       </c>
       <c r="V670" s="3"/>
-    </row>
-    <row r="671" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W670" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="671" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C671" s="83">
         <v>669</v>
       </c>
@@ -27343,8 +28627,11 @@
       <c r="V671" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="672" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W671" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="672" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C672" s="83">
         <v>670</v>
       </c>
@@ -27381,8 +28668,11 @@
       </c>
       <c r="U672" s="3"/>
       <c r="V672" s="3"/>
-    </row>
-    <row r="673" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W672" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="673" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C673" s="83">
         <v>671</v>
       </c>
@@ -27419,8 +28709,11 @@
         <v>0</v>
       </c>
       <c r="V673" s="3"/>
-    </row>
-    <row r="674" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W673" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="674" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C674" s="83">
         <v>672</v>
       </c>
@@ -27457,8 +28750,11 @@
       <c r="V674" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="675" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W674" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="675" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C675" s="83">
         <v>673</v>
       </c>
@@ -27496,7 +28792,7 @@
       <c r="U675" s="3"/>
       <c r="V675" s="3"/>
     </row>
-    <row r="676" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="83">
         <v>674</v>
       </c>
@@ -27534,7 +28830,7 @@
       </c>
       <c r="V676" s="3"/>
     </row>
-    <row r="677" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="83">
         <v>675</v>
       </c>
@@ -27572,7 +28868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="83">
         <v>676</v>
       </c>
@@ -27610,7 +28906,7 @@
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
     </row>
-    <row r="679" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="83">
         <v>677</v>
       </c>
@@ -27648,7 +28944,7 @@
       </c>
       <c r="V679" s="3"/>
     </row>
-    <row r="680" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="83">
         <v>678</v>
       </c>
@@ -27686,7 +28982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C681" s="83">
         <v>679</v>
       </c>
@@ -27724,7 +29020,7 @@
       <c r="U681" s="3"/>
       <c r="V681" s="3"/>
     </row>
-    <row r="682" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="83">
         <v>680</v>
       </c>
@@ -27762,7 +29058,7 @@
       </c>
       <c r="V682" s="3"/>
     </row>
-    <row r="683" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="83">
         <v>681</v>
       </c>
@@ -27800,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="83">
         <v>682</v>
       </c>
@@ -27838,7 +29134,7 @@
       <c r="U684" s="3"/>
       <c r="V684" s="3"/>
     </row>
-    <row r="685" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="83">
         <v>683</v>
       </c>
@@ -27876,7 +29172,7 @@
       </c>
       <c r="V685" s="3"/>
     </row>
-    <row r="686" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="83">
         <v>684</v>
       </c>
@@ -27914,7 +29210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="83">
         <v>685</v>
       </c>
@@ -27952,7 +29248,7 @@
       <c r="U687" s="3"/>
       <c r="V687" s="3"/>
     </row>
-    <row r="688" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="83">
         <v>686</v>
       </c>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96506B-BE63-B44E-A63C-62E2BED2D760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7DDAF-42F5-7644-935C-326464B17497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="700" windowWidth="27640" windowHeight="16940" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="5520" yWindow="22100" windowWidth="27640" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7414" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="229">
   <si>
     <t>X</t>
   </si>
@@ -109,6 +110,621 @@
   <si>
     <t>❌</t>
   </si>
+  <si>
+    <t>BIAS</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>TENDENCY</t>
+  </si>
+  <si>
+    <t>COMSIZE</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>DSIZE</t>
+  </si>
+  <si>
+    <t>PERS</t>
+  </si>
+  <si>
+    <t>1-325-649</t>
+  </si>
+  <si>
+    <t>326-434-542</t>
+  </si>
+  <si>
+    <t>650-758-866</t>
+  </si>
+  <si>
+    <t>2-110-218</t>
+  </si>
+  <si>
+    <t>327-381</t>
+  </si>
+  <si>
+    <t>4-22-40</t>
+  </si>
+  <si>
+    <t>3-57</t>
+  </si>
+  <si>
+    <t>111-165</t>
+  </si>
+  <si>
+    <t>219-263</t>
+  </si>
+  <si>
+    <t>435-489</t>
+  </si>
+  <si>
+    <t>543-597</t>
+  </si>
+  <si>
+    <t>651-705</t>
+  </si>
+  <si>
+    <t>759-813</t>
+  </si>
+  <si>
+    <t>867-921</t>
+  </si>
+  <si>
+    <t>7-8-9</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>58-76-94</t>
+  </si>
+  <si>
+    <t>112-130-148</t>
+  </si>
+  <si>
+    <t>166-184-202</t>
+  </si>
+  <si>
+    <t>220-238-256</t>
+  </si>
+  <si>
+    <t>264-282-300</t>
+  </si>
+  <si>
+    <t>328-346-364</t>
+  </si>
+  <si>
+    <t>382-400-418</t>
+  </si>
+  <si>
+    <t>436-454-472</t>
+  </si>
+  <si>
+    <t>490-508-526</t>
+  </si>
+  <si>
+    <t>544-562-580</t>
+  </si>
+  <si>
+    <t>598-616-634</t>
+  </si>
+  <si>
+    <t>5-11-17</t>
+  </si>
+  <si>
+    <t>652-670-688</t>
+  </si>
+  <si>
+    <t>706-724-742</t>
+  </si>
+  <si>
+    <t>760-778-796</t>
+  </si>
+  <si>
+    <t>814-832-850</t>
+  </si>
+  <si>
+    <t>868-886-904</t>
+  </si>
+  <si>
+    <t>922-940-958</t>
+  </si>
+  <si>
+    <t>23-29-35</t>
+  </si>
+  <si>
+    <t>41-47-53</t>
+  </si>
+  <si>
+    <t>59-65-71</t>
+  </si>
+  <si>
+    <t>77-83-89</t>
+  </si>
+  <si>
+    <t>95-101-107</t>
+  </si>
+  <si>
+    <t>113-119-125</t>
+  </si>
+  <si>
+    <t>131-137-143</t>
+  </si>
+  <si>
+    <t>149-155-161</t>
+  </si>
+  <si>
+    <t>167-173-179</t>
+  </si>
+  <si>
+    <t>191-197-203</t>
+  </si>
+  <si>
+    <t>203-209-215</t>
+  </si>
+  <si>
+    <t>221-227-233</t>
+  </si>
+  <si>
+    <t>239-245-251</t>
+  </si>
+  <si>
+    <t>257-263-269</t>
+  </si>
+  <si>
+    <t>329-335-341</t>
+  </si>
+  <si>
+    <t>347-353-359</t>
+  </si>
+  <si>
+    <t>365-371-377</t>
+  </si>
+  <si>
+    <t>383-389-395</t>
+  </si>
+  <si>
+    <t>401-407-413</t>
+  </si>
+  <si>
+    <t>419-425-431</t>
+  </si>
+  <si>
+    <t>437-443-449</t>
+  </si>
+  <si>
+    <t>455-461-467</t>
+  </si>
+  <si>
+    <t>473-479-485</t>
+  </si>
+  <si>
+    <t>491-497-503</t>
+  </si>
+  <si>
+    <t>509-515-521</t>
+  </si>
+  <si>
+    <t>527-533-539</t>
+  </si>
+  <si>
+    <t>545-551-557</t>
+  </si>
+  <si>
+    <t>563-569-575</t>
+  </si>
+  <si>
+    <t>581-587-593</t>
+  </si>
+  <si>
+    <t>599-605-611</t>
+  </si>
+  <si>
+    <t>617-623-629</t>
+  </si>
+  <si>
+    <t>635-641-647</t>
+  </si>
+  <si>
+    <t>653-659-665</t>
+  </si>
+  <si>
+    <t>671-677-683</t>
+  </si>
+  <si>
+    <t>689-695-701</t>
+  </si>
+  <si>
+    <t>707-713-719</t>
+  </si>
+  <si>
+    <t>725-731-737</t>
+  </si>
+  <si>
+    <t>743-749-755</t>
+  </si>
+  <si>
+    <t>761-767-773</t>
+  </si>
+  <si>
+    <t>779-785-791</t>
+  </si>
+  <si>
+    <t>797-803-809</t>
+  </si>
+  <si>
+    <t>815-821-827</t>
+  </si>
+  <si>
+    <t>833-839-845</t>
+  </si>
+  <si>
+    <t>851-857-863</t>
+  </si>
+  <si>
+    <t>869-875-881</t>
+  </si>
+  <si>
+    <t>887-893-899</t>
+  </si>
+  <si>
+    <t>905-911-917</t>
+  </si>
+  <si>
+    <t>923-929-935</t>
+  </si>
+  <si>
+    <t>941-947-953</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>18-21</t>
+  </si>
+  <si>
+    <t>24-27</t>
+  </si>
+  <si>
+    <t>30-33</t>
+  </si>
+  <si>
+    <t>36-39</t>
+  </si>
+  <si>
+    <t>42-45</t>
+  </si>
+  <si>
+    <t>48-51</t>
+  </si>
+  <si>
+    <t>54-57</t>
+  </si>
+  <si>
+    <t>60-63</t>
+  </si>
+  <si>
+    <t>66-69</t>
+  </si>
+  <si>
+    <t>72-75</t>
+  </si>
+  <si>
+    <t>78-81</t>
+  </si>
+  <si>
+    <t>84-87</t>
+  </si>
+  <si>
+    <t>90-93</t>
+  </si>
+  <si>
+    <t>96-99</t>
+  </si>
+  <si>
+    <t>102-105</t>
+  </si>
+  <si>
+    <t>108-111</t>
+  </si>
+  <si>
+    <t>114-117</t>
+  </si>
+  <si>
+    <t>120-123</t>
+  </si>
+  <si>
+    <t>126-129</t>
+  </si>
+  <si>
+    <t>132-135</t>
+  </si>
+  <si>
+    <t>138-141</t>
+  </si>
+  <si>
+    <t>144-147</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>156-159</t>
+  </si>
+  <si>
+    <t>162-165</t>
+  </si>
+  <si>
+    <t>168-171</t>
+  </si>
+  <si>
+    <t>174-177</t>
+  </si>
+  <si>
+    <t>180-183</t>
+  </si>
+  <si>
+    <t>186-191</t>
+  </si>
+  <si>
+    <t>192-195</t>
+  </si>
+  <si>
+    <t>198-201</t>
+  </si>
+  <si>
+    <t>204-207</t>
+  </si>
+  <si>
+    <t>210-213</t>
+  </si>
+  <si>
+    <t>216-219</t>
+  </si>
+  <si>
+    <t>275-281-287</t>
+  </si>
+  <si>
+    <t>293-299-305</t>
+  </si>
+  <si>
+    <t>311-317-323</t>
+  </si>
+  <si>
+    <t>222-225</t>
+  </si>
+  <si>
+    <t>228-231</t>
+  </si>
+  <si>
+    <t>234-237</t>
+  </si>
+  <si>
+    <t>240-243</t>
+  </si>
+  <si>
+    <t>246-249</t>
+  </si>
+  <si>
+    <t>252-255</t>
+  </si>
+  <si>
+    <t>258-261</t>
+  </si>
+  <si>
+    <t>264-267</t>
+  </si>
+  <si>
+    <t>270-273</t>
+  </si>
+  <si>
+    <t>276-279</t>
+  </si>
+  <si>
+    <t>282-285</t>
+  </si>
+  <si>
+    <t>288-291</t>
+  </si>
+  <si>
+    <t>294-297</t>
+  </si>
+  <si>
+    <t>300-303</t>
+  </si>
+  <si>
+    <t>306-309</t>
+  </si>
+  <si>
+    <t>312-315</t>
+  </si>
+  <si>
+    <t>318-321</t>
+  </si>
+  <si>
+    <t>324-327</t>
+  </si>
+  <si>
+    <t>959-965-971</t>
+  </si>
+  <si>
+    <t>330-333</t>
+  </si>
+  <si>
+    <t>336-339</t>
+  </si>
+  <si>
+    <t>342-345</t>
+  </si>
+  <si>
+    <t>348-351</t>
+  </si>
+  <si>
+    <t>354-357</t>
+  </si>
+  <si>
+    <t>360-363</t>
+  </si>
+  <si>
+    <t>366-369</t>
+  </si>
+  <si>
+    <t>372-375</t>
+  </si>
+  <si>
+    <t>378-381</t>
+  </si>
+  <si>
+    <t>384-387</t>
+  </si>
+  <si>
+    <t>390-393</t>
+  </si>
+  <si>
+    <t>396-399</t>
+  </si>
+  <si>
+    <t>402-405</t>
+  </si>
+  <si>
+    <t>408-411</t>
+  </si>
+  <si>
+    <t>414-417</t>
+  </si>
+  <si>
+    <t>420-423</t>
+  </si>
+  <si>
+    <t>426-429</t>
+  </si>
+  <si>
+    <t>432-435</t>
+  </si>
+  <si>
+    <t>438-441</t>
+  </si>
+  <si>
+    <t>444-447</t>
+  </si>
+  <si>
+    <t>450-453</t>
+  </si>
+  <si>
+    <t>456-459</t>
+  </si>
+  <si>
+    <t>462-465</t>
+  </si>
+  <si>
+    <t>468-471</t>
+  </si>
+  <si>
+    <t>474-477</t>
+  </si>
+  <si>
+    <t>480-483</t>
+  </si>
+  <si>
+    <t>486-489</t>
+  </si>
+  <si>
+    <t>492-495</t>
+  </si>
+  <si>
+    <t>498-501</t>
+  </si>
+  <si>
+    <t>504-507</t>
+  </si>
+  <si>
+    <t>510-513</t>
+  </si>
+  <si>
+    <t>516-519</t>
+  </si>
+  <si>
+    <t>522-525</t>
+  </si>
+  <si>
+    <t>528-531</t>
+  </si>
+  <si>
+    <t>534-537</t>
+  </si>
+  <si>
+    <t>540-543</t>
+  </si>
+  <si>
+    <t>546-549</t>
+  </si>
+  <si>
+    <t>552-555</t>
+  </si>
+  <si>
+    <t>558-561</t>
+  </si>
+  <si>
+    <t>564-567</t>
+  </si>
+  <si>
+    <t>570-573</t>
+  </si>
+  <si>
+    <t>576-579</t>
+  </si>
+  <si>
+    <t>582-585</t>
+  </si>
+  <si>
+    <t>588-591</t>
+  </si>
+  <si>
+    <t>594-597</t>
+  </si>
+  <si>
+    <t>600-603</t>
+  </si>
+  <si>
+    <t>606-609</t>
+  </si>
+  <si>
+    <t>612-615</t>
+  </si>
+  <si>
+    <t>618-621</t>
+  </si>
+  <si>
+    <t>624-627</t>
+  </si>
+  <si>
+    <t>630-633</t>
+  </si>
+  <si>
+    <t>636-639</t>
+  </si>
+  <si>
+    <t>642-645</t>
+  </si>
+  <si>
+    <t>648-651</t>
+  </si>
+  <si>
+    <t>654-657</t>
+  </si>
+  <si>
+    <t>660-663</t>
+  </si>
+  <si>
+    <t>666-669</t>
+  </si>
+  <si>
+    <t>672-675</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,8 +821,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,6 +1330,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1681,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BE3CE7-3163-6C44-9531-3B4B7F4EA802}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:W974"/>
+  <dimension ref="B1:AR974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y681" sqref="Y681"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="U803" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="W834" sqref="W834:W836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1030,10 +1699,18 @@
     <col min="10" max="17" width="10.83203125" style="1" customWidth="1"/>
     <col min="18" max="19" width="10.83203125" style="1"/>
     <col min="20" max="22" width="10.83203125" style="2"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="23" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="94" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1745,7 @@
       <c r="U1" s="90"/>
       <c r="V1" s="90"/>
     </row>
-    <row r="2" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="51" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="91" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="92"/>
       <c r="C4" s="49">
         <v>2</v>
@@ -1216,7 +1893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="92"/>
       <c r="C5" s="49">
         <v>3</v>
@@ -1258,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="92"/>
       <c r="C6" s="49">
         <v>4</v>
@@ -1300,7 +1977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="92"/>
       <c r="C7" s="49">
         <v>5</v>
@@ -1342,7 +2019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="92"/>
       <c r="C8" s="49">
         <v>6</v>
@@ -1383,8 +2060,29 @@
       <c r="W8" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="1">
+        <v>324</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>108</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="92"/>
       <c r="C9" s="49">
         <v>7</v>
@@ -1425,8 +2123,29 @@
       <c r="W9" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG9" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI9" s="96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="92"/>
       <c r="C10" s="49">
         <v>8</v>
@@ -1467,8 +2186,31 @@
       <c r="W10" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+    </row>
+    <row r="11" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="92"/>
       <c r="C11" s="49">
         <v>9</v>
@@ -1509,8 +2251,27 @@
       <c r="W11" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE11" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH11" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+    </row>
+    <row r="12" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="92"/>
       <c r="C12" s="49">
         <v>10</v>
@@ -1551,8 +2312,27 @@
       <c r="W12" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG12" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+    </row>
+    <row r="13" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="92"/>
       <c r="C13" s="49">
         <v>11</v>
@@ -1593,8 +2373,25 @@
       <c r="W13" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH13" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+    </row>
+    <row r="14" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="92"/>
       <c r="C14" s="49">
         <v>12</v>
@@ -1635,8 +2432,25 @@
       <c r="W14" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH14" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+    </row>
+    <row r="15" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="92"/>
       <c r="C15" s="49">
         <v>13</v>
@@ -1677,8 +2491,25 @@
       <c r="W15" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF15" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH15" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+    </row>
+    <row r="16" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="92"/>
       <c r="C16" s="49">
         <v>14</v>
@@ -1719,8 +2550,25 @@
       <c r="W16" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF16" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG16" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+    </row>
+    <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="92"/>
       <c r="C17" s="49">
         <v>15</v>
@@ -1761,8 +2609,25 @@
       <c r="W17" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG17" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH17" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+    </row>
+    <row r="18" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="92"/>
       <c r="C18" s="49">
         <v>16</v>
@@ -1803,8 +2668,25 @@
       <c r="W18" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH18" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+    </row>
+    <row r="19" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="92"/>
       <c r="C19" s="49">
         <v>17</v>
@@ -1845,8 +2727,23 @@
       <c r="W19" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG19" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH19" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="97"/>
+    </row>
+    <row r="20" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="92"/>
       <c r="C20" s="49">
         <v>18</v>
@@ -1887,8 +2784,23 @@
       <c r="W20" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH20" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
+    </row>
+    <row r="21" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="92"/>
       <c r="C21" s="49">
         <v>19</v>
@@ -1929,8 +2841,23 @@
       <c r="W21" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG21" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="97"/>
+    </row>
+    <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="92"/>
       <c r="C22" s="49">
         <v>20</v>
@@ -1971,8 +2898,23 @@
       <c r="W22" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG22" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH22" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+    </row>
+    <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="92"/>
       <c r="C23" s="49">
         <v>21</v>
@@ -2013,8 +2955,23 @@
       <c r="W23" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG23" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH23" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+    </row>
+    <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="92"/>
       <c r="C24" s="49">
         <v>22</v>
@@ -2055,8 +3012,23 @@
       <c r="W24" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH24" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="97"/>
+    </row>
+    <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="92"/>
       <c r="C25" s="49">
         <v>23</v>
@@ -2097,8 +3069,23 @@
       <c r="W25" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG25" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH25" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="97"/>
+    </row>
+    <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="92"/>
       <c r="C26" s="49">
         <v>24</v>
@@ -2139,8 +3126,23 @@
       <c r="W26" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG26" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH26" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="97"/>
+    </row>
+    <row r="27" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="92"/>
       <c r="C27" s="49">
         <v>25</v>
@@ -2181,8 +3183,23 @@
       <c r="W27" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG27" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH27" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="97"/>
+    </row>
+    <row r="28" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="92"/>
       <c r="C28" s="49">
         <v>26</v>
@@ -2223,8 +3240,21 @@
       <c r="W28" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH28" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="97"/>
+    </row>
+    <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="92"/>
       <c r="C29" s="49">
         <v>27</v>
@@ -2265,8 +3295,21 @@
       <c r="W29" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH29" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="97"/>
+    </row>
+    <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="92"/>
       <c r="C30" s="49">
         <v>28</v>
@@ -2307,8 +3350,21 @@
       <c r="W30" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH30" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+    </row>
+    <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="92"/>
       <c r="C31" s="49">
         <v>29</v>
@@ -2349,8 +3405,21 @@
       <c r="W31" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH31" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="97"/>
+    </row>
+    <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="92"/>
       <c r="C32" s="49">
         <v>30</v>
@@ -2391,8 +3460,21 @@
       <c r="W32" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH32" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="97"/>
+      <c r="AK32" s="97"/>
+    </row>
+    <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="92"/>
       <c r="C33" s="49">
         <v>31</v>
@@ -2433,8 +3515,21 @@
       <c r="W33" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH33" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+    </row>
+    <row r="34" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="92"/>
       <c r="C34" s="49">
         <v>32</v>
@@ -2475,8 +3570,19 @@
       <c r="W34" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH34" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI34" s="99"/>
+    </row>
+    <row r="35" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="92"/>
       <c r="C35" s="49">
         <v>33</v>
@@ -2517,8 +3623,19 @@
       <c r="W35" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH35" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI35" s="99"/>
+    </row>
+    <row r="36" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="92"/>
       <c r="C36" s="49">
         <v>34</v>
@@ -2559,8 +3676,19 @@
       <c r="W36" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH36" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI36" s="99"/>
+    </row>
+    <row r="37" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="92"/>
       <c r="C37" s="49">
         <v>35</v>
@@ -2601,8 +3729,19 @@
       <c r="W37" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH37" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI37" s="99"/>
+    </row>
+    <row r="38" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="92"/>
       <c r="C38" s="49">
         <v>36</v>
@@ -2643,8 +3782,19 @@
       <c r="W38" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH38" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI38" s="99"/>
+    </row>
+    <row r="39" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="92"/>
       <c r="C39" s="49">
         <v>37</v>
@@ -2685,8 +3835,19 @@
       <c r="W39" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AE39" s="98"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH39" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI39" s="99"/>
+    </row>
+    <row r="40" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="92"/>
       <c r="C40" s="49">
         <v>38</v>
@@ -2727,8 +3888,19 @@
       <c r="W40" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH40" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI40" s="99"/>
+    </row>
+    <row r="41" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="92"/>
       <c r="C41" s="49">
         <v>39</v>
@@ -2769,8 +3941,19 @@
       <c r="W41" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC41" s="98"/>
+      <c r="AD41" s="98"/>
+      <c r="AE41" s="98"/>
+      <c r="AF41" s="98"/>
+      <c r="AG41" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH41" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI41" s="99"/>
+    </row>
+    <row r="42" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="92"/>
       <c r="C42" s="49">
         <v>40</v>
@@ -2811,8 +3994,19 @@
       <c r="W42" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH42" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI42" s="99"/>
+    </row>
+    <row r="43" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="92"/>
       <c r="C43" s="49">
         <v>41</v>
@@ -2853,8 +4047,15 @@
       <c r="W43" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG43" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH43" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI43" s="99"/>
+    </row>
+    <row r="44" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="92"/>
       <c r="C44" s="49">
         <v>42</v>
@@ -2895,8 +4096,15 @@
       <c r="W44" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG44" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH44" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI44" s="99"/>
+    </row>
+    <row r="45" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="92"/>
       <c r="C45" s="49">
         <v>43</v>
@@ -2937,8 +4145,15 @@
       <c r="W45" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG45" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH45" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI45" s="99"/>
+    </row>
+    <row r="46" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="92"/>
       <c r="C46" s="49">
         <v>44</v>
@@ -2979,8 +4194,15 @@
       <c r="W46" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG46" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH46" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI46" s="99"/>
+    </row>
+    <row r="47" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="92"/>
       <c r="C47" s="49">
         <v>45</v>
@@ -3021,8 +4243,15 @@
       <c r="W47" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG47" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH47" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI47" s="99"/>
+    </row>
+    <row r="48" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="92"/>
       <c r="C48" s="49">
         <v>46</v>
@@ -3063,8 +4292,15 @@
       <c r="W48" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG48" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH48" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI48" s="99"/>
+    </row>
+    <row r="49" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="92"/>
       <c r="C49" s="49">
         <v>47</v>
@@ -3105,8 +4341,15 @@
       <c r="W49" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG49" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH49" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI49" s="99"/>
+    </row>
+    <row r="50" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="92"/>
       <c r="C50" s="49">
         <v>48</v>
@@ -3147,8 +4390,15 @@
       <c r="W50" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG50" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH50" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI50" s="99"/>
+    </row>
+    <row r="51" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="92"/>
       <c r="C51" s="49">
         <v>49</v>
@@ -3189,8 +4439,15 @@
       <c r="W51" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG51" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH51" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI51" s="99"/>
+    </row>
+    <row r="52" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="92"/>
       <c r="C52" s="49">
         <v>50</v>
@@ -3231,8 +4488,15 @@
       <c r="W52" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG52" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH52" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI52" s="99"/>
+    </row>
+    <row r="53" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="92"/>
       <c r="C53" s="49">
         <v>51</v>
@@ -3273,8 +4537,15 @@
       <c r="W53" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG53" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH53" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI53" s="99"/>
+    </row>
+    <row r="54" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="92"/>
       <c r="C54" s="49">
         <v>52</v>
@@ -3315,8 +4586,15 @@
       <c r="W54" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG54" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH54" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI54" s="99"/>
+    </row>
+    <row r="55" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="92"/>
       <c r="C55" s="49">
         <v>53</v>
@@ -3357,8 +4635,15 @@
       <c r="W55" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG55" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH55" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI55" s="99"/>
+    </row>
+    <row r="56" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="92"/>
       <c r="C56" s="49">
         <v>54</v>
@@ -3399,8 +4684,15 @@
       <c r="W56" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG56" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH56" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI56" s="99"/>
+    </row>
+    <row r="57" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="92"/>
       <c r="C57" s="49">
         <v>55</v>
@@ -3441,8 +4733,15 @@
       <c r="W57" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG57" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH57" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI57" s="99"/>
+    </row>
+    <row r="58" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="92"/>
       <c r="C58" s="49">
         <v>56</v>
@@ -3483,8 +4782,15 @@
       <c r="W58" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG58" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH58" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI58" s="99"/>
+    </row>
+    <row r="59" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="92"/>
       <c r="C59" s="49">
         <v>57</v>
@@ -3525,8 +4831,15 @@
       <c r="W59" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG59" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH59" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI59" s="99"/>
+    </row>
+    <row r="60" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="92"/>
       <c r="C60" s="49">
         <v>58</v>
@@ -3567,8 +4880,15 @@
       <c r="W60" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG60" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH60" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI60" s="99"/>
+    </row>
+    <row r="61" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="92"/>
       <c r="C61" s="49">
         <v>59</v>
@@ -3609,8 +4929,15 @@
       <c r="W61" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG61" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH61" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI61" s="99"/>
+    </row>
+    <row r="62" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="92"/>
       <c r="C62" s="49">
         <v>60</v>
@@ -3651,8 +4978,15 @@
       <c r="W62" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG62" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH62" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI62" s="99"/>
+    </row>
+    <row r="63" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="92"/>
       <c r="C63" s="49">
         <v>61</v>
@@ -3693,8 +5027,15 @@
       <c r="W63" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG63" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH63" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI63" s="99"/>
+    </row>
+    <row r="64" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="92"/>
       <c r="C64" s="49">
         <v>62</v>
@@ -3735,8 +5076,12 @@
       <c r="W64" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH64" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI64" s="99"/>
+    </row>
+    <row r="65" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="92"/>
       <c r="C65" s="49">
         <v>63</v>
@@ -3777,8 +5122,12 @@
       <c r="W65" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH65" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI65" s="99"/>
+    </row>
+    <row r="66" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="92"/>
       <c r="C66" s="49">
         <v>64</v>
@@ -3819,8 +5168,12 @@
       <c r="W66" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH66" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI66" s="99"/>
+    </row>
+    <row r="67" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="92"/>
       <c r="C67" s="49">
         <v>65</v>
@@ -3861,8 +5214,12 @@
       <c r="W67" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH67" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI67" s="99"/>
+    </row>
+    <row r="68" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="92"/>
       <c r="C68" s="49">
         <v>66</v>
@@ -3903,8 +5260,12 @@
       <c r="W68" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH68" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI68" s="99"/>
+    </row>
+    <row r="69" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="92"/>
       <c r="C69" s="49">
         <v>67</v>
@@ -3945,8 +5306,12 @@
       <c r="W69" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH69" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI69" s="99"/>
+    </row>
+    <row r="70" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="92"/>
       <c r="C70" s="49">
         <v>68</v>
@@ -3987,8 +5352,12 @@
       <c r="W70" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH70" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI70" s="99"/>
+    </row>
+    <row r="71" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="92"/>
       <c r="C71" s="49">
         <v>69</v>
@@ -4029,8 +5398,12 @@
       <c r="W71" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH71" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI71" s="99"/>
+    </row>
+    <row r="72" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="92"/>
       <c r="C72" s="49">
         <v>70</v>
@@ -4071,8 +5444,12 @@
       <c r="W72" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH72" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI72" s="99"/>
+    </row>
+    <row r="73" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="92"/>
       <c r="C73" s="49">
         <v>71</v>
@@ -4113,8 +5490,12 @@
       <c r="W73" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH73" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI73" s="99"/>
+    </row>
+    <row r="74" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="92"/>
       <c r="C74" s="49">
         <v>72</v>
@@ -4155,8 +5536,12 @@
       <c r="W74" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH74" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI74" s="99"/>
+    </row>
+    <row r="75" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="92"/>
       <c r="C75" s="49">
         <v>73</v>
@@ -4197,8 +5582,12 @@
       <c r="W75" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH75" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI75" s="99"/>
+    </row>
+    <row r="76" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="92"/>
       <c r="C76" s="49">
         <v>74</v>
@@ -4239,8 +5628,12 @@
       <c r="W76" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH76" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI76" s="99"/>
+    </row>
+    <row r="77" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="92"/>
       <c r="C77" s="49">
         <v>75</v>
@@ -4281,8 +5674,12 @@
       <c r="W77" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH77" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI77" s="99"/>
+    </row>
+    <row r="78" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="92"/>
       <c r="C78" s="49">
         <v>76</v>
@@ -4323,8 +5720,12 @@
       <c r="W78" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH78" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI78" s="99"/>
+    </row>
+    <row r="79" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="92"/>
       <c r="C79" s="49">
         <v>77</v>
@@ -4365,8 +5766,12 @@
       <c r="W79" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH79" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI79" s="99"/>
+    </row>
+    <row r="80" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="92"/>
       <c r="C80" s="49">
         <v>78</v>
@@ -4407,8 +5812,12 @@
       <c r="W80" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH80" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI80" s="99"/>
+    </row>
+    <row r="81" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="92"/>
       <c r="C81" s="49">
         <v>79</v>
@@ -4449,8 +5858,12 @@
       <c r="W81" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH81" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI81" s="99"/>
+    </row>
+    <row r="82" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="92"/>
       <c r="C82" s="49">
         <v>80</v>
@@ -4491,8 +5904,12 @@
       <c r="W82" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH82" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI82" s="100"/>
+    </row>
+    <row r="83" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="92"/>
       <c r="C83" s="49">
         <v>81</v>
@@ -4533,8 +5950,12 @@
       <c r="W83" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH83" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI83" s="100"/>
+    </row>
+    <row r="84" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="92"/>
       <c r="C84" s="49">
         <v>82</v>
@@ -4575,8 +5996,12 @@
       <c r="W84" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH84" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI84" s="100"/>
+    </row>
+    <row r="85" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="92"/>
       <c r="C85" s="49">
         <v>83</v>
@@ -4617,8 +6042,12 @@
       <c r="W85" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH85" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI85" s="100"/>
+    </row>
+    <row r="86" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="92"/>
       <c r="C86" s="49">
         <v>84</v>
@@ -4659,8 +6088,12 @@
       <c r="W86" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH86" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI86" s="100"/>
+    </row>
+    <row r="87" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="92"/>
       <c r="C87" s="49">
         <v>85</v>
@@ -4701,8 +6134,12 @@
       <c r="W87" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH87" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI87" s="100"/>
+    </row>
+    <row r="88" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="92"/>
       <c r="C88" s="49">
         <v>86</v>
@@ -4743,8 +6180,12 @@
       <c r="W88" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH88" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI88" s="100"/>
+    </row>
+    <row r="89" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="92"/>
       <c r="C89" s="49">
         <v>87</v>
@@ -4785,8 +6226,12 @@
       <c r="W89" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH89" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI89" s="100"/>
+    </row>
+    <row r="90" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="92"/>
       <c r="C90" s="49">
         <v>88</v>
@@ -4827,8 +6272,12 @@
       <c r="W90" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH90" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI90" s="100"/>
+    </row>
+    <row r="91" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="92"/>
       <c r="C91" s="49">
         <v>89</v>
@@ -4869,8 +6318,12 @@
       <c r="W91" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH91" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI91" s="100"/>
+    </row>
+    <row r="92" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="92"/>
       <c r="C92" s="49">
         <v>90</v>
@@ -4911,8 +6364,12 @@
       <c r="W92" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH92" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI92" s="100"/>
+    </row>
+    <row r="93" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="92"/>
       <c r="C93" s="49">
         <v>91</v>
@@ -4953,8 +6410,12 @@
       <c r="W93" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH93" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI93" s="100"/>
+    </row>
+    <row r="94" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="92"/>
       <c r="C94" s="49">
         <v>92</v>
@@ -4995,8 +6456,12 @@
       <c r="W94" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH94" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI94" s="100"/>
+    </row>
+    <row r="95" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="92"/>
       <c r="C95" s="49">
         <v>93</v>
@@ -5037,8 +6502,12 @@
       <c r="W95" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH95" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI95" s="100"/>
+    </row>
+    <row r="96" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="92"/>
       <c r="C96" s="49">
         <v>94</v>
@@ -5079,8 +6548,12 @@
       <c r="W96" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH96" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI96" s="103"/>
+    </row>
+    <row r="97" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="92"/>
       <c r="C97" s="49">
         <v>95</v>
@@ -5121,8 +6594,12 @@
       <c r="W97" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH97" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI97" s="104"/>
+    </row>
+    <row r="98" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="92"/>
       <c r="C98" s="49">
         <v>96</v>
@@ -5163,8 +6640,12 @@
       <c r="W98" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH98" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI98" s="104"/>
+    </row>
+    <row r="99" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="92"/>
       <c r="C99" s="49">
         <v>97</v>
@@ -5205,8 +6686,12 @@
       <c r="W99" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH99" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI99" s="104"/>
+    </row>
+    <row r="100" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="92"/>
       <c r="C100" s="49">
         <v>98</v>
@@ -5247,8 +6732,12 @@
       <c r="W100" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH100" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI100" s="100"/>
+    </row>
+    <row r="101" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="92"/>
       <c r="C101" s="49">
         <v>99</v>
@@ -5289,8 +6778,12 @@
       <c r="W101" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH101" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI101" s="100"/>
+    </row>
+    <row r="102" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="92"/>
       <c r="C102" s="49">
         <v>100</v>
@@ -5331,8 +6824,13 @@
       <c r="W102" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH102" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI102" s="100"/>
+      <c r="AQ102" s="51"/>
+    </row>
+    <row r="103" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="92"/>
       <c r="C103" s="49">
         <v>101</v>
@@ -5373,8 +6871,15 @@
       <c r="W103" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH103" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI103" s="100"/>
+      <c r="AN103" s="51"/>
+      <c r="AO103" s="51"/>
+      <c r="AP103" s="51"/>
+    </row>
+    <row r="104" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="92"/>
       <c r="C104" s="49">
         <v>102</v>
@@ -5415,8 +6920,15 @@
       <c r="W104" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH104" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI104" s="100"/>
+      <c r="AN104" s="51"/>
+      <c r="AO104" s="51"/>
+      <c r="AP104" s="51"/>
+    </row>
+    <row r="105" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="92"/>
       <c r="C105" s="49">
         <v>103</v>
@@ -5457,8 +6969,15 @@
       <c r="W105" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH105" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI105" s="100"/>
+      <c r="AN105" s="51"/>
+      <c r="AO105" s="51"/>
+      <c r="AP105" s="51"/>
+    </row>
+    <row r="106" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="92"/>
       <c r="C106" s="49">
         <v>104</v>
@@ -5499,8 +7018,17 @@
       <c r="W106" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH106" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI106" s="100"/>
+      <c r="AN106" s="51"/>
+      <c r="AO106" s="51"/>
+      <c r="AP106" s="51"/>
+      <c r="AQ106" s="51"/>
+      <c r="AR106" s="51"/>
+    </row>
+    <row r="107" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="92"/>
       <c r="C107" s="49">
         <v>105</v>
@@ -5541,8 +7069,17 @@
       <c r="W107" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH107" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI107" s="100"/>
+      <c r="AN107" s="51"/>
+      <c r="AO107" s="51"/>
+      <c r="AP107" s="51"/>
+      <c r="AQ107" s="51"/>
+      <c r="AR107" s="51"/>
+    </row>
+    <row r="108" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="92"/>
       <c r="C108" s="49">
         <v>106</v>
@@ -5583,8 +7120,14 @@
       <c r="W108" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH108" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI108" s="100"/>
+      <c r="AQ108" s="51"/>
+      <c r="AR108" s="51"/>
+    </row>
+    <row r="109" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="92"/>
       <c r="C109" s="49">
         <v>107</v>
@@ -5625,8 +7168,13 @@
       <c r="W109" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH109" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI109" s="100"/>
+      <c r="AQ109" s="51"/>
+    </row>
+    <row r="110" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="93"/>
       <c r="C110" s="49">
         <v>108</v>
@@ -5667,8 +7215,13 @@
       <c r="W110" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH110" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI110" s="100"/>
+      <c r="AQ110" s="51"/>
+    </row>
+    <row r="111" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="91" t="s">
         <v>3</v>
       </c>
@@ -5711,8 +7264,17 @@
       <c r="W111" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH111" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI111" s="100"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+    </row>
+    <row r="112" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="92"/>
       <c r="C112" s="49">
         <v>110</v>
@@ -5753,8 +7315,13 @@
       <c r="W112" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH112" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI112" s="100"/>
+      <c r="AQ112" s="1"/>
+    </row>
+    <row r="113" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="92"/>
       <c r="C113" s="49">
         <v>111</v>
@@ -5795,8 +7362,13 @@
       <c r="W113" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH113" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI113" s="100"/>
+      <c r="AQ113" s="1"/>
+    </row>
+    <row r="114" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="92"/>
       <c r="C114" s="49">
         <v>112</v>
@@ -5837,8 +7409,16 @@
       <c r="W114" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH114" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI114" s="103"/>
+      <c r="AN114" s="51"/>
+      <c r="AO114" s="51"/>
+      <c r="AP114" s="51"/>
+      <c r="AR114" s="51"/>
+    </row>
+    <row r="115" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="92"/>
       <c r="C115" s="49">
         <v>113</v>
@@ -5879,8 +7459,14 @@
       <c r="W115" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH115" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI115" s="104"/>
+      <c r="AQ115" s="51"/>
+      <c r="AR115" s="51"/>
+    </row>
+    <row r="116" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="92"/>
       <c r="C116" s="49">
         <v>114</v>
@@ -5921,8 +7507,14 @@
       <c r="W116" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH116" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI116" s="104"/>
+      <c r="AQ116" s="51"/>
+      <c r="AR116" s="51"/>
+    </row>
+    <row r="117" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="92"/>
       <c r="C117" s="49">
         <v>115</v>
@@ -5963,8 +7555,16 @@
       <c r="W117" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH117" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI117" s="104"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AR117" s="1"/>
+    </row>
+    <row r="118" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="92"/>
       <c r="C118" s="49">
         <v>116</v>
@@ -6005,8 +7605,17 @@
       <c r="W118" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH118" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI118" s="100"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+    </row>
+    <row r="119" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="92"/>
       <c r="C119" s="49">
         <v>117</v>
@@ -6047,8 +7656,17 @@
       <c r="W119" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH119" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI119" s="100"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+    </row>
+    <row r="120" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="92"/>
       <c r="C120" s="49">
         <v>118</v>
@@ -6089,8 +7707,17 @@
       <c r="W120" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH120" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI120" s="100"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+    </row>
+    <row r="121" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="92"/>
       <c r="C121" s="49">
         <v>119</v>
@@ -6131,8 +7758,16 @@
       <c r="W121" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH121" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI121" s="100"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+    </row>
+    <row r="122" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="92"/>
       <c r="C122" s="49">
         <v>120</v>
@@ -6173,8 +7808,13 @@
       <c r="W122" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH122" s="102">
+        <v>678</v>
+      </c>
+      <c r="AI122" s="100"/>
+      <c r="AR122" s="51"/>
+    </row>
+    <row r="123" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="92"/>
       <c r="C123" s="49">
         <v>121</v>
@@ -6215,8 +7855,13 @@
       <c r="W123" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH123" s="102">
+        <v>684</v>
+      </c>
+      <c r="AI123" s="100"/>
+      <c r="AR123" s="51"/>
+    </row>
+    <row r="124" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="92"/>
       <c r="C124" s="49">
         <v>122</v>
@@ -6257,8 +7902,12 @@
       <c r="W124" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH124" s="102">
+        <v>690</v>
+      </c>
+      <c r="AI124" s="100"/>
+    </row>
+    <row r="125" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="92"/>
       <c r="C125" s="49">
         <v>123</v>
@@ -6299,8 +7948,12 @@
       <c r="W125" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH125" s="102">
+        <v>696</v>
+      </c>
+      <c r="AI125" s="100"/>
+    </row>
+    <row r="126" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="92"/>
       <c r="C126" s="49">
         <v>124</v>
@@ -6341,8 +7994,12 @@
       <c r="W126" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH126" s="102">
+        <v>702</v>
+      </c>
+      <c r="AI126" s="100"/>
+    </row>
+    <row r="127" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="92"/>
       <c r="C127" s="49">
         <v>125</v>
@@ -6383,8 +8040,12 @@
       <c r="W127" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH127" s="102">
+        <v>708</v>
+      </c>
+      <c r="AI127" s="100"/>
+    </row>
+    <row r="128" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="92"/>
       <c r="C128" s="49">
         <v>126</v>
@@ -6425,8 +8086,12 @@
       <c r="W128" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH128" s="102">
+        <v>714</v>
+      </c>
+      <c r="AI128" s="100"/>
+    </row>
+    <row r="129" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="92"/>
       <c r="C129" s="49">
         <v>127</v>
@@ -6467,8 +8132,12 @@
       <c r="W129" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH129" s="102">
+        <v>720</v>
+      </c>
+      <c r="AI129" s="100"/>
+    </row>
+    <row r="130" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="92"/>
       <c r="C130" s="49">
         <v>128</v>
@@ -6509,8 +8178,12 @@
       <c r="W130" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH130" s="102">
+        <v>726</v>
+      </c>
+      <c r="AI130" s="100"/>
+    </row>
+    <row r="131" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="92"/>
       <c r="C131" s="49">
         <v>129</v>
@@ -6551,8 +8224,12 @@
       <c r="W131" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH131" s="102">
+        <v>732</v>
+      </c>
+      <c r="AI131" s="100"/>
+    </row>
+    <row r="132" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="92"/>
       <c r="C132" s="49">
         <v>130</v>
@@ -6593,8 +8270,12 @@
       <c r="W132" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH132" s="102">
+        <v>738</v>
+      </c>
+      <c r="AI132" s="103"/>
+    </row>
+    <row r="133" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="92"/>
       <c r="C133" s="49">
         <v>131</v>
@@ -6635,8 +8316,12 @@
       <c r="W133" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH133" s="102">
+        <v>744</v>
+      </c>
+      <c r="AI133" s="104"/>
+    </row>
+    <row r="134" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="92"/>
       <c r="C134" s="49">
         <v>132</v>
@@ -6677,8 +8362,12 @@
       <c r="W134" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH134" s="102">
+        <v>750</v>
+      </c>
+      <c r="AI134" s="104"/>
+    </row>
+    <row r="135" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="92"/>
       <c r="C135" s="49">
         <v>133</v>
@@ -6719,8 +8408,12 @@
       <c r="W135" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="136" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH135" s="102">
+        <v>756</v>
+      </c>
+      <c r="AI135" s="104"/>
+    </row>
+    <row r="136" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="92"/>
       <c r="C136" s="49">
         <v>134</v>
@@ -6761,8 +8454,12 @@
       <c r="W136" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH136" s="102">
+        <v>762</v>
+      </c>
+      <c r="AI136" s="100"/>
+    </row>
+    <row r="137" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="92"/>
       <c r="C137" s="49">
         <v>135</v>
@@ -6803,8 +8500,12 @@
       <c r="W137" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="138" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH137" s="102">
+        <v>768</v>
+      </c>
+      <c r="AI137" s="100"/>
+    </row>
+    <row r="138" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="92"/>
       <c r="C138" s="49">
         <v>136</v>
@@ -6845,8 +8546,12 @@
       <c r="W138" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH138" s="102">
+        <v>774</v>
+      </c>
+      <c r="AI138" s="100"/>
+    </row>
+    <row r="139" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="92"/>
       <c r="C139" s="49">
         <v>137</v>
@@ -6887,8 +8592,12 @@
       <c r="W139" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH139" s="102">
+        <v>780</v>
+      </c>
+      <c r="AI139" s="100"/>
+    </row>
+    <row r="140" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="92"/>
       <c r="C140" s="49">
         <v>138</v>
@@ -6929,8 +8638,12 @@
       <c r="W140" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH140" s="102">
+        <v>786</v>
+      </c>
+      <c r="AI140" s="100"/>
+    </row>
+    <row r="141" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="92"/>
       <c r="C141" s="49">
         <v>139</v>
@@ -6971,8 +8684,12 @@
       <c r="W141" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH141" s="102">
+        <v>792</v>
+      </c>
+      <c r="AI141" s="100"/>
+    </row>
+    <row r="142" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="92"/>
       <c r="C142" s="49">
         <v>140</v>
@@ -7013,8 +8730,12 @@
       <c r="W142" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH142" s="102">
+        <v>798</v>
+      </c>
+      <c r="AI142" s="100"/>
+    </row>
+    <row r="143" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="92"/>
       <c r="C143" s="49">
         <v>141</v>
@@ -7055,8 +8776,12 @@
       <c r="W143" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="144" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH143" s="102">
+        <v>804</v>
+      </c>
+      <c r="AI143" s="100"/>
+    </row>
+    <row r="144" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="92"/>
       <c r="C144" s="49">
         <v>142</v>
@@ -7097,8 +8822,12 @@
       <c r="W144" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="145" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH144" s="102">
+        <v>810</v>
+      </c>
+      <c r="AI144" s="100"/>
+    </row>
+    <row r="145" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="92"/>
       <c r="C145" s="49">
         <v>143</v>
@@ -7139,8 +8868,12 @@
       <c r="W145" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH145" s="102">
+        <v>816</v>
+      </c>
+      <c r="AI145" s="100"/>
+    </row>
+    <row r="146" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="92"/>
       <c r="C146" s="49">
         <v>144</v>
@@ -7181,8 +8914,12 @@
       <c r="W146" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH146" s="102">
+        <v>822</v>
+      </c>
+      <c r="AI146" s="100"/>
+    </row>
+    <row r="147" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="92"/>
       <c r="C147" s="49">
         <v>145</v>
@@ -7223,8 +8960,12 @@
       <c r="W147" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH147" s="102">
+        <v>828</v>
+      </c>
+      <c r="AI147" s="100"/>
+    </row>
+    <row r="148" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="92"/>
       <c r="C148" s="49">
         <v>146</v>
@@ -7265,8 +9006,12 @@
       <c r="W148" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH148" s="102">
+        <v>834</v>
+      </c>
+      <c r="AI148" s="100"/>
+    </row>
+    <row r="149" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="92"/>
       <c r="C149" s="49">
         <v>147</v>
@@ -7307,8 +9052,12 @@
       <c r="W149" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH149" s="102">
+        <v>840</v>
+      </c>
+      <c r="AI149" s="100"/>
+    </row>
+    <row r="150" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="92"/>
       <c r="C150" s="49">
         <v>148</v>
@@ -7349,8 +9098,12 @@
       <c r="W150" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH150" s="102">
+        <v>846</v>
+      </c>
+      <c r="AI150" s="103"/>
+    </row>
+    <row r="151" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="92"/>
       <c r="C151" s="49">
         <v>149</v>
@@ -7391,8 +9144,12 @@
       <c r="W151" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH151" s="102">
+        <v>852</v>
+      </c>
+      <c r="AI151" s="104"/>
+    </row>
+    <row r="152" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="92"/>
       <c r="C152" s="49">
         <v>150</v>
@@ -7433,8 +9190,12 @@
       <c r="W152" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH152" s="102">
+        <v>858</v>
+      </c>
+      <c r="AI152" s="104"/>
+    </row>
+    <row r="153" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="92"/>
       <c r="C153" s="49">
         <v>151</v>
@@ -7475,8 +9236,12 @@
       <c r="W153" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH153" s="102">
+        <v>864</v>
+      </c>
+      <c r="AI153" s="104"/>
+    </row>
+    <row r="154" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="92"/>
       <c r="C154" s="49">
         <v>152</v>
@@ -7517,8 +9282,12 @@
       <c r="W154" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH154" s="102">
+        <v>870</v>
+      </c>
+      <c r="AI154" s="105"/>
+    </row>
+    <row r="155" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="92"/>
       <c r="C155" s="49">
         <v>153</v>
@@ -7559,8 +9328,12 @@
       <c r="W155" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH155" s="102">
+        <v>876</v>
+      </c>
+      <c r="AI155" s="105"/>
+    </row>
+    <row r="156" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="92"/>
       <c r="C156" s="49">
         <v>154</v>
@@ -7601,8 +9374,12 @@
       <c r="W156" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="157" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH156" s="102">
+        <v>882</v>
+      </c>
+      <c r="AI156" s="105"/>
+    </row>
+    <row r="157" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="92"/>
       <c r="C157" s="49">
         <v>155</v>
@@ -7643,8 +9420,12 @@
       <c r="W157" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH157" s="102">
+        <v>888</v>
+      </c>
+      <c r="AI157" s="105"/>
+    </row>
+    <row r="158" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="92"/>
       <c r="C158" s="49">
         <v>156</v>
@@ -7685,8 +9466,12 @@
       <c r="W158" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH158" s="102">
+        <v>894</v>
+      </c>
+      <c r="AI158" s="105"/>
+    </row>
+    <row r="159" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="92"/>
       <c r="C159" s="49">
         <v>157</v>
@@ -7727,8 +9512,12 @@
       <c r="W159" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH159" s="102">
+        <v>900</v>
+      </c>
+      <c r="AI159" s="105"/>
+    </row>
+    <row r="160" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="92"/>
       <c r="C160" s="49">
         <v>158</v>
@@ -7769,8 +9558,12 @@
       <c r="W160" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH160" s="102">
+        <v>906</v>
+      </c>
+      <c r="AI160" s="105"/>
+    </row>
+    <row r="161" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="92"/>
       <c r="C161" s="49">
         <v>159</v>
@@ -7811,8 +9604,12 @@
       <c r="W161" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH161" s="102">
+        <v>912</v>
+      </c>
+      <c r="AI161" s="105"/>
+    </row>
+    <row r="162" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="92"/>
       <c r="C162" s="49">
         <v>160</v>
@@ -7853,8 +9650,12 @@
       <c r="W162" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH162" s="102">
+        <v>918</v>
+      </c>
+      <c r="AI162" s="105"/>
+    </row>
+    <row r="163" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="92"/>
       <c r="C163" s="49">
         <v>161</v>
@@ -7895,8 +9696,12 @@
       <c r="W163" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH163" s="102">
+        <v>924</v>
+      </c>
+      <c r="AI163" s="105"/>
+    </row>
+    <row r="164" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="92"/>
       <c r="C164" s="49">
         <v>162</v>
@@ -7937,8 +9742,12 @@
       <c r="W164" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH164" s="102">
+        <v>930</v>
+      </c>
+      <c r="AI164" s="105"/>
+    </row>
+    <row r="165" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="92"/>
       <c r="C165" s="49">
         <v>163</v>
@@ -7979,8 +9788,12 @@
       <c r="W165" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH165" s="102">
+        <v>936</v>
+      </c>
+      <c r="AI165" s="105"/>
+    </row>
+    <row r="166" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="92"/>
       <c r="C166" s="49">
         <v>164</v>
@@ -8021,8 +9834,12 @@
       <c r="W166" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH166" s="102">
+        <v>942</v>
+      </c>
+      <c r="AI166" s="105"/>
+    </row>
+    <row r="167" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="92"/>
       <c r="C167" s="49">
         <v>165</v>
@@ -8063,8 +9880,12 @@
       <c r="W167" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="168" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH167" s="102">
+        <v>948</v>
+      </c>
+      <c r="AI167" s="105"/>
+    </row>
+    <row r="168" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="92"/>
       <c r="C168" s="49">
         <v>166</v>
@@ -8105,8 +9926,12 @@
       <c r="W168" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH168" s="102">
+        <v>954</v>
+      </c>
+      <c r="AI168" s="105"/>
+    </row>
+    <row r="169" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="92"/>
       <c r="C169" s="49">
         <v>167</v>
@@ -8147,8 +9972,12 @@
       <c r="W169" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH169" s="102">
+        <v>960</v>
+      </c>
+      <c r="AI169" s="105"/>
+    </row>
+    <row r="170" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="92"/>
       <c r="C170" s="49">
         <v>168</v>
@@ -8189,8 +10018,12 @@
       <c r="W170" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="171" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH170" s="102">
+        <v>966</v>
+      </c>
+      <c r="AI170" s="105"/>
+    </row>
+    <row r="171" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="92"/>
       <c r="C171" s="49">
         <v>169</v>
@@ -8231,8 +10064,12 @@
       <c r="W171" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH171" s="102">
+        <v>972</v>
+      </c>
+      <c r="AI171" s="105"/>
+    </row>
+    <row r="172" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="92"/>
       <c r="C172" s="49">
         <v>170</v>
@@ -8273,8 +10110,9 @@
       <c r="W172" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI172" s="105"/>
+    </row>
+    <row r="173" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="92"/>
       <c r="C173" s="49">
         <v>171</v>
@@ -8315,8 +10153,9 @@
       <c r="W173" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI173" s="105"/>
+    </row>
+    <row r="174" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="92"/>
       <c r="C174" s="49">
         <v>172</v>
@@ -8357,8 +10196,9 @@
       <c r="W174" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI174" s="105"/>
+    </row>
+    <row r="175" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="92"/>
       <c r="C175" s="49">
         <v>173</v>
@@ -8399,8 +10239,9 @@
       <c r="W175" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI175" s="105"/>
+    </row>
+    <row r="176" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="92"/>
       <c r="C176" s="49">
         <v>174</v>
@@ -8441,8 +10282,9 @@
       <c r="W176" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="177" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI176" s="105"/>
+    </row>
+    <row r="177" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="92"/>
       <c r="C177" s="49">
         <v>175</v>
@@ -8483,8 +10325,9 @@
       <c r="W177" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI177" s="105"/>
+    </row>
+    <row r="178" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="92"/>
       <c r="C178" s="49">
         <v>176</v>
@@ -8525,8 +10368,9 @@
       <c r="W178" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI178" s="105"/>
+    </row>
+    <row r="179" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="92"/>
       <c r="C179" s="49">
         <v>177</v>
@@ -8567,8 +10411,9 @@
       <c r="W179" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="180" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI179" s="105"/>
+    </row>
+    <row r="180" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="92"/>
       <c r="C180" s="49">
         <v>178</v>
@@ -8609,8 +10454,9 @@
       <c r="W180" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI180" s="105"/>
+    </row>
+    <row r="181" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="92"/>
       <c r="C181" s="49">
         <v>179</v>
@@ -8651,8 +10497,9 @@
       <c r="W181" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="182" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI181" s="105"/>
+    </row>
+    <row r="182" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="92"/>
       <c r="C182" s="49">
         <v>180</v>
@@ -8693,8 +10540,9 @@
       <c r="W182" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="183" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI182" s="105"/>
+    </row>
+    <row r="183" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="92"/>
       <c r="C183" s="49">
         <v>181</v>
@@ -8735,8 +10583,9 @@
       <c r="W183" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI183" s="105"/>
+    </row>
+    <row r="184" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="92"/>
       <c r="C184" s="49">
         <v>182</v>
@@ -8777,8 +10626,9 @@
       <c r="W184" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="185" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI184" s="105"/>
+    </row>
+    <row r="185" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="92"/>
       <c r="C185" s="49">
         <v>183</v>
@@ -8819,8 +10669,9 @@
       <c r="W185" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="186" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI185" s="105"/>
+    </row>
+    <row r="186" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="92"/>
       <c r="C186" s="49">
         <v>184</v>
@@ -8861,8 +10712,9 @@
       <c r="W186" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI186" s="105"/>
+    </row>
+    <row r="187" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="92"/>
       <c r="C187" s="49">
         <v>185</v>
@@ -8903,8 +10755,9 @@
       <c r="W187" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI187" s="105"/>
+    </row>
+    <row r="188" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="92"/>
       <c r="C188" s="49">
         <v>186</v>
@@ -8945,8 +10798,9 @@
       <c r="W188" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="189" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI188" s="105"/>
+    </row>
+    <row r="189" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="92"/>
       <c r="C189" s="49">
         <v>187</v>
@@ -8987,8 +10841,9 @@
       <c r="W189" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI189" s="105"/>
+    </row>
+    <row r="190" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="92"/>
       <c r="C190" s="49">
         <v>188</v>
@@ -9029,8 +10884,9 @@
       <c r="W190" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI190" s="105"/>
+    </row>
+    <row r="191" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="92"/>
       <c r="C191" s="49">
         <v>189</v>
@@ -9071,8 +10927,9 @@
       <c r="W191" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI191" s="105"/>
+    </row>
+    <row r="192" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="92"/>
       <c r="C192" s="49">
         <v>190</v>
@@ -9113,8 +10970,9 @@
       <c r="W192" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI192" s="105"/>
+    </row>
+    <row r="193" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="92"/>
       <c r="C193" s="49">
         <v>191</v>
@@ -9155,8 +11013,9 @@
       <c r="W193" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI193" s="105"/>
+    </row>
+    <row r="194" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="92"/>
       <c r="C194" s="49">
         <v>192</v>
@@ -9197,8 +11056,9 @@
       <c r="W194" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI194" s="105"/>
+    </row>
+    <row r="195" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="92"/>
       <c r="C195" s="49">
         <v>193</v>
@@ -9239,8 +11099,9 @@
       <c r="W195" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI195" s="105"/>
+    </row>
+    <row r="196" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="92"/>
       <c r="C196" s="49">
         <v>194</v>
@@ -9281,8 +11142,9 @@
       <c r="W196" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="197" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI196" s="105"/>
+    </row>
+    <row r="197" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="92"/>
       <c r="C197" s="49">
         <v>195</v>
@@ -9323,8 +11185,9 @@
       <c r="W197" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI197" s="105"/>
+    </row>
+    <row r="198" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="92"/>
       <c r="C198" s="49">
         <v>196</v>
@@ -9365,8 +11228,9 @@
       <c r="W198" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI198" s="105"/>
+    </row>
+    <row r="199" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="92"/>
       <c r="C199" s="49">
         <v>197</v>
@@ -9407,8 +11271,9 @@
       <c r="W199" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI199" s="105"/>
+    </row>
+    <row r="200" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="92"/>
       <c r="C200" s="49">
         <v>198</v>
@@ -9449,8 +11314,9 @@
       <c r="W200" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="201" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI200" s="105"/>
+    </row>
+    <row r="201" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="92"/>
       <c r="C201" s="49">
         <v>199</v>
@@ -9491,8 +11357,9 @@
       <c r="W201" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="202" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI201" s="105"/>
+    </row>
+    <row r="202" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="92"/>
       <c r="C202" s="49">
         <v>200</v>
@@ -9533,8 +11400,9 @@
       <c r="W202" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="203" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI202" s="105"/>
+    </row>
+    <row r="203" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="92"/>
       <c r="C203" s="49">
         <v>201</v>
@@ -9575,8 +11443,9 @@
       <c r="W203" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="204" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI203" s="105"/>
+    </row>
+    <row r="204" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="92"/>
       <c r="C204" s="49">
         <v>202</v>
@@ -9617,8 +11486,9 @@
       <c r="W204" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="205" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI204" s="105"/>
+    </row>
+    <row r="205" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="92"/>
       <c r="C205" s="49">
         <v>203</v>
@@ -9659,8 +11529,12 @@
       <c r="W205" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI205" s="105"/>
+      <c r="AN205" s="51"/>
+      <c r="AO205" s="51"/>
+      <c r="AP205" s="51"/>
+    </row>
+    <row r="206" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="92"/>
       <c r="C206" s="49">
         <v>204</v>
@@ -9701,8 +11575,12 @@
       <c r="W206" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="207" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI206" s="105"/>
+      <c r="AN206" s="51"/>
+      <c r="AO206" s="51"/>
+      <c r="AP206" s="51"/>
+    </row>
+    <row r="207" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="92"/>
       <c r="C207" s="49">
         <v>205</v>
@@ -9743,8 +11621,12 @@
       <c r="W207" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="208" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI207" s="105"/>
+      <c r="AN207" s="51"/>
+      <c r="AO207" s="51"/>
+      <c r="AP207" s="51"/>
+    </row>
+    <row r="208" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="92"/>
       <c r="C208" s="49">
         <v>206</v>
@@ -9785,8 +11667,10 @@
       <c r="W208" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="209" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI208" s="105"/>
+      <c r="AQ208" s="51"/>
+    </row>
+    <row r="209" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="92"/>
       <c r="C209" s="49">
         <v>207</v>
@@ -9827,8 +11711,10 @@
       <c r="W209" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="210" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI209" s="105"/>
+      <c r="AQ209" s="51"/>
+    </row>
+    <row r="210" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="92"/>
       <c r="C210" s="49">
         <v>208</v>
@@ -9869,8 +11755,10 @@
       <c r="W210" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI210" s="105"/>
+      <c r="AQ210" s="51"/>
+    </row>
+    <row r="211" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="92"/>
       <c r="C211" s="49">
         <v>209</v>
@@ -9911,8 +11799,12 @@
       <c r="W211" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="212" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI211" s="105"/>
+      <c r="AN211" s="51"/>
+      <c r="AO211" s="51"/>
+      <c r="AP211" s="51"/>
+    </row>
+    <row r="212" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="92"/>
       <c r="C212" s="49">
         <v>210</v>
@@ -9953,8 +11845,12 @@
       <c r="W212" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="213" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI212" s="105"/>
+      <c r="AN212" s="51"/>
+      <c r="AO212" s="51"/>
+      <c r="AP212" s="51"/>
+    </row>
+    <row r="213" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="92"/>
       <c r="C213" s="49">
         <v>211</v>
@@ -9995,8 +11891,12 @@
       <c r="W213" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="214" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI213" s="105"/>
+      <c r="AN213" s="51"/>
+      <c r="AO213" s="51"/>
+      <c r="AP213" s="51"/>
+    </row>
+    <row r="214" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="92"/>
       <c r="C214" s="49">
         <v>212</v>
@@ -10037,8 +11937,14 @@
       <c r="W214" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="215" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI214" s="105"/>
+      <c r="AN214" s="51"/>
+      <c r="AO214" s="51"/>
+      <c r="AP214" s="51"/>
+      <c r="AQ214" s="51"/>
+      <c r="AR214" s="51"/>
+    </row>
+    <row r="215" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="92"/>
       <c r="C215" s="49">
         <v>213</v>
@@ -10079,8 +11985,14 @@
       <c r="W215" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="216" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI215" s="105"/>
+      <c r="AN215" s="51"/>
+      <c r="AO215" s="51"/>
+      <c r="AP215" s="51"/>
+      <c r="AQ215" s="51"/>
+      <c r="AR215" s="51"/>
+    </row>
+    <row r="216" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="92"/>
       <c r="C216" s="49">
         <v>214</v>
@@ -10121,8 +12033,11 @@
       <c r="W216" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="217" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI216" s="105"/>
+      <c r="AQ216" s="51"/>
+      <c r="AR216" s="51"/>
+    </row>
+    <row r="217" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="92"/>
       <c r="C217" s="49">
         <v>215</v>
@@ -10163,8 +12078,10 @@
       <c r="W217" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="218" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI217" s="105"/>
+      <c r="AQ217" s="51"/>
+    </row>
+    <row r="218" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="93"/>
       <c r="C218" s="49">
         <v>216</v>
@@ -10205,8 +12122,10 @@
       <c r="W218" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="219" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI218" s="105"/>
+      <c r="AQ218" s="51"/>
+    </row>
+    <row r="219" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="91" t="s">
         <v>3</v>
       </c>
@@ -10249,8 +12168,14 @@
       <c r="W219" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="220" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI219" s="105"/>
+      <c r="AN219" s="1"/>
+      <c r="AO219" s="1"/>
+      <c r="AP219" s="1"/>
+      <c r="AQ219" s="1"/>
+      <c r="AR219" s="1"/>
+    </row>
+    <row r="220" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="92"/>
       <c r="C220" s="49">
         <v>218</v>
@@ -10291,8 +12216,10 @@
       <c r="W220" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="221" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI220" s="105"/>
+      <c r="AQ220" s="1"/>
+    </row>
+    <row r="221" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="92"/>
       <c r="C221" s="49">
         <v>219</v>
@@ -10333,8 +12260,10 @@
       <c r="W221" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="222" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI221" s="105"/>
+      <c r="AQ221" s="1"/>
+    </row>
+    <row r="222" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="92"/>
       <c r="C222" s="49">
         <v>220</v>
@@ -10375,8 +12304,13 @@
       <c r="W222" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI222" s="105"/>
+      <c r="AN222" s="51"/>
+      <c r="AO222" s="51"/>
+      <c r="AP222" s="51"/>
+      <c r="AR222" s="51"/>
+    </row>
+    <row r="223" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="92"/>
       <c r="C223" s="49">
         <v>221</v>
@@ -10417,8 +12351,11 @@
       <c r="W223" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="224" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI223" s="105"/>
+      <c r="AQ223" s="51"/>
+      <c r="AR223" s="51"/>
+    </row>
+    <row r="224" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="92"/>
       <c r="C224" s="49">
         <v>222</v>
@@ -10459,8 +12396,11 @@
       <c r="W224" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="225" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI224" s="105"/>
+      <c r="AQ224" s="51"/>
+      <c r="AR224" s="51"/>
+    </row>
+    <row r="225" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="92"/>
       <c r="C225" s="49">
         <v>223</v>
@@ -10501,8 +12441,13 @@
       <c r="W225" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="226" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI225" s="105"/>
+      <c r="AN225" s="1"/>
+      <c r="AO225" s="1"/>
+      <c r="AP225" s="1"/>
+      <c r="AR225" s="1"/>
+    </row>
+    <row r="226" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="92"/>
       <c r="C226" s="49">
         <v>224</v>
@@ -10543,8 +12488,13 @@
       <c r="W226" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="227" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN226" s="1"/>
+      <c r="AO226" s="1"/>
+      <c r="AP226" s="1"/>
+      <c r="AQ226" s="1"/>
+      <c r="AR226" s="1"/>
+    </row>
+    <row r="227" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="92"/>
       <c r="C227" s="49">
         <v>225</v>
@@ -10585,8 +12535,13 @@
       <c r="W227" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="228" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN227" s="1"/>
+      <c r="AO227" s="1"/>
+      <c r="AP227" s="1"/>
+      <c r="AQ227" s="1"/>
+      <c r="AR227" s="1"/>
+    </row>
+    <row r="228" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="92"/>
       <c r="C228" s="49">
         <v>226</v>
@@ -10627,8 +12582,13 @@
       <c r="W228" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="229" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN228" s="1"/>
+      <c r="AO228" s="1"/>
+      <c r="AP228" s="1"/>
+      <c r="AQ228" s="1"/>
+      <c r="AR228" s="1"/>
+    </row>
+    <row r="229" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="92"/>
       <c r="C229" s="49">
         <v>227</v>
@@ -10669,8 +12629,12 @@
       <c r="W229" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="230" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN229" s="1"/>
+      <c r="AO229" s="1"/>
+      <c r="AP229" s="1"/>
+      <c r="AQ229" s="1"/>
+    </row>
+    <row r="230" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="92"/>
       <c r="C230" s="49">
         <v>228</v>
@@ -10711,8 +12675,9 @@
       <c r="W230" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR230" s="51"/>
+    </row>
+    <row r="231" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="92"/>
       <c r="C231" s="49">
         <v>229</v>
@@ -10753,8 +12718,9 @@
       <c r="W231" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="232" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR231" s="51"/>
+    </row>
+    <row r="232" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="92"/>
       <c r="C232" s="49">
         <v>230</v>
@@ -10796,7 +12762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="92"/>
       <c r="C233" s="49">
         <v>231</v>
@@ -10838,7 +12804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="92"/>
       <c r="C234" s="49">
         <v>232</v>
@@ -10879,8 +12845,13 @@
       <c r="W234" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="235" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN234" s="1"/>
+      <c r="AO234" s="1"/>
+      <c r="AP234" s="1"/>
+      <c r="AQ234" s="1"/>
+      <c r="AR234" s="1"/>
+    </row>
+    <row r="235" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="92"/>
       <c r="C235" s="49">
         <v>233</v>
@@ -10921,8 +12892,13 @@
       <c r="W235" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="236" spans="2:23" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN235" s="1"/>
+      <c r="AO235" s="1"/>
+      <c r="AP235" s="1"/>
+      <c r="AQ235" s="1"/>
+      <c r="AR235" s="1"/>
+    </row>
+    <row r="236" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="92"/>
       <c r="C236" s="49">
         <v>234</v>
@@ -10963,8 +12939,13 @@
       <c r="W236" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="237" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN236" s="1"/>
+      <c r="AO236" s="1"/>
+      <c r="AP236" s="1"/>
+      <c r="AQ236" s="1"/>
+      <c r="AR236" s="1"/>
+    </row>
+    <row r="237" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="92"/>
       <c r="C237" s="49">
         <v>235</v>
@@ -11006,7 +12987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="92"/>
       <c r="C238" s="49">
         <v>236</v>
@@ -11048,7 +13029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="92"/>
       <c r="C239" s="49">
         <v>237</v>
@@ -11090,7 +13071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="92"/>
       <c r="C240" s="49">
         <v>238</v>
@@ -24539,6 +26520,9 @@
         <v>0</v>
       </c>
       <c r="V565" s="23"/>
+      <c r="W565" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="566" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="87">
@@ -24577,6 +26561,9 @@
       <c r="V566" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W566" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="567" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="87">
@@ -24615,6 +26602,9 @@
       </c>
       <c r="U567" s="23"/>
       <c r="V567" s="23"/>
+      <c r="W567" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="568" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="87">
@@ -24653,6 +26643,9 @@
         <v>0</v>
       </c>
       <c r="V568" s="23"/>
+      <c r="W568" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="569" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="87">
@@ -24691,6 +26684,9 @@
       <c r="V569" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W569" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="570" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="87">
@@ -24729,6 +26725,9 @@
       </c>
       <c r="U570" s="23"/>
       <c r="V570" s="23"/>
+      <c r="W570" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="571" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="87">
@@ -24767,6 +26766,9 @@
         <v>0</v>
       </c>
       <c r="V571" s="23"/>
+      <c r="W571" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="572" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="87">
@@ -24805,6 +26807,9 @@
       <c r="V572" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W572" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="573" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="87">
@@ -24843,6 +26848,9 @@
       </c>
       <c r="U573" s="23"/>
       <c r="V573" s="23"/>
+      <c r="W573" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="574" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="87">
@@ -24881,6 +26889,9 @@
         <v>0</v>
       </c>
       <c r="V574" s="23"/>
+      <c r="W574" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="575" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="87">
@@ -24919,6 +26930,9 @@
       <c r="V575" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W575" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="576" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="87">
@@ -24957,8 +26971,11 @@
       </c>
       <c r="U576" s="23"/>
       <c r="V576" s="23"/>
-    </row>
-    <row r="577" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W576" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="577" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="87">
         <v>575</v>
       </c>
@@ -24995,8 +27012,11 @@
         <v>0</v>
       </c>
       <c r="V577" s="23"/>
-    </row>
-    <row r="578" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W577" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="578" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="87">
         <v>576</v>
       </c>
@@ -25033,8 +27053,11 @@
       <c r="V578" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W578" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="579" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="87">
         <v>577</v>
       </c>
@@ -25071,8 +27094,11 @@
       </c>
       <c r="U579" s="23"/>
       <c r="V579" s="23"/>
-    </row>
-    <row r="580" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W579" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="580" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="87">
         <v>578</v>
       </c>
@@ -25109,8 +27135,11 @@
         <v>0</v>
       </c>
       <c r="V580" s="23"/>
-    </row>
-    <row r="581" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W580" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="581" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="87">
         <v>579</v>
       </c>
@@ -25147,8 +27176,11 @@
       <c r="V581" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W581" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="87">
         <v>580</v>
       </c>
@@ -25185,8 +27217,11 @@
       </c>
       <c r="U582" s="23"/>
       <c r="V582" s="23"/>
-    </row>
-    <row r="583" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W582" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="583" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="87">
         <v>581</v>
       </c>
@@ -25223,8 +27258,11 @@
         <v>0</v>
       </c>
       <c r="V583" s="23"/>
-    </row>
-    <row r="584" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W583" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="87">
         <v>582</v>
       </c>
@@ -25261,8 +27299,11 @@
       <c r="V584" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W584" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="585" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="87">
         <v>583</v>
       </c>
@@ -25299,8 +27340,11 @@
       </c>
       <c r="U585" s="23"/>
       <c r="V585" s="23"/>
-    </row>
-    <row r="586" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W585" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="586" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="87">
         <v>584</v>
       </c>
@@ -25337,8 +27381,11 @@
         <v>0</v>
       </c>
       <c r="V586" s="23"/>
-    </row>
-    <row r="587" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W586" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="587" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="87">
         <v>585</v>
       </c>
@@ -25375,8 +27422,11 @@
       <c r="V587" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W587" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="87">
         <v>586</v>
       </c>
@@ -25413,8 +27463,11 @@
       </c>
       <c r="U588" s="23"/>
       <c r="V588" s="23"/>
-    </row>
-    <row r="589" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W588" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="589" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="87">
         <v>587</v>
       </c>
@@ -25451,8 +27504,11 @@
         <v>0</v>
       </c>
       <c r="V589" s="23"/>
-    </row>
-    <row r="590" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W589" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="590" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="87">
         <v>588</v>
       </c>
@@ -25489,8 +27545,11 @@
       <c r="V590" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W590" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="591" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="87">
         <v>589</v>
       </c>
@@ -25528,7 +27587,7 @@
       <c r="U591" s="23"/>
       <c r="V591" s="23"/>
     </row>
-    <row r="592" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="87">
         <v>590</v>
       </c>
@@ -28791,6 +30850,9 @@
       </c>
       <c r="U675" s="3"/>
       <c r="V675" s="3"/>
+      <c r="W675" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="676" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="83">
@@ -28829,6 +30891,9 @@
         <v>0</v>
       </c>
       <c r="V676" s="3"/>
+      <c r="W676" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="677" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="83">
@@ -28867,6 +30932,9 @@
       <c r="V677" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W677" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="678" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="83">
@@ -28905,6 +30973,9 @@
       </c>
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
+      <c r="W678" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="679" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="83">
@@ -28943,6 +31014,9 @@
         <v>0</v>
       </c>
       <c r="V679" s="3"/>
+      <c r="W679" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="680" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="83">
@@ -28980,6 +31054,9 @@
       <c r="U680" s="3"/>
       <c r="V680" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W680" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="681" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29019,6 +31096,9 @@
       </c>
       <c r="U681" s="3"/>
       <c r="V681" s="3"/>
+      <c r="W681" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="682" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="83">
@@ -29057,6 +31137,9 @@
         <v>0</v>
       </c>
       <c r="V682" s="3"/>
+      <c r="W682" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="683" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="83">
@@ -29095,6 +31178,9 @@
       <c r="V683" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W683" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="684" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="83">
@@ -29133,6 +31219,9 @@
       </c>
       <c r="U684" s="3"/>
       <c r="V684" s="3"/>
+      <c r="W684" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="685" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="83">
@@ -29171,6 +31260,9 @@
         <v>0</v>
       </c>
       <c r="V685" s="3"/>
+      <c r="W685" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="686" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="83">
@@ -29209,6 +31301,9 @@
       <c r="V686" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W686" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="687" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="83">
@@ -29247,6 +31342,9 @@
       </c>
       <c r="U687" s="3"/>
       <c r="V687" s="3"/>
+      <c r="W687" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="688" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="83">
@@ -29285,8 +31383,11 @@
         <v>0</v>
       </c>
       <c r="V688" s="3"/>
-    </row>
-    <row r="689" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W688" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="689" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C689" s="83">
         <v>687</v>
       </c>
@@ -29323,8 +31424,11 @@
       <c r="V689" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="690" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W689" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C690" s="83">
         <v>688</v>
       </c>
@@ -29361,8 +31465,11 @@
       </c>
       <c r="U690" s="3"/>
       <c r="V690" s="3"/>
-    </row>
-    <row r="691" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W690" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="691" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C691" s="83">
         <v>689</v>
       </c>
@@ -29399,8 +31506,11 @@
         <v>0</v>
       </c>
       <c r="V691" s="3"/>
-    </row>
-    <row r="692" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W691" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="692" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C692" s="83">
         <v>690</v>
       </c>
@@ -29437,8 +31547,11 @@
       <c r="V692" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="693" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W692" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C693" s="83">
         <v>691</v>
       </c>
@@ -29475,8 +31588,11 @@
       </c>
       <c r="U693" s="3"/>
       <c r="V693" s="3"/>
-    </row>
-    <row r="694" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W693" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C694" s="83">
         <v>692</v>
       </c>
@@ -29513,8 +31629,11 @@
         <v>0</v>
       </c>
       <c r="V694" s="3"/>
-    </row>
-    <row r="695" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W694" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C695" s="83">
         <v>693</v>
       </c>
@@ -29551,8 +31670,11 @@
       <c r="V695" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="696" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W695" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C696" s="83">
         <v>694</v>
       </c>
@@ -29589,8 +31711,11 @@
       </c>
       <c r="U696" s="3"/>
       <c r="V696" s="3"/>
-    </row>
-    <row r="697" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W696" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="697" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C697" s="83">
         <v>695</v>
       </c>
@@ -29627,8 +31752,11 @@
         <v>0</v>
       </c>
       <c r="V697" s="3"/>
-    </row>
-    <row r="698" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W697" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="698" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C698" s="83">
         <v>696</v>
       </c>
@@ -29665,8 +31793,11 @@
       <c r="V698" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="699" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W698" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="699" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C699" s="83">
         <v>697</v>
       </c>
@@ -29703,8 +31834,11 @@
       </c>
       <c r="U699" s="3"/>
       <c r="V699" s="3"/>
-    </row>
-    <row r="700" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W699" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="700" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C700" s="83">
         <v>698</v>
       </c>
@@ -29741,8 +31875,11 @@
         <v>0</v>
       </c>
       <c r="V700" s="3"/>
-    </row>
-    <row r="701" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W700" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C701" s="83">
         <v>699</v>
       </c>
@@ -29779,8 +31916,11 @@
       <c r="V701" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="702" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W701" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="702" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C702" s="83">
         <v>700</v>
       </c>
@@ -29817,8 +31957,11 @@
       </c>
       <c r="U702" s="3"/>
       <c r="V702" s="3"/>
-    </row>
-    <row r="703" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W702" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="703" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C703" s="83">
         <v>701</v>
       </c>
@@ -29855,8 +31998,11 @@
         <v>0</v>
       </c>
       <c r="V703" s="3"/>
-    </row>
-    <row r="704" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W703" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="704" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C704" s="83">
         <v>702</v>
       </c>
@@ -29893,8 +32039,11 @@
       <c r="V704" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="705" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W704" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="705" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C705" s="83">
         <v>703</v>
       </c>
@@ -29931,8 +32080,11 @@
       </c>
       <c r="U705" s="3"/>
       <c r="V705" s="3"/>
-    </row>
-    <row r="706" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W705" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="706" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C706" s="83">
         <v>704</v>
       </c>
@@ -29969,8 +32121,11 @@
         <v>0</v>
       </c>
       <c r="V706" s="3"/>
-    </row>
-    <row r="707" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W706" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="707" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="83">
         <v>705</v>
       </c>
@@ -30007,8 +32162,11 @@
       <c r="V707" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="708" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W707" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="708" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C708" s="83">
         <v>706</v>
       </c>
@@ -30045,8 +32203,11 @@
       </c>
       <c r="U708" s="3"/>
       <c r="V708" s="3"/>
-    </row>
-    <row r="709" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W708" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C709" s="83">
         <v>707</v>
       </c>
@@ -30083,8 +32244,11 @@
         <v>0</v>
       </c>
       <c r="V709" s="3"/>
-    </row>
-    <row r="710" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W709" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="710" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C710" s="83">
         <v>708</v>
       </c>
@@ -30121,8 +32285,11 @@
       <c r="V710" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="711" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W710" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C711" s="83">
         <v>709</v>
       </c>
@@ -30159,8 +32326,11 @@
       </c>
       <c r="U711" s="3"/>
       <c r="V711" s="3"/>
-    </row>
-    <row r="712" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W711" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="712" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C712" s="83">
         <v>710</v>
       </c>
@@ -30197,8 +32367,11 @@
         <v>0</v>
       </c>
       <c r="V712" s="3"/>
-    </row>
-    <row r="713" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W712" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="713" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C713" s="83">
         <v>711</v>
       </c>
@@ -30235,8 +32408,11 @@
       <c r="V713" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="714" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W713" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="714" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C714" s="83">
         <v>712</v>
       </c>
@@ -30273,8 +32449,11 @@
       </c>
       <c r="U714" s="3"/>
       <c r="V714" s="3"/>
-    </row>
-    <row r="715" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W714" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C715" s="83">
         <v>713</v>
       </c>
@@ -30311,8 +32490,11 @@
         <v>0</v>
       </c>
       <c r="V715" s="3"/>
-    </row>
-    <row r="716" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W715" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C716" s="83">
         <v>714</v>
       </c>
@@ -30349,8 +32531,11 @@
       <c r="V716" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="717" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W716" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C717" s="83">
         <v>715</v>
       </c>
@@ -30387,8 +32572,11 @@
       </c>
       <c r="U717" s="3"/>
       <c r="V717" s="3"/>
-    </row>
-    <row r="718" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W717" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="718" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C718" s="83">
         <v>716</v>
       </c>
@@ -30425,8 +32613,11 @@
         <v>0</v>
       </c>
       <c r="V718" s="3"/>
-    </row>
-    <row r="719" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W718" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="719" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C719" s="83">
         <v>717</v>
       </c>
@@ -30463,8 +32654,11 @@
       <c r="V719" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="720" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W719" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="720" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C720" s="83">
         <v>718</v>
       </c>
@@ -30501,8 +32695,11 @@
       </c>
       <c r="U720" s="3"/>
       <c r="V720" s="3"/>
-    </row>
-    <row r="721" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W720" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C721" s="83">
         <v>719</v>
       </c>
@@ -30539,8 +32736,11 @@
         <v>0</v>
       </c>
       <c r="V721" s="3"/>
-    </row>
-    <row r="722" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W721" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="722" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C722" s="83">
         <v>720</v>
       </c>
@@ -30577,8 +32777,11 @@
       <c r="V722" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="723" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W722" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="723" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C723" s="83">
         <v>721</v>
       </c>
@@ -30615,8 +32818,11 @@
       </c>
       <c r="U723" s="3"/>
       <c r="V723" s="3"/>
-    </row>
-    <row r="724" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W723" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="724" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C724" s="83">
         <v>722</v>
       </c>
@@ -30653,8 +32859,11 @@
         <v>0</v>
       </c>
       <c r="V724" s="3"/>
-    </row>
-    <row r="725" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W724" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="725" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C725" s="83">
         <v>723</v>
       </c>
@@ -30691,8 +32900,11 @@
       <c r="V725" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="726" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W725" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="726" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C726" s="83">
         <v>724</v>
       </c>
@@ -30729,8 +32941,11 @@
       </c>
       <c r="U726" s="3"/>
       <c r="V726" s="3"/>
-    </row>
-    <row r="727" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W726" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="727" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C727" s="83">
         <v>725</v>
       </c>
@@ -30767,8 +32982,11 @@
         <v>0</v>
       </c>
       <c r="V727" s="3"/>
-    </row>
-    <row r="728" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W727" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C728" s="83">
         <v>726</v>
       </c>
@@ -30805,8 +33023,11 @@
       <c r="V728" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="729" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W728" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C729" s="83">
         <v>727</v>
       </c>
@@ -30843,8 +33064,11 @@
       </c>
       <c r="U729" s="3"/>
       <c r="V729" s="3"/>
-    </row>
-    <row r="730" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W729" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="730" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C730" s="83">
         <v>728</v>
       </c>
@@ -30881,8 +33105,11 @@
         <v>0</v>
       </c>
       <c r="V730" s="3"/>
-    </row>
-    <row r="731" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W730" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="731" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C731" s="83">
         <v>729</v>
       </c>
@@ -30919,8 +33146,11 @@
       <c r="V731" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="732" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W731" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C732" s="83">
         <v>730</v>
       </c>
@@ -30957,8 +33187,11 @@
       </c>
       <c r="U732" s="3"/>
       <c r="V732" s="3"/>
-    </row>
-    <row r="733" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W732" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="733" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C733" s="83">
         <v>731</v>
       </c>
@@ -30995,8 +33228,11 @@
         <v>0</v>
       </c>
       <c r="V733" s="3"/>
-    </row>
-    <row r="734" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W733" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="734" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C734" s="83">
         <v>732</v>
       </c>
@@ -31033,8 +33269,11 @@
       <c r="V734" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="735" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W734" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="735" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C735" s="83">
         <v>733</v>
       </c>
@@ -31071,8 +33310,11 @@
       </c>
       <c r="U735" s="3"/>
       <c r="V735" s="3"/>
-    </row>
-    <row r="736" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W735" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="736" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C736" s="83">
         <v>734</v>
       </c>
@@ -31109,8 +33351,11 @@
         <v>0</v>
       </c>
       <c r="V736" s="3"/>
-    </row>
-    <row r="737" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W736" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="737" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C737" s="83">
         <v>735</v>
       </c>
@@ -31147,8 +33392,11 @@
       <c r="V737" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="738" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W737" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="738" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C738" s="83">
         <v>736</v>
       </c>
@@ -31185,8 +33433,11 @@
       </c>
       <c r="U738" s="3"/>
       <c r="V738" s="3"/>
-    </row>
-    <row r="739" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W738" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="739" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C739" s="83">
         <v>737</v>
       </c>
@@ -31223,8 +33474,11 @@
         <v>0</v>
       </c>
       <c r="V739" s="3"/>
-    </row>
-    <row r="740" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W739" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="740" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C740" s="83">
         <v>738</v>
       </c>
@@ -31261,8 +33515,11 @@
       <c r="V740" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="741" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W740" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="741" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C741" s="83">
         <v>739</v>
       </c>
@@ -31299,8 +33556,11 @@
       </c>
       <c r="U741" s="3"/>
       <c r="V741" s="3"/>
-    </row>
-    <row r="742" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W741" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C742" s="83">
         <v>740</v>
       </c>
@@ -31337,8 +33597,11 @@
         <v>0</v>
       </c>
       <c r="V742" s="3"/>
-    </row>
-    <row r="743" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W742" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="743" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C743" s="83">
         <v>741</v>
       </c>
@@ -31375,8 +33638,11 @@
       <c r="V743" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="744" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W743" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="744" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C744" s="83">
         <v>742</v>
       </c>
@@ -31413,8 +33679,11 @@
       </c>
       <c r="U744" s="3"/>
       <c r="V744" s="3"/>
-    </row>
-    <row r="745" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W744" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="745" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C745" s="83">
         <v>743</v>
       </c>
@@ -31451,8 +33720,11 @@
         <v>0</v>
       </c>
       <c r="V745" s="3"/>
-    </row>
-    <row r="746" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W745" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="746" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C746" s="83">
         <v>744</v>
       </c>
@@ -31489,8 +33761,11 @@
       <c r="V746" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="747" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W746" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="747" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C747" s="83">
         <v>745</v>
       </c>
@@ -31527,8 +33802,11 @@
       </c>
       <c r="U747" s="3"/>
       <c r="V747" s="3"/>
-    </row>
-    <row r="748" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W747" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="748" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C748" s="83">
         <v>746</v>
       </c>
@@ -31565,8 +33843,11 @@
         <v>0</v>
       </c>
       <c r="V748" s="3"/>
-    </row>
-    <row r="749" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W748" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="749" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C749" s="83">
         <v>747</v>
       </c>
@@ -31603,8 +33884,11 @@
       <c r="V749" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="750" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W749" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="750" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C750" s="83">
         <v>748</v>
       </c>
@@ -31641,8 +33925,11 @@
       </c>
       <c r="U750" s="3"/>
       <c r="V750" s="3"/>
-    </row>
-    <row r="751" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W750" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="751" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C751" s="83">
         <v>749</v>
       </c>
@@ -31679,8 +33966,11 @@
         <v>0</v>
       </c>
       <c r="V751" s="3"/>
-    </row>
-    <row r="752" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W751" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C752" s="83">
         <v>750</v>
       </c>
@@ -31717,8 +34007,11 @@
       <c r="V752" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="753" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W752" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="753" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C753" s="83">
         <v>751</v>
       </c>
@@ -31755,8 +34048,11 @@
       </c>
       <c r="U753" s="3"/>
       <c r="V753" s="3"/>
-    </row>
-    <row r="754" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W753" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="754" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C754" s="83">
         <v>752</v>
       </c>
@@ -31793,8 +34089,11 @@
         <v>0</v>
       </c>
       <c r="V754" s="3"/>
-    </row>
-    <row r="755" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W754" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="755" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C755" s="83">
         <v>753</v>
       </c>
@@ -31831,8 +34130,11 @@
       <c r="V755" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="756" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W755" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="756" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C756" s="83">
         <v>754</v>
       </c>
@@ -31869,8 +34171,11 @@
       </c>
       <c r="U756" s="3"/>
       <c r="V756" s="3"/>
-    </row>
-    <row r="757" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W756" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="757" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C757" s="83">
         <v>755</v>
       </c>
@@ -31907,8 +34212,11 @@
         <v>0</v>
       </c>
       <c r="V757" s="3"/>
-    </row>
-    <row r="758" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W757" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="758" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C758" s="83">
         <v>756</v>
       </c>
@@ -31945,8 +34253,11 @@
       <c r="V758" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="759" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W758" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="759" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C759" s="83">
         <v>757</v>
       </c>
@@ -31983,8 +34294,11 @@
       </c>
       <c r="U759" s="10"/>
       <c r="V759" s="10"/>
-    </row>
-    <row r="760" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W759" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="760" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C760" s="83">
         <v>758</v>
       </c>
@@ -32021,8 +34335,11 @@
         <v>0</v>
       </c>
       <c r="V760" s="3"/>
-    </row>
-    <row r="761" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W760" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="761" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C761" s="83">
         <v>759</v>
       </c>
@@ -32059,8 +34376,11 @@
       <c r="V761" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="762" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W761" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="762" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C762" s="83">
         <v>760</v>
       </c>
@@ -32097,8 +34417,11 @@
       </c>
       <c r="U762" s="3"/>
       <c r="V762" s="3"/>
-    </row>
-    <row r="763" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W762" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="763" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C763" s="83">
         <v>761</v>
       </c>
@@ -32135,8 +34458,11 @@
         <v>0</v>
       </c>
       <c r="V763" s="3"/>
-    </row>
-    <row r="764" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W763" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="764" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="83">
         <v>762</v>
       </c>
@@ -32173,8 +34499,11 @@
       <c r="V764" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="765" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W764" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="765" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C765" s="83">
         <v>763</v>
       </c>
@@ -32211,8 +34540,11 @@
       </c>
       <c r="U765" s="3"/>
       <c r="V765" s="3"/>
-    </row>
-    <row r="766" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W765" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="766" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C766" s="83">
         <v>764</v>
       </c>
@@ -32249,8 +34581,11 @@
         <v>0</v>
       </c>
       <c r="V766" s="3"/>
-    </row>
-    <row r="767" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W766" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="767" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C767" s="83">
         <v>765</v>
       </c>
@@ -32287,8 +34622,11 @@
       <c r="V767" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="768" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W767" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="768" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C768" s="83">
         <v>766</v>
       </c>
@@ -32325,8 +34663,11 @@
       </c>
       <c r="U768" s="3"/>
       <c r="V768" s="3"/>
-    </row>
-    <row r="769" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W768" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="769" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C769" s="83">
         <v>767</v>
       </c>
@@ -32363,8 +34704,11 @@
         <v>0</v>
       </c>
       <c r="V769" s="3"/>
-    </row>
-    <row r="770" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W769" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="770" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C770" s="83">
         <v>768</v>
       </c>
@@ -32401,8 +34745,11 @@
       <c r="V770" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="771" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W770" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="771" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C771" s="83">
         <v>769</v>
       </c>
@@ -32439,8 +34786,11 @@
       </c>
       <c r="U771" s="3"/>
       <c r="V771" s="3"/>
-    </row>
-    <row r="772" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W771" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="772" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C772" s="83">
         <v>770</v>
       </c>
@@ -32477,8 +34827,11 @@
         <v>0</v>
       </c>
       <c r="V772" s="3"/>
-    </row>
-    <row r="773" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W772" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="773" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C773" s="83">
         <v>771</v>
       </c>
@@ -32515,8 +34868,11 @@
       <c r="V773" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="774" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W773" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="774" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C774" s="83">
         <v>772</v>
       </c>
@@ -32553,8 +34909,11 @@
       </c>
       <c r="U774" s="3"/>
       <c r="V774" s="3"/>
-    </row>
-    <row r="775" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W774" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="775" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C775" s="83">
         <v>773</v>
       </c>
@@ -32591,8 +34950,11 @@
         <v>0</v>
       </c>
       <c r="V775" s="3"/>
-    </row>
-    <row r="776" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W775" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="776" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C776" s="83">
         <v>774</v>
       </c>
@@ -32629,8 +34991,11 @@
       <c r="V776" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="777" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W776" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="777" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C777" s="83">
         <v>775</v>
       </c>
@@ -32667,8 +35032,11 @@
       </c>
       <c r="U777" s="3"/>
       <c r="V777" s="3"/>
-    </row>
-    <row r="778" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W777" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="778" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C778" s="83">
         <v>776</v>
       </c>
@@ -32705,8 +35073,11 @@
         <v>0</v>
       </c>
       <c r="V778" s="3"/>
-    </row>
-    <row r="779" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W778" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="779" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C779" s="83">
         <v>777</v>
       </c>
@@ -32743,8 +35114,11 @@
       <c r="V779" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="780" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W779" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="780" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C780" s="83">
         <v>778</v>
       </c>
@@ -32781,8 +35155,11 @@
       </c>
       <c r="U780" s="3"/>
       <c r="V780" s="3"/>
-    </row>
-    <row r="781" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W780" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="781" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C781" s="83">
         <v>779</v>
       </c>
@@ -32819,8 +35196,11 @@
         <v>0</v>
       </c>
       <c r="V781" s="3"/>
-    </row>
-    <row r="782" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W781" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="782" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C782" s="83">
         <v>780</v>
       </c>
@@ -32857,8 +35237,11 @@
       <c r="V782" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="783" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W782" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="783" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C783" s="83">
         <v>781</v>
       </c>
@@ -32895,8 +35278,11 @@
       </c>
       <c r="U783" s="3"/>
       <c r="V783" s="3"/>
-    </row>
-    <row r="784" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W783" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="784" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C784" s="83">
         <v>782</v>
       </c>
@@ -32933,8 +35319,11 @@
         <v>0</v>
       </c>
       <c r="V784" s="3"/>
-    </row>
-    <row r="785" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W784" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="785" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C785" s="83">
         <v>783</v>
       </c>
@@ -32971,8 +35360,11 @@
       <c r="V785" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="786" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W785" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="786" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C786" s="83">
         <v>784</v>
       </c>
@@ -33009,8 +35401,11 @@
       </c>
       <c r="U786" s="3"/>
       <c r="V786" s="3"/>
-    </row>
-    <row r="787" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W786" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="787" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C787" s="83">
         <v>785</v>
       </c>
@@ -33047,8 +35442,11 @@
         <v>0</v>
       </c>
       <c r="V787" s="3"/>
-    </row>
-    <row r="788" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W787" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="788" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C788" s="83">
         <v>786</v>
       </c>
@@ -33085,8 +35483,11 @@
       <c r="V788" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="789" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W788" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="789" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C789" s="83">
         <v>787</v>
       </c>
@@ -33123,8 +35524,11 @@
       </c>
       <c r="U789" s="3"/>
       <c r="V789" s="3"/>
-    </row>
-    <row r="790" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W789" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="790" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C790" s="83">
         <v>788</v>
       </c>
@@ -33161,8 +35565,11 @@
         <v>0</v>
       </c>
       <c r="V790" s="3"/>
-    </row>
-    <row r="791" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W790" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="791" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C791" s="83">
         <v>789</v>
       </c>
@@ -33199,8 +35606,11 @@
       <c r="V791" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="792" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W791" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="792" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C792" s="83">
         <v>790</v>
       </c>
@@ -33237,8 +35647,11 @@
       </c>
       <c r="U792" s="3"/>
       <c r="V792" s="3"/>
-    </row>
-    <row r="793" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W792" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="793" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C793" s="83">
         <v>791</v>
       </c>
@@ -33275,8 +35688,11 @@
         <v>0</v>
       </c>
       <c r="V793" s="3"/>
-    </row>
-    <row r="794" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W793" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="794" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C794" s="83">
         <v>792</v>
       </c>
@@ -33313,8 +35729,11 @@
       <c r="V794" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="795" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W794" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="795" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C795" s="83">
         <v>793</v>
       </c>
@@ -33351,8 +35770,11 @@
       </c>
       <c r="U795" s="3"/>
       <c r="V795" s="3"/>
-    </row>
-    <row r="796" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W795" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="796" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C796" s="83">
         <v>794</v>
       </c>
@@ -33389,8 +35811,11 @@
         <v>0</v>
       </c>
       <c r="V796" s="3"/>
-    </row>
-    <row r="797" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W796" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="797" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C797" s="83">
         <v>795</v>
       </c>
@@ -33427,8 +35852,11 @@
       <c r="V797" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="798" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W797" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="798" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C798" s="83">
         <v>796</v>
       </c>
@@ -33465,8 +35893,11 @@
       </c>
       <c r="U798" s="3"/>
       <c r="V798" s="3"/>
-    </row>
-    <row r="799" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W798" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="799" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C799" s="83">
         <v>797</v>
       </c>
@@ -33503,8 +35934,11 @@
         <v>0</v>
       </c>
       <c r="V799" s="3"/>
-    </row>
-    <row r="800" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W799" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="800" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C800" s="83">
         <v>798</v>
       </c>
@@ -33541,8 +35975,11 @@
       <c r="V800" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="801" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W800" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="801" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C801" s="83">
         <v>799</v>
       </c>
@@ -33579,8 +36016,11 @@
       </c>
       <c r="U801" s="3"/>
       <c r="V801" s="3"/>
-    </row>
-    <row r="802" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W801" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="802" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C802" s="83">
         <v>800</v>
       </c>
@@ -33617,8 +36057,11 @@
         <v>0</v>
       </c>
       <c r="V802" s="3"/>
-    </row>
-    <row r="803" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W802" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="803" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C803" s="83">
         <v>801</v>
       </c>
@@ -33655,8 +36098,11 @@
       <c r="V803" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="804" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W803" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="804" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C804" s="83">
         <v>802</v>
       </c>
@@ -33693,8 +36139,11 @@
       </c>
       <c r="U804" s="3"/>
       <c r="V804" s="3"/>
-    </row>
-    <row r="805" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W804" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="805" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C805" s="83">
         <v>803</v>
       </c>
@@ -33731,8 +36180,11 @@
         <v>0</v>
       </c>
       <c r="V805" s="3"/>
-    </row>
-    <row r="806" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W805" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="806" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C806" s="83">
         <v>804</v>
       </c>
@@ -33769,8 +36221,11 @@
       <c r="V806" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="807" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W806" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="807" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C807" s="83">
         <v>805</v>
       </c>
@@ -33807,8 +36262,11 @@
       </c>
       <c r="U807" s="3"/>
       <c r="V807" s="3"/>
-    </row>
-    <row r="808" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W807" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="808" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C808" s="83">
         <v>806</v>
       </c>
@@ -33845,8 +36303,11 @@
         <v>0</v>
       </c>
       <c r="V808" s="3"/>
-    </row>
-    <row r="809" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W808" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="809" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C809" s="83">
         <v>807</v>
       </c>
@@ -33883,8 +36344,11 @@
       <c r="V809" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="810" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W809" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="810" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C810" s="83">
         <v>808</v>
       </c>
@@ -33921,8 +36385,11 @@
       </c>
       <c r="U810" s="3"/>
       <c r="V810" s="3"/>
-    </row>
-    <row r="811" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W810" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="811" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C811" s="83">
         <v>809</v>
       </c>
@@ -33959,8 +36426,11 @@
         <v>0</v>
       </c>
       <c r="V811" s="3"/>
-    </row>
-    <row r="812" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W811" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="812" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C812" s="83">
         <v>810</v>
       </c>
@@ -33997,8 +36467,11 @@
       <c r="V812" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="813" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W812" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="813" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C813" s="83">
         <v>811</v>
       </c>
@@ -34035,8 +36508,11 @@
       </c>
       <c r="U813" s="3"/>
       <c r="V813" s="3"/>
-    </row>
-    <row r="814" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W813" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="814" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C814" s="83">
         <v>812</v>
       </c>
@@ -34073,8 +36549,11 @@
         <v>0</v>
       </c>
       <c r="V814" s="3"/>
-    </row>
-    <row r="815" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W814" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="815" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C815" s="83">
         <v>813</v>
       </c>
@@ -34111,8 +36590,11 @@
       <c r="V815" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="816" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W815" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="816" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C816" s="83">
         <v>814</v>
       </c>
@@ -34149,8 +36631,11 @@
       </c>
       <c r="U816" s="3"/>
       <c r="V816" s="3"/>
-    </row>
-    <row r="817" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W816" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="817" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C817" s="83">
         <v>815</v>
       </c>
@@ -34187,8 +36672,11 @@
         <v>0</v>
       </c>
       <c r="V817" s="3"/>
-    </row>
-    <row r="818" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W817" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="818" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C818" s="83">
         <v>816</v>
       </c>
@@ -34225,8 +36713,11 @@
       <c r="V818" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="819" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W818" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="819" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C819" s="83">
         <v>817</v>
       </c>
@@ -34263,8 +36754,11 @@
       </c>
       <c r="U819" s="3"/>
       <c r="V819" s="3"/>
-    </row>
-    <row r="820" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W819" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="820" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C820" s="83">
         <v>818</v>
       </c>
@@ -34301,8 +36795,11 @@
         <v>0</v>
       </c>
       <c r="V820" s="3"/>
-    </row>
-    <row r="821" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W820" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C821" s="83">
         <v>819</v>
       </c>
@@ -34339,8 +36836,11 @@
       <c r="V821" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="822" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W821" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="822" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C822" s="83">
         <v>820</v>
       </c>
@@ -34377,8 +36877,11 @@
       </c>
       <c r="U822" s="3"/>
       <c r="V822" s="3"/>
-    </row>
-    <row r="823" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W822" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="823" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C823" s="83">
         <v>821</v>
       </c>
@@ -34415,8 +36918,11 @@
         <v>0</v>
       </c>
       <c r="V823" s="3"/>
-    </row>
-    <row r="824" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W823" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="824" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C824" s="83">
         <v>822</v>
       </c>
@@ -34453,8 +36959,11 @@
       <c r="V824" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="825" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W824" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="825" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C825" s="83">
         <v>823</v>
       </c>
@@ -34491,8 +37000,11 @@
       </c>
       <c r="U825" s="3"/>
       <c r="V825" s="3"/>
-    </row>
-    <row r="826" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W825" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="826" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C826" s="83">
         <v>824</v>
       </c>
@@ -34529,8 +37041,11 @@
         <v>0</v>
       </c>
       <c r="V826" s="3"/>
-    </row>
-    <row r="827" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W826" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="827" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C827" s="83">
         <v>825</v>
       </c>
@@ -34567,8 +37082,11 @@
       <c r="V827" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="828" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W827" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="828" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C828" s="83">
         <v>826</v>
       </c>
@@ -34605,8 +37123,11 @@
       </c>
       <c r="U828" s="3"/>
       <c r="V828" s="3"/>
-    </row>
-    <row r="829" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W828" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="829" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C829" s="83">
         <v>827</v>
       </c>
@@ -34643,8 +37164,11 @@
         <v>0</v>
       </c>
       <c r="V829" s="3"/>
-    </row>
-    <row r="830" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W829" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="830" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C830" s="83">
         <v>828</v>
       </c>
@@ -34681,8 +37205,11 @@
       <c r="V830" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="831" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W830" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="831" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C831" s="83">
         <v>829</v>
       </c>
@@ -34719,8 +37246,11 @@
       </c>
       <c r="U831" s="3"/>
       <c r="V831" s="3"/>
-    </row>
-    <row r="832" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W831" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="832" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C832" s="83">
         <v>830</v>
       </c>
@@ -34757,8 +37287,11 @@
         <v>0</v>
       </c>
       <c r="V832" s="3"/>
-    </row>
-    <row r="833" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W832" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="833" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C833" s="83">
         <v>831</v>
       </c>
@@ -34795,8 +37328,11 @@
       <c r="V833" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="834" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W833" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="834" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C834" s="83">
         <v>832</v>
       </c>
@@ -34833,8 +37369,11 @@
       </c>
       <c r="U834" s="3"/>
       <c r="V834" s="3"/>
-    </row>
-    <row r="835" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W834" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="835" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C835" s="83">
         <v>833</v>
       </c>
@@ -34871,8 +37410,11 @@
         <v>0</v>
       </c>
       <c r="V835" s="3"/>
-    </row>
-    <row r="836" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W835" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="836" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C836" s="83">
         <v>834</v>
       </c>
@@ -34909,8 +37451,11 @@
       <c r="V836" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="837" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W836" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="837" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C837" s="83">
         <v>835</v>
       </c>
@@ -34948,7 +37493,7 @@
       <c r="U837" s="3"/>
       <c r="V837" s="3"/>
     </row>
-    <row r="838" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="83">
         <v>836</v>
       </c>
@@ -34986,7 +37531,7 @@
       </c>
       <c r="V838" s="3"/>
     </row>
-    <row r="839" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="83">
         <v>837</v>
       </c>
@@ -35024,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="83">
         <v>838</v>
       </c>
@@ -35062,7 +37607,7 @@
       <c r="U840" s="3"/>
       <c r="V840" s="3"/>
     </row>
-    <row r="841" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="83">
         <v>839</v>
       </c>
@@ -35100,7 +37645,7 @@
       </c>
       <c r="V841" s="3"/>
     </row>
-    <row r="842" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="83">
         <v>840</v>
       </c>
@@ -35138,7 +37683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C843" s="83">
         <v>841</v>
       </c>
@@ -35176,7 +37721,7 @@
       <c r="U843" s="3"/>
       <c r="V843" s="3"/>
     </row>
-    <row r="844" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="83">
         <v>842</v>
       </c>
@@ -35214,7 +37759,7 @@
       </c>
       <c r="V844" s="3"/>
     </row>
-    <row r="845" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="83">
         <v>843</v>
       </c>
@@ -35252,7 +37797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="83">
         <v>844</v>
       </c>
@@ -35290,7 +37835,7 @@
       <c r="U846" s="3"/>
       <c r="V846" s="3"/>
     </row>
-    <row r="847" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="83">
         <v>845</v>
       </c>
@@ -35328,7 +37873,7 @@
       </c>
       <c r="V847" s="3"/>
     </row>
-    <row r="848" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="83">
         <v>846</v>
       </c>
@@ -40169,5 +42714,22 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="AE10 AI10" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8A718-611A-324E-B1A5-A751F5E96302}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection sqref="A1:A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7DDAF-42F5-7644-935C-326464B17497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5DCDD7-D81A-924F-98B3-69AB0BECA2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="22100" windowWidth="27640" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21440" windowHeight="18740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7929" uniqueCount="284">
   <si>
     <t>X</t>
   </si>
@@ -725,6 +725,171 @@
   <si>
     <t>672-675</t>
   </si>
+  <si>
+    <t>678-681</t>
+  </si>
+  <si>
+    <t>684-687</t>
+  </si>
+  <si>
+    <t>690-693</t>
+  </si>
+  <si>
+    <t>696-699</t>
+  </si>
+  <si>
+    <t>702-705</t>
+  </si>
+  <si>
+    <t>708-711</t>
+  </si>
+  <si>
+    <t>714-717</t>
+  </si>
+  <si>
+    <t>720-723</t>
+  </si>
+  <si>
+    <t>726-729</t>
+  </si>
+  <si>
+    <t>732-735</t>
+  </si>
+  <si>
+    <t>738-741</t>
+  </si>
+  <si>
+    <t>744-747</t>
+  </si>
+  <si>
+    <t>750-753</t>
+  </si>
+  <si>
+    <t>756-759</t>
+  </si>
+  <si>
+    <t>762-765</t>
+  </si>
+  <si>
+    <t>768-771</t>
+  </si>
+  <si>
+    <t>774-777</t>
+  </si>
+  <si>
+    <t>780-783</t>
+  </si>
+  <si>
+    <t>786-789</t>
+  </si>
+  <si>
+    <t>792-795</t>
+  </si>
+  <si>
+    <t>798-801</t>
+  </si>
+  <si>
+    <t>804-807</t>
+  </si>
+  <si>
+    <t>810-813</t>
+  </si>
+  <si>
+    <t>816-819</t>
+  </si>
+  <si>
+    <t>822-825</t>
+  </si>
+  <si>
+    <t>828-831</t>
+  </si>
+  <si>
+    <t>834-837</t>
+  </si>
+  <si>
+    <t>840-843</t>
+  </si>
+  <si>
+    <t>846-849</t>
+  </si>
+  <si>
+    <t>852-855</t>
+  </si>
+  <si>
+    <t>858-861</t>
+  </si>
+  <si>
+    <t>864-867</t>
+  </si>
+  <si>
+    <t>870-873</t>
+  </si>
+  <si>
+    <t>876-879</t>
+  </si>
+  <si>
+    <t>882-885</t>
+  </si>
+  <si>
+    <t>888-891</t>
+  </si>
+  <si>
+    <t>894-897</t>
+  </si>
+  <si>
+    <t>900-903</t>
+  </si>
+  <si>
+    <t>906-909</t>
+  </si>
+  <si>
+    <t>912-915</t>
+  </si>
+  <si>
+    <t>918-921</t>
+  </si>
+  <si>
+    <t>924-927</t>
+  </si>
+  <si>
+    <t>930-933</t>
+  </si>
+  <si>
+    <t>936-939</t>
+  </si>
+  <si>
+    <t>942-945</t>
+  </si>
+  <si>
+    <t>948-951</t>
+  </si>
+  <si>
+    <t>954-957</t>
+  </si>
+  <si>
+    <t>960-963</t>
+  </si>
+  <si>
+    <t>966-969</t>
+  </si>
+  <si>
+    <t>13-14-15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
 </sst>
 </file>
 
@@ -1313,21 +1478,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,6 +1508,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,11 +1848,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AR974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="U803" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="65" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="S853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W834" sqref="W834:W836"/>
+      <selection pane="bottomRight" activeCell="AB875" sqref="AB875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1700,50 +1865,44 @@
     <col min="18" max="19" width="10.83203125" style="1"/>
     <col min="20" max="22" width="10.83203125" style="2"/>
     <col min="23" max="28" width="10.83203125" style="1"/>
-    <col min="29" max="29" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="15.83203125" style="1" customWidth="1"/>
     <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="90" t="s">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="94" t="s">
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94" t="s">
+      <c r="K1" s="106"/>
+      <c r="L1" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="90" t="s">
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="S1" s="102"/>
+      <c r="T1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
     </row>
     <row r="2" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="51" t="s">
@@ -1808,7 +1967,7 @@
       </c>
     </row>
     <row r="3" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="52">
@@ -1852,7 +2011,7 @@
       </c>
     </row>
     <row r="4" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="92"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -1894,7 +2053,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -1936,7 +2095,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="92"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -1978,7 +2137,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -2020,7 +2179,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="92"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -2083,7 +2242,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -2123,30 +2282,30 @@
       <c r="W9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC9" s="96" t="s">
+      <c r="AC9" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="96" t="s">
+      <c r="AD9" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="96" t="s">
+      <c r="AE9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="96" t="s">
+      <c r="AF9" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="AG9" s="96" t="s">
+      <c r="AG9" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="96" t="s">
+      <c r="AH9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="AI9" s="96" t="s">
+      <c r="AI9" s="91" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="92"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -2186,32 +2345,32 @@
       <c r="W10" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="99" t="s">
+      <c r="AC10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="AD10" s="99" t="s">
+      <c r="AD10" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="99" t="s">
+      <c r="AE10" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF10" s="99" t="s">
+      <c r="AF10" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AG10" s="99" t="s">
+      <c r="AG10" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="99" t="s">
+      <c r="AH10" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="99" t="s">
+      <c r="AI10" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
     </row>
     <row r="11" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="92"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -2251,28 +2410,30 @@
       <c r="W11" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="100" t="s">
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="99" t="s">
+      <c r="AE11" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="AF11" s="99" t="s">
+      <c r="AF11" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="AG11" s="99" t="s">
+      <c r="AG11" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AH11" s="99" t="s">
+      <c r="AH11" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="97"/>
+      <c r="AI11" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
     </row>
     <row r="12" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="92"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -2312,28 +2473,30 @@
       <c r="W12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="101" t="s">
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AE12" s="99" t="s">
+      <c r="AE12" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="AF12" s="99" t="s">
+      <c r="AF12" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="AG12" s="99" t="s">
+      <c r="AG12" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="AH12" s="99" t="s">
+      <c r="AH12" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
+      <c r="AI12" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
     </row>
     <row r="13" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="92"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="49">
         <v>11</v>
       </c>
@@ -2373,26 +2536,28 @@
       <c r="W13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="100" t="s">
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="99" t="s">
+      <c r="AF13" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="99" t="s">
+      <c r="AG13" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="AH13" s="99" t="s">
+      <c r="AH13" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
+      <c r="AI13" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
     </row>
     <row r="14" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="92"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="49">
         <v>12</v>
       </c>
@@ -2432,26 +2597,28 @@
       <c r="W14" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="100" t="s">
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="AF14" s="99" t="s">
+      <c r="AF14" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="AG14" s="99" t="s">
+      <c r="AG14" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="AH14" s="99" t="s">
+      <c r="AH14" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
+      <c r="AI14" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
     </row>
     <row r="15" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="92"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="49">
         <v>13</v>
       </c>
@@ -2491,26 +2658,28 @@
       <c r="W15" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="100" t="s">
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AF15" s="99" t="s">
+      <c r="AF15" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="AG15" s="99" t="s">
+      <c r="AG15" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="AH15" s="99" t="s">
+      <c r="AH15" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
+      <c r="AI15" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="92"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="49">
         <v>14</v>
       </c>
@@ -2550,26 +2719,28 @@
       <c r="W16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="101" t="s">
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="100" t="s">
+      <c r="AF16" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AG16" s="99" t="s">
+      <c r="AG16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="AH16" s="99" t="s">
+      <c r="AH16" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
+      <c r="AI16" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
     </row>
     <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="92"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="49">
         <v>15</v>
       </c>
@@ -2609,26 +2780,26 @@
       <c r="W17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="101" t="s">
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AF17" s="100" t="s">
+      <c r="AF17" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AG17" s="99" t="s">
+      <c r="AG17" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="AH17" s="99" t="s">
+      <c r="AH17" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="97"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
     </row>
     <row r="18" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="92"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="49">
         <v>16</v>
       </c>
@@ -2668,26 +2839,26 @@
       <c r="W18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="101" t="s">
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" s="100" t="s">
+      <c r="AF18" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AG18" s="99" t="s">
+      <c r="AG18" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="AH18" s="99" t="s">
+      <c r="AH18" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="97"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
     </row>
     <row r="19" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="92"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="49">
         <v>17</v>
       </c>
@@ -2727,24 +2898,24 @@
       <c r="W19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="100" t="s">
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AG19" s="99" t="s">
+      <c r="AG19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="AH19" s="99" t="s">
+      <c r="AH19" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="97"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
     </row>
     <row r="20" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="92"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="49">
         <v>18</v>
       </c>
@@ -2784,24 +2955,24 @@
       <c r="W20" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="100" t="s">
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AG20" s="99" t="s">
+      <c r="AG20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="AH20" s="99" t="s">
+      <c r="AH20" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
     </row>
     <row r="21" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="92"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="49">
         <v>19</v>
       </c>
@@ -2841,24 +3012,24 @@
       <c r="W21" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="100" t="s">
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AG21" s="99" t="s">
+      <c r="AG21" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="AH21" s="99" t="s">
+      <c r="AH21" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="97"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
     </row>
     <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="92"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="49">
         <v>20</v>
       </c>
@@ -2898,24 +3069,24 @@
       <c r="W22" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="102" t="s">
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="AG22" s="99" t="s">
+      <c r="AG22" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="AH22" s="99" t="s">
+      <c r="AH22" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
     </row>
     <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="92"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="49">
         <v>21</v>
       </c>
@@ -2955,24 +3126,24 @@
       <c r="W23" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="102" t="s">
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="AG23" s="99" t="s">
+      <c r="AG23" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AH23" s="99" t="s">
+      <c r="AH23" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="97"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
     </row>
     <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="92"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="49">
         <v>22</v>
       </c>
@@ -3012,24 +3183,24 @@
       <c r="W24" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="102" t="s">
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="AG24" s="99" t="s">
+      <c r="AG24" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AH24" s="99" t="s">
+      <c r="AH24" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="97"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
     </row>
     <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="92"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="49">
         <v>23</v>
       </c>
@@ -3069,24 +3240,24 @@
       <c r="W25" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="102" t="s">
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AG25" s="99" t="s">
+      <c r="AG25" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="AH25" s="99" t="s">
+      <c r="AH25" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="97"/>
+      <c r="AI25" s="94"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
     </row>
     <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="92"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="49">
         <v>24</v>
       </c>
@@ -3126,24 +3297,24 @@
       <c r="W26" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="102" t="s">
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="AG26" s="99" t="s">
+      <c r="AG26" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="AH26" s="99" t="s">
+      <c r="AH26" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="97"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
     </row>
     <row r="27" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="92"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="49">
         <v>25</v>
       </c>
@@ -3183,24 +3354,24 @@
       <c r="W27" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="102" t="s">
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="AG27" s="99" t="s">
+      <c r="AG27" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="AH27" s="99" t="s">
+      <c r="AH27" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="97"/>
-      <c r="AK27" s="97"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
     </row>
     <row r="28" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="92"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="49">
         <v>26</v>
       </c>
@@ -3240,22 +3411,22 @@
       <c r="W28" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="100" t="s">
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="AH28" s="99" t="s">
+      <c r="AH28" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="97"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
     </row>
     <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="92"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="49">
         <v>27</v>
       </c>
@@ -3295,22 +3466,22 @@
       <c r="W29" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="100" t="s">
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AH29" s="99" t="s">
+      <c r="AH29" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="97"/>
+      <c r="AI29" s="94"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
     </row>
     <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="92"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="49">
         <v>28</v>
       </c>
@@ -3350,22 +3521,22 @@
       <c r="W30" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="100" t="s">
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="AH30" s="99" t="s">
+      <c r="AH30" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97"/>
+      <c r="AI30" s="94"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
     </row>
     <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="92"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="49">
         <v>29</v>
       </c>
@@ -3405,22 +3576,22 @@
       <c r="W31" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="100" t="s">
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="AH31" s="99" t="s">
+      <c r="AH31" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="97"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
     </row>
     <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="92"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="49">
         <v>30</v>
       </c>
@@ -3460,22 +3631,22 @@
       <c r="W32" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="100" t="s">
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AH32" s="99" t="s">
+      <c r="AH32" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="97"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
     </row>
     <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="92"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="49">
         <v>31</v>
       </c>
@@ -3515,22 +3686,22 @@
       <c r="W33" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="100" t="s">
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="AH33" s="99" t="s">
+      <c r="AH33" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="97"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
     </row>
     <row r="34" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="92"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="49">
         <v>32</v>
       </c>
@@ -3570,20 +3741,20 @@
       <c r="W34" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC34" s="98"/>
-      <c r="AD34" s="98"/>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="100" t="s">
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="AH34" s="99" t="s">
+      <c r="AH34" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="AI34" s="99"/>
+      <c r="AI34" s="94"/>
     </row>
     <row r="35" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="92"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="49">
         <v>33</v>
       </c>
@@ -3623,20 +3794,20 @@
       <c r="W35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC35" s="98"/>
-      <c r="AD35" s="98"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="100" t="s">
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="AH35" s="99" t="s">
+      <c r="AH35" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="AI35" s="99"/>
+      <c r="AI35" s="94"/>
     </row>
     <row r="36" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="92"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="49">
         <v>34</v>
       </c>
@@ -3676,20 +3847,20 @@
       <c r="W36" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC36" s="98"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="98"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="100" t="s">
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AH36" s="99" t="s">
+      <c r="AH36" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="AI36" s="99"/>
+      <c r="AI36" s="94"/>
     </row>
     <row r="37" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="92"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="49">
         <v>35</v>
       </c>
@@ -3729,20 +3900,20 @@
       <c r="W37" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC37" s="98"/>
-      <c r="AD37" s="98"/>
-      <c r="AE37" s="98"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="100" t="s">
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="AH37" s="99" t="s">
+      <c r="AH37" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="AI37" s="99"/>
+      <c r="AI37" s="94"/>
     </row>
     <row r="38" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="92"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="49">
         <v>36</v>
       </c>
@@ -3782,20 +3953,20 @@
       <c r="W38" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="100" t="s">
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="AH38" s="99" t="s">
+      <c r="AH38" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="AI38" s="99"/>
+      <c r="AI38" s="94"/>
     </row>
     <row r="39" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="92"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="49">
         <v>37</v>
       </c>
@@ -3835,20 +4006,20 @@
       <c r="W39" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC39" s="98"/>
-      <c r="AD39" s="98"/>
-      <c r="AE39" s="98"/>
-      <c r="AF39" s="98"/>
-      <c r="AG39" s="100" t="s">
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="AH39" s="99" t="s">
+      <c r="AH39" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="AI39" s="99"/>
+      <c r="AI39" s="94"/>
     </row>
     <row r="40" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="92"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="49">
         <v>38</v>
       </c>
@@ -3888,20 +4059,20 @@
       <c r="W40" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC40" s="98"/>
-      <c r="AD40" s="98"/>
-      <c r="AE40" s="98"/>
-      <c r="AF40" s="98"/>
-      <c r="AG40" s="100" t="s">
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="AH40" s="99" t="s">
+      <c r="AH40" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="AI40" s="99"/>
+      <c r="AI40" s="94"/>
     </row>
     <row r="41" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="92"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="49">
         <v>39</v>
       </c>
@@ -3941,20 +4112,20 @@
       <c r="W41" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC41" s="98"/>
-      <c r="AD41" s="98"/>
-      <c r="AE41" s="98"/>
-      <c r="AF41" s="98"/>
-      <c r="AG41" s="100" t="s">
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="AH41" s="99" t="s">
+      <c r="AH41" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="AI41" s="99"/>
+      <c r="AI41" s="94"/>
     </row>
     <row r="42" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="92"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="49">
         <v>40</v>
       </c>
@@ -3994,20 +4165,20 @@
       <c r="W42" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="103" t="s">
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="92"/>
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="92"/>
+      <c r="AG42" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AH42" s="99" t="s">
+      <c r="AH42" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="AI42" s="99"/>
+      <c r="AI42" s="94"/>
     </row>
     <row r="43" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="92"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="49">
         <v>41</v>
       </c>
@@ -4047,16 +4218,16 @@
       <c r="W43" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG43" s="100" t="s">
+      <c r="AG43" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="AH43" s="99" t="s">
+      <c r="AH43" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="AI43" s="99"/>
+      <c r="AI43" s="94"/>
     </row>
     <row r="44" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="92"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="49">
         <v>42</v>
       </c>
@@ -4096,16 +4267,16 @@
       <c r="W44" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG44" s="100" t="s">
+      <c r="AG44" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="AH44" s="99" t="s">
+      <c r="AH44" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="AI44" s="99"/>
+      <c r="AI44" s="94"/>
     </row>
     <row r="45" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="92"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="49">
         <v>43</v>
       </c>
@@ -4145,16 +4316,16 @@
       <c r="W45" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG45" s="100" t="s">
+      <c r="AG45" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="AH45" s="99" t="s">
+      <c r="AH45" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="AI45" s="99"/>
+      <c r="AI45" s="94"/>
     </row>
     <row r="46" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="92"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="49">
         <v>44</v>
       </c>
@@ -4194,16 +4365,16 @@
       <c r="W46" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG46" s="102" t="s">
+      <c r="AG46" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AH46" s="99" t="s">
+      <c r="AH46" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="AI46" s="99"/>
+      <c r="AI46" s="94"/>
     </row>
     <row r="47" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="92"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="49">
         <v>45</v>
       </c>
@@ -4243,16 +4414,16 @@
       <c r="W47" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG47" s="102" t="s">
+      <c r="AG47" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="AH47" s="99" t="s">
+      <c r="AH47" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="AI47" s="99"/>
+      <c r="AI47" s="94"/>
     </row>
     <row r="48" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="92"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="49">
         <v>46</v>
       </c>
@@ -4292,16 +4463,16 @@
       <c r="W48" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG48" s="102" t="s">
+      <c r="AG48" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="AH48" s="99" t="s">
+      <c r="AH48" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="AI48" s="99"/>
+      <c r="AI48" s="94"/>
     </row>
     <row r="49" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="92"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="49">
         <v>47</v>
       </c>
@@ -4341,16 +4512,16 @@
       <c r="W49" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG49" s="102" t="s">
+      <c r="AG49" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="AH49" s="99" t="s">
+      <c r="AH49" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="AI49" s="99"/>
+      <c r="AI49" s="94"/>
     </row>
     <row r="50" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="92"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="49">
         <v>48</v>
       </c>
@@ -4390,16 +4561,16 @@
       <c r="W50" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG50" s="102" t="s">
+      <c r="AG50" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="AH50" s="99" t="s">
+      <c r="AH50" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="AI50" s="99"/>
+      <c r="AI50" s="94"/>
     </row>
     <row r="51" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="92"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="49">
         <v>49</v>
       </c>
@@ -4439,16 +4610,16 @@
       <c r="W51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG51" s="102" t="s">
+      <c r="AG51" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="AH51" s="99" t="s">
+      <c r="AH51" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="AI51" s="99"/>
+      <c r="AI51" s="94"/>
     </row>
     <row r="52" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="92"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="49">
         <v>50</v>
       </c>
@@ -4488,16 +4659,16 @@
       <c r="W52" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG52" s="102" t="s">
+      <c r="AG52" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="AH52" s="99" t="s">
+      <c r="AH52" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="AI52" s="99"/>
+      <c r="AI52" s="94"/>
     </row>
     <row r="53" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="92"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="49">
         <v>51</v>
       </c>
@@ -4537,16 +4708,16 @@
       <c r="W53" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG53" s="102" t="s">
+      <c r="AG53" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="AH53" s="99" t="s">
+      <c r="AH53" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="AI53" s="99"/>
+      <c r="AI53" s="94"/>
     </row>
     <row r="54" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="92"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="49">
         <v>52</v>
       </c>
@@ -4586,16 +4757,16 @@
       <c r="W54" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG54" s="102" t="s">
+      <c r="AG54" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="AH54" s="99" t="s">
+      <c r="AH54" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="AI54" s="99"/>
+      <c r="AI54" s="94"/>
     </row>
     <row r="55" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="92"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="49">
         <v>53</v>
       </c>
@@ -4635,16 +4806,16 @@
       <c r="W55" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG55" s="102" t="s">
+      <c r="AG55" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="AH55" s="99" t="s">
+      <c r="AH55" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="AI55" s="99"/>
+      <c r="AI55" s="94"/>
     </row>
     <row r="56" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="92"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="49">
         <v>54</v>
       </c>
@@ -4684,16 +4855,16 @@
       <c r="W56" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG56" s="102" t="s">
+      <c r="AG56" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="AH56" s="99" t="s">
+      <c r="AH56" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="AI56" s="99"/>
+      <c r="AI56" s="94"/>
     </row>
     <row r="57" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="92"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="49">
         <v>55</v>
       </c>
@@ -4733,16 +4904,16 @@
       <c r="W57" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG57" s="102" t="s">
+      <c r="AG57" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="AH57" s="99" t="s">
+      <c r="AH57" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="AI57" s="99"/>
+      <c r="AI57" s="94"/>
     </row>
     <row r="58" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="92"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="49">
         <v>56</v>
       </c>
@@ -4782,16 +4953,16 @@
       <c r="W58" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG58" s="102" t="s">
+      <c r="AG58" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AH58" s="99" t="s">
+      <c r="AH58" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="AI58" s="99"/>
+      <c r="AI58" s="94"/>
     </row>
     <row r="59" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="92"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="49">
         <v>57</v>
       </c>
@@ -4831,16 +5002,16 @@
       <c r="W59" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG59" s="102" t="s">
+      <c r="AG59" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AH59" s="99" t="s">
+      <c r="AH59" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="AI59" s="99"/>
+      <c r="AI59" s="94"/>
     </row>
     <row r="60" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="92"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="49">
         <v>58</v>
       </c>
@@ -4880,16 +5051,16 @@
       <c r="W60" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG60" s="102" t="s">
+      <c r="AG60" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AH60" s="99" t="s">
+      <c r="AH60" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="AI60" s="99"/>
+      <c r="AI60" s="94"/>
     </row>
     <row r="61" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="92"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="49">
         <v>59</v>
       </c>
@@ -4929,16 +5100,16 @@
       <c r="W61" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG61" s="102" t="s">
+      <c r="AG61" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="AH61" s="99" t="s">
+      <c r="AH61" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="AI61" s="99"/>
+      <c r="AI61" s="94"/>
     </row>
     <row r="62" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="92"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="49">
         <v>60</v>
       </c>
@@ -4978,16 +5149,16 @@
       <c r="W62" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG62" s="102" t="s">
+      <c r="AG62" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="AH62" s="99" t="s">
+      <c r="AH62" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="AI62" s="99"/>
+      <c r="AI62" s="94"/>
     </row>
     <row r="63" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="92"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="49">
         <v>61</v>
       </c>
@@ -5027,16 +5198,16 @@
       <c r="W63" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG63" s="102" t="s">
+      <c r="AG63" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="AH63" s="99" t="s">
+      <c r="AH63" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="AI63" s="99"/>
+      <c r="AI63" s="94"/>
     </row>
     <row r="64" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="92"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="49">
         <v>62</v>
       </c>
@@ -5076,13 +5247,13 @@
       <c r="W64" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH64" s="100" t="s">
+      <c r="AH64" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="AI64" s="99"/>
+      <c r="AI64" s="94"/>
     </row>
     <row r="65" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="92"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="49">
         <v>63</v>
       </c>
@@ -5122,13 +5293,13 @@
       <c r="W65" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH65" s="100" t="s">
+      <c r="AH65" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="AI65" s="99"/>
+      <c r="AI65" s="94"/>
     </row>
     <row r="66" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="92"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="49">
         <v>64</v>
       </c>
@@ -5168,13 +5339,13 @@
       <c r="W66" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH66" s="100" t="s">
+      <c r="AH66" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="AI66" s="99"/>
+      <c r="AI66" s="94"/>
     </row>
     <row r="67" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="92"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="49">
         <v>65</v>
       </c>
@@ -5214,13 +5385,13 @@
       <c r="W67" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH67" s="100" t="s">
+      <c r="AH67" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="AI67" s="99"/>
+      <c r="AI67" s="94"/>
     </row>
     <row r="68" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="92"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="49">
         <v>66</v>
       </c>
@@ -5260,13 +5431,13 @@
       <c r="W68" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH68" s="100" t="s">
+      <c r="AH68" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="AI68" s="99"/>
+      <c r="AI68" s="94"/>
     </row>
     <row r="69" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="92"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="49">
         <v>67</v>
       </c>
@@ -5306,13 +5477,13 @@
       <c r="W69" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH69" s="100" t="s">
+      <c r="AH69" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="AI69" s="99"/>
+      <c r="AI69" s="94"/>
     </row>
     <row r="70" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="92"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="49">
         <v>68</v>
       </c>
@@ -5352,13 +5523,13 @@
       <c r="W70" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH70" s="100" t="s">
+      <c r="AH70" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="AI70" s="99"/>
+      <c r="AI70" s="94"/>
     </row>
     <row r="71" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="92"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="49">
         <v>69</v>
       </c>
@@ -5398,13 +5569,13 @@
       <c r="W71" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH71" s="100" t="s">
+      <c r="AH71" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="AI71" s="99"/>
+      <c r="AI71" s="94"/>
     </row>
     <row r="72" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="92"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="49">
         <v>70</v>
       </c>
@@ -5444,13 +5615,13 @@
       <c r="W72" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH72" s="100" t="s">
+      <c r="AH72" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="AI72" s="99"/>
+      <c r="AI72" s="94"/>
     </row>
     <row r="73" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="92"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="49">
         <v>71</v>
       </c>
@@ -5490,13 +5661,13 @@
       <c r="W73" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH73" s="100" t="s">
+      <c r="AH73" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="AI73" s="99"/>
+      <c r="AI73" s="94"/>
     </row>
     <row r="74" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="92"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="49">
         <v>72</v>
       </c>
@@ -5536,13 +5707,13 @@
       <c r="W74" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH74" s="100" t="s">
+      <c r="AH74" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="AI74" s="99"/>
+      <c r="AI74" s="94"/>
     </row>
     <row r="75" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="92"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="49">
         <v>73</v>
       </c>
@@ -5582,13 +5753,13 @@
       <c r="W75" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH75" s="100" t="s">
+      <c r="AH75" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="AI75" s="99"/>
+      <c r="AI75" s="94"/>
     </row>
     <row r="76" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="92"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="49">
         <v>74</v>
       </c>
@@ -5628,13 +5799,13 @@
       <c r="W76" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH76" s="100" t="s">
+      <c r="AH76" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="AI76" s="99"/>
+      <c r="AI76" s="94"/>
     </row>
     <row r="77" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="92"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="49">
         <v>75</v>
       </c>
@@ -5674,13 +5845,13 @@
       <c r="W77" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH77" s="100" t="s">
+      <c r="AH77" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="AI77" s="99"/>
+      <c r="AI77" s="94"/>
     </row>
     <row r="78" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="92"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="49">
         <v>76</v>
       </c>
@@ -5720,13 +5891,13 @@
       <c r="W78" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH78" s="103" t="s">
+      <c r="AH78" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="AI78" s="99"/>
+      <c r="AI78" s="94"/>
     </row>
     <row r="79" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="92"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="49">
         <v>77</v>
       </c>
@@ -5766,13 +5937,13 @@
       <c r="W79" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH79" s="103" t="s">
+      <c r="AH79" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="AI79" s="99"/>
+      <c r="AI79" s="94"/>
     </row>
     <row r="80" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="92"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="49">
         <v>78</v>
       </c>
@@ -5812,13 +5983,13 @@
       <c r="W80" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH80" s="103" t="s">
+      <c r="AH80" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="AI80" s="99"/>
+      <c r="AI80" s="94"/>
     </row>
     <row r="81" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="92"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="49">
         <v>79</v>
       </c>
@@ -5858,13 +6029,13 @@
       <c r="W81" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH81" s="103" t="s">
+      <c r="AH81" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="AI81" s="99"/>
+      <c r="AI81" s="94"/>
     </row>
     <row r="82" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="92"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="49">
         <v>80</v>
       </c>
@@ -5904,13 +6075,13 @@
       <c r="W82" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH82" s="103" t="s">
+      <c r="AH82" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="AI82" s="100"/>
+      <c r="AI82" s="95"/>
     </row>
     <row r="83" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="92"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="49">
         <v>81</v>
       </c>
@@ -5950,13 +6121,13 @@
       <c r="W83" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH83" s="103" t="s">
+      <c r="AH83" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="AI83" s="100"/>
+      <c r="AI83" s="95"/>
     </row>
     <row r="84" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="92"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="49">
         <v>82</v>
       </c>
@@ -5996,13 +6167,13 @@
       <c r="W84" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH84" s="103" t="s">
+      <c r="AH84" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="AI84" s="100"/>
+      <c r="AI84" s="95"/>
     </row>
     <row r="85" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="92"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="49">
         <v>83</v>
       </c>
@@ -6042,13 +6213,13 @@
       <c r="W85" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH85" s="103" t="s">
+      <c r="AH85" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="AI85" s="100"/>
+      <c r="AI85" s="95"/>
     </row>
     <row r="86" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="92"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="49">
         <v>84</v>
       </c>
@@ -6088,13 +6259,13 @@
       <c r="W86" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH86" s="103" t="s">
+      <c r="AH86" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="AI86" s="100"/>
+      <c r="AI86" s="95"/>
     </row>
     <row r="87" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="92"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="49">
         <v>85</v>
       </c>
@@ -6134,13 +6305,13 @@
       <c r="W87" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH87" s="103" t="s">
+      <c r="AH87" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="AI87" s="100"/>
+      <c r="AI87" s="95"/>
     </row>
     <row r="88" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="92"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="49">
         <v>86</v>
       </c>
@@ -6180,13 +6351,13 @@
       <c r="W88" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH88" s="103" t="s">
+      <c r="AH88" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="AI88" s="100"/>
+      <c r="AI88" s="95"/>
     </row>
     <row r="89" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="92"/>
+      <c r="B89" s="104"/>
       <c r="C89" s="49">
         <v>87</v>
       </c>
@@ -6226,13 +6397,13 @@
       <c r="W89" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH89" s="103" t="s">
+      <c r="AH89" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="AI89" s="100"/>
+      <c r="AI89" s="95"/>
     </row>
     <row r="90" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="92"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="49">
         <v>88</v>
       </c>
@@ -6272,13 +6443,13 @@
       <c r="W90" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH90" s="103" t="s">
+      <c r="AH90" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="AI90" s="100"/>
+      <c r="AI90" s="95"/>
     </row>
     <row r="91" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="92"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="49">
         <v>89</v>
       </c>
@@ -6318,13 +6489,13 @@
       <c r="W91" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH91" s="103" t="s">
+      <c r="AH91" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="AI91" s="100"/>
+      <c r="AI91" s="95"/>
     </row>
     <row r="92" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="92"/>
+      <c r="B92" s="104"/>
       <c r="C92" s="49">
         <v>90</v>
       </c>
@@ -6364,13 +6535,13 @@
       <c r="W92" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH92" s="103" t="s">
+      <c r="AH92" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="AI92" s="100"/>
+      <c r="AI92" s="95"/>
     </row>
     <row r="93" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="92"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="49">
         <v>91</v>
       </c>
@@ -6410,13 +6581,13 @@
       <c r="W93" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH93" s="103" t="s">
+      <c r="AH93" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="AI93" s="100"/>
+      <c r="AI93" s="95"/>
     </row>
     <row r="94" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="92"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="49">
         <v>92</v>
       </c>
@@ -6456,13 +6627,13 @@
       <c r="W94" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH94" s="103" t="s">
+      <c r="AH94" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="AI94" s="100"/>
+      <c r="AI94" s="95"/>
     </row>
     <row r="95" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="92"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="49">
         <v>93</v>
       </c>
@@ -6502,13 +6673,13 @@
       <c r="W95" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH95" s="103" t="s">
+      <c r="AH95" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="AI95" s="100"/>
+      <c r="AI95" s="95"/>
     </row>
     <row r="96" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="92"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="49">
         <v>94</v>
       </c>
@@ -6548,13 +6719,13 @@
       <c r="W96" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH96" s="103" t="s">
+      <c r="AH96" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="AI96" s="103"/>
+      <c r="AI96" s="98"/>
     </row>
     <row r="97" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="92"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="49">
         <v>95</v>
       </c>
@@ -6594,13 +6765,13 @@
       <c r="W97" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH97" s="103" t="s">
+      <c r="AH97" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="AI97" s="104"/>
+      <c r="AI97" s="99"/>
     </row>
     <row r="98" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="92"/>
+      <c r="B98" s="104"/>
       <c r="C98" s="49">
         <v>96</v>
       </c>
@@ -6640,13 +6811,13 @@
       <c r="W98" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH98" s="103" t="s">
+      <c r="AH98" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="AI98" s="104"/>
+      <c r="AI98" s="99"/>
     </row>
     <row r="99" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="92"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="49">
         <v>97</v>
       </c>
@@ -6686,13 +6857,13 @@
       <c r="W99" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH99" s="103" t="s">
+      <c r="AH99" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="AI99" s="104"/>
+      <c r="AI99" s="99"/>
     </row>
     <row r="100" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="92"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="49">
         <v>98</v>
       </c>
@@ -6732,13 +6903,13 @@
       <c r="W100" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH100" s="103" t="s">
+      <c r="AH100" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="AI100" s="100"/>
+      <c r="AI100" s="95"/>
     </row>
     <row r="101" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="92"/>
+      <c r="B101" s="104"/>
       <c r="C101" s="49">
         <v>99</v>
       </c>
@@ -6778,13 +6949,13 @@
       <c r="W101" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH101" s="103" t="s">
+      <c r="AH101" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AI101" s="100"/>
+      <c r="AI101" s="95"/>
     </row>
     <row r="102" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="92"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="49">
         <v>100</v>
       </c>
@@ -6824,14 +6995,14 @@
       <c r="W102" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH102" s="103" t="s">
+      <c r="AH102" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AI102" s="100"/>
+      <c r="AI102" s="95"/>
       <c r="AQ102" s="51"/>
     </row>
     <row r="103" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="92"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="49">
         <v>101</v>
       </c>
@@ -6871,16 +7042,16 @@
       <c r="W103" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="103" t="s">
+      <c r="AH103" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="AI103" s="100"/>
+      <c r="AI103" s="95"/>
       <c r="AN103" s="51"/>
       <c r="AO103" s="51"/>
       <c r="AP103" s="51"/>
     </row>
     <row r="104" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="92"/>
+      <c r="B104" s="104"/>
       <c r="C104" s="49">
         <v>102</v>
       </c>
@@ -6920,16 +7091,16 @@
       <c r="W104" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH104" s="103" t="s">
+      <c r="AH104" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="AI104" s="100"/>
+      <c r="AI104" s="95"/>
       <c r="AN104" s="51"/>
       <c r="AO104" s="51"/>
       <c r="AP104" s="51"/>
     </row>
     <row r="105" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="92"/>
+      <c r="B105" s="104"/>
       <c r="C105" s="49">
         <v>103</v>
       </c>
@@ -6969,16 +7140,16 @@
       <c r="W105" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH105" s="103" t="s">
+      <c r="AH105" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="AI105" s="100"/>
+      <c r="AI105" s="95"/>
       <c r="AN105" s="51"/>
       <c r="AO105" s="51"/>
       <c r="AP105" s="51"/>
     </row>
     <row r="106" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="92"/>
+      <c r="B106" s="104"/>
       <c r="C106" s="49">
         <v>104</v>
       </c>
@@ -7018,10 +7189,10 @@
       <c r="W106" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH106" s="103" t="s">
+      <c r="AH106" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="AI106" s="100"/>
+      <c r="AI106" s="95"/>
       <c r="AN106" s="51"/>
       <c r="AO106" s="51"/>
       <c r="AP106" s="51"/>
@@ -7029,7 +7200,7 @@
       <c r="AR106" s="51"/>
     </row>
     <row r="107" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="92"/>
+      <c r="B107" s="104"/>
       <c r="C107" s="49">
         <v>105</v>
       </c>
@@ -7069,10 +7240,10 @@
       <c r="W107" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH107" s="103" t="s">
+      <c r="AH107" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="AI107" s="100"/>
+      <c r="AI107" s="95"/>
       <c r="AN107" s="51"/>
       <c r="AO107" s="51"/>
       <c r="AP107" s="51"/>
@@ -7080,7 +7251,7 @@
       <c r="AR107" s="51"/>
     </row>
     <row r="108" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="92"/>
+      <c r="B108" s="104"/>
       <c r="C108" s="49">
         <v>106</v>
       </c>
@@ -7120,15 +7291,15 @@
       <c r="W108" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH108" s="103" t="s">
+      <c r="AH108" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="AI108" s="100"/>
+      <c r="AI108" s="95"/>
       <c r="AQ108" s="51"/>
       <c r="AR108" s="51"/>
     </row>
     <row r="109" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="92"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="49">
         <v>107</v>
       </c>
@@ -7168,14 +7339,14 @@
       <c r="W109" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH109" s="103" t="s">
+      <c r="AH109" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="AI109" s="100"/>
+      <c r="AI109" s="95"/>
       <c r="AQ109" s="51"/>
     </row>
     <row r="110" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="93"/>
+      <c r="B110" s="105"/>
       <c r="C110" s="49">
         <v>108</v>
       </c>
@@ -7215,14 +7386,14 @@
       <c r="W110" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH110" s="103" t="s">
+      <c r="AH110" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="AI110" s="100"/>
+      <c r="AI110" s="95"/>
       <c r="AQ110" s="51"/>
     </row>
     <row r="111" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="91" t="s">
+      <c r="B111" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="49">
@@ -7264,10 +7435,10 @@
       <c r="W111" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH111" s="103" t="s">
+      <c r="AH111" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="AI111" s="100"/>
+      <c r="AI111" s="95"/>
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
@@ -7275,7 +7446,7 @@
       <c r="AR111" s="1"/>
     </row>
     <row r="112" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="92"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="49">
         <v>110</v>
       </c>
@@ -7315,14 +7486,14 @@
       <c r="W112" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH112" s="103" t="s">
+      <c r="AH112" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="AI112" s="100"/>
+      <c r="AI112" s="95"/>
       <c r="AQ112" s="1"/>
     </row>
     <row r="113" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="92"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="49">
         <v>111</v>
       </c>
@@ -7362,14 +7533,14 @@
       <c r="W113" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH113" s="103" t="s">
+      <c r="AH113" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="AI113" s="100"/>
+      <c r="AI113" s="95"/>
       <c r="AQ113" s="1"/>
     </row>
     <row r="114" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="92"/>
+      <c r="B114" s="104"/>
       <c r="C114" s="49">
         <v>112</v>
       </c>
@@ -7409,17 +7580,17 @@
       <c r="W114" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH114" s="103" t="s">
+      <c r="AH114" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="AI114" s="103"/>
+      <c r="AI114" s="98"/>
       <c r="AN114" s="51"/>
       <c r="AO114" s="51"/>
       <c r="AP114" s="51"/>
       <c r="AR114" s="51"/>
     </row>
     <row r="115" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="92"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="49">
         <v>113</v>
       </c>
@@ -7459,15 +7630,15 @@
       <c r="W115" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH115" s="103" t="s">
+      <c r="AH115" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="AI115" s="104"/>
+      <c r="AI115" s="99"/>
       <c r="AQ115" s="51"/>
       <c r="AR115" s="51"/>
     </row>
     <row r="116" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="92"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="49">
         <v>114</v>
       </c>
@@ -7507,15 +7678,15 @@
       <c r="W116" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH116" s="103" t="s">
+      <c r="AH116" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="AI116" s="104"/>
+      <c r="AI116" s="99"/>
       <c r="AQ116" s="51"/>
       <c r="AR116" s="51"/>
     </row>
     <row r="117" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="92"/>
+      <c r="B117" s="104"/>
       <c r="C117" s="49">
         <v>115</v>
       </c>
@@ -7555,17 +7726,17 @@
       <c r="W117" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH117" s="106" t="s">
+      <c r="AH117" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="AI117" s="104"/>
+      <c r="AI117" s="99"/>
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
       <c r="AR117" s="1"/>
     </row>
     <row r="118" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="92"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="49">
         <v>116</v>
       </c>
@@ -7605,10 +7776,10 @@
       <c r="W118" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH118" s="102" t="s">
+      <c r="AH118" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="AI118" s="100"/>
+      <c r="AI118" s="95"/>
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
@@ -7616,7 +7787,7 @@
       <c r="AR118" s="1"/>
     </row>
     <row r="119" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="92"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="49">
         <v>117</v>
       </c>
@@ -7656,10 +7827,10 @@
       <c r="W119" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH119" s="102" t="s">
+      <c r="AH119" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="AI119" s="100"/>
+      <c r="AI119" s="95"/>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
@@ -7667,7 +7838,7 @@
       <c r="AR119" s="1"/>
     </row>
     <row r="120" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="92"/>
+      <c r="B120" s="104"/>
       <c r="C120" s="49">
         <v>118</v>
       </c>
@@ -7707,10 +7878,10 @@
       <c r="W120" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH120" s="102" t="s">
+      <c r="AH120" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="AI120" s="100"/>
+      <c r="AI120" s="95"/>
       <c r="AN120" s="1"/>
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
@@ -7718,7 +7889,7 @@
       <c r="AR120" s="1"/>
     </row>
     <row r="121" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="92"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="49">
         <v>119</v>
       </c>
@@ -7758,17 +7929,17 @@
       <c r="W121" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH121" s="102" t="s">
+      <c r="AH121" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="AI121" s="100"/>
+      <c r="AI121" s="95"/>
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
     </row>
     <row r="122" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="92"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="49">
         <v>120</v>
       </c>
@@ -7808,14 +7979,14 @@
       <c r="W122" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH122" s="102">
-        <v>678</v>
-      </c>
-      <c r="AI122" s="100"/>
+      <c r="AH122" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI122" s="95"/>
       <c r="AR122" s="51"/>
     </row>
     <row r="123" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="92"/>
+      <c r="B123" s="104"/>
       <c r="C123" s="49">
         <v>121</v>
       </c>
@@ -7855,14 +8026,14 @@
       <c r="W123" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH123" s="102">
-        <v>684</v>
-      </c>
-      <c r="AI123" s="100"/>
+      <c r="AH123" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI123" s="95"/>
       <c r="AR123" s="51"/>
     </row>
     <row r="124" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="92"/>
+      <c r="B124" s="104"/>
       <c r="C124" s="49">
         <v>122</v>
       </c>
@@ -7902,13 +8073,13 @@
       <c r="W124" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH124" s="102">
-        <v>690</v>
-      </c>
-      <c r="AI124" s="100"/>
+      <c r="AH124" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI124" s="95"/>
     </row>
     <row r="125" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="92"/>
+      <c r="B125" s="104"/>
       <c r="C125" s="49">
         <v>123</v>
       </c>
@@ -7948,13 +8119,13 @@
       <c r="W125" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH125" s="102">
-        <v>696</v>
-      </c>
-      <c r="AI125" s="100"/>
+      <c r="AH125" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI125" s="95"/>
     </row>
     <row r="126" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="92"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="49">
         <v>124</v>
       </c>
@@ -7994,13 +8165,13 @@
       <c r="W126" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH126" s="102">
-        <v>702</v>
-      </c>
-      <c r="AI126" s="100"/>
+      <c r="AH126" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI126" s="95"/>
     </row>
     <row r="127" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="92"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="49">
         <v>125</v>
       </c>
@@ -8040,13 +8211,13 @@
       <c r="W127" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH127" s="102">
-        <v>708</v>
-      </c>
-      <c r="AI127" s="100"/>
+      <c r="AH127" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI127" s="95"/>
     </row>
     <row r="128" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="92"/>
+      <c r="B128" s="104"/>
       <c r="C128" s="49">
         <v>126</v>
       </c>
@@ -8086,13 +8257,13 @@
       <c r="W128" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH128" s="102">
-        <v>714</v>
-      </c>
-      <c r="AI128" s="100"/>
+      <c r="AH128" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI128" s="95"/>
     </row>
     <row r="129" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="92"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="49">
         <v>127</v>
       </c>
@@ -8132,13 +8303,13 @@
       <c r="W129" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH129" s="102">
-        <v>720</v>
-      </c>
-      <c r="AI129" s="100"/>
+      <c r="AH129" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI129" s="95"/>
     </row>
     <row r="130" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="92"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="49">
         <v>128</v>
       </c>
@@ -8178,13 +8349,13 @@
       <c r="W130" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH130" s="102">
-        <v>726</v>
-      </c>
-      <c r="AI130" s="100"/>
+      <c r="AH130" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI130" s="95"/>
     </row>
     <row r="131" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="92"/>
+      <c r="B131" s="104"/>
       <c r="C131" s="49">
         <v>129</v>
       </c>
@@ -8224,13 +8395,13 @@
       <c r="W131" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH131" s="102">
-        <v>732</v>
-      </c>
-      <c r="AI131" s="100"/>
+      <c r="AH131" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI131" s="95"/>
     </row>
     <row r="132" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="92"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="49">
         <v>130</v>
       </c>
@@ -8270,13 +8441,13 @@
       <c r="W132" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH132" s="102">
-        <v>738</v>
-      </c>
-      <c r="AI132" s="103"/>
+      <c r="AH132" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI132" s="98"/>
     </row>
     <row r="133" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="92"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="49">
         <v>131</v>
       </c>
@@ -8316,13 +8487,13 @@
       <c r="W133" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH133" s="102">
-        <v>744</v>
-      </c>
-      <c r="AI133" s="104"/>
+      <c r="AH133" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI133" s="99"/>
     </row>
     <row r="134" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="92"/>
+      <c r="B134" s="104"/>
       <c r="C134" s="49">
         <v>132</v>
       </c>
@@ -8362,13 +8533,13 @@
       <c r="W134" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH134" s="102">
-        <v>750</v>
-      </c>
-      <c r="AI134" s="104"/>
+      <c r="AH134" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI134" s="99"/>
     </row>
     <row r="135" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="92"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="49">
         <v>133</v>
       </c>
@@ -8408,13 +8579,13 @@
       <c r="W135" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH135" s="102">
-        <v>756</v>
-      </c>
-      <c r="AI135" s="104"/>
+      <c r="AH135" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI135" s="99"/>
     </row>
     <row r="136" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="92"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="49">
         <v>134</v>
       </c>
@@ -8454,13 +8625,13 @@
       <c r="W136" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH136" s="102">
-        <v>762</v>
-      </c>
-      <c r="AI136" s="100"/>
+      <c r="AH136" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI136" s="95"/>
     </row>
     <row r="137" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="92"/>
+      <c r="B137" s="104"/>
       <c r="C137" s="49">
         <v>135</v>
       </c>
@@ -8500,13 +8671,13 @@
       <c r="W137" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH137" s="102">
-        <v>768</v>
-      </c>
-      <c r="AI137" s="100"/>
+      <c r="AH137" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI137" s="95"/>
     </row>
     <row r="138" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="92"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="49">
         <v>136</v>
       </c>
@@ -8546,13 +8717,13 @@
       <c r="W138" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH138" s="102">
-        <v>774</v>
-      </c>
-      <c r="AI138" s="100"/>
+      <c r="AH138" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI138" s="95"/>
     </row>
     <row r="139" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="92"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="49">
         <v>137</v>
       </c>
@@ -8592,13 +8763,13 @@
       <c r="W139" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH139" s="102">
-        <v>780</v>
-      </c>
-      <c r="AI139" s="100"/>
+      <c r="AH139" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI139" s="95"/>
     </row>
     <row r="140" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="92"/>
+      <c r="B140" s="104"/>
       <c r="C140" s="49">
         <v>138</v>
       </c>
@@ -8638,13 +8809,13 @@
       <c r="W140" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH140" s="102">
-        <v>786</v>
-      </c>
-      <c r="AI140" s="100"/>
+      <c r="AH140" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI140" s="95"/>
     </row>
     <row r="141" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="92"/>
+      <c r="B141" s="104"/>
       <c r="C141" s="49">
         <v>139</v>
       </c>
@@ -8684,13 +8855,13 @@
       <c r="W141" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH141" s="102">
-        <v>792</v>
-      </c>
-      <c r="AI141" s="100"/>
+      <c r="AH141" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI141" s="95"/>
     </row>
     <row r="142" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="92"/>
+      <c r="B142" s="104"/>
       <c r="C142" s="49">
         <v>140</v>
       </c>
@@ -8730,13 +8901,13 @@
       <c r="W142" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH142" s="102">
-        <v>798</v>
-      </c>
-      <c r="AI142" s="100"/>
+      <c r="AH142" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI142" s="95"/>
     </row>
     <row r="143" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="92"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="49">
         <v>141</v>
       </c>
@@ -8776,13 +8947,13 @@
       <c r="W143" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH143" s="102">
-        <v>804</v>
-      </c>
-      <c r="AI143" s="100"/>
+      <c r="AH143" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI143" s="95"/>
     </row>
     <row r="144" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="92"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="49">
         <v>142</v>
       </c>
@@ -8822,13 +8993,13 @@
       <c r="W144" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH144" s="102">
-        <v>810</v>
-      </c>
-      <c r="AI144" s="100"/>
+      <c r="AH144" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI144" s="95"/>
     </row>
     <row r="145" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="92"/>
+      <c r="B145" s="104"/>
       <c r="C145" s="49">
         <v>143</v>
       </c>
@@ -8868,13 +9039,13 @@
       <c r="W145" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH145" s="102">
-        <v>816</v>
-      </c>
-      <c r="AI145" s="100"/>
+      <c r="AH145" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI145" s="95"/>
     </row>
     <row r="146" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="92"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="49">
         <v>144</v>
       </c>
@@ -8914,13 +9085,13 @@
       <c r="W146" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH146" s="102">
-        <v>822</v>
-      </c>
-      <c r="AI146" s="100"/>
+      <c r="AH146" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI146" s="95"/>
     </row>
     <row r="147" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="92"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="49">
         <v>145</v>
       </c>
@@ -8960,13 +9131,13 @@
       <c r="W147" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH147" s="102">
-        <v>828</v>
-      </c>
-      <c r="AI147" s="100"/>
+      <c r="AH147" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI147" s="95"/>
     </row>
     <row r="148" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="92"/>
+      <c r="B148" s="104"/>
       <c r="C148" s="49">
         <v>146</v>
       </c>
@@ -9006,13 +9177,13 @@
       <c r="W148" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH148" s="102">
-        <v>834</v>
-      </c>
-      <c r="AI148" s="100"/>
+      <c r="AH148" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI148" s="95"/>
     </row>
     <row r="149" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="92"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="49">
         <v>147</v>
       </c>
@@ -9052,13 +9223,13 @@
       <c r="W149" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH149" s="102">
-        <v>840</v>
-      </c>
-      <c r="AI149" s="100"/>
+      <c r="AH149" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI149" s="95"/>
     </row>
     <row r="150" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="92"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="49">
         <v>148</v>
       </c>
@@ -9098,13 +9269,13 @@
       <c r="W150" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH150" s="102">
-        <v>846</v>
-      </c>
-      <c r="AI150" s="103"/>
+      <c r="AH150" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI150" s="98"/>
     </row>
     <row r="151" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="92"/>
+      <c r="B151" s="104"/>
       <c r="C151" s="49">
         <v>149</v>
       </c>
@@ -9144,13 +9315,13 @@
       <c r="W151" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH151" s="102">
-        <v>852</v>
-      </c>
-      <c r="AI151" s="104"/>
+      <c r="AH151" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI151" s="99"/>
     </row>
     <row r="152" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="92"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="49">
         <v>150</v>
       </c>
@@ -9190,13 +9361,13 @@
       <c r="W152" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH152" s="102">
-        <v>858</v>
-      </c>
-      <c r="AI152" s="104"/>
+      <c r="AH152" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI152" s="99"/>
     </row>
     <row r="153" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="92"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="49">
         <v>151</v>
       </c>
@@ -9236,13 +9407,13 @@
       <c r="W153" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH153" s="102">
-        <v>864</v>
-      </c>
-      <c r="AI153" s="104"/>
+      <c r="AH153" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI153" s="99"/>
     </row>
     <row r="154" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="92"/>
+      <c r="B154" s="104"/>
       <c r="C154" s="49">
         <v>152</v>
       </c>
@@ -9282,13 +9453,13 @@
       <c r="W154" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH154" s="102">
-        <v>870</v>
-      </c>
-      <c r="AI154" s="105"/>
+      <c r="AH154" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI154" s="100"/>
     </row>
     <row r="155" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="92"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="49">
         <v>153</v>
       </c>
@@ -9328,13 +9499,13 @@
       <c r="W155" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH155" s="102">
-        <v>876</v>
-      </c>
-      <c r="AI155" s="105"/>
+      <c r="AH155" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI155" s="100"/>
     </row>
     <row r="156" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="92"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="49">
         <v>154</v>
       </c>
@@ -9374,13 +9545,13 @@
       <c r="W156" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH156" s="102">
-        <v>882</v>
-      </c>
-      <c r="AI156" s="105"/>
+      <c r="AH156" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI156" s="100"/>
     </row>
     <row r="157" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="92"/>
+      <c r="B157" s="104"/>
       <c r="C157" s="49">
         <v>155</v>
       </c>
@@ -9420,13 +9591,13 @@
       <c r="W157" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH157" s="102">
-        <v>888</v>
-      </c>
-      <c r="AI157" s="105"/>
+      <c r="AH157" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI157" s="100"/>
     </row>
     <row r="158" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="92"/>
+      <c r="B158" s="104"/>
       <c r="C158" s="49">
         <v>156</v>
       </c>
@@ -9466,13 +9637,13 @@
       <c r="W158" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH158" s="102">
-        <v>894</v>
-      </c>
-      <c r="AI158" s="105"/>
+      <c r="AH158" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI158" s="100"/>
     </row>
     <row r="159" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="92"/>
+      <c r="B159" s="104"/>
       <c r="C159" s="49">
         <v>157</v>
       </c>
@@ -9512,13 +9683,13 @@
       <c r="W159" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH159" s="102">
-        <v>900</v>
-      </c>
-      <c r="AI159" s="105"/>
+      <c r="AH159" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI159" s="100"/>
     </row>
     <row r="160" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="92"/>
+      <c r="B160" s="104"/>
       <c r="C160" s="49">
         <v>158</v>
       </c>
@@ -9558,13 +9729,13 @@
       <c r="W160" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH160" s="102">
-        <v>906</v>
-      </c>
-      <c r="AI160" s="105"/>
+      <c r="AH160" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI160" s="100"/>
     </row>
     <row r="161" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="92"/>
+      <c r="B161" s="104"/>
       <c r="C161" s="49">
         <v>159</v>
       </c>
@@ -9604,13 +9775,13 @@
       <c r="W161" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH161" s="102">
-        <v>912</v>
-      </c>
-      <c r="AI161" s="105"/>
+      <c r="AH161" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI161" s="100"/>
     </row>
     <row r="162" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="92"/>
+      <c r="B162" s="104"/>
       <c r="C162" s="49">
         <v>160</v>
       </c>
@@ -9650,13 +9821,13 @@
       <c r="W162" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH162" s="102">
-        <v>918</v>
-      </c>
-      <c r="AI162" s="105"/>
+      <c r="AH162" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI162" s="100"/>
     </row>
     <row r="163" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="92"/>
+      <c r="B163" s="104"/>
       <c r="C163" s="49">
         <v>161</v>
       </c>
@@ -9696,13 +9867,13 @@
       <c r="W163" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH163" s="102">
-        <v>924</v>
-      </c>
-      <c r="AI163" s="105"/>
+      <c r="AH163" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI163" s="100"/>
     </row>
     <row r="164" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="92"/>
+      <c r="B164" s="104"/>
       <c r="C164" s="49">
         <v>162</v>
       </c>
@@ -9742,13 +9913,13 @@
       <c r="W164" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH164" s="102">
-        <v>930</v>
-      </c>
-      <c r="AI164" s="105"/>
+      <c r="AH164" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI164" s="100"/>
     </row>
     <row r="165" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="92"/>
+      <c r="B165" s="104"/>
       <c r="C165" s="49">
         <v>163</v>
       </c>
@@ -9788,13 +9959,13 @@
       <c r="W165" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH165" s="102">
-        <v>936</v>
-      </c>
-      <c r="AI165" s="105"/>
+      <c r="AH165" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI165" s="100"/>
     </row>
     <row r="166" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="92"/>
+      <c r="B166" s="104"/>
       <c r="C166" s="49">
         <v>164</v>
       </c>
@@ -9834,13 +10005,13 @@
       <c r="W166" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH166" s="102">
-        <v>942</v>
-      </c>
-      <c r="AI166" s="105"/>
+      <c r="AH166" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI166" s="100"/>
     </row>
     <row r="167" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="92"/>
+      <c r="B167" s="104"/>
       <c r="C167" s="49">
         <v>165</v>
       </c>
@@ -9880,13 +10051,13 @@
       <c r="W167" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH167" s="102">
-        <v>948</v>
-      </c>
-      <c r="AI167" s="105"/>
+      <c r="AH167" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI167" s="100"/>
     </row>
     <row r="168" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="92"/>
+      <c r="B168" s="104"/>
       <c r="C168" s="49">
         <v>166</v>
       </c>
@@ -9926,13 +10097,13 @@
       <c r="W168" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH168" s="102">
-        <v>954</v>
-      </c>
-      <c r="AI168" s="105"/>
+      <c r="AH168" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI168" s="100"/>
     </row>
     <row r="169" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="92"/>
+      <c r="B169" s="104"/>
       <c r="C169" s="49">
         <v>167</v>
       </c>
@@ -9972,13 +10143,13 @@
       <c r="W169" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH169" s="102">
-        <v>960</v>
-      </c>
-      <c r="AI169" s="105"/>
+      <c r="AH169" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI169" s="100"/>
     </row>
     <row r="170" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="92"/>
+      <c r="B170" s="104"/>
       <c r="C170" s="49">
         <v>168</v>
       </c>
@@ -10018,13 +10189,13 @@
       <c r="W170" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH170" s="102">
-        <v>966</v>
-      </c>
-      <c r="AI170" s="105"/>
+      <c r="AH170" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI170" s="100"/>
     </row>
     <row r="171" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="92"/>
+      <c r="B171" s="104"/>
       <c r="C171" s="49">
         <v>169</v>
       </c>
@@ -10064,13 +10235,10 @@
       <c r="W171" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH171" s="102">
-        <v>972</v>
-      </c>
-      <c r="AI171" s="105"/>
+      <c r="AI171" s="100"/>
     </row>
     <row r="172" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="92"/>
+      <c r="B172" s="104"/>
       <c r="C172" s="49">
         <v>170</v>
       </c>
@@ -10110,10 +10278,10 @@
       <c r="W172" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI172" s="105"/>
+      <c r="AI172" s="100"/>
     </row>
     <row r="173" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="92"/>
+      <c r="B173" s="104"/>
       <c r="C173" s="49">
         <v>171</v>
       </c>
@@ -10153,10 +10321,10 @@
       <c r="W173" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI173" s="105"/>
+      <c r="AI173" s="100"/>
     </row>
     <row r="174" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="92"/>
+      <c r="B174" s="104"/>
       <c r="C174" s="49">
         <v>172</v>
       </c>
@@ -10196,10 +10364,10 @@
       <c r="W174" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI174" s="105"/>
+      <c r="AI174" s="100"/>
     </row>
     <row r="175" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="92"/>
+      <c r="B175" s="104"/>
       <c r="C175" s="49">
         <v>173</v>
       </c>
@@ -10239,10 +10407,10 @@
       <c r="W175" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI175" s="105"/>
+      <c r="AI175" s="100"/>
     </row>
     <row r="176" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="92"/>
+      <c r="B176" s="104"/>
       <c r="C176" s="49">
         <v>174</v>
       </c>
@@ -10282,10 +10450,10 @@
       <c r="W176" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI176" s="105"/>
+      <c r="AI176" s="100"/>
     </row>
     <row r="177" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="92"/>
+      <c r="B177" s="104"/>
       <c r="C177" s="49">
         <v>175</v>
       </c>
@@ -10325,10 +10493,10 @@
       <c r="W177" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI177" s="105"/>
+      <c r="AI177" s="100"/>
     </row>
     <row r="178" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="92"/>
+      <c r="B178" s="104"/>
       <c r="C178" s="49">
         <v>176</v>
       </c>
@@ -10368,10 +10536,10 @@
       <c r="W178" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI178" s="105"/>
+      <c r="AI178" s="100"/>
     </row>
     <row r="179" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="92"/>
+      <c r="B179" s="104"/>
       <c r="C179" s="49">
         <v>177</v>
       </c>
@@ -10411,10 +10579,10 @@
       <c r="W179" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI179" s="105"/>
+      <c r="AI179" s="100"/>
     </row>
     <row r="180" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="92"/>
+      <c r="B180" s="104"/>
       <c r="C180" s="49">
         <v>178</v>
       </c>
@@ -10454,10 +10622,10 @@
       <c r="W180" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI180" s="105"/>
+      <c r="AI180" s="100"/>
     </row>
     <row r="181" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="92"/>
+      <c r="B181" s="104"/>
       <c r="C181" s="49">
         <v>179</v>
       </c>
@@ -10497,10 +10665,10 @@
       <c r="W181" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI181" s="105"/>
+      <c r="AI181" s="100"/>
     </row>
     <row r="182" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="92"/>
+      <c r="B182" s="104"/>
       <c r="C182" s="49">
         <v>180</v>
       </c>
@@ -10540,10 +10708,10 @@
       <c r="W182" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI182" s="105"/>
+      <c r="AI182" s="100"/>
     </row>
     <row r="183" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="92"/>
+      <c r="B183" s="104"/>
       <c r="C183" s="49">
         <v>181</v>
       </c>
@@ -10583,10 +10751,10 @@
       <c r="W183" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI183" s="105"/>
+      <c r="AI183" s="100"/>
     </row>
     <row r="184" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="92"/>
+      <c r="B184" s="104"/>
       <c r="C184" s="49">
         <v>182</v>
       </c>
@@ -10626,10 +10794,10 @@
       <c r="W184" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI184" s="105"/>
+      <c r="AI184" s="100"/>
     </row>
     <row r="185" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="92"/>
+      <c r="B185" s="104"/>
       <c r="C185" s="49">
         <v>183</v>
       </c>
@@ -10669,10 +10837,10 @@
       <c r="W185" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI185" s="105"/>
+      <c r="AI185" s="100"/>
     </row>
     <row r="186" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="92"/>
+      <c r="B186" s="104"/>
       <c r="C186" s="49">
         <v>184</v>
       </c>
@@ -10712,10 +10880,10 @@
       <c r="W186" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI186" s="105"/>
+      <c r="AI186" s="100"/>
     </row>
     <row r="187" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="92"/>
+      <c r="B187" s="104"/>
       <c r="C187" s="49">
         <v>185</v>
       </c>
@@ -10755,10 +10923,10 @@
       <c r="W187" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI187" s="105"/>
+      <c r="AI187" s="100"/>
     </row>
     <row r="188" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="92"/>
+      <c r="B188" s="104"/>
       <c r="C188" s="49">
         <v>186</v>
       </c>
@@ -10798,10 +10966,10 @@
       <c r="W188" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI188" s="105"/>
+      <c r="AI188" s="100"/>
     </row>
     <row r="189" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="92"/>
+      <c r="B189" s="104"/>
       <c r="C189" s="49">
         <v>187</v>
       </c>
@@ -10841,10 +11009,10 @@
       <c r="W189" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI189" s="105"/>
+      <c r="AI189" s="100"/>
     </row>
     <row r="190" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="92"/>
+      <c r="B190" s="104"/>
       <c r="C190" s="49">
         <v>188</v>
       </c>
@@ -10884,10 +11052,10 @@
       <c r="W190" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI190" s="105"/>
+      <c r="AI190" s="100"/>
     </row>
     <row r="191" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="92"/>
+      <c r="B191" s="104"/>
       <c r="C191" s="49">
         <v>189</v>
       </c>
@@ -10927,10 +11095,10 @@
       <c r="W191" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI191" s="105"/>
+      <c r="AI191" s="100"/>
     </row>
     <row r="192" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="92"/>
+      <c r="B192" s="104"/>
       <c r="C192" s="49">
         <v>190</v>
       </c>
@@ -10970,10 +11138,10 @@
       <c r="W192" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI192" s="105"/>
+      <c r="AI192" s="100"/>
     </row>
     <row r="193" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="92"/>
+      <c r="B193" s="104"/>
       <c r="C193" s="49">
         <v>191</v>
       </c>
@@ -11013,10 +11181,10 @@
       <c r="W193" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI193" s="105"/>
+      <c r="AI193" s="100"/>
     </row>
     <row r="194" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="92"/>
+      <c r="B194" s="104"/>
       <c r="C194" s="49">
         <v>192</v>
       </c>
@@ -11056,10 +11224,10 @@
       <c r="W194" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI194" s="105"/>
+      <c r="AI194" s="100"/>
     </row>
     <row r="195" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="92"/>
+      <c r="B195" s="104"/>
       <c r="C195" s="49">
         <v>193</v>
       </c>
@@ -11099,10 +11267,10 @@
       <c r="W195" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI195" s="105"/>
+      <c r="AI195" s="100"/>
     </row>
     <row r="196" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="92"/>
+      <c r="B196" s="104"/>
       <c r="C196" s="49">
         <v>194</v>
       </c>
@@ -11142,10 +11310,10 @@
       <c r="W196" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI196" s="105"/>
+      <c r="AI196" s="100"/>
     </row>
     <row r="197" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="92"/>
+      <c r="B197" s="104"/>
       <c r="C197" s="49">
         <v>195</v>
       </c>
@@ -11185,10 +11353,10 @@
       <c r="W197" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI197" s="105"/>
+      <c r="AI197" s="100"/>
     </row>
     <row r="198" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="92"/>
+      <c r="B198" s="104"/>
       <c r="C198" s="49">
         <v>196</v>
       </c>
@@ -11228,10 +11396,10 @@
       <c r="W198" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI198" s="105"/>
+      <c r="AI198" s="100"/>
     </row>
     <row r="199" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="92"/>
+      <c r="B199" s="104"/>
       <c r="C199" s="49">
         <v>197</v>
       </c>
@@ -11271,10 +11439,10 @@
       <c r="W199" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI199" s="105"/>
+      <c r="AI199" s="100"/>
     </row>
     <row r="200" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="92"/>
+      <c r="B200" s="104"/>
       <c r="C200" s="49">
         <v>198</v>
       </c>
@@ -11314,10 +11482,10 @@
       <c r="W200" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI200" s="105"/>
+      <c r="AI200" s="100"/>
     </row>
     <row r="201" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="92"/>
+      <c r="B201" s="104"/>
       <c r="C201" s="49">
         <v>199</v>
       </c>
@@ -11357,10 +11525,10 @@
       <c r="W201" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI201" s="105"/>
+      <c r="AI201" s="100"/>
     </row>
     <row r="202" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="92"/>
+      <c r="B202" s="104"/>
       <c r="C202" s="49">
         <v>200</v>
       </c>
@@ -11400,10 +11568,10 @@
       <c r="W202" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI202" s="105"/>
+      <c r="AI202" s="100"/>
     </row>
     <row r="203" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="92"/>
+      <c r="B203" s="104"/>
       <c r="C203" s="49">
         <v>201</v>
       </c>
@@ -11443,10 +11611,10 @@
       <c r="W203" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI203" s="105"/>
+      <c r="AI203" s="100"/>
     </row>
     <row r="204" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="92"/>
+      <c r="B204" s="104"/>
       <c r="C204" s="49">
         <v>202</v>
       </c>
@@ -11486,10 +11654,10 @@
       <c r="W204" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI204" s="105"/>
+      <c r="AI204" s="100"/>
     </row>
     <row r="205" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="92"/>
+      <c r="B205" s="104"/>
       <c r="C205" s="49">
         <v>203</v>
       </c>
@@ -11529,13 +11697,13 @@
       <c r="W205" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI205" s="105"/>
+      <c r="AI205" s="100"/>
       <c r="AN205" s="51"/>
       <c r="AO205" s="51"/>
       <c r="AP205" s="51"/>
     </row>
     <row r="206" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="92"/>
+      <c r="B206" s="104"/>
       <c r="C206" s="49">
         <v>204</v>
       </c>
@@ -11575,13 +11743,13 @@
       <c r="W206" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI206" s="105"/>
+      <c r="AI206" s="100"/>
       <c r="AN206" s="51"/>
       <c r="AO206" s="51"/>
       <c r="AP206" s="51"/>
     </row>
     <row r="207" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="92"/>
+      <c r="B207" s="104"/>
       <c r="C207" s="49">
         <v>205</v>
       </c>
@@ -11621,13 +11789,13 @@
       <c r="W207" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI207" s="105"/>
+      <c r="AI207" s="100"/>
       <c r="AN207" s="51"/>
       <c r="AO207" s="51"/>
       <c r="AP207" s="51"/>
     </row>
     <row r="208" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="92"/>
+      <c r="B208" s="104"/>
       <c r="C208" s="49">
         <v>206</v>
       </c>
@@ -11667,11 +11835,11 @@
       <c r="W208" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI208" s="105"/>
+      <c r="AI208" s="100"/>
       <c r="AQ208" s="51"/>
     </row>
     <row r="209" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="92"/>
+      <c r="B209" s="104"/>
       <c r="C209" s="49">
         <v>207</v>
       </c>
@@ -11711,11 +11879,11 @@
       <c r="W209" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI209" s="105"/>
+      <c r="AI209" s="100"/>
       <c r="AQ209" s="51"/>
     </row>
     <row r="210" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="92"/>
+      <c r="B210" s="104"/>
       <c r="C210" s="49">
         <v>208</v>
       </c>
@@ -11755,11 +11923,11 @@
       <c r="W210" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI210" s="105"/>
+      <c r="AI210" s="100"/>
       <c r="AQ210" s="51"/>
     </row>
     <row r="211" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="92"/>
+      <c r="B211" s="104"/>
       <c r="C211" s="49">
         <v>209</v>
       </c>
@@ -11799,13 +11967,13 @@
       <c r="W211" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI211" s="105"/>
+      <c r="AI211" s="100"/>
       <c r="AN211" s="51"/>
       <c r="AO211" s="51"/>
       <c r="AP211" s="51"/>
     </row>
     <row r="212" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="92"/>
+      <c r="B212" s="104"/>
       <c r="C212" s="49">
         <v>210</v>
       </c>
@@ -11845,13 +12013,13 @@
       <c r="W212" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI212" s="105"/>
+      <c r="AI212" s="100"/>
       <c r="AN212" s="51"/>
       <c r="AO212" s="51"/>
       <c r="AP212" s="51"/>
     </row>
     <row r="213" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="92"/>
+      <c r="B213" s="104"/>
       <c r="C213" s="49">
         <v>211</v>
       </c>
@@ -11891,13 +12059,13 @@
       <c r="W213" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI213" s="105"/>
+      <c r="AI213" s="100"/>
       <c r="AN213" s="51"/>
       <c r="AO213" s="51"/>
       <c r="AP213" s="51"/>
     </row>
     <row r="214" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="92"/>
+      <c r="B214" s="104"/>
       <c r="C214" s="49">
         <v>212</v>
       </c>
@@ -11937,7 +12105,7 @@
       <c r="W214" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI214" s="105"/>
+      <c r="AI214" s="100"/>
       <c r="AN214" s="51"/>
       <c r="AO214" s="51"/>
       <c r="AP214" s="51"/>
@@ -11945,7 +12113,7 @@
       <c r="AR214" s="51"/>
     </row>
     <row r="215" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="92"/>
+      <c r="B215" s="104"/>
       <c r="C215" s="49">
         <v>213</v>
       </c>
@@ -11985,7 +12153,7 @@
       <c r="W215" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI215" s="105"/>
+      <c r="AI215" s="100"/>
       <c r="AN215" s="51"/>
       <c r="AO215" s="51"/>
       <c r="AP215" s="51"/>
@@ -11993,7 +12161,7 @@
       <c r="AR215" s="51"/>
     </row>
     <row r="216" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="92"/>
+      <c r="B216" s="104"/>
       <c r="C216" s="49">
         <v>214</v>
       </c>
@@ -12033,12 +12201,12 @@
       <c r="W216" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI216" s="105"/>
+      <c r="AI216" s="100"/>
       <c r="AQ216" s="51"/>
       <c r="AR216" s="51"/>
     </row>
     <row r="217" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="92"/>
+      <c r="B217" s="104"/>
       <c r="C217" s="49">
         <v>215</v>
       </c>
@@ -12078,11 +12246,11 @@
       <c r="W217" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI217" s="105"/>
+      <c r="AI217" s="100"/>
       <c r="AQ217" s="51"/>
     </row>
     <row r="218" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="93"/>
+      <c r="B218" s="105"/>
       <c r="C218" s="49">
         <v>216</v>
       </c>
@@ -12122,11 +12290,11 @@
       <c r="W218" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI218" s="105"/>
+      <c r="AI218" s="100"/>
       <c r="AQ218" s="51"/>
     </row>
     <row r="219" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="91" t="s">
+      <c r="B219" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="49">
@@ -12168,7 +12336,7 @@
       <c r="W219" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI219" s="105"/>
+      <c r="AI219" s="100"/>
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
@@ -12176,7 +12344,7 @@
       <c r="AR219" s="1"/>
     </row>
     <row r="220" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="92"/>
+      <c r="B220" s="104"/>
       <c r="C220" s="49">
         <v>218</v>
       </c>
@@ -12216,11 +12384,11 @@
       <c r="W220" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI220" s="105"/>
+      <c r="AI220" s="100"/>
       <c r="AQ220" s="1"/>
     </row>
     <row r="221" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="92"/>
+      <c r="B221" s="104"/>
       <c r="C221" s="49">
         <v>219</v>
       </c>
@@ -12260,11 +12428,11 @@
       <c r="W221" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI221" s="105"/>
+      <c r="AI221" s="100"/>
       <c r="AQ221" s="1"/>
     </row>
     <row r="222" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="92"/>
+      <c r="B222" s="104"/>
       <c r="C222" s="49">
         <v>220</v>
       </c>
@@ -12304,14 +12472,14 @@
       <c r="W222" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI222" s="105"/>
+      <c r="AI222" s="100"/>
       <c r="AN222" s="51"/>
       <c r="AO222" s="51"/>
       <c r="AP222" s="51"/>
       <c r="AR222" s="51"/>
     </row>
     <row r="223" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="92"/>
+      <c r="B223" s="104"/>
       <c r="C223" s="49">
         <v>221</v>
       </c>
@@ -12351,12 +12519,12 @@
       <c r="W223" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI223" s="105"/>
+      <c r="AI223" s="100"/>
       <c r="AQ223" s="51"/>
       <c r="AR223" s="51"/>
     </row>
     <row r="224" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="92"/>
+      <c r="B224" s="104"/>
       <c r="C224" s="49">
         <v>222</v>
       </c>
@@ -12396,12 +12564,12 @@
       <c r="W224" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI224" s="105"/>
+      <c r="AI224" s="100"/>
       <c r="AQ224" s="51"/>
       <c r="AR224" s="51"/>
     </row>
     <row r="225" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="92"/>
+      <c r="B225" s="104"/>
       <c r="C225" s="49">
         <v>223</v>
       </c>
@@ -12441,14 +12609,14 @@
       <c r="W225" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI225" s="105"/>
+      <c r="AI225" s="100"/>
       <c r="AN225" s="1"/>
       <c r="AO225" s="1"/>
       <c r="AP225" s="1"/>
       <c r="AR225" s="1"/>
     </row>
     <row r="226" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="92"/>
+      <c r="B226" s="104"/>
       <c r="C226" s="49">
         <v>224</v>
       </c>
@@ -12495,7 +12663,7 @@
       <c r="AR226" s="1"/>
     </row>
     <row r="227" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="92"/>
+      <c r="B227" s="104"/>
       <c r="C227" s="49">
         <v>225</v>
       </c>
@@ -12542,7 +12710,7 @@
       <c r="AR227" s="1"/>
     </row>
     <row r="228" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="92"/>
+      <c r="B228" s="104"/>
       <c r="C228" s="49">
         <v>226</v>
       </c>
@@ -12589,7 +12757,7 @@
       <c r="AR228" s="1"/>
     </row>
     <row r="229" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="92"/>
+      <c r="B229" s="104"/>
       <c r="C229" s="49">
         <v>227</v>
       </c>
@@ -12635,7 +12803,7 @@
       <c r="AQ229" s="1"/>
     </row>
     <row r="230" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="92"/>
+      <c r="B230" s="104"/>
       <c r="C230" s="49">
         <v>228</v>
       </c>
@@ -12678,7 +12846,7 @@
       <c r="AR230" s="51"/>
     </row>
     <row r="231" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="92"/>
+      <c r="B231" s="104"/>
       <c r="C231" s="49">
         <v>229</v>
       </c>
@@ -12721,7 +12889,7 @@
       <c r="AR231" s="51"/>
     </row>
     <row r="232" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="92"/>
+      <c r="B232" s="104"/>
       <c r="C232" s="49">
         <v>230</v>
       </c>
@@ -12763,7 +12931,7 @@
       </c>
     </row>
     <row r="233" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="92"/>
+      <c r="B233" s="104"/>
       <c r="C233" s="49">
         <v>231</v>
       </c>
@@ -12800,12 +12968,12 @@
       <c r="V233" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W233" s="95" t="s">
+      <c r="W233" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="234" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="92"/>
+      <c r="B234" s="104"/>
       <c r="C234" s="49">
         <v>232</v>
       </c>
@@ -12852,7 +13020,7 @@
       <c r="AR234" s="1"/>
     </row>
     <row r="235" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="92"/>
+      <c r="B235" s="104"/>
       <c r="C235" s="49">
         <v>233</v>
       </c>
@@ -12899,7 +13067,7 @@
       <c r="AR235" s="1"/>
     </row>
     <row r="236" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="92"/>
+      <c r="B236" s="104"/>
       <c r="C236" s="49">
         <v>234</v>
       </c>
@@ -12946,7 +13114,7 @@
       <c r="AR236" s="1"/>
     </row>
     <row r="237" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="92"/>
+      <c r="B237" s="104"/>
       <c r="C237" s="49">
         <v>235</v>
       </c>
@@ -12988,7 +13156,7 @@
       </c>
     </row>
     <row r="238" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="92"/>
+      <c r="B238" s="104"/>
       <c r="C238" s="49">
         <v>236</v>
       </c>
@@ -13030,7 +13198,7 @@
       </c>
     </row>
     <row r="239" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="92"/>
+      <c r="B239" s="104"/>
       <c r="C239" s="49">
         <v>237</v>
       </c>
@@ -13072,7 +13240,7 @@
       </c>
     </row>
     <row r="240" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="92"/>
+      <c r="B240" s="104"/>
       <c r="C240" s="49">
         <v>238</v>
       </c>
@@ -13114,7 +13282,7 @@
       </c>
     </row>
     <row r="241" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="92"/>
+      <c r="B241" s="104"/>
       <c r="C241" s="49">
         <v>239</v>
       </c>
@@ -13156,7 +13324,7 @@
       </c>
     </row>
     <row r="242" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="92"/>
+      <c r="B242" s="104"/>
       <c r="C242" s="49">
         <v>240</v>
       </c>
@@ -13198,7 +13366,7 @@
       </c>
     </row>
     <row r="243" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="92"/>
+      <c r="B243" s="104"/>
       <c r="C243" s="49">
         <v>241</v>
       </c>
@@ -13240,7 +13408,7 @@
       </c>
     </row>
     <row r="244" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="92"/>
+      <c r="B244" s="104"/>
       <c r="C244" s="49">
         <v>242</v>
       </c>
@@ -13282,7 +13450,7 @@
       </c>
     </row>
     <row r="245" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="92"/>
+      <c r="B245" s="104"/>
       <c r="C245" s="49">
         <v>243</v>
       </c>
@@ -13324,7 +13492,7 @@
       </c>
     </row>
     <row r="246" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="92"/>
+      <c r="B246" s="104"/>
       <c r="C246" s="49">
         <v>244</v>
       </c>
@@ -13366,7 +13534,7 @@
       </c>
     </row>
     <row r="247" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="92"/>
+      <c r="B247" s="104"/>
       <c r="C247" s="49">
         <v>245</v>
       </c>
@@ -13408,7 +13576,7 @@
       </c>
     </row>
     <row r="248" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="92"/>
+      <c r="B248" s="104"/>
       <c r="C248" s="49">
         <v>246</v>
       </c>
@@ -13450,7 +13618,7 @@
       </c>
     </row>
     <row r="249" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="92"/>
+      <c r="B249" s="104"/>
       <c r="C249" s="49">
         <v>247</v>
       </c>
@@ -13492,7 +13660,7 @@
       </c>
     </row>
     <row r="250" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="92"/>
+      <c r="B250" s="104"/>
       <c r="C250" s="49">
         <v>248</v>
       </c>
@@ -13534,7 +13702,7 @@
       </c>
     </row>
     <row r="251" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="92"/>
+      <c r="B251" s="104"/>
       <c r="C251" s="49">
         <v>249</v>
       </c>
@@ -13576,7 +13744,7 @@
       </c>
     </row>
     <row r="252" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="92"/>
+      <c r="B252" s="104"/>
       <c r="C252" s="49">
         <v>250</v>
       </c>
@@ -13618,7 +13786,7 @@
       </c>
     </row>
     <row r="253" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="92"/>
+      <c r="B253" s="104"/>
       <c r="C253" s="49">
         <v>251</v>
       </c>
@@ -13660,7 +13828,7 @@
       </c>
     </row>
     <row r="254" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="92"/>
+      <c r="B254" s="104"/>
       <c r="C254" s="49">
         <v>252</v>
       </c>
@@ -13702,7 +13870,7 @@
       </c>
     </row>
     <row r="255" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="92"/>
+      <c r="B255" s="104"/>
       <c r="C255" s="49">
         <v>253</v>
       </c>
@@ -13744,7 +13912,7 @@
       </c>
     </row>
     <row r="256" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="92"/>
+      <c r="B256" s="104"/>
       <c r="C256" s="49">
         <v>254</v>
       </c>
@@ -13786,7 +13954,7 @@
       </c>
     </row>
     <row r="257" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="92"/>
+      <c r="B257" s="104"/>
       <c r="C257" s="49">
         <v>255</v>
       </c>
@@ -13828,7 +13996,7 @@
       </c>
     </row>
     <row r="258" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="92"/>
+      <c r="B258" s="104"/>
       <c r="C258" s="49">
         <v>256</v>
       </c>
@@ -13870,7 +14038,7 @@
       </c>
     </row>
     <row r="259" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="92"/>
+      <c r="B259" s="104"/>
       <c r="C259" s="49">
         <v>257</v>
       </c>
@@ -13912,7 +14080,7 @@
       </c>
     </row>
     <row r="260" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="92"/>
+      <c r="B260" s="104"/>
       <c r="C260" s="49">
         <v>258</v>
       </c>
@@ -13954,7 +14122,7 @@
       </c>
     </row>
     <row r="261" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="92"/>
+      <c r="B261" s="104"/>
       <c r="C261" s="49">
         <v>259</v>
       </c>
@@ -13996,7 +14164,7 @@
       </c>
     </row>
     <row r="262" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="92"/>
+      <c r="B262" s="104"/>
       <c r="C262" s="49">
         <v>260</v>
       </c>
@@ -14038,7 +14206,7 @@
       </c>
     </row>
     <row r="263" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="92"/>
+      <c r="B263" s="104"/>
       <c r="C263" s="49">
         <v>261</v>
       </c>
@@ -14080,7 +14248,7 @@
       </c>
     </row>
     <row r="264" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="92"/>
+      <c r="B264" s="104"/>
       <c r="C264" s="49">
         <v>262</v>
       </c>
@@ -14122,7 +14290,7 @@
       </c>
     </row>
     <row r="265" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="92"/>
+      <c r="B265" s="104"/>
       <c r="C265" s="49">
         <v>263</v>
       </c>
@@ -14164,7 +14332,7 @@
       </c>
     </row>
     <row r="266" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="92"/>
+      <c r="B266" s="104"/>
       <c r="C266" s="49">
         <v>264</v>
       </c>
@@ -14206,7 +14374,7 @@
       </c>
     </row>
     <row r="267" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="92"/>
+      <c r="B267" s="104"/>
       <c r="C267" s="49">
         <v>265</v>
       </c>
@@ -14248,7 +14416,7 @@
       </c>
     </row>
     <row r="268" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="92"/>
+      <c r="B268" s="104"/>
       <c r="C268" s="49">
         <v>266</v>
       </c>
@@ -14290,7 +14458,7 @@
       </c>
     </row>
     <row r="269" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="92"/>
+      <c r="B269" s="104"/>
       <c r="C269" s="49">
         <v>267</v>
       </c>
@@ -14332,7 +14500,7 @@
       </c>
     </row>
     <row r="270" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="92"/>
+      <c r="B270" s="104"/>
       <c r="C270" s="49">
         <v>268</v>
       </c>
@@ -14374,7 +14542,7 @@
       </c>
     </row>
     <row r="271" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="92"/>
+      <c r="B271" s="104"/>
       <c r="C271" s="49">
         <v>269</v>
       </c>
@@ -14416,7 +14584,7 @@
       </c>
     </row>
     <row r="272" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="92"/>
+      <c r="B272" s="104"/>
       <c r="C272" s="49">
         <v>270</v>
       </c>
@@ -14458,7 +14626,7 @@
       </c>
     </row>
     <row r="273" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="92"/>
+      <c r="B273" s="104"/>
       <c r="C273" s="49">
         <v>271</v>
       </c>
@@ -14500,7 +14668,7 @@
       </c>
     </row>
     <row r="274" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="92"/>
+      <c r="B274" s="104"/>
       <c r="C274" s="49">
         <v>272</v>
       </c>
@@ -14542,7 +14710,7 @@
       </c>
     </row>
     <row r="275" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="92"/>
+      <c r="B275" s="104"/>
       <c r="C275" s="49">
         <v>273</v>
       </c>
@@ -14584,7 +14752,7 @@
       </c>
     </row>
     <row r="276" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="92"/>
+      <c r="B276" s="104"/>
       <c r="C276" s="49">
         <v>274</v>
       </c>
@@ -14626,7 +14794,7 @@
       </c>
     </row>
     <row r="277" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="92"/>
+      <c r="B277" s="104"/>
       <c r="C277" s="49">
         <v>275</v>
       </c>
@@ -14668,7 +14836,7 @@
       </c>
     </row>
     <row r="278" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="92"/>
+      <c r="B278" s="104"/>
       <c r="C278" s="49">
         <v>276</v>
       </c>
@@ -14710,7 +14878,7 @@
       </c>
     </row>
     <row r="279" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="92"/>
+      <c r="B279" s="104"/>
       <c r="C279" s="49">
         <v>277</v>
       </c>
@@ -14752,7 +14920,7 @@
       </c>
     </row>
     <row r="280" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="92"/>
+      <c r="B280" s="104"/>
       <c r="C280" s="49">
         <v>278</v>
       </c>
@@ -14794,7 +14962,7 @@
       </c>
     </row>
     <row r="281" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="92"/>
+      <c r="B281" s="104"/>
       <c r="C281" s="49">
         <v>279</v>
       </c>
@@ -14836,7 +15004,7 @@
       </c>
     </row>
     <row r="282" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="92"/>
+      <c r="B282" s="104"/>
       <c r="C282" s="49">
         <v>280</v>
       </c>
@@ -14878,7 +15046,7 @@
       </c>
     </row>
     <row r="283" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="92"/>
+      <c r="B283" s="104"/>
       <c r="C283" s="49">
         <v>281</v>
       </c>
@@ -14920,7 +15088,7 @@
       </c>
     </row>
     <row r="284" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="92"/>
+      <c r="B284" s="104"/>
       <c r="C284" s="49">
         <v>282</v>
       </c>
@@ -14962,7 +15130,7 @@
       </c>
     </row>
     <row r="285" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="92"/>
+      <c r="B285" s="104"/>
       <c r="C285" s="49">
         <v>283</v>
       </c>
@@ -15004,7 +15172,7 @@
       </c>
     </row>
     <row r="286" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="92"/>
+      <c r="B286" s="104"/>
       <c r="C286" s="49">
         <v>284</v>
       </c>
@@ -15046,7 +15214,7 @@
       </c>
     </row>
     <row r="287" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="92"/>
+      <c r="B287" s="104"/>
       <c r="C287" s="49">
         <v>285</v>
       </c>
@@ -15088,7 +15256,7 @@
       </c>
     </row>
     <row r="288" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="92"/>
+      <c r="B288" s="104"/>
       <c r="C288" s="49">
         <v>286</v>
       </c>
@@ -15130,7 +15298,7 @@
       </c>
     </row>
     <row r="289" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="92"/>
+      <c r="B289" s="104"/>
       <c r="C289" s="49">
         <v>287</v>
       </c>
@@ -15172,7 +15340,7 @@
       </c>
     </row>
     <row r="290" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="92"/>
+      <c r="B290" s="104"/>
       <c r="C290" s="49">
         <v>288</v>
       </c>
@@ -15209,12 +15377,12 @@
       <c r="V290" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W290" s="95" t="s">
+      <c r="W290" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="291" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="92"/>
+      <c r="B291" s="104"/>
       <c r="C291" s="49">
         <v>289</v>
       </c>
@@ -15256,7 +15424,7 @@
       </c>
     </row>
     <row r="292" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="92"/>
+      <c r="B292" s="104"/>
       <c r="C292" s="49">
         <v>290</v>
       </c>
@@ -15298,7 +15466,7 @@
       </c>
     </row>
     <row r="293" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="92"/>
+      <c r="B293" s="104"/>
       <c r="C293" s="49">
         <v>291</v>
       </c>
@@ -15340,7 +15508,7 @@
       </c>
     </row>
     <row r="294" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="92"/>
+      <c r="B294" s="104"/>
       <c r="C294" s="49">
         <v>292</v>
       </c>
@@ -15382,7 +15550,7 @@
       </c>
     </row>
     <row r="295" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="92"/>
+      <c r="B295" s="104"/>
       <c r="C295" s="49">
         <v>293</v>
       </c>
@@ -15424,7 +15592,7 @@
       </c>
     </row>
     <row r="296" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="92"/>
+      <c r="B296" s="104"/>
       <c r="C296" s="49">
         <v>294</v>
       </c>
@@ -15466,7 +15634,7 @@
       </c>
     </row>
     <row r="297" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="92"/>
+      <c r="B297" s="104"/>
       <c r="C297" s="49">
         <v>295</v>
       </c>
@@ -15508,7 +15676,7 @@
       </c>
     </row>
     <row r="298" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="92"/>
+      <c r="B298" s="104"/>
       <c r="C298" s="49">
         <v>296</v>
       </c>
@@ -15550,7 +15718,7 @@
       </c>
     </row>
     <row r="299" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="92"/>
+      <c r="B299" s="104"/>
       <c r="C299" s="49">
         <v>297</v>
       </c>
@@ -15592,7 +15760,7 @@
       </c>
     </row>
     <row r="300" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="92"/>
+      <c r="B300" s="104"/>
       <c r="C300" s="49">
         <v>298</v>
       </c>
@@ -15634,7 +15802,7 @@
       </c>
     </row>
     <row r="301" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="92"/>
+      <c r="B301" s="104"/>
       <c r="C301" s="49">
         <v>299</v>
       </c>
@@ -15676,7 +15844,7 @@
       </c>
     </row>
     <row r="302" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="92"/>
+      <c r="B302" s="104"/>
       <c r="C302" s="49">
         <v>300</v>
       </c>
@@ -15718,7 +15886,7 @@
       </c>
     </row>
     <row r="303" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="92"/>
+      <c r="B303" s="104"/>
       <c r="C303" s="49">
         <v>301</v>
       </c>
@@ -15760,7 +15928,7 @@
       </c>
     </row>
     <row r="304" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="92"/>
+      <c r="B304" s="104"/>
       <c r="C304" s="49">
         <v>302</v>
       </c>
@@ -15802,7 +15970,7 @@
       </c>
     </row>
     <row r="305" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="92"/>
+      <c r="B305" s="104"/>
       <c r="C305" s="49">
         <v>303</v>
       </c>
@@ -15844,7 +16012,7 @@
       </c>
     </row>
     <row r="306" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="92"/>
+      <c r="B306" s="104"/>
       <c r="C306" s="49">
         <v>304</v>
       </c>
@@ -15886,7 +16054,7 @@
       </c>
     </row>
     <row r="307" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="92"/>
+      <c r="B307" s="104"/>
       <c r="C307" s="49">
         <v>305</v>
       </c>
@@ -15928,7 +16096,7 @@
       </c>
     </row>
     <row r="308" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="92"/>
+      <c r="B308" s="104"/>
       <c r="C308" s="49">
         <v>306</v>
       </c>
@@ -15970,7 +16138,7 @@
       </c>
     </row>
     <row r="309" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="92"/>
+      <c r="B309" s="104"/>
       <c r="C309" s="49">
         <v>307</v>
       </c>
@@ -16012,7 +16180,7 @@
       </c>
     </row>
     <row r="310" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="92"/>
+      <c r="B310" s="104"/>
       <c r="C310" s="49">
         <v>308</v>
       </c>
@@ -16054,7 +16222,7 @@
       </c>
     </row>
     <row r="311" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="92"/>
+      <c r="B311" s="104"/>
       <c r="C311" s="49">
         <v>309</v>
       </c>
@@ -16096,7 +16264,7 @@
       </c>
     </row>
     <row r="312" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="92"/>
+      <c r="B312" s="104"/>
       <c r="C312" s="49">
         <v>310</v>
       </c>
@@ -16138,7 +16306,7 @@
       </c>
     </row>
     <row r="313" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="92"/>
+      <c r="B313" s="104"/>
       <c r="C313" s="49">
         <v>311</v>
       </c>
@@ -16180,7 +16348,7 @@
       </c>
     </row>
     <row r="314" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="92"/>
+      <c r="B314" s="104"/>
       <c r="C314" s="49">
         <v>312</v>
       </c>
@@ -16222,7 +16390,7 @@
       </c>
     </row>
     <row r="315" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="92"/>
+      <c r="B315" s="104"/>
       <c r="C315" s="49">
         <v>313</v>
       </c>
@@ -16264,7 +16432,7 @@
       </c>
     </row>
     <row r="316" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="92"/>
+      <c r="B316" s="104"/>
       <c r="C316" s="49">
         <v>314</v>
       </c>
@@ -16306,7 +16474,7 @@
       </c>
     </row>
     <row r="317" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="92"/>
+      <c r="B317" s="104"/>
       <c r="C317" s="49">
         <v>315</v>
       </c>
@@ -16348,7 +16516,7 @@
       </c>
     </row>
     <row r="318" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="92"/>
+      <c r="B318" s="104"/>
       <c r="C318" s="49">
         <v>316</v>
       </c>
@@ -16390,7 +16558,7 @@
       </c>
     </row>
     <row r="319" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="92"/>
+      <c r="B319" s="104"/>
       <c r="C319" s="49">
         <v>317</v>
       </c>
@@ -16432,7 +16600,7 @@
       </c>
     </row>
     <row r="320" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="92"/>
+      <c r="B320" s="104"/>
       <c r="C320" s="49">
         <v>318</v>
       </c>
@@ -16474,7 +16642,7 @@
       </c>
     </row>
     <row r="321" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="92"/>
+      <c r="B321" s="104"/>
       <c r="C321" s="49">
         <v>319</v>
       </c>
@@ -16516,7 +16684,7 @@
       </c>
     </row>
     <row r="322" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="92"/>
+      <c r="B322" s="104"/>
       <c r="C322" s="49">
         <v>320</v>
       </c>
@@ -16558,7 +16726,7 @@
       </c>
     </row>
     <row r="323" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="92"/>
+      <c r="B323" s="104"/>
       <c r="C323" s="49">
         <v>321</v>
       </c>
@@ -16600,7 +16768,7 @@
       </c>
     </row>
     <row r="324" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="92"/>
+      <c r="B324" s="104"/>
       <c r="C324" s="49">
         <v>322</v>
       </c>
@@ -16642,7 +16810,7 @@
       </c>
     </row>
     <row r="325" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="92"/>
+      <c r="B325" s="104"/>
       <c r="C325" s="49">
         <v>323</v>
       </c>
@@ -16684,7 +16852,7 @@
       </c>
     </row>
     <row r="326" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="93"/>
+      <c r="B326" s="105"/>
       <c r="C326" s="86">
         <v>324</v>
       </c>
@@ -27586,6 +27754,9 @@
       </c>
       <c r="U591" s="23"/>
       <c r="V591" s="23"/>
+      <c r="W591" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="592" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="87">
@@ -27624,8 +27795,11 @@
         <v>0</v>
       </c>
       <c r="V592" s="23"/>
-    </row>
-    <row r="593" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W592" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="87">
         <v>591</v>
       </c>
@@ -27662,8 +27836,11 @@
       <c r="V593" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W593" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="594" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="87">
         <v>592</v>
       </c>
@@ -27700,8 +27877,11 @@
       </c>
       <c r="U594" s="23"/>
       <c r="V594" s="23"/>
-    </row>
-    <row r="595" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W594" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="87">
         <v>593</v>
       </c>
@@ -27738,8 +27918,11 @@
         <v>0</v>
       </c>
       <c r="V595" s="23"/>
-    </row>
-    <row r="596" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W595" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="596" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="87">
         <v>594</v>
       </c>
@@ -27776,8 +27959,11 @@
       <c r="V596" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W596" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="87">
         <v>595</v>
       </c>
@@ -27814,8 +28000,11 @@
       </c>
       <c r="U597" s="23"/>
       <c r="V597" s="23"/>
-    </row>
-    <row r="598" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W597" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="87">
         <v>596</v>
       </c>
@@ -27852,8 +28041,11 @@
         <v>0</v>
       </c>
       <c r="V598" s="23"/>
-    </row>
-    <row r="599" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W598" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="599" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="87">
         <v>597</v>
       </c>
@@ -27890,8 +28082,11 @@
       <c r="V599" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W599" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="600" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="87">
         <v>598</v>
       </c>
@@ -27928,8 +28123,11 @@
       </c>
       <c r="U600" s="23"/>
       <c r="V600" s="23"/>
-    </row>
-    <row r="601" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W600" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="601" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="87">
         <v>599</v>
       </c>
@@ -27966,8 +28164,11 @@
         <v>0</v>
       </c>
       <c r="V601" s="23"/>
-    </row>
-    <row r="602" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W601" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="602" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="87">
         <v>600</v>
       </c>
@@ -28004,8 +28205,11 @@
       <c r="V602" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W602" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="603" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="87">
         <v>601</v>
       </c>
@@ -28042,8 +28246,11 @@
       </c>
       <c r="U603" s="23"/>
       <c r="V603" s="23"/>
-    </row>
-    <row r="604" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W603" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="604" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C604" s="87">
         <v>602</v>
       </c>
@@ -28080,8 +28287,11 @@
         <v>0</v>
       </c>
       <c r="V604" s="23"/>
-    </row>
-    <row r="605" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W604" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="605" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C605" s="87">
         <v>603</v>
       </c>
@@ -28118,8 +28328,11 @@
       <c r="V605" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W605" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="87">
         <v>604</v>
       </c>
@@ -28156,8 +28369,11 @@
       </c>
       <c r="U606" s="23"/>
       <c r="V606" s="23"/>
-    </row>
-    <row r="607" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W606" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="607" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="87">
         <v>605</v>
       </c>
@@ -28194,8 +28410,11 @@
         <v>0</v>
       </c>
       <c r="V607" s="23"/>
-    </row>
-    <row r="608" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W607" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="608" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C608" s="87">
         <v>606</v>
       </c>
@@ -28232,8 +28451,11 @@
       <c r="V608" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W608" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C609" s="87">
         <v>607</v>
       </c>
@@ -28270,8 +28492,11 @@
       </c>
       <c r="U609" s="23"/>
       <c r="V609" s="23"/>
-    </row>
-    <row r="610" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W609" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="610" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C610" s="87">
         <v>608</v>
       </c>
@@ -28308,8 +28533,11 @@
         <v>0</v>
       </c>
       <c r="V610" s="23"/>
-    </row>
-    <row r="611" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W610" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="611" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C611" s="87">
         <v>609</v>
       </c>
@@ -28346,8 +28574,11 @@
       <c r="V611" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W611" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="612" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C612" s="87">
         <v>610</v>
       </c>
@@ -28384,8 +28615,11 @@
       </c>
       <c r="U612" s="23"/>
       <c r="V612" s="23"/>
-    </row>
-    <row r="613" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W612" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="613" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C613" s="87">
         <v>611</v>
       </c>
@@ -28422,8 +28656,11 @@
         <v>0</v>
       </c>
       <c r="V613" s="23"/>
-    </row>
-    <row r="614" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W613" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="614" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C614" s="87">
         <v>612</v>
       </c>
@@ -28460,8 +28697,11 @@
       <c r="V614" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W614" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="615" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C615" s="87">
         <v>613</v>
       </c>
@@ -28498,8 +28738,11 @@
       </c>
       <c r="U615" s="23"/>
       <c r="V615" s="23"/>
-    </row>
-    <row r="616" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W615" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C616" s="87">
         <v>614</v>
       </c>
@@ -28537,7 +28780,7 @@
       </c>
       <c r="V616" s="23"/>
     </row>
-    <row r="617" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="87">
         <v>615</v>
       </c>
@@ -28575,7 +28818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="87">
         <v>616</v>
       </c>
@@ -28613,7 +28856,7 @@
       <c r="U618" s="23"/>
       <c r="V618" s="23"/>
     </row>
-    <row r="619" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="87">
         <v>617</v>
       </c>
@@ -28651,7 +28894,7 @@
       </c>
       <c r="V619" s="23"/>
     </row>
-    <row r="620" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="87">
         <v>618</v>
       </c>
@@ -28689,7 +28932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="87">
         <v>619</v>
       </c>
@@ -28727,7 +28970,7 @@
       <c r="U621" s="23"/>
       <c r="V621" s="23"/>
     </row>
-    <row r="622" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="87">
         <v>620</v>
       </c>
@@ -28765,7 +29008,7 @@
       </c>
       <c r="V622" s="23"/>
     </row>
-    <row r="623" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="87">
         <v>621</v>
       </c>
@@ -28803,7 +29046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="87">
         <v>622</v>
       </c>
@@ -37492,6 +37735,9 @@
       </c>
       <c r="U837" s="3"/>
       <c r="V837" s="3"/>
+      <c r="W837" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="838" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="83">
@@ -37530,6 +37776,9 @@
         <v>0</v>
       </c>
       <c r="V838" s="3"/>
+      <c r="W838" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="839" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="83">
@@ -37568,6 +37817,9 @@
       <c r="V839" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W839" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="840" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="83">
@@ -37606,6 +37858,9 @@
       </c>
       <c r="U840" s="3"/>
       <c r="V840" s="3"/>
+      <c r="W840" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="841" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="83">
@@ -37644,6 +37899,9 @@
         <v>0</v>
       </c>
       <c r="V841" s="3"/>
+      <c r="W841" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="842" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="83">
@@ -37681,6 +37939,9 @@
       <c r="U842" s="3"/>
       <c r="V842" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W842" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="843" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -37720,6 +37981,9 @@
       </c>
       <c r="U843" s="3"/>
       <c r="V843" s="3"/>
+      <c r="W843" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="844" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="83">
@@ -37758,6 +38022,9 @@
         <v>0</v>
       </c>
       <c r="V844" s="3"/>
+      <c r="W844" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="845" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="83">
@@ -37796,6 +38063,9 @@
       <c r="V845" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W845" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="846" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="83">
@@ -37834,6 +38104,9 @@
       </c>
       <c r="U846" s="3"/>
       <c r="V846" s="3"/>
+      <c r="W846" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="847" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="83">
@@ -37872,6 +38145,9 @@
         <v>0</v>
       </c>
       <c r="V847" s="3"/>
+      <c r="W847" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="848" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="83">
@@ -37910,8 +38186,11 @@
       <c r="V848" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="849" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W848" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="849" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C849" s="83">
         <v>847</v>
       </c>
@@ -37948,8 +38227,11 @@
       </c>
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
-    </row>
-    <row r="850" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W849" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="850" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C850" s="83">
         <v>848</v>
       </c>
@@ -37986,8 +38268,11 @@
         <v>0</v>
       </c>
       <c r="V850" s="3"/>
-    </row>
-    <row r="851" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W850" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="851" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C851" s="83">
         <v>849</v>
       </c>
@@ -38024,8 +38309,11 @@
       <c r="V851" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="852" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W851" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="852" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C852" s="83">
         <v>850</v>
       </c>
@@ -38062,8 +38350,11 @@
       </c>
       <c r="U852" s="3"/>
       <c r="V852" s="3"/>
-    </row>
-    <row r="853" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W852" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="853" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C853" s="83">
         <v>851</v>
       </c>
@@ -38100,8 +38391,11 @@
         <v>0</v>
       </c>
       <c r="V853" s="3"/>
-    </row>
-    <row r="854" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W853" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="854" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C854" s="83">
         <v>852</v>
       </c>
@@ -38138,8 +38432,11 @@
       <c r="V854" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="855" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W854" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="855" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C855" s="83">
         <v>853</v>
       </c>
@@ -38176,8 +38473,11 @@
       </c>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
-    </row>
-    <row r="856" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W855" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="856" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C856" s="83">
         <v>854</v>
       </c>
@@ -38214,8 +38514,11 @@
         <v>0</v>
       </c>
       <c r="V856" s="3"/>
-    </row>
-    <row r="857" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W856" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="857" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C857" s="83">
         <v>855</v>
       </c>
@@ -38252,8 +38555,11 @@
       <c r="V857" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="858" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W857" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="858" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C858" s="83">
         <v>856</v>
       </c>
@@ -38290,8 +38596,11 @@
       </c>
       <c r="U858" s="3"/>
       <c r="V858" s="3"/>
-    </row>
-    <row r="859" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W858" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="859" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C859" s="83">
         <v>857</v>
       </c>
@@ -38328,8 +38637,11 @@
         <v>0</v>
       </c>
       <c r="V859" s="3"/>
-    </row>
-    <row r="860" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W859" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="860" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C860" s="83">
         <v>858</v>
       </c>
@@ -38366,8 +38678,11 @@
       <c r="V860" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="861" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W860" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="861" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C861" s="83">
         <v>859</v>
       </c>
@@ -38404,8 +38719,11 @@
       </c>
       <c r="U861" s="3"/>
       <c r="V861" s="3"/>
-    </row>
-    <row r="862" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W861" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="862" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C862" s="83">
         <v>860</v>
       </c>
@@ -38442,8 +38760,11 @@
         <v>0</v>
       </c>
       <c r="V862" s="3"/>
-    </row>
-    <row r="863" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W862" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="863" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C863" s="83">
         <v>861</v>
       </c>
@@ -38480,8 +38801,11 @@
       <c r="V863" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="864" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W863" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="864" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C864" s="83">
         <v>862</v>
       </c>
@@ -38518,8 +38842,11 @@
       </c>
       <c r="U864" s="3"/>
       <c r="V864" s="3"/>
-    </row>
-    <row r="865" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W864" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="865" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C865" s="83">
         <v>863</v>
       </c>
@@ -38556,8 +38883,11 @@
         <v>0</v>
       </c>
       <c r="V865" s="3"/>
-    </row>
-    <row r="866" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W865" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="866" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C866" s="83">
         <v>864</v>
       </c>
@@ -38594,8 +38924,11 @@
       <c r="V866" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="867" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W866" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="867" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C867" s="83">
         <v>865</v>
       </c>
@@ -38632,8 +38965,11 @@
       </c>
       <c r="U867" s="3"/>
       <c r="V867" s="3"/>
-    </row>
-    <row r="868" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W867" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="868" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C868" s="83">
         <v>866</v>
       </c>
@@ -38670,8 +39006,11 @@
         <v>0</v>
       </c>
       <c r="V868" s="3"/>
-    </row>
-    <row r="869" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W868" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="869" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C869" s="83">
         <v>867</v>
       </c>
@@ -38708,8 +39047,11 @@
       <c r="V869" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="870" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W869" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="870" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C870" s="83">
         <v>868</v>
       </c>
@@ -38746,8 +39088,11 @@
       </c>
       <c r="U870" s="3"/>
       <c r="V870" s="3"/>
-    </row>
-    <row r="871" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W870" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="871" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C871" s="83">
         <v>869</v>
       </c>
@@ -38784,8 +39129,11 @@
         <v>0</v>
       </c>
       <c r="V871" s="3"/>
-    </row>
-    <row r="872" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W871" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="872" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C872" s="83">
         <v>870</v>
       </c>
@@ -38822,8 +39170,11 @@
       <c r="V872" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="873" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W872" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="873" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C873" s="83">
         <v>871</v>
       </c>
@@ -38860,8 +39211,11 @@
       </c>
       <c r="U873" s="3"/>
       <c r="V873" s="3"/>
-    </row>
-    <row r="874" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W873" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="874" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C874" s="83">
         <v>872</v>
       </c>
@@ -38898,8 +39252,11 @@
         <v>0</v>
       </c>
       <c r="V874" s="3"/>
-    </row>
-    <row r="875" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W874" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="875" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C875" s="83">
         <v>873</v>
       </c>
@@ -38936,8 +39293,11 @@
       <c r="V875" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="876" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W875" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="876" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C876" s="83">
         <v>874</v>
       </c>
@@ -38974,8 +39334,11 @@
       </c>
       <c r="U876" s="3"/>
       <c r="V876" s="3"/>
-    </row>
-    <row r="877" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W876" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="877" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C877" s="83">
         <v>875</v>
       </c>
@@ -39012,8 +39375,11 @@
         <v>0</v>
       </c>
       <c r="V877" s="3"/>
-    </row>
-    <row r="878" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W877" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="878" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C878" s="83">
         <v>876</v>
       </c>
@@ -39050,8 +39416,11 @@
       <c r="V878" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="879" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W878" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="879" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C879" s="83">
         <v>877</v>
       </c>
@@ -39089,7 +39458,7 @@
       <c r="U879" s="3"/>
       <c r="V879" s="3"/>
     </row>
-    <row r="880" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="83">
         <v>878</v>
       </c>
@@ -42715,7 +43084,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="AE10 AI10" twoDigitTextYear="1"/>
+    <ignoredError sqref="AE10 AI10 AH11" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5DCDD7-D81A-924F-98B3-69AB0BECA2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB2484-236D-8D42-83C4-5A9B74DE4ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21440" windowHeight="18740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="7980" yWindow="22380" windowWidth="21440" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7929" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8017" uniqueCount="284">
   <si>
     <t>X</t>
   </si>
@@ -1213,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1524,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1849,10 +1851,10 @@
   <dimension ref="B1:AR974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S853" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N934" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB875" sqref="AB875"/>
+      <selection pane="bottomRight" activeCell="W963" sqref="W963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28779,6 +28781,9 @@
         <v>0</v>
       </c>
       <c r="V616" s="23"/>
+      <c r="W616" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="617" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="87">
@@ -28817,6 +28822,9 @@
       <c r="V617" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W617" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="618" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="87">
@@ -28855,6 +28863,9 @@
       </c>
       <c r="U618" s="23"/>
       <c r="V618" s="23"/>
+      <c r="W618" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="619" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="87">
@@ -28893,6 +28904,9 @@
         <v>0</v>
       </c>
       <c r="V619" s="23"/>
+      <c r="W619" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="620" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="87">
@@ -28931,6 +28945,9 @@
       <c r="V620" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W620" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="621" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="87">
@@ -28969,6 +28986,9 @@
       </c>
       <c r="U621" s="23"/>
       <c r="V621" s="23"/>
+      <c r="W621" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="622" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="87">
@@ -29007,6 +29027,9 @@
         <v>0</v>
       </c>
       <c r="V622" s="23"/>
+      <c r="W622" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="623" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="87">
@@ -29045,6 +29068,9 @@
       <c r="V623" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W623" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="624" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="87">
@@ -29083,8 +29109,11 @@
       </c>
       <c r="U624" s="23"/>
       <c r="V624" s="23"/>
-    </row>
-    <row r="625" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W624" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="625" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C625" s="87">
         <v>623</v>
       </c>
@@ -29121,8 +29150,11 @@
         <v>0</v>
       </c>
       <c r="V625" s="23"/>
-    </row>
-    <row r="626" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W625" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="626" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C626" s="87">
         <v>624</v>
       </c>
@@ -29159,8 +29191,11 @@
       <c r="V626" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="627" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W626" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="627" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C627" s="87">
         <v>625</v>
       </c>
@@ -29197,8 +29232,11 @@
       </c>
       <c r="U627" s="23"/>
       <c r="V627" s="23"/>
-    </row>
-    <row r="628" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W627" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="628" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C628" s="87">
         <v>626</v>
       </c>
@@ -29235,8 +29273,11 @@
         <v>0</v>
       </c>
       <c r="V628" s="23"/>
-    </row>
-    <row r="629" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W628" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C629" s="87">
         <v>627</v>
       </c>
@@ -29273,8 +29314,11 @@
       <c r="V629" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="630" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W629" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="630" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C630" s="87">
         <v>628</v>
       </c>
@@ -29311,8 +29355,11 @@
       </c>
       <c r="U630" s="23"/>
       <c r="V630" s="23"/>
-    </row>
-    <row r="631" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W630" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C631" s="87">
         <v>629</v>
       </c>
@@ -29349,8 +29396,11 @@
         <v>0</v>
       </c>
       <c r="V631" s="23"/>
-    </row>
-    <row r="632" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W631" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="632" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C632" s="87">
         <v>630</v>
       </c>
@@ -29387,8 +29437,11 @@
       <c r="V632" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="633" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W632" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="633" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C633" s="87">
         <v>631</v>
       </c>
@@ -29425,8 +29478,11 @@
       </c>
       <c r="U633" s="23"/>
       <c r="V633" s="23"/>
-    </row>
-    <row r="634" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W633" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="634" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C634" s="87">
         <v>632</v>
       </c>
@@ -29463,8 +29519,11 @@
         <v>0</v>
       </c>
       <c r="V634" s="23"/>
-    </row>
-    <row r="635" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W634" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="635" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C635" s="87">
         <v>633</v>
       </c>
@@ -29501,8 +29560,11 @@
       <c r="V635" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="636" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W635" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="636" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C636" s="87">
         <v>634</v>
       </c>
@@ -29539,8 +29601,11 @@
       </c>
       <c r="U636" s="23"/>
       <c r="V636" s="23"/>
-    </row>
-    <row r="637" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W636" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="637" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C637" s="87">
         <v>635</v>
       </c>
@@ -29577,8 +29642,11 @@
         <v>0</v>
       </c>
       <c r="V637" s="23"/>
-    </row>
-    <row r="638" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W637" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C638" s="87">
         <v>636</v>
       </c>
@@ -29615,8 +29683,11 @@
       <c r="V638" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="639" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W638" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="639" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C639" s="87">
         <v>637</v>
       </c>
@@ -29653,8 +29724,11 @@
       </c>
       <c r="U639" s="23"/>
       <c r="V639" s="23"/>
-    </row>
-    <row r="640" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W639" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="640" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C640" s="87">
         <v>638</v>
       </c>
@@ -29691,6 +29765,9 @@
         <v>0</v>
       </c>
       <c r="V640" s="23"/>
+      <c r="W640" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="641" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="87">
@@ -29729,6 +29806,9 @@
       <c r="V641" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W641" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="642" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="87">
@@ -29767,6 +29847,9 @@
       </c>
       <c r="U642" s="23"/>
       <c r="V642" s="23"/>
+      <c r="W642" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="643" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="87">
@@ -29805,6 +29888,9 @@
         <v>0</v>
       </c>
       <c r="V643" s="23"/>
+      <c r="W643" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="644" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="87">
@@ -29843,6 +29929,9 @@
       <c r="V644" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W644" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="645" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="87">
@@ -29881,6 +29970,9 @@
       </c>
       <c r="U645" s="23"/>
       <c r="V645" s="23"/>
+      <c r="W645" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="646" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="87">
@@ -29919,6 +30011,9 @@
         <v>0</v>
       </c>
       <c r="V646" s="23"/>
+      <c r="W646" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="647" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="87">
@@ -29957,6 +30052,9 @@
       <c r="V647" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="W647" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="648" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="87">
@@ -29995,6 +30093,9 @@
       </c>
       <c r="U648" s="23"/>
       <c r="V648" s="23"/>
+      <c r="W648" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="649" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="87">
@@ -30033,6 +30134,9 @@
         <v>0</v>
       </c>
       <c r="V649" s="23"/>
+      <c r="W649" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="650" spans="3:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C650" s="88">
@@ -30070,6 +30174,9 @@
       <c r="U650" s="17"/>
       <c r="V650" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="W650" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="651" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -39457,6 +39564,9 @@
       </c>
       <c r="U879" s="3"/>
       <c r="V879" s="3"/>
+      <c r="W879" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="880" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="83">
@@ -39495,8 +39605,11 @@
         <v>0</v>
       </c>
       <c r="V880" s="3"/>
-    </row>
-    <row r="881" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W880" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="881" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C881" s="83">
         <v>879</v>
       </c>
@@ -39533,8 +39646,11 @@
       <c r="V881" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="882" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W881" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="882" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C882" s="83">
         <v>880</v>
       </c>
@@ -39571,8 +39687,11 @@
       </c>
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
-    </row>
-    <row r="883" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W882" s="107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="883" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C883" s="83">
         <v>881</v>
       </c>
@@ -39609,8 +39728,11 @@
         <v>0</v>
       </c>
       <c r="V883" s="3"/>
-    </row>
-    <row r="884" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W883" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="884" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C884" s="83">
         <v>882</v>
       </c>
@@ -39647,8 +39769,11 @@
       <c r="V884" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="885" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W884" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="885" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C885" s="83">
         <v>883</v>
       </c>
@@ -39685,8 +39810,11 @@
       </c>
       <c r="U885" s="3"/>
       <c r="V885" s="3"/>
-    </row>
-    <row r="886" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W885" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="886" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C886" s="83">
         <v>884</v>
       </c>
@@ -39723,8 +39851,11 @@
         <v>0</v>
       </c>
       <c r="V886" s="3"/>
-    </row>
-    <row r="887" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W886" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="887" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C887" s="83">
         <v>885</v>
       </c>
@@ -39761,8 +39892,11 @@
       <c r="V887" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="888" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W887" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="888" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C888" s="83">
         <v>886</v>
       </c>
@@ -39799,8 +39933,11 @@
       </c>
       <c r="U888" s="3"/>
       <c r="V888" s="3"/>
-    </row>
-    <row r="889" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W888" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="889" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C889" s="83">
         <v>887</v>
       </c>
@@ -39837,8 +39974,11 @@
         <v>0</v>
       </c>
       <c r="V889" s="3"/>
-    </row>
-    <row r="890" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W889" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="890" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C890" s="83">
         <v>888</v>
       </c>
@@ -39875,8 +40015,11 @@
       <c r="V890" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="891" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W890" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="891" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C891" s="83">
         <v>889</v>
       </c>
@@ -39913,8 +40056,11 @@
       </c>
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
-    </row>
-    <row r="892" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W891" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="892" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C892" s="83">
         <v>890</v>
       </c>
@@ -39951,8 +40097,11 @@
         <v>0</v>
       </c>
       <c r="V892" s="3"/>
-    </row>
-    <row r="893" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W892" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="893" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C893" s="83">
         <v>891</v>
       </c>
@@ -39989,8 +40138,11 @@
       <c r="V893" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="894" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W893" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="894" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C894" s="83">
         <v>892</v>
       </c>
@@ -40027,8 +40179,11 @@
       </c>
       <c r="U894" s="3"/>
       <c r="V894" s="3"/>
-    </row>
-    <row r="895" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W894" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="895" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C895" s="83">
         <v>893</v>
       </c>
@@ -40065,8 +40220,11 @@
         <v>0</v>
       </c>
       <c r="V895" s="3"/>
-    </row>
-    <row r="896" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W895" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="896" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C896" s="83">
         <v>894</v>
       </c>
@@ -40103,8 +40261,11 @@
       <c r="V896" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="897" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W896" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="897" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C897" s="83">
         <v>895</v>
       </c>
@@ -40141,8 +40302,11 @@
       </c>
       <c r="U897" s="3"/>
       <c r="V897" s="3"/>
-    </row>
-    <row r="898" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W897" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="898" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C898" s="83">
         <v>896</v>
       </c>
@@ -40179,8 +40343,11 @@
         <v>0</v>
       </c>
       <c r="V898" s="3"/>
-    </row>
-    <row r="899" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W898" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="899" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C899" s="83">
         <v>897</v>
       </c>
@@ -40217,8 +40384,11 @@
       <c r="V899" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="900" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W899" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="900" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C900" s="83">
         <v>898</v>
       </c>
@@ -40255,8 +40425,11 @@
       </c>
       <c r="U900" s="3"/>
       <c r="V900" s="3"/>
-    </row>
-    <row r="901" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W900" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="901" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C901" s="83">
         <v>899</v>
       </c>
@@ -40293,8 +40466,11 @@
         <v>0</v>
       </c>
       <c r="V901" s="3"/>
-    </row>
-    <row r="902" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W901" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="902" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C902" s="83">
         <v>900</v>
       </c>
@@ -40331,8 +40507,11 @@
       <c r="V902" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="903" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W902" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="903" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C903" s="83">
         <v>901</v>
       </c>
@@ -40369,8 +40548,11 @@
       </c>
       <c r="U903" s="3"/>
       <c r="V903" s="3"/>
-    </row>
-    <row r="904" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W903" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="904" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C904" s="83">
         <v>902</v>
       </c>
@@ -40407,8 +40589,11 @@
         <v>0</v>
       </c>
       <c r="V904" s="3"/>
-    </row>
-    <row r="905" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W904" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="905" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C905" s="83">
         <v>903</v>
       </c>
@@ -40445,8 +40630,11 @@
       <c r="V905" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="906" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W905" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="906" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C906" s="83">
         <v>904</v>
       </c>
@@ -40483,8 +40671,11 @@
       </c>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
-    </row>
-    <row r="907" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W906" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="907" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C907" s="83">
         <v>905</v>
       </c>
@@ -40521,8 +40712,11 @@
         <v>0</v>
       </c>
       <c r="V907" s="3"/>
-    </row>
-    <row r="908" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W907" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="908" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C908" s="83">
         <v>906</v>
       </c>
@@ -40559,8 +40753,11 @@
       <c r="V908" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="909" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W908" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="909" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C909" s="83">
         <v>907</v>
       </c>
@@ -40597,8 +40794,11 @@
       </c>
       <c r="U909" s="3"/>
       <c r="V909" s="3"/>
-    </row>
-    <row r="910" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W909" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="910" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C910" s="83">
         <v>908</v>
       </c>
@@ -40635,8 +40835,11 @@
         <v>0</v>
       </c>
       <c r="V910" s="3"/>
-    </row>
-    <row r="911" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W910" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="911" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C911" s="83">
         <v>909</v>
       </c>
@@ -40673,8 +40876,11 @@
       <c r="V911" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="912" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W911" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="912" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C912" s="83">
         <v>910</v>
       </c>
@@ -40711,8 +40917,11 @@
       </c>
       <c r="U912" s="3"/>
       <c r="V912" s="3"/>
-    </row>
-    <row r="913" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W912" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="913" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C913" s="83">
         <v>911</v>
       </c>
@@ -40749,8 +40958,11 @@
         <v>0</v>
       </c>
       <c r="V913" s="3"/>
-    </row>
-    <row r="914" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W913" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="914" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C914" s="83">
         <v>912</v>
       </c>
@@ -40787,8 +40999,11 @@
       <c r="V914" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="915" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W914" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="915" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C915" s="83">
         <v>913</v>
       </c>
@@ -40825,8 +41040,11 @@
       </c>
       <c r="U915" s="3"/>
       <c r="V915" s="3"/>
-    </row>
-    <row r="916" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W915" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="916" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C916" s="83">
         <v>914</v>
       </c>
@@ -40863,8 +41081,11 @@
         <v>0</v>
       </c>
       <c r="V916" s="3"/>
-    </row>
-    <row r="917" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W916" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="917" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C917" s="83">
         <v>915</v>
       </c>
@@ -40901,8 +41122,11 @@
       <c r="V917" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="918" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W917" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="918" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C918" s="83">
         <v>916</v>
       </c>
@@ -40939,8 +41163,11 @@
       </c>
       <c r="U918" s="3"/>
       <c r="V918" s="3"/>
-    </row>
-    <row r="919" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W918" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="919" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C919" s="83">
         <v>917</v>
       </c>
@@ -40977,8 +41204,11 @@
         <v>0</v>
       </c>
       <c r="V919" s="3"/>
-    </row>
-    <row r="920" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W919" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="920" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="83">
         <v>918</v>
       </c>
@@ -41015,8 +41245,11 @@
       <c r="V920" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="921" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W920" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="921" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C921" s="83">
         <v>919</v>
       </c>
@@ -41053,8 +41286,11 @@
       </c>
       <c r="U921" s="3"/>
       <c r="V921" s="3"/>
-    </row>
-    <row r="922" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W921" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="922" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C922" s="83">
         <v>920</v>
       </c>
@@ -41091,8 +41327,11 @@
         <v>0</v>
       </c>
       <c r="V922" s="3"/>
-    </row>
-    <row r="923" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W922" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="923" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C923" s="83">
         <v>921</v>
       </c>
@@ -41129,8 +41368,11 @@
       <c r="V923" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="924" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W923" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="924" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C924" s="83">
         <v>922</v>
       </c>
@@ -41167,8 +41409,11 @@
       </c>
       <c r="U924" s="3"/>
       <c r="V924" s="3"/>
-    </row>
-    <row r="925" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W924" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="925" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C925" s="83">
         <v>923</v>
       </c>
@@ -41205,8 +41450,11 @@
         <v>0</v>
       </c>
       <c r="V925" s="3"/>
-    </row>
-    <row r="926" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W925" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="926" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C926" s="83">
         <v>924</v>
       </c>
@@ -41243,8 +41491,11 @@
       <c r="V926" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="927" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W926" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="927" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C927" s="83">
         <v>925</v>
       </c>
@@ -41281,8 +41532,11 @@
       </c>
       <c r="U927" s="3"/>
       <c r="V927" s="3"/>
-    </row>
-    <row r="928" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W927" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="928" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C928" s="83">
         <v>926</v>
       </c>
@@ -41319,8 +41573,11 @@
         <v>0</v>
       </c>
       <c r="V928" s="3"/>
-    </row>
-    <row r="929" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W928" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="929" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C929" s="83">
         <v>927</v>
       </c>
@@ -41357,8 +41614,11 @@
       <c r="V929" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="930" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W929" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="930" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C930" s="83">
         <v>928</v>
       </c>
@@ -41395,8 +41655,11 @@
       </c>
       <c r="U930" s="3"/>
       <c r="V930" s="3"/>
-    </row>
-    <row r="931" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W930" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="931" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C931" s="83">
         <v>929</v>
       </c>
@@ -41434,7 +41697,7 @@
       </c>
       <c r="V931" s="3"/>
     </row>
-    <row r="932" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="83">
         <v>930</v>
       </c>
@@ -41472,7 +41735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C933" s="83">
         <v>931</v>
       </c>
@@ -41510,7 +41773,7 @@
       <c r="U933" s="3"/>
       <c r="V933" s="3"/>
     </row>
-    <row r="934" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="83">
         <v>932</v>
       </c>
@@ -41548,7 +41811,7 @@
       </c>
       <c r="V934" s="3"/>
     </row>
-    <row r="935" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="83">
         <v>933</v>
       </c>
@@ -41586,7 +41849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="83">
         <v>934</v>
       </c>
@@ -41624,7 +41887,7 @@
       <c r="U936" s="3"/>
       <c r="V936" s="3"/>
     </row>
-    <row r="937" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="83">
         <v>935</v>
       </c>
@@ -41662,7 +41925,7 @@
       </c>
       <c r="V937" s="3"/>
     </row>
-    <row r="938" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="83">
         <v>936</v>
       </c>
@@ -41700,7 +41963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="83">
         <v>937</v>
       </c>
@@ -41738,7 +42001,7 @@
       <c r="U939" s="3"/>
       <c r="V939" s="3"/>
     </row>
-    <row r="940" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="83">
         <v>938</v>
       </c>
@@ -41776,7 +42039,7 @@
       </c>
       <c r="V940" s="3"/>
     </row>
-    <row r="941" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="83">
         <v>939</v>
       </c>
@@ -41814,7 +42077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="83">
         <v>940</v>
       </c>
@@ -41852,7 +42115,7 @@
       <c r="U942" s="3"/>
       <c r="V942" s="3"/>
     </row>
-    <row r="943" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="83">
         <v>941</v>
       </c>
@@ -41890,7 +42153,7 @@
       </c>
       <c r="V943" s="3"/>
     </row>
-    <row r="944" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="83">
         <v>942</v>
       </c>
@@ -42536,7 +42799,7 @@
       <c r="U960" s="3"/>
       <c r="V960" s="3"/>
     </row>
-    <row r="961" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="83">
         <v>959</v>
       </c>
@@ -42574,7 +42837,7 @@
       </c>
       <c r="V961" s="3"/>
     </row>
-    <row r="962" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="83">
         <v>960</v>
       </c>
@@ -42611,8 +42874,11 @@
       <c r="V962" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="963" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W962" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="963" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="83">
         <v>961</v>
       </c>
@@ -42650,7 +42916,7 @@
       <c r="U963" s="3"/>
       <c r="V963" s="3"/>
     </row>
-    <row r="964" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="83">
         <v>962</v>
       </c>
@@ -42688,7 +42954,7 @@
       </c>
       <c r="V964" s="3"/>
     </row>
-    <row r="965" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="83">
         <v>963</v>
       </c>
@@ -42726,7 +42992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="83">
         <v>964</v>
       </c>
@@ -42764,7 +43030,7 @@
       <c r="U966" s="3"/>
       <c r="V966" s="3"/>
     </row>
-    <row r="967" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="83">
         <v>965</v>
       </c>
@@ -42802,7 +43068,7 @@
       </c>
       <c r="V967" s="3"/>
     </row>
-    <row r="968" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="83">
         <v>966</v>
       </c>
@@ -42840,7 +43106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="83">
         <v>967</v>
       </c>
@@ -42878,7 +43144,7 @@
       <c r="U969" s="3"/>
       <c r="V969" s="3"/>
     </row>
-    <row r="970" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="83">
         <v>968</v>
       </c>
@@ -42916,7 +43182,7 @@
       </c>
       <c r="V970" s="3"/>
     </row>
-    <row r="971" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="83">
         <v>969</v>
       </c>
@@ -42954,7 +43220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="83">
         <v>970</v>
       </c>
@@ -42992,7 +43258,7 @@
       <c r="U972" s="3"/>
       <c r="V972" s="3"/>
     </row>
-    <row r="973" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="83">
         <v>971</v>
       </c>
@@ -43030,7 +43296,7 @@
       </c>
       <c r="V973" s="3"/>
     </row>
-    <row r="974" spans="3:22" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C974" s="84">
         <v>972</v>
       </c>
@@ -43087,18 +43353,4 @@
     <ignoredError sqref="AE10 AI10 AH11" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8A718-611A-324E-B1A5-A751F5E96302}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection sqref="A1:A54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB2484-236D-8D42-83C4-5A9B74DE4ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BF9B7-F247-0648-A1E4-E87BCF8C48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="22380" windowWidth="21440" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8017" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="292">
   <si>
     <t>X</t>
   </si>
@@ -889,6 +889,30 @@
   <si>
     <t>28</t>
   </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
 </sst>
 </file>
 
@@ -1509,6 +1533,9 @@
     <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1523,9 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,10 +1875,10 @@
   <dimension ref="B1:AR974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N934" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W963" sqref="W963"/>
+      <selection pane="bottomRight" activeCell="AC961" sqref="AC961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1872,39 +1896,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="102" t="s">
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102" t="s">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102" t="s">
+      <c r="S1" s="103"/>
+      <c r="T1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="2" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="51" t="s">
@@ -1969,7 +1993,7 @@
       </c>
     </row>
     <row r="3" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="52">
@@ -2013,7 +2037,7 @@
       </c>
     </row>
     <row r="4" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -2055,7 +2079,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -2097,7 +2121,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -2139,7 +2163,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -2181,7 +2205,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -2244,7 +2268,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -2307,7 +2331,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -2372,7 +2396,7 @@
       <c r="AK10" s="92"/>
     </row>
     <row r="11" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -2435,7 +2459,7 @@
       <c r="AK11" s="92"/>
     </row>
     <row r="12" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -2498,7 +2522,7 @@
       <c r="AK12" s="92"/>
     </row>
     <row r="13" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="49">
         <v>11</v>
       </c>
@@ -2559,7 +2583,7 @@
       <c r="AK13" s="92"/>
     </row>
     <row r="14" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="104"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="49">
         <v>12</v>
       </c>
@@ -2620,7 +2644,7 @@
       <c r="AK14" s="92"/>
     </row>
     <row r="15" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="104"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="49">
         <v>13</v>
       </c>
@@ -2681,7 +2705,7 @@
       <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="49">
         <v>14</v>
       </c>
@@ -2742,7 +2766,7 @@
       <c r="AK16" s="92"/>
     </row>
     <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="49">
         <v>15</v>
       </c>
@@ -2796,12 +2820,14 @@
       <c r="AH17" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="AI17" s="94"/>
+      <c r="AI17" s="94" t="s">
+        <v>284</v>
+      </c>
       <c r="AJ17" s="92"/>
       <c r="AK17" s="92"/>
     </row>
     <row r="18" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="49">
         <v>16</v>
       </c>
@@ -2855,12 +2881,14 @@
       <c r="AH18" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="AI18" s="94"/>
+      <c r="AI18" s="94" t="s">
+        <v>285</v>
+      </c>
       <c r="AJ18" s="92"/>
       <c r="AK18" s="92"/>
     </row>
     <row r="19" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="104"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="49">
         <v>17</v>
       </c>
@@ -2912,12 +2940,14 @@
       <c r="AH19" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="AI19" s="94"/>
+      <c r="AI19" s="94" t="s">
+        <v>286</v>
+      </c>
       <c r="AJ19" s="92"/>
       <c r="AK19" s="92"/>
     </row>
     <row r="20" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="104"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="49">
         <v>18</v>
       </c>
@@ -2969,12 +2999,14 @@
       <c r="AH20" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="AI20" s="94"/>
+      <c r="AI20" s="94" t="s">
+        <v>287</v>
+      </c>
       <c r="AJ20" s="92"/>
       <c r="AK20" s="92"/>
     </row>
     <row r="21" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="104"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="49">
         <v>19</v>
       </c>
@@ -3026,12 +3058,14 @@
       <c r="AH21" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="AI21" s="94"/>
+      <c r="AI21" s="94" t="s">
+        <v>288</v>
+      </c>
       <c r="AJ21" s="92"/>
       <c r="AK21" s="92"/>
     </row>
     <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="104"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="49">
         <v>20</v>
       </c>
@@ -3083,12 +3117,14 @@
       <c r="AH22" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="AI22" s="94"/>
+      <c r="AI22" s="94" t="s">
+        <v>289</v>
+      </c>
       <c r="AJ22" s="92"/>
       <c r="AK22" s="92"/>
     </row>
     <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="49">
         <v>21</v>
       </c>
@@ -3140,12 +3176,14 @@
       <c r="AH23" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="AI23" s="94"/>
+      <c r="AI23" s="94" t="s">
+        <v>290</v>
+      </c>
       <c r="AJ23" s="92"/>
       <c r="AK23" s="92"/>
     </row>
     <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="104"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="49">
         <v>22</v>
       </c>
@@ -3197,12 +3235,14 @@
       <c r="AH24" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="AI24" s="94"/>
+      <c r="AI24" s="94" t="s">
+        <v>291</v>
+      </c>
       <c r="AJ24" s="92"/>
       <c r="AK24" s="92"/>
     </row>
     <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="104"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="49">
         <v>23</v>
       </c>
@@ -3259,7 +3299,7 @@
       <c r="AK25" s="92"/>
     </row>
     <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="104"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="49">
         <v>24</v>
       </c>
@@ -3316,7 +3356,7 @@
       <c r="AK26" s="92"/>
     </row>
     <row r="27" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="104"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="49">
         <v>25</v>
       </c>
@@ -3373,7 +3413,7 @@
       <c r="AK27" s="92"/>
     </row>
     <row r="28" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="104"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="49">
         <v>26</v>
       </c>
@@ -3428,7 +3468,7 @@
       <c r="AK28" s="92"/>
     </row>
     <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="104"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="49">
         <v>27</v>
       </c>
@@ -3483,7 +3523,7 @@
       <c r="AK29" s="92"/>
     </row>
     <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="104"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="49">
         <v>28</v>
       </c>
@@ -3538,7 +3578,7 @@
       <c r="AK30" s="92"/>
     </row>
     <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="104"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="49">
         <v>29</v>
       </c>
@@ -3593,7 +3633,7 @@
       <c r="AK31" s="92"/>
     </row>
     <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="104"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="49">
         <v>30</v>
       </c>
@@ -3648,7 +3688,7 @@
       <c r="AK32" s="92"/>
     </row>
     <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="104"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="49">
         <v>31</v>
       </c>
@@ -3703,7 +3743,7 @@
       <c r="AK33" s="92"/>
     </row>
     <row r="34" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="104"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="49">
         <v>32</v>
       </c>
@@ -3756,7 +3796,7 @@
       <c r="AI34" s="94"/>
     </row>
     <row r="35" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="104"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="49">
         <v>33</v>
       </c>
@@ -3809,7 +3849,7 @@
       <c r="AI35" s="94"/>
     </row>
     <row r="36" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="104"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="49">
         <v>34</v>
       </c>
@@ -3862,7 +3902,7 @@
       <c r="AI36" s="94"/>
     </row>
     <row r="37" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="104"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="49">
         <v>35</v>
       </c>
@@ -3915,7 +3955,7 @@
       <c r="AI37" s="94"/>
     </row>
     <row r="38" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="104"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="49">
         <v>36</v>
       </c>
@@ -3968,7 +4008,7 @@
       <c r="AI38" s="94"/>
     </row>
     <row r="39" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="104"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="49">
         <v>37</v>
       </c>
@@ -4021,7 +4061,7 @@
       <c r="AI39" s="94"/>
     </row>
     <row r="40" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="104"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="49">
         <v>38</v>
       </c>
@@ -4074,7 +4114,7 @@
       <c r="AI40" s="94"/>
     </row>
     <row r="41" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="104"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="49">
         <v>39</v>
       </c>
@@ -4127,7 +4167,7 @@
       <c r="AI41" s="94"/>
     </row>
     <row r="42" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="104"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="49">
         <v>40</v>
       </c>
@@ -4180,7 +4220,7 @@
       <c r="AI42" s="94"/>
     </row>
     <row r="43" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="104"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="49">
         <v>41</v>
       </c>
@@ -4229,7 +4269,7 @@
       <c r="AI43" s="94"/>
     </row>
     <row r="44" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="104"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="49">
         <v>42</v>
       </c>
@@ -4278,7 +4318,7 @@
       <c r="AI44" s="94"/>
     </row>
     <row r="45" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="104"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="49">
         <v>43</v>
       </c>
@@ -4327,7 +4367,7 @@
       <c r="AI45" s="94"/>
     </row>
     <row r="46" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="104"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="49">
         <v>44</v>
       </c>
@@ -4376,7 +4416,7 @@
       <c r="AI46" s="94"/>
     </row>
     <row r="47" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="104"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="49">
         <v>45</v>
       </c>
@@ -4425,7 +4465,7 @@
       <c r="AI47" s="94"/>
     </row>
     <row r="48" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="104"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="49">
         <v>46</v>
       </c>
@@ -4474,7 +4514,7 @@
       <c r="AI48" s="94"/>
     </row>
     <row r="49" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="104"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="49">
         <v>47</v>
       </c>
@@ -4523,7 +4563,7 @@
       <c r="AI49" s="94"/>
     </row>
     <row r="50" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="104"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="49">
         <v>48</v>
       </c>
@@ -4572,7 +4612,7 @@
       <c r="AI50" s="94"/>
     </row>
     <row r="51" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="104"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="49">
         <v>49</v>
       </c>
@@ -4621,7 +4661,7 @@
       <c r="AI51" s="94"/>
     </row>
     <row r="52" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="104"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="49">
         <v>50</v>
       </c>
@@ -4670,7 +4710,7 @@
       <c r="AI52" s="94"/>
     </row>
     <row r="53" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="104"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="49">
         <v>51</v>
       </c>
@@ -4719,7 +4759,7 @@
       <c r="AI53" s="94"/>
     </row>
     <row r="54" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="104"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="49">
         <v>52</v>
       </c>
@@ -4768,7 +4808,7 @@
       <c r="AI54" s="94"/>
     </row>
     <row r="55" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="104"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="49">
         <v>53</v>
       </c>
@@ -4817,7 +4857,7 @@
       <c r="AI55" s="94"/>
     </row>
     <row r="56" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="104"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="49">
         <v>54</v>
       </c>
@@ -4866,7 +4906,7 @@
       <c r="AI56" s="94"/>
     </row>
     <row r="57" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="104"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="49">
         <v>55</v>
       </c>
@@ -4915,7 +4955,7 @@
       <c r="AI57" s="94"/>
     </row>
     <row r="58" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="104"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="49">
         <v>56</v>
       </c>
@@ -4964,7 +5004,7 @@
       <c r="AI58" s="94"/>
     </row>
     <row r="59" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="104"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="49">
         <v>57</v>
       </c>
@@ -5013,7 +5053,7 @@
       <c r="AI59" s="94"/>
     </row>
     <row r="60" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="104"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="49">
         <v>58</v>
       </c>
@@ -5062,7 +5102,7 @@
       <c r="AI60" s="94"/>
     </row>
     <row r="61" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="104"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="49">
         <v>59</v>
       </c>
@@ -5111,7 +5151,7 @@
       <c r="AI61" s="94"/>
     </row>
     <row r="62" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="104"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="49">
         <v>60</v>
       </c>
@@ -5160,7 +5200,7 @@
       <c r="AI62" s="94"/>
     </row>
     <row r="63" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="104"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="49">
         <v>61</v>
       </c>
@@ -5209,7 +5249,7 @@
       <c r="AI63" s="94"/>
     </row>
     <row r="64" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="104"/>
+      <c r="B64" s="105"/>
       <c r="C64" s="49">
         <v>62</v>
       </c>
@@ -5255,7 +5295,7 @@
       <c r="AI64" s="94"/>
     </row>
     <row r="65" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="104"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="49">
         <v>63</v>
       </c>
@@ -5301,7 +5341,7 @@
       <c r="AI65" s="94"/>
     </row>
     <row r="66" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="104"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="49">
         <v>64</v>
       </c>
@@ -5347,7 +5387,7 @@
       <c r="AI66" s="94"/>
     </row>
     <row r="67" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="104"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="49">
         <v>65</v>
       </c>
@@ -5393,7 +5433,7 @@
       <c r="AI67" s="94"/>
     </row>
     <row r="68" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="104"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="49">
         <v>66</v>
       </c>
@@ -5439,7 +5479,7 @@
       <c r="AI68" s="94"/>
     </row>
     <row r="69" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="104"/>
+      <c r="B69" s="105"/>
       <c r="C69" s="49">
         <v>67</v>
       </c>
@@ -5485,7 +5525,7 @@
       <c r="AI69" s="94"/>
     </row>
     <row r="70" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="104"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="49">
         <v>68</v>
       </c>
@@ -5531,7 +5571,7 @@
       <c r="AI70" s="94"/>
     </row>
     <row r="71" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="104"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="49">
         <v>69</v>
       </c>
@@ -5577,7 +5617,7 @@
       <c r="AI71" s="94"/>
     </row>
     <row r="72" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="104"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="49">
         <v>70</v>
       </c>
@@ -5623,7 +5663,7 @@
       <c r="AI72" s="94"/>
     </row>
     <row r="73" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="104"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="49">
         <v>71</v>
       </c>
@@ -5669,7 +5709,7 @@
       <c r="AI73" s="94"/>
     </row>
     <row r="74" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="104"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="49">
         <v>72</v>
       </c>
@@ -5715,7 +5755,7 @@
       <c r="AI74" s="94"/>
     </row>
     <row r="75" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="104"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="49">
         <v>73</v>
       </c>
@@ -5761,7 +5801,7 @@
       <c r="AI75" s="94"/>
     </row>
     <row r="76" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="104"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="49">
         <v>74</v>
       </c>
@@ -5807,7 +5847,7 @@
       <c r="AI76" s="94"/>
     </row>
     <row r="77" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="104"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="49">
         <v>75</v>
       </c>
@@ -5853,7 +5893,7 @@
       <c r="AI77" s="94"/>
     </row>
     <row r="78" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="104"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="49">
         <v>76</v>
       </c>
@@ -5899,7 +5939,7 @@
       <c r="AI78" s="94"/>
     </row>
     <row r="79" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="104"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="49">
         <v>77</v>
       </c>
@@ -5945,7 +5985,7 @@
       <c r="AI79" s="94"/>
     </row>
     <row r="80" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="104"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="49">
         <v>78</v>
       </c>
@@ -5991,7 +6031,7 @@
       <c r="AI80" s="94"/>
     </row>
     <row r="81" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="104"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="49">
         <v>79</v>
       </c>
@@ -6037,7 +6077,7 @@
       <c r="AI81" s="94"/>
     </row>
     <row r="82" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="104"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="49">
         <v>80</v>
       </c>
@@ -6083,7 +6123,7 @@
       <c r="AI82" s="95"/>
     </row>
     <row r="83" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="104"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="49">
         <v>81</v>
       </c>
@@ -6129,7 +6169,7 @@
       <c r="AI83" s="95"/>
     </row>
     <row r="84" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="104"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="49">
         <v>82</v>
       </c>
@@ -6175,7 +6215,7 @@
       <c r="AI84" s="95"/>
     </row>
     <row r="85" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="104"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="49">
         <v>83</v>
       </c>
@@ -6221,7 +6261,7 @@
       <c r="AI85" s="95"/>
     </row>
     <row r="86" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="104"/>
+      <c r="B86" s="105"/>
       <c r="C86" s="49">
         <v>84</v>
       </c>
@@ -6267,7 +6307,7 @@
       <c r="AI86" s="95"/>
     </row>
     <row r="87" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="104"/>
+      <c r="B87" s="105"/>
       <c r="C87" s="49">
         <v>85</v>
       </c>
@@ -6313,7 +6353,7 @@
       <c r="AI87" s="95"/>
     </row>
     <row r="88" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="104"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="49">
         <v>86</v>
       </c>
@@ -6359,7 +6399,7 @@
       <c r="AI88" s="95"/>
     </row>
     <row r="89" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="104"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="49">
         <v>87</v>
       </c>
@@ -6405,7 +6445,7 @@
       <c r="AI89" s="95"/>
     </row>
     <row r="90" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="104"/>
+      <c r="B90" s="105"/>
       <c r="C90" s="49">
         <v>88</v>
       </c>
@@ -6451,7 +6491,7 @@
       <c r="AI90" s="95"/>
     </row>
     <row r="91" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="104"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="49">
         <v>89</v>
       </c>
@@ -6497,7 +6537,7 @@
       <c r="AI91" s="95"/>
     </row>
     <row r="92" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="104"/>
+      <c r="B92" s="105"/>
       <c r="C92" s="49">
         <v>90</v>
       </c>
@@ -6543,7 +6583,7 @@
       <c r="AI92" s="95"/>
     </row>
     <row r="93" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="104"/>
+      <c r="B93" s="105"/>
       <c r="C93" s="49">
         <v>91</v>
       </c>
@@ -6589,7 +6629,7 @@
       <c r="AI93" s="95"/>
     </row>
     <row r="94" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="104"/>
+      <c r="B94" s="105"/>
       <c r="C94" s="49">
         <v>92</v>
       </c>
@@ -6635,7 +6675,7 @@
       <c r="AI94" s="95"/>
     </row>
     <row r="95" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="104"/>
+      <c r="B95" s="105"/>
       <c r="C95" s="49">
         <v>93</v>
       </c>
@@ -6681,7 +6721,7 @@
       <c r="AI95" s="95"/>
     </row>
     <row r="96" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="104"/>
+      <c r="B96" s="105"/>
       <c r="C96" s="49">
         <v>94</v>
       </c>
@@ -6727,7 +6767,7 @@
       <c r="AI96" s="98"/>
     </row>
     <row r="97" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="104"/>
+      <c r="B97" s="105"/>
       <c r="C97" s="49">
         <v>95</v>
       </c>
@@ -6773,7 +6813,7 @@
       <c r="AI97" s="99"/>
     </row>
     <row r="98" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="104"/>
+      <c r="B98" s="105"/>
       <c r="C98" s="49">
         <v>96</v>
       </c>
@@ -6819,7 +6859,7 @@
       <c r="AI98" s="99"/>
     </row>
     <row r="99" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="104"/>
+      <c r="B99" s="105"/>
       <c r="C99" s="49">
         <v>97</v>
       </c>
@@ -6865,7 +6905,7 @@
       <c r="AI99" s="99"/>
     </row>
     <row r="100" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="104"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="49">
         <v>98</v>
       </c>
@@ -6911,7 +6951,7 @@
       <c r="AI100" s="95"/>
     </row>
     <row r="101" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="104"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="49">
         <v>99</v>
       </c>
@@ -6957,7 +6997,7 @@
       <c r="AI101" s="95"/>
     </row>
     <row r="102" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="104"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="49">
         <v>100</v>
       </c>
@@ -7004,7 +7044,7 @@
       <c r="AQ102" s="51"/>
     </row>
     <row r="103" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="104"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="49">
         <v>101</v>
       </c>
@@ -7053,7 +7093,7 @@
       <c r="AP103" s="51"/>
     </row>
     <row r="104" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="104"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="49">
         <v>102</v>
       </c>
@@ -7102,7 +7142,7 @@
       <c r="AP104" s="51"/>
     </row>
     <row r="105" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="104"/>
+      <c r="B105" s="105"/>
       <c r="C105" s="49">
         <v>103</v>
       </c>
@@ -7151,7 +7191,7 @@
       <c r="AP105" s="51"/>
     </row>
     <row r="106" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="104"/>
+      <c r="B106" s="105"/>
       <c r="C106" s="49">
         <v>104</v>
       </c>
@@ -7202,7 +7242,7 @@
       <c r="AR106" s="51"/>
     </row>
     <row r="107" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="104"/>
+      <c r="B107" s="105"/>
       <c r="C107" s="49">
         <v>105</v>
       </c>
@@ -7253,7 +7293,7 @@
       <c r="AR107" s="51"/>
     </row>
     <row r="108" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="104"/>
+      <c r="B108" s="105"/>
       <c r="C108" s="49">
         <v>106</v>
       </c>
@@ -7301,7 +7341,7 @@
       <c r="AR108" s="51"/>
     </row>
     <row r="109" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="104"/>
+      <c r="B109" s="105"/>
       <c r="C109" s="49">
         <v>107</v>
       </c>
@@ -7348,7 +7388,7 @@
       <c r="AQ109" s="51"/>
     </row>
     <row r="110" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="105"/>
+      <c r="B110" s="106"/>
       <c r="C110" s="49">
         <v>108</v>
       </c>
@@ -7395,7 +7435,7 @@
       <c r="AQ110" s="51"/>
     </row>
     <row r="111" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="103" t="s">
+      <c r="B111" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="49">
@@ -7448,7 +7488,7 @@
       <c r="AR111" s="1"/>
     </row>
     <row r="112" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="104"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="49">
         <v>110</v>
       </c>
@@ -7495,7 +7535,7 @@
       <c r="AQ112" s="1"/>
     </row>
     <row r="113" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="104"/>
+      <c r="B113" s="105"/>
       <c r="C113" s="49">
         <v>111</v>
       </c>
@@ -7542,7 +7582,7 @@
       <c r="AQ113" s="1"/>
     </row>
     <row r="114" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="104"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="49">
         <v>112</v>
       </c>
@@ -7592,7 +7632,7 @@
       <c r="AR114" s="51"/>
     </row>
     <row r="115" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="104"/>
+      <c r="B115" s="105"/>
       <c r="C115" s="49">
         <v>113</v>
       </c>
@@ -7640,7 +7680,7 @@
       <c r="AR115" s="51"/>
     </row>
     <row r="116" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="104"/>
+      <c r="B116" s="105"/>
       <c r="C116" s="49">
         <v>114</v>
       </c>
@@ -7688,7 +7728,7 @@
       <c r="AR116" s="51"/>
     </row>
     <row r="117" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="104"/>
+      <c r="B117" s="105"/>
       <c r="C117" s="49">
         <v>115</v>
       </c>
@@ -7738,7 +7778,7 @@
       <c r="AR117" s="1"/>
     </row>
     <row r="118" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="104"/>
+      <c r="B118" s="105"/>
       <c r="C118" s="49">
         <v>116</v>
       </c>
@@ -7789,7 +7829,7 @@
       <c r="AR118" s="1"/>
     </row>
     <row r="119" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="104"/>
+      <c r="B119" s="105"/>
       <c r="C119" s="49">
         <v>117</v>
       </c>
@@ -7840,7 +7880,7 @@
       <c r="AR119" s="1"/>
     </row>
     <row r="120" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="104"/>
+      <c r="B120" s="105"/>
       <c r="C120" s="49">
         <v>118</v>
       </c>
@@ -7891,7 +7931,7 @@
       <c r="AR120" s="1"/>
     </row>
     <row r="121" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="104"/>
+      <c r="B121" s="105"/>
       <c r="C121" s="49">
         <v>119</v>
       </c>
@@ -7941,7 +7981,7 @@
       <c r="AQ121" s="1"/>
     </row>
     <row r="122" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="104"/>
+      <c r="B122" s="105"/>
       <c r="C122" s="49">
         <v>120</v>
       </c>
@@ -7988,7 +8028,7 @@
       <c r="AR122" s="51"/>
     </row>
     <row r="123" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="104"/>
+      <c r="B123" s="105"/>
       <c r="C123" s="49">
         <v>121</v>
       </c>
@@ -8035,7 +8075,7 @@
       <c r="AR123" s="51"/>
     </row>
     <row r="124" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="104"/>
+      <c r="B124" s="105"/>
       <c r="C124" s="49">
         <v>122</v>
       </c>
@@ -8081,7 +8121,7 @@
       <c r="AI124" s="95"/>
     </row>
     <row r="125" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="104"/>
+      <c r="B125" s="105"/>
       <c r="C125" s="49">
         <v>123</v>
       </c>
@@ -8127,7 +8167,7 @@
       <c r="AI125" s="95"/>
     </row>
     <row r="126" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="104"/>
+      <c r="B126" s="105"/>
       <c r="C126" s="49">
         <v>124</v>
       </c>
@@ -8173,7 +8213,7 @@
       <c r="AI126" s="95"/>
     </row>
     <row r="127" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="104"/>
+      <c r="B127" s="105"/>
       <c r="C127" s="49">
         <v>125</v>
       </c>
@@ -8219,7 +8259,7 @@
       <c r="AI127" s="95"/>
     </row>
     <row r="128" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="104"/>
+      <c r="B128" s="105"/>
       <c r="C128" s="49">
         <v>126</v>
       </c>
@@ -8265,7 +8305,7 @@
       <c r="AI128" s="95"/>
     </row>
     <row r="129" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="104"/>
+      <c r="B129" s="105"/>
       <c r="C129" s="49">
         <v>127</v>
       </c>
@@ -8311,7 +8351,7 @@
       <c r="AI129" s="95"/>
     </row>
     <row r="130" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="104"/>
+      <c r="B130" s="105"/>
       <c r="C130" s="49">
         <v>128</v>
       </c>
@@ -8357,7 +8397,7 @@
       <c r="AI130" s="95"/>
     </row>
     <row r="131" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="104"/>
+      <c r="B131" s="105"/>
       <c r="C131" s="49">
         <v>129</v>
       </c>
@@ -8403,7 +8443,7 @@
       <c r="AI131" s="95"/>
     </row>
     <row r="132" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="104"/>
+      <c r="B132" s="105"/>
       <c r="C132" s="49">
         <v>130</v>
       </c>
@@ -8449,7 +8489,7 @@
       <c r="AI132" s="98"/>
     </row>
     <row r="133" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="104"/>
+      <c r="B133" s="105"/>
       <c r="C133" s="49">
         <v>131</v>
       </c>
@@ -8495,7 +8535,7 @@
       <c r="AI133" s="99"/>
     </row>
     <row r="134" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="104"/>
+      <c r="B134" s="105"/>
       <c r="C134" s="49">
         <v>132</v>
       </c>
@@ -8541,7 +8581,7 @@
       <c r="AI134" s="99"/>
     </row>
     <row r="135" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="104"/>
+      <c r="B135" s="105"/>
       <c r="C135" s="49">
         <v>133</v>
       </c>
@@ -8587,7 +8627,7 @@
       <c r="AI135" s="99"/>
     </row>
     <row r="136" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="104"/>
+      <c r="B136" s="105"/>
       <c r="C136" s="49">
         <v>134</v>
       </c>
@@ -8633,7 +8673,7 @@
       <c r="AI136" s="95"/>
     </row>
     <row r="137" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="104"/>
+      <c r="B137" s="105"/>
       <c r="C137" s="49">
         <v>135</v>
       </c>
@@ -8679,7 +8719,7 @@
       <c r="AI137" s="95"/>
     </row>
     <row r="138" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="104"/>
+      <c r="B138" s="105"/>
       <c r="C138" s="49">
         <v>136</v>
       </c>
@@ -8725,7 +8765,7 @@
       <c r="AI138" s="95"/>
     </row>
     <row r="139" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="104"/>
+      <c r="B139" s="105"/>
       <c r="C139" s="49">
         <v>137</v>
       </c>
@@ -8771,7 +8811,7 @@
       <c r="AI139" s="95"/>
     </row>
     <row r="140" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="104"/>
+      <c r="B140" s="105"/>
       <c r="C140" s="49">
         <v>138</v>
       </c>
@@ -8817,7 +8857,7 @@
       <c r="AI140" s="95"/>
     </row>
     <row r="141" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="104"/>
+      <c r="B141" s="105"/>
       <c r="C141" s="49">
         <v>139</v>
       </c>
@@ -8863,7 +8903,7 @@
       <c r="AI141" s="95"/>
     </row>
     <row r="142" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="104"/>
+      <c r="B142" s="105"/>
       <c r="C142" s="49">
         <v>140</v>
       </c>
@@ -8909,7 +8949,7 @@
       <c r="AI142" s="95"/>
     </row>
     <row r="143" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="104"/>
+      <c r="B143" s="105"/>
       <c r="C143" s="49">
         <v>141</v>
       </c>
@@ -8955,7 +8995,7 @@
       <c r="AI143" s="95"/>
     </row>
     <row r="144" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="104"/>
+      <c r="B144" s="105"/>
       <c r="C144" s="49">
         <v>142</v>
       </c>
@@ -9001,7 +9041,7 @@
       <c r="AI144" s="95"/>
     </row>
     <row r="145" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="104"/>
+      <c r="B145" s="105"/>
       <c r="C145" s="49">
         <v>143</v>
       </c>
@@ -9047,7 +9087,7 @@
       <c r="AI145" s="95"/>
     </row>
     <row r="146" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="104"/>
+      <c r="B146" s="105"/>
       <c r="C146" s="49">
         <v>144</v>
       </c>
@@ -9093,7 +9133,7 @@
       <c r="AI146" s="95"/>
     </row>
     <row r="147" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="104"/>
+      <c r="B147" s="105"/>
       <c r="C147" s="49">
         <v>145</v>
       </c>
@@ -9139,7 +9179,7 @@
       <c r="AI147" s="95"/>
     </row>
     <row r="148" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="104"/>
+      <c r="B148" s="105"/>
       <c r="C148" s="49">
         <v>146</v>
       </c>
@@ -9185,7 +9225,7 @@
       <c r="AI148" s="95"/>
     </row>
     <row r="149" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="104"/>
+      <c r="B149" s="105"/>
       <c r="C149" s="49">
         <v>147</v>
       </c>
@@ -9231,7 +9271,7 @@
       <c r="AI149" s="95"/>
     </row>
     <row r="150" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="104"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="49">
         <v>148</v>
       </c>
@@ -9277,7 +9317,7 @@
       <c r="AI150" s="98"/>
     </row>
     <row r="151" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="104"/>
+      <c r="B151" s="105"/>
       <c r="C151" s="49">
         <v>149</v>
       </c>
@@ -9323,7 +9363,7 @@
       <c r="AI151" s="99"/>
     </row>
     <row r="152" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="104"/>
+      <c r="B152" s="105"/>
       <c r="C152" s="49">
         <v>150</v>
       </c>
@@ -9369,7 +9409,7 @@
       <c r="AI152" s="99"/>
     </row>
     <row r="153" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="104"/>
+      <c r="B153" s="105"/>
       <c r="C153" s="49">
         <v>151</v>
       </c>
@@ -9415,7 +9455,7 @@
       <c r="AI153" s="99"/>
     </row>
     <row r="154" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="104"/>
+      <c r="B154" s="105"/>
       <c r="C154" s="49">
         <v>152</v>
       </c>
@@ -9461,7 +9501,7 @@
       <c r="AI154" s="100"/>
     </row>
     <row r="155" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="104"/>
+      <c r="B155" s="105"/>
       <c r="C155" s="49">
         <v>153</v>
       </c>
@@ -9507,7 +9547,7 @@
       <c r="AI155" s="100"/>
     </row>
     <row r="156" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="104"/>
+      <c r="B156" s="105"/>
       <c r="C156" s="49">
         <v>154</v>
       </c>
@@ -9553,7 +9593,7 @@
       <c r="AI156" s="100"/>
     </row>
     <row r="157" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="104"/>
+      <c r="B157" s="105"/>
       <c r="C157" s="49">
         <v>155</v>
       </c>
@@ -9599,7 +9639,7 @@
       <c r="AI157" s="100"/>
     </row>
     <row r="158" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="104"/>
+      <c r="B158" s="105"/>
       <c r="C158" s="49">
         <v>156</v>
       </c>
@@ -9645,7 +9685,7 @@
       <c r="AI158" s="100"/>
     </row>
     <row r="159" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="104"/>
+      <c r="B159" s="105"/>
       <c r="C159" s="49">
         <v>157</v>
       </c>
@@ -9691,7 +9731,7 @@
       <c r="AI159" s="100"/>
     </row>
     <row r="160" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="104"/>
+      <c r="B160" s="105"/>
       <c r="C160" s="49">
         <v>158</v>
       </c>
@@ -9737,7 +9777,7 @@
       <c r="AI160" s="100"/>
     </row>
     <row r="161" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="104"/>
+      <c r="B161" s="105"/>
       <c r="C161" s="49">
         <v>159</v>
       </c>
@@ -9783,7 +9823,7 @@
       <c r="AI161" s="100"/>
     </row>
     <row r="162" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="104"/>
+      <c r="B162" s="105"/>
       <c r="C162" s="49">
         <v>160</v>
       </c>
@@ -9829,7 +9869,7 @@
       <c r="AI162" s="100"/>
     </row>
     <row r="163" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="104"/>
+      <c r="B163" s="105"/>
       <c r="C163" s="49">
         <v>161</v>
       </c>
@@ -9875,7 +9915,7 @@
       <c r="AI163" s="100"/>
     </row>
     <row r="164" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="104"/>
+      <c r="B164" s="105"/>
       <c r="C164" s="49">
         <v>162</v>
       </c>
@@ -9921,7 +9961,7 @@
       <c r="AI164" s="100"/>
     </row>
     <row r="165" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="104"/>
+      <c r="B165" s="105"/>
       <c r="C165" s="49">
         <v>163</v>
       </c>
@@ -9967,7 +10007,7 @@
       <c r="AI165" s="100"/>
     </row>
     <row r="166" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="104"/>
+      <c r="B166" s="105"/>
       <c r="C166" s="49">
         <v>164</v>
       </c>
@@ -10013,7 +10053,7 @@
       <c r="AI166" s="100"/>
     </row>
     <row r="167" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="104"/>
+      <c r="B167" s="105"/>
       <c r="C167" s="49">
         <v>165</v>
       </c>
@@ -10059,7 +10099,7 @@
       <c r="AI167" s="100"/>
     </row>
     <row r="168" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="104"/>
+      <c r="B168" s="105"/>
       <c r="C168" s="49">
         <v>166</v>
       </c>
@@ -10105,7 +10145,7 @@
       <c r="AI168" s="100"/>
     </row>
     <row r="169" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="104"/>
+      <c r="B169" s="105"/>
       <c r="C169" s="49">
         <v>167</v>
       </c>
@@ -10151,7 +10191,7 @@
       <c r="AI169" s="100"/>
     </row>
     <row r="170" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="104"/>
+      <c r="B170" s="105"/>
       <c r="C170" s="49">
         <v>168</v>
       </c>
@@ -10197,7 +10237,7 @@
       <c r="AI170" s="100"/>
     </row>
     <row r="171" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="104"/>
+      <c r="B171" s="105"/>
       <c r="C171" s="49">
         <v>169</v>
       </c>
@@ -10240,7 +10280,7 @@
       <c r="AI171" s="100"/>
     </row>
     <row r="172" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="104"/>
+      <c r="B172" s="105"/>
       <c r="C172" s="49">
         <v>170</v>
       </c>
@@ -10283,7 +10323,7 @@
       <c r="AI172" s="100"/>
     </row>
     <row r="173" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="104"/>
+      <c r="B173" s="105"/>
       <c r="C173" s="49">
         <v>171</v>
       </c>
@@ -10326,7 +10366,7 @@
       <c r="AI173" s="100"/>
     </row>
     <row r="174" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="104"/>
+      <c r="B174" s="105"/>
       <c r="C174" s="49">
         <v>172</v>
       </c>
@@ -10369,7 +10409,7 @@
       <c r="AI174" s="100"/>
     </row>
     <row r="175" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="104"/>
+      <c r="B175" s="105"/>
       <c r="C175" s="49">
         <v>173</v>
       </c>
@@ -10412,7 +10452,7 @@
       <c r="AI175" s="100"/>
     </row>
     <row r="176" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="104"/>
+      <c r="B176" s="105"/>
       <c r="C176" s="49">
         <v>174</v>
       </c>
@@ -10455,7 +10495,7 @@
       <c r="AI176" s="100"/>
     </row>
     <row r="177" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="104"/>
+      <c r="B177" s="105"/>
       <c r="C177" s="49">
         <v>175</v>
       </c>
@@ -10498,7 +10538,7 @@
       <c r="AI177" s="100"/>
     </row>
     <row r="178" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="104"/>
+      <c r="B178" s="105"/>
       <c r="C178" s="49">
         <v>176</v>
       </c>
@@ -10541,7 +10581,7 @@
       <c r="AI178" s="100"/>
     </row>
     <row r="179" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="104"/>
+      <c r="B179" s="105"/>
       <c r="C179" s="49">
         <v>177</v>
       </c>
@@ -10584,7 +10624,7 @@
       <c r="AI179" s="100"/>
     </row>
     <row r="180" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="104"/>
+      <c r="B180" s="105"/>
       <c r="C180" s="49">
         <v>178</v>
       </c>
@@ -10627,7 +10667,7 @@
       <c r="AI180" s="100"/>
     </row>
     <row r="181" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="104"/>
+      <c r="B181" s="105"/>
       <c r="C181" s="49">
         <v>179</v>
       </c>
@@ -10670,7 +10710,7 @@
       <c r="AI181" s="100"/>
     </row>
     <row r="182" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="104"/>
+      <c r="B182" s="105"/>
       <c r="C182" s="49">
         <v>180</v>
       </c>
@@ -10713,7 +10753,7 @@
       <c r="AI182" s="100"/>
     </row>
     <row r="183" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="104"/>
+      <c r="B183" s="105"/>
       <c r="C183" s="49">
         <v>181</v>
       </c>
@@ -10756,7 +10796,7 @@
       <c r="AI183" s="100"/>
     </row>
     <row r="184" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="104"/>
+      <c r="B184" s="105"/>
       <c r="C184" s="49">
         <v>182</v>
       </c>
@@ -10799,7 +10839,7 @@
       <c r="AI184" s="100"/>
     </row>
     <row r="185" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="104"/>
+      <c r="B185" s="105"/>
       <c r="C185" s="49">
         <v>183</v>
       </c>
@@ -10842,7 +10882,7 @@
       <c r="AI185" s="100"/>
     </row>
     <row r="186" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="104"/>
+      <c r="B186" s="105"/>
       <c r="C186" s="49">
         <v>184</v>
       </c>
@@ -10885,7 +10925,7 @@
       <c r="AI186" s="100"/>
     </row>
     <row r="187" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="104"/>
+      <c r="B187" s="105"/>
       <c r="C187" s="49">
         <v>185</v>
       </c>
@@ -10928,7 +10968,7 @@
       <c r="AI187" s="100"/>
     </row>
     <row r="188" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="104"/>
+      <c r="B188" s="105"/>
       <c r="C188" s="49">
         <v>186</v>
       </c>
@@ -10971,7 +11011,7 @@
       <c r="AI188" s="100"/>
     </row>
     <row r="189" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="104"/>
+      <c r="B189" s="105"/>
       <c r="C189" s="49">
         <v>187</v>
       </c>
@@ -11014,7 +11054,7 @@
       <c r="AI189" s="100"/>
     </row>
     <row r="190" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="104"/>
+      <c r="B190" s="105"/>
       <c r="C190" s="49">
         <v>188</v>
       </c>
@@ -11057,7 +11097,7 @@
       <c r="AI190" s="100"/>
     </row>
     <row r="191" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="104"/>
+      <c r="B191" s="105"/>
       <c r="C191" s="49">
         <v>189</v>
       </c>
@@ -11100,7 +11140,7 @@
       <c r="AI191" s="100"/>
     </row>
     <row r="192" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="104"/>
+      <c r="B192" s="105"/>
       <c r="C192" s="49">
         <v>190</v>
       </c>
@@ -11143,7 +11183,7 @@
       <c r="AI192" s="100"/>
     </row>
     <row r="193" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="104"/>
+      <c r="B193" s="105"/>
       <c r="C193" s="49">
         <v>191</v>
       </c>
@@ -11186,7 +11226,7 @@
       <c r="AI193" s="100"/>
     </row>
     <row r="194" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="104"/>
+      <c r="B194" s="105"/>
       <c r="C194" s="49">
         <v>192</v>
       </c>
@@ -11229,7 +11269,7 @@
       <c r="AI194" s="100"/>
     </row>
     <row r="195" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="104"/>
+      <c r="B195" s="105"/>
       <c r="C195" s="49">
         <v>193</v>
       </c>
@@ -11272,7 +11312,7 @@
       <c r="AI195" s="100"/>
     </row>
     <row r="196" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="104"/>
+      <c r="B196" s="105"/>
       <c r="C196" s="49">
         <v>194</v>
       </c>
@@ -11315,7 +11355,7 @@
       <c r="AI196" s="100"/>
     </row>
     <row r="197" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="104"/>
+      <c r="B197" s="105"/>
       <c r="C197" s="49">
         <v>195</v>
       </c>
@@ -11358,7 +11398,7 @@
       <c r="AI197" s="100"/>
     </row>
     <row r="198" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="104"/>
+      <c r="B198" s="105"/>
       <c r="C198" s="49">
         <v>196</v>
       </c>
@@ -11401,7 +11441,7 @@
       <c r="AI198" s="100"/>
     </row>
     <row r="199" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="104"/>
+      <c r="B199" s="105"/>
       <c r="C199" s="49">
         <v>197</v>
       </c>
@@ -11444,7 +11484,7 @@
       <c r="AI199" s="100"/>
     </row>
     <row r="200" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="104"/>
+      <c r="B200" s="105"/>
       <c r="C200" s="49">
         <v>198</v>
       </c>
@@ -11487,7 +11527,7 @@
       <c r="AI200" s="100"/>
     </row>
     <row r="201" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="104"/>
+      <c r="B201" s="105"/>
       <c r="C201" s="49">
         <v>199</v>
       </c>
@@ -11530,7 +11570,7 @@
       <c r="AI201" s="100"/>
     </row>
     <row r="202" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="104"/>
+      <c r="B202" s="105"/>
       <c r="C202" s="49">
         <v>200</v>
       </c>
@@ -11573,7 +11613,7 @@
       <c r="AI202" s="100"/>
     </row>
     <row r="203" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="104"/>
+      <c r="B203" s="105"/>
       <c r="C203" s="49">
         <v>201</v>
       </c>
@@ -11616,7 +11656,7 @@
       <c r="AI203" s="100"/>
     </row>
     <row r="204" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="104"/>
+      <c r="B204" s="105"/>
       <c r="C204" s="49">
         <v>202</v>
       </c>
@@ -11659,7 +11699,7 @@
       <c r="AI204" s="100"/>
     </row>
     <row r="205" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="104"/>
+      <c r="B205" s="105"/>
       <c r="C205" s="49">
         <v>203</v>
       </c>
@@ -11705,7 +11745,7 @@
       <c r="AP205" s="51"/>
     </row>
     <row r="206" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="104"/>
+      <c r="B206" s="105"/>
       <c r="C206" s="49">
         <v>204</v>
       </c>
@@ -11751,7 +11791,7 @@
       <c r="AP206" s="51"/>
     </row>
     <row r="207" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="104"/>
+      <c r="B207" s="105"/>
       <c r="C207" s="49">
         <v>205</v>
       </c>
@@ -11797,7 +11837,7 @@
       <c r="AP207" s="51"/>
     </row>
     <row r="208" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="104"/>
+      <c r="B208" s="105"/>
       <c r="C208" s="49">
         <v>206</v>
       </c>
@@ -11841,7 +11881,7 @@
       <c r="AQ208" s="51"/>
     </row>
     <row r="209" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="104"/>
+      <c r="B209" s="105"/>
       <c r="C209" s="49">
         <v>207</v>
       </c>
@@ -11885,7 +11925,7 @@
       <c r="AQ209" s="51"/>
     </row>
     <row r="210" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="104"/>
+      <c r="B210" s="105"/>
       <c r="C210" s="49">
         <v>208</v>
       </c>
@@ -11929,7 +11969,7 @@
       <c r="AQ210" s="51"/>
     </row>
     <row r="211" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="104"/>
+      <c r="B211" s="105"/>
       <c r="C211" s="49">
         <v>209</v>
       </c>
@@ -11975,7 +12015,7 @@
       <c r="AP211" s="51"/>
     </row>
     <row r="212" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="104"/>
+      <c r="B212" s="105"/>
       <c r="C212" s="49">
         <v>210</v>
       </c>
@@ -12021,7 +12061,7 @@
       <c r="AP212" s="51"/>
     </row>
     <row r="213" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="104"/>
+      <c r="B213" s="105"/>
       <c r="C213" s="49">
         <v>211</v>
       </c>
@@ -12067,7 +12107,7 @@
       <c r="AP213" s="51"/>
     </row>
     <row r="214" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="104"/>
+      <c r="B214" s="105"/>
       <c r="C214" s="49">
         <v>212</v>
       </c>
@@ -12115,7 +12155,7 @@
       <c r="AR214" s="51"/>
     </row>
     <row r="215" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="104"/>
+      <c r="B215" s="105"/>
       <c r="C215" s="49">
         <v>213</v>
       </c>
@@ -12163,7 +12203,7 @@
       <c r="AR215" s="51"/>
     </row>
     <row r="216" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="104"/>
+      <c r="B216" s="105"/>
       <c r="C216" s="49">
         <v>214</v>
       </c>
@@ -12208,7 +12248,7 @@
       <c r="AR216" s="51"/>
     </row>
     <row r="217" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="104"/>
+      <c r="B217" s="105"/>
       <c r="C217" s="49">
         <v>215</v>
       </c>
@@ -12252,7 +12292,7 @@
       <c r="AQ217" s="51"/>
     </row>
     <row r="218" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="105"/>
+      <c r="B218" s="106"/>
       <c r="C218" s="49">
         <v>216</v>
       </c>
@@ -12296,7 +12336,7 @@
       <c r="AQ218" s="51"/>
     </row>
     <row r="219" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="103" t="s">
+      <c r="B219" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="49">
@@ -12346,7 +12386,7 @@
       <c r="AR219" s="1"/>
     </row>
     <row r="220" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="104"/>
+      <c r="B220" s="105"/>
       <c r="C220" s="49">
         <v>218</v>
       </c>
@@ -12390,7 +12430,7 @@
       <c r="AQ220" s="1"/>
     </row>
     <row r="221" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="104"/>
+      <c r="B221" s="105"/>
       <c r="C221" s="49">
         <v>219</v>
       </c>
@@ -12434,7 +12474,7 @@
       <c r="AQ221" s="1"/>
     </row>
     <row r="222" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="104"/>
+      <c r="B222" s="105"/>
       <c r="C222" s="49">
         <v>220</v>
       </c>
@@ -12481,7 +12521,7 @@
       <c r="AR222" s="51"/>
     </row>
     <row r="223" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="104"/>
+      <c r="B223" s="105"/>
       <c r="C223" s="49">
         <v>221</v>
       </c>
@@ -12526,7 +12566,7 @@
       <c r="AR223" s="51"/>
     </row>
     <row r="224" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="104"/>
+      <c r="B224" s="105"/>
       <c r="C224" s="49">
         <v>222</v>
       </c>
@@ -12571,7 +12611,7 @@
       <c r="AR224" s="51"/>
     </row>
     <row r="225" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="104"/>
+      <c r="B225" s="105"/>
       <c r="C225" s="49">
         <v>223</v>
       </c>
@@ -12618,7 +12658,7 @@
       <c r="AR225" s="1"/>
     </row>
     <row r="226" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="104"/>
+      <c r="B226" s="105"/>
       <c r="C226" s="49">
         <v>224</v>
       </c>
@@ -12665,7 +12705,7 @@
       <c r="AR226" s="1"/>
     </row>
     <row r="227" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="104"/>
+      <c r="B227" s="105"/>
       <c r="C227" s="49">
         <v>225</v>
       </c>
@@ -12712,7 +12752,7 @@
       <c r="AR227" s="1"/>
     </row>
     <row r="228" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="104"/>
+      <c r="B228" s="105"/>
       <c r="C228" s="49">
         <v>226</v>
       </c>
@@ -12759,7 +12799,7 @@
       <c r="AR228" s="1"/>
     </row>
     <row r="229" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="104"/>
+      <c r="B229" s="105"/>
       <c r="C229" s="49">
         <v>227</v>
       </c>
@@ -12805,7 +12845,7 @@
       <c r="AQ229" s="1"/>
     </row>
     <row r="230" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="104"/>
+      <c r="B230" s="105"/>
       <c r="C230" s="49">
         <v>228</v>
       </c>
@@ -12848,7 +12888,7 @@
       <c r="AR230" s="51"/>
     </row>
     <row r="231" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="104"/>
+      <c r="B231" s="105"/>
       <c r="C231" s="49">
         <v>229</v>
       </c>
@@ -12891,7 +12931,7 @@
       <c r="AR231" s="51"/>
     </row>
     <row r="232" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="104"/>
+      <c r="B232" s="105"/>
       <c r="C232" s="49">
         <v>230</v>
       </c>
@@ -12933,7 +12973,7 @@
       </c>
     </row>
     <row r="233" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="104"/>
+      <c r="B233" s="105"/>
       <c r="C233" s="49">
         <v>231</v>
       </c>
@@ -12975,7 +13015,7 @@
       </c>
     </row>
     <row r="234" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="104"/>
+      <c r="B234" s="105"/>
       <c r="C234" s="49">
         <v>232</v>
       </c>
@@ -13022,7 +13062,7 @@
       <c r="AR234" s="1"/>
     </row>
     <row r="235" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="104"/>
+      <c r="B235" s="105"/>
       <c r="C235" s="49">
         <v>233</v>
       </c>
@@ -13069,7 +13109,7 @@
       <c r="AR235" s="1"/>
     </row>
     <row r="236" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="104"/>
+      <c r="B236" s="105"/>
       <c r="C236" s="49">
         <v>234</v>
       </c>
@@ -13116,7 +13156,7 @@
       <c r="AR236" s="1"/>
     </row>
     <row r="237" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="104"/>
+      <c r="B237" s="105"/>
       <c r="C237" s="49">
         <v>235</v>
       </c>
@@ -13158,7 +13198,7 @@
       </c>
     </row>
     <row r="238" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="104"/>
+      <c r="B238" s="105"/>
       <c r="C238" s="49">
         <v>236</v>
       </c>
@@ -13200,7 +13240,7 @@
       </c>
     </row>
     <row r="239" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="104"/>
+      <c r="B239" s="105"/>
       <c r="C239" s="49">
         <v>237</v>
       </c>
@@ -13242,7 +13282,7 @@
       </c>
     </row>
     <row r="240" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="104"/>
+      <c r="B240" s="105"/>
       <c r="C240" s="49">
         <v>238</v>
       </c>
@@ -13284,7 +13324,7 @@
       </c>
     </row>
     <row r="241" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="104"/>
+      <c r="B241" s="105"/>
       <c r="C241" s="49">
         <v>239</v>
       </c>
@@ -13326,7 +13366,7 @@
       </c>
     </row>
     <row r="242" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="104"/>
+      <c r="B242" s="105"/>
       <c r="C242" s="49">
         <v>240</v>
       </c>
@@ -13368,7 +13408,7 @@
       </c>
     </row>
     <row r="243" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="104"/>
+      <c r="B243" s="105"/>
       <c r="C243" s="49">
         <v>241</v>
       </c>
@@ -13410,7 +13450,7 @@
       </c>
     </row>
     <row r="244" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="104"/>
+      <c r="B244" s="105"/>
       <c r="C244" s="49">
         <v>242</v>
       </c>
@@ -13452,7 +13492,7 @@
       </c>
     </row>
     <row r="245" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="104"/>
+      <c r="B245" s="105"/>
       <c r="C245" s="49">
         <v>243</v>
       </c>
@@ -13494,7 +13534,7 @@
       </c>
     </row>
     <row r="246" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="104"/>
+      <c r="B246" s="105"/>
       <c r="C246" s="49">
         <v>244</v>
       </c>
@@ -13536,7 +13576,7 @@
       </c>
     </row>
     <row r="247" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="104"/>
+      <c r="B247" s="105"/>
       <c r="C247" s="49">
         <v>245</v>
       </c>
@@ -13578,7 +13618,7 @@
       </c>
     </row>
     <row r="248" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="104"/>
+      <c r="B248" s="105"/>
       <c r="C248" s="49">
         <v>246</v>
       </c>
@@ -13620,7 +13660,7 @@
       </c>
     </row>
     <row r="249" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="104"/>
+      <c r="B249" s="105"/>
       <c r="C249" s="49">
         <v>247</v>
       </c>
@@ -13662,7 +13702,7 @@
       </c>
     </row>
     <row r="250" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="104"/>
+      <c r="B250" s="105"/>
       <c r="C250" s="49">
         <v>248</v>
       </c>
@@ -13704,7 +13744,7 @@
       </c>
     </row>
     <row r="251" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="104"/>
+      <c r="B251" s="105"/>
       <c r="C251" s="49">
         <v>249</v>
       </c>
@@ -13746,7 +13786,7 @@
       </c>
     </row>
     <row r="252" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="104"/>
+      <c r="B252" s="105"/>
       <c r="C252" s="49">
         <v>250</v>
       </c>
@@ -13788,7 +13828,7 @@
       </c>
     </row>
     <row r="253" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="104"/>
+      <c r="B253" s="105"/>
       <c r="C253" s="49">
         <v>251</v>
       </c>
@@ -13830,7 +13870,7 @@
       </c>
     </row>
     <row r="254" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="104"/>
+      <c r="B254" s="105"/>
       <c r="C254" s="49">
         <v>252</v>
       </c>
@@ -13872,7 +13912,7 @@
       </c>
     </row>
     <row r="255" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="104"/>
+      <c r="B255" s="105"/>
       <c r="C255" s="49">
         <v>253</v>
       </c>
@@ -13914,7 +13954,7 @@
       </c>
     </row>
     <row r="256" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="104"/>
+      <c r="B256" s="105"/>
       <c r="C256" s="49">
         <v>254</v>
       </c>
@@ -13956,7 +13996,7 @@
       </c>
     </row>
     <row r="257" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="104"/>
+      <c r="B257" s="105"/>
       <c r="C257" s="49">
         <v>255</v>
       </c>
@@ -13998,7 +14038,7 @@
       </c>
     </row>
     <row r="258" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="104"/>
+      <c r="B258" s="105"/>
       <c r="C258" s="49">
         <v>256</v>
       </c>
@@ -14040,7 +14080,7 @@
       </c>
     </row>
     <row r="259" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="104"/>
+      <c r="B259" s="105"/>
       <c r="C259" s="49">
         <v>257</v>
       </c>
@@ -14082,7 +14122,7 @@
       </c>
     </row>
     <row r="260" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="104"/>
+      <c r="B260" s="105"/>
       <c r="C260" s="49">
         <v>258</v>
       </c>
@@ -14124,7 +14164,7 @@
       </c>
     </row>
     <row r="261" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="104"/>
+      <c r="B261" s="105"/>
       <c r="C261" s="49">
         <v>259</v>
       </c>
@@ -14166,7 +14206,7 @@
       </c>
     </row>
     <row r="262" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="104"/>
+      <c r="B262" s="105"/>
       <c r="C262" s="49">
         <v>260</v>
       </c>
@@ -14208,7 +14248,7 @@
       </c>
     </row>
     <row r="263" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="104"/>
+      <c r="B263" s="105"/>
       <c r="C263" s="49">
         <v>261</v>
       </c>
@@ -14250,7 +14290,7 @@
       </c>
     </row>
     <row r="264" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="104"/>
+      <c r="B264" s="105"/>
       <c r="C264" s="49">
         <v>262</v>
       </c>
@@ -14292,7 +14332,7 @@
       </c>
     </row>
     <row r="265" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="104"/>
+      <c r="B265" s="105"/>
       <c r="C265" s="49">
         <v>263</v>
       </c>
@@ -14334,7 +14374,7 @@
       </c>
     </row>
     <row r="266" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="104"/>
+      <c r="B266" s="105"/>
       <c r="C266" s="49">
         <v>264</v>
       </c>
@@ -14376,7 +14416,7 @@
       </c>
     </row>
     <row r="267" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="104"/>
+      <c r="B267" s="105"/>
       <c r="C267" s="49">
         <v>265</v>
       </c>
@@ -14418,7 +14458,7 @@
       </c>
     </row>
     <row r="268" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="104"/>
+      <c r="B268" s="105"/>
       <c r="C268" s="49">
         <v>266</v>
       </c>
@@ -14460,7 +14500,7 @@
       </c>
     </row>
     <row r="269" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="104"/>
+      <c r="B269" s="105"/>
       <c r="C269" s="49">
         <v>267</v>
       </c>
@@ -14502,7 +14542,7 @@
       </c>
     </row>
     <row r="270" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="104"/>
+      <c r="B270" s="105"/>
       <c r="C270" s="49">
         <v>268</v>
       </c>
@@ -14544,7 +14584,7 @@
       </c>
     </row>
     <row r="271" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="104"/>
+      <c r="B271" s="105"/>
       <c r="C271" s="49">
         <v>269</v>
       </c>
@@ -14586,7 +14626,7 @@
       </c>
     </row>
     <row r="272" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="104"/>
+      <c r="B272" s="105"/>
       <c r="C272" s="49">
         <v>270</v>
       </c>
@@ -14628,7 +14668,7 @@
       </c>
     </row>
     <row r="273" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="104"/>
+      <c r="B273" s="105"/>
       <c r="C273" s="49">
         <v>271</v>
       </c>
@@ -14670,7 +14710,7 @@
       </c>
     </row>
     <row r="274" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="104"/>
+      <c r="B274" s="105"/>
       <c r="C274" s="49">
         <v>272</v>
       </c>
@@ -14712,7 +14752,7 @@
       </c>
     </row>
     <row r="275" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="104"/>
+      <c r="B275" s="105"/>
       <c r="C275" s="49">
         <v>273</v>
       </c>
@@ -14754,7 +14794,7 @@
       </c>
     </row>
     <row r="276" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="104"/>
+      <c r="B276" s="105"/>
       <c r="C276" s="49">
         <v>274</v>
       </c>
@@ -14796,7 +14836,7 @@
       </c>
     </row>
     <row r="277" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="104"/>
+      <c r="B277" s="105"/>
       <c r="C277" s="49">
         <v>275</v>
       </c>
@@ -14838,7 +14878,7 @@
       </c>
     </row>
     <row r="278" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="104"/>
+      <c r="B278" s="105"/>
       <c r="C278" s="49">
         <v>276</v>
       </c>
@@ -14880,7 +14920,7 @@
       </c>
     </row>
     <row r="279" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="104"/>
+      <c r="B279" s="105"/>
       <c r="C279" s="49">
         <v>277</v>
       </c>
@@ -14922,7 +14962,7 @@
       </c>
     </row>
     <row r="280" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="104"/>
+      <c r="B280" s="105"/>
       <c r="C280" s="49">
         <v>278</v>
       </c>
@@ -14964,7 +15004,7 @@
       </c>
     </row>
     <row r="281" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="104"/>
+      <c r="B281" s="105"/>
       <c r="C281" s="49">
         <v>279</v>
       </c>
@@ -15006,7 +15046,7 @@
       </c>
     </row>
     <row r="282" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="104"/>
+      <c r="B282" s="105"/>
       <c r="C282" s="49">
         <v>280</v>
       </c>
@@ -15048,7 +15088,7 @@
       </c>
     </row>
     <row r="283" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="104"/>
+      <c r="B283" s="105"/>
       <c r="C283" s="49">
         <v>281</v>
       </c>
@@ -15090,7 +15130,7 @@
       </c>
     </row>
     <row r="284" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="104"/>
+      <c r="B284" s="105"/>
       <c r="C284" s="49">
         <v>282</v>
       </c>
@@ -15132,7 +15172,7 @@
       </c>
     </row>
     <row r="285" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="104"/>
+      <c r="B285" s="105"/>
       <c r="C285" s="49">
         <v>283</v>
       </c>
@@ -15174,7 +15214,7 @@
       </c>
     </row>
     <row r="286" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="104"/>
+      <c r="B286" s="105"/>
       <c r="C286" s="49">
         <v>284</v>
       </c>
@@ -15216,7 +15256,7 @@
       </c>
     </row>
     <row r="287" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="104"/>
+      <c r="B287" s="105"/>
       <c r="C287" s="49">
         <v>285</v>
       </c>
@@ -15258,7 +15298,7 @@
       </c>
     </row>
     <row r="288" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="104"/>
+      <c r="B288" s="105"/>
       <c r="C288" s="49">
         <v>286</v>
       </c>
@@ -15300,7 +15340,7 @@
       </c>
     </row>
     <row r="289" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="104"/>
+      <c r="B289" s="105"/>
       <c r="C289" s="49">
         <v>287</v>
       </c>
@@ -15342,7 +15382,7 @@
       </c>
     </row>
     <row r="290" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="104"/>
+      <c r="B290" s="105"/>
       <c r="C290" s="49">
         <v>288</v>
       </c>
@@ -15384,7 +15424,7 @@
       </c>
     </row>
     <row r="291" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="104"/>
+      <c r="B291" s="105"/>
       <c r="C291" s="49">
         <v>289</v>
       </c>
@@ -15426,7 +15466,7 @@
       </c>
     </row>
     <row r="292" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="104"/>
+      <c r="B292" s="105"/>
       <c r="C292" s="49">
         <v>290</v>
       </c>
@@ -15468,7 +15508,7 @@
       </c>
     </row>
     <row r="293" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="104"/>
+      <c r="B293" s="105"/>
       <c r="C293" s="49">
         <v>291</v>
       </c>
@@ -15510,7 +15550,7 @@
       </c>
     </row>
     <row r="294" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="104"/>
+      <c r="B294" s="105"/>
       <c r="C294" s="49">
         <v>292</v>
       </c>
@@ -15552,7 +15592,7 @@
       </c>
     </row>
     <row r="295" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="104"/>
+      <c r="B295" s="105"/>
       <c r="C295" s="49">
         <v>293</v>
       </c>
@@ -15594,7 +15634,7 @@
       </c>
     </row>
     <row r="296" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="104"/>
+      <c r="B296" s="105"/>
       <c r="C296" s="49">
         <v>294</v>
       </c>
@@ -15636,7 +15676,7 @@
       </c>
     </row>
     <row r="297" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="104"/>
+      <c r="B297" s="105"/>
       <c r="C297" s="49">
         <v>295</v>
       </c>
@@ -15678,7 +15718,7 @@
       </c>
     </row>
     <row r="298" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="104"/>
+      <c r="B298" s="105"/>
       <c r="C298" s="49">
         <v>296</v>
       </c>
@@ -15720,7 +15760,7 @@
       </c>
     </row>
     <row r="299" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="104"/>
+      <c r="B299" s="105"/>
       <c r="C299" s="49">
         <v>297</v>
       </c>
@@ -15762,7 +15802,7 @@
       </c>
     </row>
     <row r="300" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="104"/>
+      <c r="B300" s="105"/>
       <c r="C300" s="49">
         <v>298</v>
       </c>
@@ -15804,7 +15844,7 @@
       </c>
     </row>
     <row r="301" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="104"/>
+      <c r="B301" s="105"/>
       <c r="C301" s="49">
         <v>299</v>
       </c>
@@ -15846,7 +15886,7 @@
       </c>
     </row>
     <row r="302" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="104"/>
+      <c r="B302" s="105"/>
       <c r="C302" s="49">
         <v>300</v>
       </c>
@@ -15888,7 +15928,7 @@
       </c>
     </row>
     <row r="303" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="104"/>
+      <c r="B303" s="105"/>
       <c r="C303" s="49">
         <v>301</v>
       </c>
@@ -15930,7 +15970,7 @@
       </c>
     </row>
     <row r="304" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="104"/>
+      <c r="B304" s="105"/>
       <c r="C304" s="49">
         <v>302</v>
       </c>
@@ -15972,7 +16012,7 @@
       </c>
     </row>
     <row r="305" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="104"/>
+      <c r="B305" s="105"/>
       <c r="C305" s="49">
         <v>303</v>
       </c>
@@ -16014,7 +16054,7 @@
       </c>
     </row>
     <row r="306" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="104"/>
+      <c r="B306" s="105"/>
       <c r="C306" s="49">
         <v>304</v>
       </c>
@@ -16056,7 +16096,7 @@
       </c>
     </row>
     <row r="307" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="104"/>
+      <c r="B307" s="105"/>
       <c r="C307" s="49">
         <v>305</v>
       </c>
@@ -16098,7 +16138,7 @@
       </c>
     </row>
     <row r="308" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="104"/>
+      <c r="B308" s="105"/>
       <c r="C308" s="49">
         <v>306</v>
       </c>
@@ -16140,7 +16180,7 @@
       </c>
     </row>
     <row r="309" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="104"/>
+      <c r="B309" s="105"/>
       <c r="C309" s="49">
         <v>307</v>
       </c>
@@ -16182,7 +16222,7 @@
       </c>
     </row>
     <row r="310" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="104"/>
+      <c r="B310" s="105"/>
       <c r="C310" s="49">
         <v>308</v>
       </c>
@@ -16224,7 +16264,7 @@
       </c>
     </row>
     <row r="311" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="104"/>
+      <c r="B311" s="105"/>
       <c r="C311" s="49">
         <v>309</v>
       </c>
@@ -16266,7 +16306,7 @@
       </c>
     </row>
     <row r="312" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="104"/>
+      <c r="B312" s="105"/>
       <c r="C312" s="49">
         <v>310</v>
       </c>
@@ -16308,7 +16348,7 @@
       </c>
     </row>
     <row r="313" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="104"/>
+      <c r="B313" s="105"/>
       <c r="C313" s="49">
         <v>311</v>
       </c>
@@ -16350,7 +16390,7 @@
       </c>
     </row>
     <row r="314" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="104"/>
+      <c r="B314" s="105"/>
       <c r="C314" s="49">
         <v>312</v>
       </c>
@@ -16392,7 +16432,7 @@
       </c>
     </row>
     <row r="315" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="104"/>
+      <c r="B315" s="105"/>
       <c r="C315" s="49">
         <v>313</v>
       </c>
@@ -16434,7 +16474,7 @@
       </c>
     </row>
     <row r="316" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="104"/>
+      <c r="B316" s="105"/>
       <c r="C316" s="49">
         <v>314</v>
       </c>
@@ -16476,7 +16516,7 @@
       </c>
     </row>
     <row r="317" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="104"/>
+      <c r="B317" s="105"/>
       <c r="C317" s="49">
         <v>315</v>
       </c>
@@ -16518,7 +16558,7 @@
       </c>
     </row>
     <row r="318" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="104"/>
+      <c r="B318" s="105"/>
       <c r="C318" s="49">
         <v>316</v>
       </c>
@@ -16560,7 +16600,7 @@
       </c>
     </row>
     <row r="319" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="104"/>
+      <c r="B319" s="105"/>
       <c r="C319" s="49">
         <v>317</v>
       </c>
@@ -16602,7 +16642,7 @@
       </c>
     </row>
     <row r="320" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="104"/>
+      <c r="B320" s="105"/>
       <c r="C320" s="49">
         <v>318</v>
       </c>
@@ -16644,7 +16684,7 @@
       </c>
     </row>
     <row r="321" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="104"/>
+      <c r="B321" s="105"/>
       <c r="C321" s="49">
         <v>319</v>
       </c>
@@ -16686,7 +16726,7 @@
       </c>
     </row>
     <row r="322" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="104"/>
+      <c r="B322" s="105"/>
       <c r="C322" s="49">
         <v>320</v>
       </c>
@@ -16728,7 +16768,7 @@
       </c>
     </row>
     <row r="323" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="104"/>
+      <c r="B323" s="105"/>
       <c r="C323" s="49">
         <v>321</v>
       </c>
@@ -16770,7 +16810,7 @@
       </c>
     </row>
     <row r="324" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="104"/>
+      <c r="B324" s="105"/>
       <c r="C324" s="49">
         <v>322</v>
       </c>
@@ -16812,7 +16852,7 @@
       </c>
     </row>
     <row r="325" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="104"/>
+      <c r="B325" s="105"/>
       <c r="C325" s="49">
         <v>323</v>
       </c>
@@ -16854,7 +16894,7 @@
       </c>
     </row>
     <row r="326" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="105"/>
+      <c r="B326" s="106"/>
       <c r="C326" s="86">
         <v>324</v>
       </c>
@@ -39687,7 +39727,7 @@
       </c>
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
-      <c r="W882" s="107" t="s">
+      <c r="W882" s="102" t="s">
         <v>23</v>
       </c>
     </row>
@@ -41696,6 +41736,9 @@
         <v>0</v>
       </c>
       <c r="V931" s="3"/>
+      <c r="W931" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="932" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="83">
@@ -41733,6 +41776,9 @@
       <c r="U932" s="3"/>
       <c r="V932" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W932" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="933" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -41772,6 +41818,9 @@
       </c>
       <c r="U933" s="3"/>
       <c r="V933" s="3"/>
+      <c r="W933" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="934" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="83">
@@ -41810,6 +41859,9 @@
         <v>0</v>
       </c>
       <c r="V934" s="3"/>
+      <c r="W934" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="935" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="83">
@@ -41848,6 +41900,9 @@
       <c r="V935" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W935" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="936" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="83">
@@ -41886,6 +41941,9 @@
       </c>
       <c r="U936" s="3"/>
       <c r="V936" s="3"/>
+      <c r="W936" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="937" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="83">
@@ -41924,6 +41982,9 @@
         <v>0</v>
       </c>
       <c r="V937" s="3"/>
+      <c r="W937" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="938" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="83">
@@ -41962,6 +42023,9 @@
       <c r="V938" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W938" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="939" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="83">
@@ -42000,6 +42064,9 @@
       </c>
       <c r="U939" s="3"/>
       <c r="V939" s="3"/>
+      <c r="W939" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="940" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="83">
@@ -42038,6 +42105,9 @@
         <v>0</v>
       </c>
       <c r="V940" s="3"/>
+      <c r="W940" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="941" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="83">
@@ -42076,6 +42146,9 @@
       <c r="V941" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W941" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="942" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="83">
@@ -42114,6 +42187,9 @@
       </c>
       <c r="U942" s="3"/>
       <c r="V942" s="3"/>
+      <c r="W942" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="943" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="83">
@@ -42152,6 +42228,9 @@
         <v>0</v>
       </c>
       <c r="V943" s="3"/>
+      <c r="W943" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="944" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="83">
@@ -42190,8 +42269,11 @@
       <c r="V944" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="945" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W944" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="945" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C945" s="83">
         <v>943</v>
       </c>
@@ -42228,8 +42310,11 @@
       </c>
       <c r="U945" s="3"/>
       <c r="V945" s="3"/>
-    </row>
-    <row r="946" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W945" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="946" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C946" s="83">
         <v>944</v>
       </c>
@@ -42266,8 +42351,11 @@
         <v>0</v>
       </c>
       <c r="V946" s="3"/>
-    </row>
-    <row r="947" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W946" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="947" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C947" s="83">
         <v>945</v>
       </c>
@@ -42304,8 +42392,11 @@
       <c r="V947" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="948" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W947" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="948" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C948" s="83">
         <v>946</v>
       </c>
@@ -42342,8 +42433,11 @@
       </c>
       <c r="U948" s="3"/>
       <c r="V948" s="3"/>
-    </row>
-    <row r="949" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W948" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="949" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C949" s="83">
         <v>947</v>
       </c>
@@ -42380,8 +42474,11 @@
         <v>0</v>
       </c>
       <c r="V949" s="3"/>
-    </row>
-    <row r="950" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W949" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="950" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C950" s="83">
         <v>948</v>
       </c>
@@ -42418,8 +42515,11 @@
       <c r="V950" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="951" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W950" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="951" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C951" s="83">
         <v>949</v>
       </c>
@@ -42456,8 +42556,11 @@
       </c>
       <c r="U951" s="3"/>
       <c r="V951" s="3"/>
-    </row>
-    <row r="952" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W951" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="952" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C952" s="83">
         <v>950</v>
       </c>
@@ -42494,8 +42597,11 @@
         <v>0</v>
       </c>
       <c r="V952" s="3"/>
-    </row>
-    <row r="953" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W952" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="953" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C953" s="83">
         <v>951</v>
       </c>
@@ -42532,8 +42638,11 @@
       <c r="V953" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="954" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W953" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="954" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C954" s="83">
         <v>952</v>
       </c>
@@ -42570,8 +42679,11 @@
       </c>
       <c r="U954" s="3"/>
       <c r="V954" s="3"/>
-    </row>
-    <row r="955" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W954" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="955" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C955" s="83">
         <v>953</v>
       </c>
@@ -42608,8 +42720,11 @@
         <v>0</v>
       </c>
       <c r="V955" s="3"/>
-    </row>
-    <row r="956" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W955" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="956" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C956" s="83">
         <v>954</v>
       </c>
@@ -42646,8 +42761,11 @@
       <c r="V956" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="957" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W956" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="957" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C957" s="83">
         <v>955</v>
       </c>
@@ -42684,8 +42802,11 @@
       </c>
       <c r="U957" s="3"/>
       <c r="V957" s="3"/>
-    </row>
-    <row r="958" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W957" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="958" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C958" s="83">
         <v>956</v>
       </c>
@@ -42722,8 +42843,11 @@
         <v>0</v>
       </c>
       <c r="V958" s="3"/>
-    </row>
-    <row r="959" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W958" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="959" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C959" s="83">
         <v>957</v>
       </c>
@@ -42760,8 +42884,11 @@
       <c r="V959" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="960" spans="3:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W959" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="960" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C960" s="83">
         <v>958</v>
       </c>
@@ -42798,6 +42925,9 @@
       </c>
       <c r="U960" s="3"/>
       <c r="V960" s="3"/>
+      <c r="W960" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="961" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="83">
@@ -42836,6 +42966,9 @@
         <v>0</v>
       </c>
       <c r="V961" s="3"/>
+      <c r="W961" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="962" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="83">
@@ -42915,6 +43048,9 @@
       </c>
       <c r="U963" s="3"/>
       <c r="V963" s="3"/>
+      <c r="W963" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="964" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="83">
@@ -42953,6 +43089,9 @@
         <v>0</v>
       </c>
       <c r="V964" s="3"/>
+      <c r="W964" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="965" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="83">
@@ -42991,6 +43130,9 @@
       <c r="V965" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W965" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="966" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="83">
@@ -43029,6 +43171,9 @@
       </c>
       <c r="U966" s="3"/>
       <c r="V966" s="3"/>
+      <c r="W966" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="967" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="83">
@@ -43067,6 +43212,9 @@
         <v>0</v>
       </c>
       <c r="V967" s="3"/>
+      <c r="W967" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="968" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="83">
@@ -43105,6 +43253,9 @@
       <c r="V968" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W968" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="969" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="83">
@@ -43143,6 +43294,9 @@
       </c>
       <c r="U969" s="3"/>
       <c r="V969" s="3"/>
+      <c r="W969" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="970" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="83">
@@ -43181,6 +43335,9 @@
         <v>0</v>
       </c>
       <c r="V970" s="3"/>
+      <c r="W970" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="971" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="83">
@@ -43219,6 +43376,9 @@
       <c r="V971" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="W971" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="972" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="83">
@@ -43257,6 +43417,9 @@
       </c>
       <c r="U972" s="3"/>
       <c r="V972" s="3"/>
+      <c r="W972" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="973" spans="3:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="83">
@@ -43295,6 +43458,9 @@
         <v>0</v>
       </c>
       <c r="V973" s="3"/>
+      <c r="W973" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="974" spans="3:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C974" s="84">
@@ -43332,6 +43498,9 @@
       <c r="U974" s="81"/>
       <c r="V974" s="81" t="s">
         <v>0</v>
+      </c>
+      <c r="W974" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BF9B7-F247-0648-A1E4-E87BCF8C48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10AD1B7-B0DA-F042-8164-2CBC41A838B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8375" uniqueCount="599">
   <si>
     <t>X</t>
   </si>
@@ -875,43 +875,964 @@
     <t>13-14-15</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>52</t>
+    <t>16-17-18</t>
+  </si>
+  <si>
+    <t>19-20-21</t>
+  </si>
+  <si>
+    <t>22-23-24</t>
+  </si>
+  <si>
+    <t>25-26-27</t>
+  </si>
+  <si>
+    <t>28-29-30</t>
+  </si>
+  <si>
+    <t>31-32-33</t>
+  </si>
+  <si>
+    <t>34-35-36</t>
+  </si>
+  <si>
+    <t>37-38-39</t>
+  </si>
+  <si>
+    <t>40-41-42</t>
+  </si>
+  <si>
+    <t>43-44-45</t>
+  </si>
+  <si>
+    <t>46-47-48</t>
+  </si>
+  <si>
+    <t>49-50-51</t>
+  </si>
+  <si>
+    <t>52-53-54</t>
+  </si>
+  <si>
+    <t>55-56-57</t>
+  </si>
+  <si>
+    <t>58-59-60</t>
+  </si>
+  <si>
+    <t>61-62-63</t>
+  </si>
+  <si>
+    <t>64-65-66</t>
+  </si>
+  <si>
+    <t>67-68-69</t>
+  </si>
+  <si>
+    <t>70-71-72</t>
+  </si>
+  <si>
+    <t>73-74-75</t>
+  </si>
+  <si>
+    <t>76-77-78</t>
+  </si>
+  <si>
+    <t>79-80-81</t>
+  </si>
+  <si>
+    <t>82-83-84</t>
+  </si>
+  <si>
+    <t>85-86-87</t>
+  </si>
+  <si>
+    <t>88-89-90</t>
+  </si>
+  <si>
+    <t>91-92-93</t>
+  </si>
+  <si>
+    <t>94-95-96</t>
+  </si>
+  <si>
+    <t>97-98-99</t>
+  </si>
+  <si>
+    <t>100-101-102</t>
+  </si>
+  <si>
+    <t>103-104-105</t>
+  </si>
+  <si>
+    <t>106-107-108</t>
+  </si>
+  <si>
+    <t>109-110-111</t>
+  </si>
+  <si>
+    <t>112-113-114</t>
+  </si>
+  <si>
+    <t>115-116-117</t>
+  </si>
+  <si>
+    <t>118-119-120</t>
+  </si>
+  <si>
+    <t>121-122-123</t>
+  </si>
+  <si>
+    <t>124-125-126</t>
+  </si>
+  <si>
+    <t>127-128-129</t>
+  </si>
+  <si>
+    <t>130-131-132</t>
+  </si>
+  <si>
+    <t>133-134-135</t>
+  </si>
+  <si>
+    <t>136-137-138</t>
+  </si>
+  <si>
+    <t>139-140-141</t>
+  </si>
+  <si>
+    <t>142-143-144</t>
+  </si>
+  <si>
+    <t>145-146-147</t>
+  </si>
+  <si>
+    <t>148-149-150</t>
+  </si>
+  <si>
+    <t>151-152-153</t>
+  </si>
+  <si>
+    <t>154-155-156</t>
+  </si>
+  <si>
+    <t>157-158-159</t>
+  </si>
+  <si>
+    <t>160-161-162</t>
+  </si>
+  <si>
+    <t>163-164-165</t>
+  </si>
+  <si>
+    <t>166-167-168</t>
+  </si>
+  <si>
+    <t>169-170-171</t>
+  </si>
+  <si>
+    <t>172-173-174</t>
+  </si>
+  <si>
+    <t>175-176-177</t>
+  </si>
+  <si>
+    <t>178-179-180</t>
+  </si>
+  <si>
+    <t>181-182-183</t>
+  </si>
+  <si>
+    <t>184-185-186</t>
+  </si>
+  <si>
+    <t>187-188-189</t>
+  </si>
+  <si>
+    <t>190-191-192</t>
+  </si>
+  <si>
+    <t>193-194-195</t>
+  </si>
+  <si>
+    <t>196-197-198</t>
+  </si>
+  <si>
+    <t>199-200-201</t>
+  </si>
+  <si>
+    <t>202-203-204</t>
+  </si>
+  <si>
+    <t>205-206-207</t>
+  </si>
+  <si>
+    <t>208-209-210</t>
+  </si>
+  <si>
+    <t>211-212-213</t>
+  </si>
+  <si>
+    <t>214-215-216</t>
+  </si>
+  <si>
+    <t>217-218-219</t>
+  </si>
+  <si>
+    <t>220-221-222</t>
+  </si>
+  <si>
+    <t>223-224-225</t>
+  </si>
+  <si>
+    <t>226-227-228</t>
+  </si>
+  <si>
+    <t>229-230-231</t>
+  </si>
+  <si>
+    <t>232-233-234</t>
+  </si>
+  <si>
+    <t>235-236-237</t>
+  </si>
+  <si>
+    <t>238-239-240</t>
+  </si>
+  <si>
+    <t>241-242-243</t>
+  </si>
+  <si>
+    <t>244-245-246</t>
+  </si>
+  <si>
+    <t>247-248-249</t>
+  </si>
+  <si>
+    <t>250-251-252</t>
+  </si>
+  <si>
+    <t>253-254-255</t>
+  </si>
+  <si>
+    <t>256-257-258</t>
+  </si>
+  <si>
+    <t>259-260-261</t>
+  </si>
+  <si>
+    <t>262-263-264</t>
+  </si>
+  <si>
+    <t>265-266-267</t>
+  </si>
+  <si>
+    <t>268-269-270</t>
+  </si>
+  <si>
+    <t>271-272-273</t>
+  </si>
+  <si>
+    <t>274-275-276</t>
+  </si>
+  <si>
+    <t>277-278-279</t>
+  </si>
+  <si>
+    <t>280-281-282</t>
+  </si>
+  <si>
+    <t>283-284-285</t>
+  </si>
+  <si>
+    <t>286-287-288</t>
+  </si>
+  <si>
+    <t>289-290-291</t>
+  </si>
+  <si>
+    <t>292-293-294</t>
+  </si>
+  <si>
+    <t>295-296-297</t>
+  </si>
+  <si>
+    <t>298-299-300</t>
+  </si>
+  <si>
+    <t>301-302-303</t>
+  </si>
+  <si>
+    <t>304-305-306</t>
+  </si>
+  <si>
+    <t>307-308-309</t>
+  </si>
+  <si>
+    <t>310-311-312</t>
+  </si>
+  <si>
+    <t>313-314-315</t>
+  </si>
+  <si>
+    <t>316-317-318</t>
+  </si>
+  <si>
+    <t>319-320-321</t>
+  </si>
+  <si>
+    <t>322-323-324</t>
+  </si>
+  <si>
+    <t>325-326-327</t>
+  </si>
+  <si>
+    <t>328-329-330</t>
+  </si>
+  <si>
+    <t>331-332-333</t>
+  </si>
+  <si>
+    <t>10-11-12</t>
+  </si>
+  <si>
+    <t>334-335-336</t>
+  </si>
+  <si>
+    <t>337-338-339</t>
+  </si>
+  <si>
+    <t>340-341-342</t>
+  </si>
+  <si>
+    <t>343-344-345</t>
+  </si>
+  <si>
+    <t>346-347-348</t>
+  </si>
+  <si>
+    <t>349-350-351</t>
+  </si>
+  <si>
+    <t>352-353-354</t>
+  </si>
+  <si>
+    <t>355-356-357</t>
+  </si>
+  <si>
+    <t>358-359-360</t>
+  </si>
+  <si>
+    <t>361-362-363</t>
+  </si>
+  <si>
+    <t>364-365-366</t>
+  </si>
+  <si>
+    <t>367-368-369</t>
+  </si>
+  <si>
+    <t>370-371-372</t>
+  </si>
+  <si>
+    <t>373-374-375</t>
+  </si>
+  <si>
+    <t>376-377-378</t>
+  </si>
+  <si>
+    <t>379-380-381</t>
+  </si>
+  <si>
+    <t>382-383-384</t>
+  </si>
+  <si>
+    <t>385-386-387</t>
+  </si>
+  <si>
+    <t>388-389-390</t>
+  </si>
+  <si>
+    <t>391-392-393</t>
+  </si>
+  <si>
+    <t>394-395-396</t>
+  </si>
+  <si>
+    <t>397-398-399</t>
+  </si>
+  <si>
+    <t>400-401-402</t>
+  </si>
+  <si>
+    <t>403-404-405</t>
+  </si>
+  <si>
+    <t>406-407-408</t>
+  </si>
+  <si>
+    <t>409-410-411</t>
+  </si>
+  <si>
+    <t>412-413-414</t>
+  </si>
+  <si>
+    <t>415-416-417</t>
+  </si>
+  <si>
+    <t>418-419-420</t>
+  </si>
+  <si>
+    <t>421-422-423</t>
+  </si>
+  <si>
+    <t>424-425-426</t>
+  </si>
+  <si>
+    <t>427-428-429</t>
+  </si>
+  <si>
+    <t>430-431-432</t>
+  </si>
+  <si>
+    <t>433-434-435</t>
+  </si>
+  <si>
+    <t>436-437-438</t>
+  </si>
+  <si>
+    <t>439-440-441</t>
+  </si>
+  <si>
+    <t>442-443-444</t>
+  </si>
+  <si>
+    <t>445-446-447</t>
+  </si>
+  <si>
+    <t>448-449-450</t>
+  </si>
+  <si>
+    <t>451-452-453</t>
+  </si>
+  <si>
+    <t>454-455-456</t>
+  </si>
+  <si>
+    <t>457-458-459</t>
+  </si>
+  <si>
+    <t>460-461-462</t>
+  </si>
+  <si>
+    <t>463-464-465</t>
+  </si>
+  <si>
+    <t>466-467-468</t>
+  </si>
+  <si>
+    <t>469-470-471</t>
+  </si>
+  <si>
+    <t>472-473-474</t>
+  </si>
+  <si>
+    <t>475-476-477</t>
+  </si>
+  <si>
+    <t>478-479-480</t>
+  </si>
+  <si>
+    <t>481-482-483</t>
+  </si>
+  <si>
+    <t>484-485-486</t>
+  </si>
+  <si>
+    <t>487-488-489</t>
+  </si>
+  <si>
+    <t>490-491-492</t>
+  </si>
+  <si>
+    <t>493-494-495</t>
+  </si>
+  <si>
+    <t>496-497-498</t>
+  </si>
+  <si>
+    <t>499-500-501</t>
+  </si>
+  <si>
+    <t>502-503-504</t>
+  </si>
+  <si>
+    <t>505-506-507</t>
+  </si>
+  <si>
+    <t>508-509-510</t>
+  </si>
+  <si>
+    <t>511-512-513</t>
+  </si>
+  <si>
+    <t>514-515-516</t>
+  </si>
+  <si>
+    <t>517-518-519</t>
+  </si>
+  <si>
+    <t>520-521-522</t>
+  </si>
+  <si>
+    <t>523-524-525</t>
+  </si>
+  <si>
+    <t>526-527-528</t>
+  </si>
+  <si>
+    <t>529-530-531</t>
+  </si>
+  <si>
+    <t>532-533-534</t>
+  </si>
+  <si>
+    <t>535-536-537</t>
+  </si>
+  <si>
+    <t>538-539-540</t>
+  </si>
+  <si>
+    <t>541-542-543</t>
+  </si>
+  <si>
+    <t>544-545-546</t>
+  </si>
+  <si>
+    <t>547-548-549</t>
+  </si>
+  <si>
+    <t>550-551-552</t>
+  </si>
+  <si>
+    <t>553-554-555</t>
+  </si>
+  <si>
+    <t>556-557-558</t>
+  </si>
+  <si>
+    <t>559-560-561</t>
+  </si>
+  <si>
+    <t>562-563-564</t>
+  </si>
+  <si>
+    <t>565-566-567</t>
+  </si>
+  <si>
+    <t>568-569-570</t>
+  </si>
+  <si>
+    <t>571-572-573</t>
+  </si>
+  <si>
+    <t>574-575-576</t>
+  </si>
+  <si>
+    <t>577-578-579</t>
+  </si>
+  <si>
+    <t>580-581-582</t>
+  </si>
+  <si>
+    <t>583-584-585</t>
+  </si>
+  <si>
+    <t>586-587-588</t>
+  </si>
+  <si>
+    <t>589-590-591</t>
+  </si>
+  <si>
+    <t>592-593-594</t>
+  </si>
+  <si>
+    <t>595-596-597</t>
+  </si>
+  <si>
+    <t>598-599-600</t>
+  </si>
+  <si>
+    <t>601-602-603</t>
+  </si>
+  <si>
+    <t>604-605-606</t>
+  </si>
+  <si>
+    <t>607-608-609</t>
+  </si>
+  <si>
+    <t>610-611-612</t>
+  </si>
+  <si>
+    <t>613-614-615</t>
+  </si>
+  <si>
+    <t>616-617-618</t>
+  </si>
+  <si>
+    <t>619-620-621</t>
+  </si>
+  <si>
+    <t>622-623-624</t>
+  </si>
+  <si>
+    <t>625-626-627</t>
+  </si>
+  <si>
+    <t>628-629-630</t>
+  </si>
+  <si>
+    <t>631-632-633</t>
+  </si>
+  <si>
+    <t>634-635-636</t>
+  </si>
+  <si>
+    <t>637-638-639</t>
+  </si>
+  <si>
+    <t>640-641-642</t>
+  </si>
+  <si>
+    <t>643-644-645</t>
+  </si>
+  <si>
+    <t>646-647-648</t>
+  </si>
+  <si>
+    <t>649-650-651</t>
+  </si>
+  <si>
+    <t>652-653-654</t>
+  </si>
+  <si>
+    <t>655-656-657</t>
+  </si>
+  <si>
+    <t>658-659-660</t>
+  </si>
+  <si>
+    <t>661-662-663</t>
+  </si>
+  <si>
+    <t>664-665-666</t>
+  </si>
+  <si>
+    <t>667-668-669</t>
+  </si>
+  <si>
+    <t>670-671-672</t>
+  </si>
+  <si>
+    <t>673-674-675</t>
+  </si>
+  <si>
+    <t>676-677-678</t>
+  </si>
+  <si>
+    <t>679-680-681</t>
+  </si>
+  <si>
+    <t>682-683-684</t>
+  </si>
+  <si>
+    <t>685-686-687</t>
+  </si>
+  <si>
+    <t>688-689-690</t>
+  </si>
+  <si>
+    <t>691-692-693</t>
+  </si>
+  <si>
+    <t>694-695-696</t>
+  </si>
+  <si>
+    <t>697-698-699</t>
+  </si>
+  <si>
+    <t>700-701-702</t>
+  </si>
+  <si>
+    <t>703-704-705</t>
+  </si>
+  <si>
+    <t>706-707-708</t>
+  </si>
+  <si>
+    <t>709-710-711</t>
+  </si>
+  <si>
+    <t>712-713-714</t>
+  </si>
+  <si>
+    <t>715-716-717</t>
+  </si>
+  <si>
+    <t>718-719-720</t>
+  </si>
+  <si>
+    <t>721-722-723</t>
+  </si>
+  <si>
+    <t>724-725-726</t>
+  </si>
+  <si>
+    <t>727-728-729</t>
+  </si>
+  <si>
+    <t>730-731-732</t>
+  </si>
+  <si>
+    <t>733-734-735</t>
+  </si>
+  <si>
+    <t>736-737-738</t>
+  </si>
+  <si>
+    <t>739-740-741</t>
+  </si>
+  <si>
+    <t>742-743-744</t>
+  </si>
+  <si>
+    <t>745-746-747</t>
+  </si>
+  <si>
+    <t>748-749-750</t>
+  </si>
+  <si>
+    <t>751-752-753</t>
+  </si>
+  <si>
+    <t>754-755-756</t>
+  </si>
+  <si>
+    <t>757-758-759</t>
+  </si>
+  <si>
+    <t>760-761-762</t>
+  </si>
+  <si>
+    <t>763-764-765</t>
+  </si>
+  <si>
+    <t>766-767-768</t>
+  </si>
+  <si>
+    <t>769-770-771</t>
+  </si>
+  <si>
+    <t>772-773-774</t>
+  </si>
+  <si>
+    <t>775-776-777</t>
+  </si>
+  <si>
+    <t>778-779-780</t>
+  </si>
+  <si>
+    <t>781-782-783</t>
+  </si>
+  <si>
+    <t>784-785-786</t>
+  </si>
+  <si>
+    <t>787-788-789</t>
+  </si>
+  <si>
+    <t>790-791-792</t>
+  </si>
+  <si>
+    <t>793-794-795</t>
+  </si>
+  <si>
+    <t>796-797-798</t>
+  </si>
+  <si>
+    <t>799-800-801</t>
+  </si>
+  <si>
+    <t>802-803-804</t>
+  </si>
+  <si>
+    <t>805-806-807</t>
+  </si>
+  <si>
+    <t>808-809-810</t>
+  </si>
+  <si>
+    <t>811-812-813</t>
+  </si>
+  <si>
+    <t>814-815-816</t>
+  </si>
+  <si>
+    <t>817-818-819</t>
+  </si>
+  <si>
+    <t>820-821-822</t>
+  </si>
+  <si>
+    <t>823-824-825</t>
+  </si>
+  <si>
+    <t>826-827-828</t>
+  </si>
+  <si>
+    <t>829-830-831</t>
+  </si>
+  <si>
+    <t>832-833-834</t>
+  </si>
+  <si>
+    <t>835-836-837</t>
+  </si>
+  <si>
+    <t>838-839-840</t>
+  </si>
+  <si>
+    <t>841-842-843</t>
+  </si>
+  <si>
+    <t>844-845-846</t>
+  </si>
+  <si>
+    <t>847-848-849</t>
+  </si>
+  <si>
+    <t>850-851-852</t>
+  </si>
+  <si>
+    <t>853-854-855</t>
+  </si>
+  <si>
+    <t>856-857-858</t>
+  </si>
+  <si>
+    <t>859-860-861</t>
+  </si>
+  <si>
+    <t>862-863-864</t>
+  </si>
+  <si>
+    <t>865-866-867</t>
+  </si>
+  <si>
+    <t>868-869-870</t>
+  </si>
+  <si>
+    <t>871-872-873</t>
+  </si>
+  <si>
+    <t>874-875-876</t>
+  </si>
+  <si>
+    <t>877-878-879</t>
+  </si>
+  <si>
+    <t>880-881-882</t>
+  </si>
+  <si>
+    <t>883-884-885</t>
+  </si>
+  <si>
+    <t>886-887-887</t>
+  </si>
+  <si>
+    <t>888-889-890</t>
+  </si>
+  <si>
+    <t>891-892-893</t>
+  </si>
+  <si>
+    <t>894-895-896</t>
+  </si>
+  <si>
+    <t>897-898-899</t>
+  </si>
+  <si>
+    <t>900-901-902</t>
+  </si>
+  <si>
+    <t>903-904-905</t>
+  </si>
+  <si>
+    <t>906-907-908</t>
+  </si>
+  <si>
+    <t>909-910-911</t>
+  </si>
+  <si>
+    <t>912-913-914</t>
+  </si>
+  <si>
+    <t>915-916-917</t>
+  </si>
+  <si>
+    <t>918-919-920</t>
+  </si>
+  <si>
+    <t>921-922-923</t>
+  </si>
+  <si>
+    <t>924-925-926</t>
+  </si>
+  <si>
+    <t>927-928-929</t>
+  </si>
+  <si>
+    <t>930-931-932</t>
+  </si>
+  <si>
+    <t>933-934-935</t>
+  </si>
+  <si>
+    <t>936-937-938</t>
+  </si>
+  <si>
+    <t>939-940-941</t>
+  </si>
+  <si>
+    <t>942-943-944</t>
+  </si>
+  <si>
+    <t>945-946-947</t>
+  </si>
+  <si>
+    <t>948-949-950</t>
+  </si>
+  <si>
+    <t>951-952-953</t>
+  </si>
+  <si>
+    <t>954-955-956</t>
+  </si>
+  <si>
+    <t>958-959-960</t>
+  </si>
+  <si>
+    <t>961-962-963</t>
+  </si>
+  <si>
+    <t>964-965-966</t>
+  </si>
+  <si>
+    <t>967-968-969</t>
+  </si>
+  <si>
+    <t>970-971-972</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1528,8 +2449,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,11 +2793,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AR974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="65" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AC46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC961" sqref="AC961"/>
+      <selection pane="bottomRight" activeCell="A968" sqref="A968:XFD968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,39 +2815,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="103" t="s">
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="107" t="s">
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107" t="s">
+      <c r="K1" s="105"/>
+      <c r="L1" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="103" t="s">
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103" t="s">
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103" t="s">
+      <c r="S1" s="101"/>
+      <c r="T1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="AC1" s="1">
+        <v>324</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="51" t="s">
@@ -1991,9 +2931,30 @@
       <c r="V2" s="53" t="s">
         <v>6</v>
       </c>
+      <c r="AC2" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="91" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="52">
@@ -2035,9 +2996,30 @@
       <c r="W3" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC3" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="94" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="105"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -2077,9 +3059,28 @@
       <c r="W4" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" s="94" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="5" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -2119,9 +3120,28 @@
       <c r="W5" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5" s="94" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="6" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="105"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -2161,9 +3181,26 @@
       <c r="W6" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI6" s="94" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="7" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -2203,9 +3240,26 @@
       <c r="W7" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" s="94" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="8" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="105"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -2245,30 +3299,26 @@
       <c r="W8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="1">
-        <v>324</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>108</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>54</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>18</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>1</v>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH8" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI8" s="94" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="105"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -2308,30 +3358,26 @@
       <c r="W9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC9" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG9" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH9" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI9" s="91" t="s">
-        <v>30</v>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF9" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH9" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI9" s="94" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -2371,32 +3417,28 @@
       <c r="W10" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD10" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE10" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF10" s="94" t="s">
-        <v>36</v>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="95" t="s">
+        <v>53</v>
       </c>
       <c r="AG10" s="94" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AH10" s="94" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AI10" s="94" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AJ10" s="92"/>
       <c r="AK10" s="92"/>
     </row>
     <row r="11" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="105"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -2437,29 +3479,27 @@
         <v>22</v>
       </c>
       <c r="AC11" s="93"/>
-      <c r="AD11" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE11" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" s="94" t="s">
-        <v>47</v>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="AG11" s="94" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AH11" s="94" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AI11" s="94" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AJ11" s="92"/>
       <c r="AK11" s="92"/>
     </row>
     <row r="12" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="105"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -2500,29 +3540,25 @@
         <v>22</v>
       </c>
       <c r="AC12" s="93"/>
-      <c r="AD12" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE12" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF12" s="94" t="s">
-        <v>48</v>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="95" t="s">
+        <v>55</v>
       </c>
       <c r="AG12" s="94" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH12" s="94" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AI12" s="94" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AJ12" s="92"/>
       <c r="AK12" s="92"/>
     </row>
     <row r="13" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="105"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="49">
         <v>11</v>
       </c>
@@ -2564,26 +3600,24 @@
       </c>
       <c r="AC13" s="93"/>
       <c r="AD13" s="93"/>
-      <c r="AE13" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="94" t="s">
-        <v>49</v>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="AG13" s="94" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AH13" s="94" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AI13" s="94" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AJ13" s="92"/>
       <c r="AK13" s="92"/>
     </row>
     <row r="14" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="105"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="49">
         <v>12</v>
       </c>
@@ -2625,26 +3659,24 @@
       </c>
       <c r="AC14" s="93"/>
       <c r="AD14" s="93"/>
-      <c r="AE14" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF14" s="94" t="s">
-        <v>50</v>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="95" t="s">
+        <v>57</v>
       </c>
       <c r="AG14" s="94" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AH14" s="94" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AI14" s="94" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AJ14" s="92"/>
       <c r="AK14" s="92"/>
     </row>
     <row r="15" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="105"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="49">
         <v>13</v>
       </c>
@@ -2686,26 +3718,24 @@
       </c>
       <c r="AC15" s="93"/>
       <c r="AD15" s="93"/>
-      <c r="AE15" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF15" s="94" t="s">
-        <v>51</v>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="97" t="s">
+        <v>59</v>
       </c>
       <c r="AG15" s="94" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AH15" s="94" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AI15" s="94" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AJ15" s="92"/>
       <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="105"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="49">
         <v>14</v>
       </c>
@@ -2747,26 +3777,24 @@
       </c>
       <c r="AC16" s="93"/>
       <c r="AD16" s="93"/>
-      <c r="AE16" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF16" s="95" t="s">
-        <v>52</v>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="97" t="s">
+        <v>60</v>
       </c>
       <c r="AG16" s="94" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="94" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI16" s="94" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AJ16" s="92"/>
       <c r="AK16" s="92"/>
     </row>
     <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="49">
         <v>15</v>
       </c>
@@ -2808,26 +3836,24 @@
       </c>
       <c r="AC17" s="93"/>
       <c r="AD17" s="93"/>
-      <c r="AE17" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF17" s="95" t="s">
-        <v>53</v>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="97" t="s">
+        <v>61</v>
       </c>
       <c r="AG17" s="94" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AH17" s="94" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AI17" s="94" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AJ17" s="92"/>
       <c r="AK17" s="92"/>
     </row>
     <row r="18" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="105"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="49">
         <v>16</v>
       </c>
@@ -2869,26 +3895,24 @@
       </c>
       <c r="AC18" s="93"/>
       <c r="AD18" s="93"/>
-      <c r="AE18" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF18" s="95" t="s">
-        <v>54</v>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="97" t="s">
+        <v>62</v>
       </c>
       <c r="AG18" s="94" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="AH18" s="94" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AI18" s="94" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AJ18" s="92"/>
       <c r="AK18" s="92"/>
     </row>
     <row r="19" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="105"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="49">
         <v>17</v>
       </c>
@@ -2931,23 +3955,23 @@
       <c r="AC19" s="93"/>
       <c r="AD19" s="93"/>
       <c r="AE19" s="93"/>
-      <c r="AF19" s="95" t="s">
-        <v>55</v>
+      <c r="AF19" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="AG19" s="94" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AH19" s="94" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AI19" s="94" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AJ19" s="92"/>
       <c r="AK19" s="92"/>
     </row>
     <row r="20" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="105"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="49">
         <v>18</v>
       </c>
@@ -2990,23 +4014,23 @@
       <c r="AC20" s="93"/>
       <c r="AD20" s="93"/>
       <c r="AE20" s="93"/>
-      <c r="AF20" s="95" t="s">
-        <v>56</v>
+      <c r="AF20" s="97" t="s">
+        <v>64</v>
       </c>
       <c r="AG20" s="94" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AH20" s="94" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AI20" s="94" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AJ20" s="92"/>
       <c r="AK20" s="92"/>
     </row>
     <row r="21" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="105"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="49">
         <v>19</v>
       </c>
@@ -3049,23 +4073,21 @@
       <c r="AC21" s="93"/>
       <c r="AD21" s="93"/>
       <c r="AE21" s="93"/>
-      <c r="AF21" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="94" t="s">
-        <v>75</v>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="95" t="s">
+        <v>79</v>
       </c>
       <c r="AH21" s="94" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AI21" s="94" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AJ21" s="92"/>
       <c r="AK21" s="92"/>
     </row>
     <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="49">
         <v>20</v>
       </c>
@@ -3108,23 +4130,21 @@
       <c r="AC22" s="93"/>
       <c r="AD22" s="93"/>
       <c r="AE22" s="93"/>
-      <c r="AF22" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG22" s="94" t="s">
-        <v>76</v>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="95" t="s">
+        <v>80</v>
       </c>
       <c r="AH22" s="94" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AI22" s="94" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AJ22" s="92"/>
       <c r="AK22" s="92"/>
     </row>
     <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="105"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="49">
         <v>21</v>
       </c>
@@ -3167,23 +4187,21 @@
       <c r="AC23" s="93"/>
       <c r="AD23" s="93"/>
       <c r="AE23" s="93"/>
-      <c r="AF23" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG23" s="94" t="s">
-        <v>77</v>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="95" t="s">
+        <v>81</v>
       </c>
       <c r="AH23" s="94" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AI23" s="94" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AJ23" s="92"/>
       <c r="AK23" s="92"/>
     </row>
     <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="49">
         <v>22</v>
       </c>
@@ -3226,23 +4244,21 @@
       <c r="AC24" s="93"/>
       <c r="AD24" s="93"/>
       <c r="AE24" s="93"/>
-      <c r="AF24" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="94" t="s">
-        <v>78</v>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="95" t="s">
+        <v>82</v>
       </c>
       <c r="AH24" s="94" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AI24" s="94" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AJ24" s="92"/>
       <c r="AK24" s="92"/>
     </row>
     <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="105"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="49">
         <v>23</v>
       </c>
@@ -3285,21 +4301,21 @@
       <c r="AC25" s="93"/>
       <c r="AD25" s="93"/>
       <c r="AE25" s="93"/>
-      <c r="AF25" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG25" s="94" t="s">
-        <v>149</v>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="95" t="s">
+        <v>83</v>
       </c>
       <c r="AH25" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI25" s="94"/>
+        <v>135</v>
+      </c>
+      <c r="AI25" s="94" t="s">
+        <v>298</v>
+      </c>
       <c r="AJ25" s="92"/>
       <c r="AK25" s="92"/>
     </row>
     <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="105"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="49">
         <v>24</v>
       </c>
@@ -3342,21 +4358,21 @@
       <c r="AC26" s="93"/>
       <c r="AD26" s="93"/>
       <c r="AE26" s="93"/>
-      <c r="AF26" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG26" s="94" t="s">
-        <v>150</v>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="95" t="s">
+        <v>84</v>
       </c>
       <c r="AH26" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI26" s="94"/>
+        <v>136</v>
+      </c>
+      <c r="AI26" s="94" t="s">
+        <v>299</v>
+      </c>
       <c r="AJ26" s="92"/>
       <c r="AK26" s="92"/>
     </row>
     <row r="27" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="105"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="49">
         <v>25</v>
       </c>
@@ -3399,21 +4415,21 @@
       <c r="AC27" s="93"/>
       <c r="AD27" s="93"/>
       <c r="AE27" s="93"/>
-      <c r="AF27" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG27" s="94" t="s">
-        <v>151</v>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="95" t="s">
+        <v>85</v>
       </c>
       <c r="AH27" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI27" s="94"/>
+        <v>137</v>
+      </c>
+      <c r="AI27" s="94" t="s">
+        <v>300</v>
+      </c>
       <c r="AJ27" s="92"/>
       <c r="AK27" s="92"/>
     </row>
     <row r="28" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="105"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="49">
         <v>26</v>
       </c>
@@ -3458,17 +4474,19 @@
       <c r="AE28" s="93"/>
       <c r="AF28" s="93"/>
       <c r="AG28" s="95" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI28" s="94"/>
+        <v>138</v>
+      </c>
+      <c r="AI28" s="94" t="s">
+        <v>301</v>
+      </c>
       <c r="AJ28" s="92"/>
       <c r="AK28" s="92"/>
     </row>
     <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="105"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="49">
         <v>27</v>
       </c>
@@ -3513,17 +4531,19 @@
       <c r="AE29" s="93"/>
       <c r="AF29" s="93"/>
       <c r="AG29" s="95" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH29" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI29" s="94"/>
+        <v>139</v>
+      </c>
+      <c r="AI29" s="94" t="s">
+        <v>302</v>
+      </c>
       <c r="AJ29" s="92"/>
       <c r="AK29" s="92"/>
     </row>
     <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="105"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="49">
         <v>28</v>
       </c>
@@ -3568,17 +4588,19 @@
       <c r="AE30" s="93"/>
       <c r="AF30" s="93"/>
       <c r="AG30" s="95" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH30" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI30" s="94"/>
+        <v>140</v>
+      </c>
+      <c r="AI30" s="94" t="s">
+        <v>303</v>
+      </c>
       <c r="AJ30" s="92"/>
       <c r="AK30" s="92"/>
     </row>
     <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="105"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="49">
         <v>29</v>
       </c>
@@ -3623,17 +4645,19 @@
       <c r="AE31" s="93"/>
       <c r="AF31" s="93"/>
       <c r="AG31" s="95" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AH31" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI31" s="94"/>
+        <v>141</v>
+      </c>
+      <c r="AI31" s="94" t="s">
+        <v>304</v>
+      </c>
       <c r="AJ31" s="92"/>
       <c r="AK31" s="92"/>
     </row>
     <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="105"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="49">
         <v>30</v>
       </c>
@@ -3678,17 +4702,19 @@
       <c r="AE32" s="93"/>
       <c r="AF32" s="93"/>
       <c r="AG32" s="95" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AH32" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI32" s="94"/>
+        <v>142</v>
+      </c>
+      <c r="AI32" s="94" t="s">
+        <v>305</v>
+      </c>
       <c r="AJ32" s="92"/>
       <c r="AK32" s="92"/>
     </row>
     <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="105"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="49">
         <v>31</v>
       </c>
@@ -3733,17 +4759,19 @@
       <c r="AE33" s="93"/>
       <c r="AF33" s="93"/>
       <c r="AG33" s="95" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AH33" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI33" s="94"/>
+        <v>143</v>
+      </c>
+      <c r="AI33" s="94" t="s">
+        <v>306</v>
+      </c>
       <c r="AJ33" s="92"/>
       <c r="AK33" s="92"/>
     </row>
     <row r="34" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="105"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="49">
         <v>32</v>
       </c>
@@ -3788,15 +4816,17 @@
       <c r="AE34" s="93"/>
       <c r="AF34" s="93"/>
       <c r="AG34" s="95" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AH34" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI34" s="94"/>
+        <v>144</v>
+      </c>
+      <c r="AI34" s="94" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="35" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="105"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="49">
         <v>33</v>
       </c>
@@ -3836,20 +4866,22 @@
       <c r="W35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="95" t="s">
-        <v>86</v>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="98" t="s">
+        <v>93</v>
       </c>
       <c r="AH35" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI35" s="94"/>
+        <v>145</v>
+      </c>
+      <c r="AI35" s="94" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="36" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="105"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="49">
         <v>34</v>
       </c>
@@ -3889,20 +4921,18 @@
       <c r="W36" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
       <c r="AG36" s="95" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH36" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI36" s="94"/>
+        <v>146</v>
+      </c>
+      <c r="AI36" s="94" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="37" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="105"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="49">
         <v>35</v>
       </c>
@@ -3942,20 +4972,18 @@
       <c r="W37" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
       <c r="AG37" s="95" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AH37" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI37" s="94"/>
+        <v>147</v>
+      </c>
+      <c r="AI37" s="94" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="38" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="105"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="49">
         <v>36</v>
       </c>
@@ -3995,20 +5023,18 @@
       <c r="W38" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC38" s="93"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
       <c r="AG38" s="95" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AH38" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI38" s="94"/>
+        <v>148</v>
+      </c>
+      <c r="AI38" s="94" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="39" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="105"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="49">
         <v>37</v>
       </c>
@@ -4048,20 +5074,18 @@
       <c r="W39" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="93"/>
-      <c r="AF39" s="93"/>
-      <c r="AG39" s="95" t="s">
-        <v>90</v>
+      <c r="AG39" s="97" t="s">
+        <v>97</v>
       </c>
       <c r="AH39" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI39" s="94"/>
+        <v>152</v>
+      </c>
+      <c r="AI39" s="94" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="40" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="105"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="49">
         <v>38</v>
       </c>
@@ -4101,20 +5125,18 @@
       <c r="W40" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="93"/>
-      <c r="AF40" s="93"/>
-      <c r="AG40" s="95" t="s">
-        <v>91</v>
+      <c r="AG40" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="AH40" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI40" s="94"/>
+        <v>153</v>
+      </c>
+      <c r="AI40" s="94" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="41" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="105"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="49">
         <v>39</v>
       </c>
@@ -4154,20 +5176,18 @@
       <c r="W41" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC41" s="93"/>
-      <c r="AD41" s="93"/>
-      <c r="AE41" s="93"/>
-      <c r="AF41" s="93"/>
-      <c r="AG41" s="95" t="s">
-        <v>92</v>
+      <c r="AG41" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="AH41" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI41" s="94"/>
+        <v>154</v>
+      </c>
+      <c r="AI41" s="94" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="42" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="105"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="49">
         <v>40</v>
       </c>
@@ -4207,20 +5227,18 @@
       <c r="W42" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="92"/>
-      <c r="AE42" s="92"/>
-      <c r="AF42" s="92"/>
-      <c r="AG42" s="98" t="s">
-        <v>93</v>
+      <c r="AG42" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="AH42" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI42" s="94"/>
+        <v>155</v>
+      </c>
+      <c r="AI42" s="94" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="43" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="105"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="49">
         <v>41</v>
       </c>
@@ -4260,16 +5278,18 @@
       <c r="W43" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG43" s="95" t="s">
-        <v>94</v>
+      <c r="AG43" s="97" t="s">
+        <v>101</v>
       </c>
       <c r="AH43" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI43" s="94"/>
+        <v>156</v>
+      </c>
+      <c r="AI43" s="94" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="44" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="105"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="49">
         <v>42</v>
       </c>
@@ -4309,16 +5329,18 @@
       <c r="W44" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG44" s="95" t="s">
-        <v>95</v>
+      <c r="AG44" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="AH44" s="94" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI44" s="94"/>
+        <v>157</v>
+      </c>
+      <c r="AI44" s="94" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="45" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="105"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="49">
         <v>43</v>
       </c>
@@ -4358,16 +5380,18 @@
       <c r="W45" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG45" s="95" t="s">
-        <v>96</v>
+      <c r="AG45" s="97" t="s">
+        <v>103</v>
       </c>
       <c r="AH45" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI45" s="94"/>
+        <v>158</v>
+      </c>
+      <c r="AI45" s="94" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="46" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="105"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="49">
         <v>44</v>
       </c>
@@ -4408,15 +5432,17 @@
         <v>22</v>
       </c>
       <c r="AG46" s="97" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AH46" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI46" s="94"/>
+        <v>159</v>
+      </c>
+      <c r="AI46" s="94" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="47" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="105"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="49">
         <v>45</v>
       </c>
@@ -4457,15 +5483,17 @@
         <v>22</v>
       </c>
       <c r="AG47" s="97" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AH47" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI47" s="94"/>
+        <v>160</v>
+      </c>
+      <c r="AI47" s="94" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="48" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="105"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="49">
         <v>46</v>
       </c>
@@ -4506,15 +5534,17 @@
         <v>22</v>
       </c>
       <c r="AG48" s="97" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AH48" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI48" s="94"/>
+        <v>161</v>
+      </c>
+      <c r="AI48" s="94" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="49" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="105"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="49">
         <v>47</v>
       </c>
@@ -4555,15 +5585,17 @@
         <v>22</v>
       </c>
       <c r="AG49" s="97" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AH49" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI49" s="94"/>
+        <v>162</v>
+      </c>
+      <c r="AI49" s="94" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="50" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="105"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="49">
         <v>48</v>
       </c>
@@ -4604,15 +5636,17 @@
         <v>22</v>
       </c>
       <c r="AG50" s="97" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AH50" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI50" s="94"/>
+        <v>163</v>
+      </c>
+      <c r="AI50" s="94" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="51" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="105"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="49">
         <v>49</v>
       </c>
@@ -4653,15 +5687,17 @@
         <v>22</v>
       </c>
       <c r="AG51" s="97" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AH51" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI51" s="94"/>
+        <v>164</v>
+      </c>
+      <c r="AI51" s="94" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="52" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="105"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="49">
         <v>50</v>
       </c>
@@ -4702,15 +5738,17 @@
         <v>22</v>
       </c>
       <c r="AG52" s="97" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AH52" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI52" s="94"/>
+        <v>165</v>
+      </c>
+      <c r="AI52" s="94" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="53" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="105"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="49">
         <v>51</v>
       </c>
@@ -4751,15 +5789,17 @@
         <v>22</v>
       </c>
       <c r="AG53" s="97" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH53" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI53" s="94"/>
+        <v>166</v>
+      </c>
+      <c r="AI53" s="94" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="54" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="105"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="49">
         <v>52</v>
       </c>
@@ -4800,15 +5840,17 @@
         <v>22</v>
       </c>
       <c r="AG54" s="97" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH54" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI54" s="94"/>
+        <v>167</v>
+      </c>
+      <c r="AI54" s="94" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="55" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="105"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="49">
         <v>53</v>
       </c>
@@ -4849,15 +5891,17 @@
         <v>22</v>
       </c>
       <c r="AG55" s="97" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AH55" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI55" s="94"/>
+        <v>168</v>
+      </c>
+      <c r="AI55" s="94" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="56" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="105"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="49">
         <v>54</v>
       </c>
@@ -4898,15 +5942,17 @@
         <v>22</v>
       </c>
       <c r="AG56" s="97" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="AH56" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI56" s="94"/>
+        <v>169</v>
+      </c>
+      <c r="AI56" s="94" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="57" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="105"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="49">
         <v>55</v>
       </c>
@@ -4946,16 +5992,15 @@
       <c r="W57" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG57" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH57" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI57" s="94"/>
+      <c r="AH57" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI57" s="94" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="58" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="105"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="49">
         <v>56</v>
       </c>
@@ -4995,16 +6040,15 @@
       <c r="W58" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG58" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH58" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI58" s="94"/>
+      <c r="AH58" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI58" s="94" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="59" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="105"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="49">
         <v>57</v>
       </c>
@@ -5044,16 +6088,15 @@
       <c r="W59" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG59" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH59" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI59" s="94"/>
+      <c r="AH59" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI59" s="94" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="60" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="105"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="49">
         <v>58</v>
       </c>
@@ -5093,16 +6136,15 @@
       <c r="W60" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG60" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH60" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI60" s="94"/>
+      <c r="AH60" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI60" s="94" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="61" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="105"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="49">
         <v>59</v>
       </c>
@@ -5142,16 +6184,15 @@
       <c r="W61" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG61" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH61" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI61" s="94"/>
+      <c r="AH61" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI61" s="94" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="62" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="105"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="49">
         <v>60</v>
       </c>
@@ -5191,16 +6232,15 @@
       <c r="W62" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG62" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH62" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI62" s="94"/>
+      <c r="AH62" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI62" s="94" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="63" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="105"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="49">
         <v>61</v>
       </c>
@@ -5240,16 +6280,15 @@
       <c r="W63" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG63" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH63" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI63" s="94"/>
+      <c r="AH63" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI63" s="94" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="64" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="105"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="49">
         <v>62</v>
       </c>
@@ -5290,12 +6329,14 @@
         <v>22</v>
       </c>
       <c r="AH64" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI64" s="94"/>
+        <v>178</v>
+      </c>
+      <c r="AI64" s="94" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="65" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="105"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="49">
         <v>63</v>
       </c>
@@ -5336,12 +6377,14 @@
         <v>22</v>
       </c>
       <c r="AH65" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI65" s="94"/>
+        <v>179</v>
+      </c>
+      <c r="AI65" s="94" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="66" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="105"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="49">
         <v>64</v>
       </c>
@@ -5382,12 +6425,14 @@
         <v>22</v>
       </c>
       <c r="AH66" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI66" s="94"/>
+        <v>180</v>
+      </c>
+      <c r="AI66" s="94" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="67" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="105"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="49">
         <v>65</v>
       </c>
@@ -5428,12 +6473,14 @@
         <v>22</v>
       </c>
       <c r="AH67" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI67" s="94"/>
+        <v>181</v>
+      </c>
+      <c r="AI67" s="94" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="68" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="105"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="49">
         <v>66</v>
       </c>
@@ -5474,12 +6521,14 @@
         <v>22</v>
       </c>
       <c r="AH68" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI68" s="94"/>
+        <v>182</v>
+      </c>
+      <c r="AI68" s="94" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="69" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="105"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="49">
         <v>67</v>
       </c>
@@ -5520,12 +6569,14 @@
         <v>22</v>
       </c>
       <c r="AH69" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI69" s="94"/>
+        <v>183</v>
+      </c>
+      <c r="AI69" s="94" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="70" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="105"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="49">
         <v>68</v>
       </c>
@@ -5566,12 +6617,14 @@
         <v>22</v>
       </c>
       <c r="AH70" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI70" s="94"/>
+        <v>184</v>
+      </c>
+      <c r="AI70" s="94" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="71" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="105"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="49">
         <v>69</v>
       </c>
@@ -5611,13 +6664,15 @@
       <c r="W71" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH71" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI71" s="94"/>
+      <c r="AH71" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI71" s="94" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="72" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="105"/>
+      <c r="B72" s="103"/>
       <c r="C72" s="49">
         <v>70</v>
       </c>
@@ -5657,13 +6712,15 @@
       <c r="W72" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH72" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI72" s="94"/>
+      <c r="AH72" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI72" s="94" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="73" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="105"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="49">
         <v>71</v>
       </c>
@@ -5703,13 +6760,15 @@
       <c r="W73" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH73" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI73" s="94"/>
+      <c r="AH73" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI73" s="94" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="74" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="105"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="49">
         <v>72</v>
       </c>
@@ -5749,13 +6808,15 @@
       <c r="W74" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH74" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI74" s="94"/>
+      <c r="AH74" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI74" s="94" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="75" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="105"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="49">
         <v>73</v>
       </c>
@@ -5795,13 +6856,15 @@
       <c r="W75" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH75" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI75" s="94"/>
+      <c r="AH75" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI75" s="94" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="76" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="105"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="49">
         <v>74</v>
       </c>
@@ -5841,13 +6904,15 @@
       <c r="W76" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH76" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI76" s="94"/>
+      <c r="AH76" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI76" s="94" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="77" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="105"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="49">
         <v>75</v>
       </c>
@@ -5887,13 +6952,15 @@
       <c r="W77" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH77" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI77" s="94"/>
+      <c r="AH77" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI77" s="94" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="78" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="105"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="49">
         <v>76</v>
       </c>
@@ -5934,12 +7001,14 @@
         <v>22</v>
       </c>
       <c r="AH78" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI78" s="94"/>
+        <v>192</v>
+      </c>
+      <c r="AI78" s="94" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="79" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="105"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="49">
         <v>77</v>
       </c>
@@ -5980,12 +7049,14 @@
         <v>22</v>
       </c>
       <c r="AH79" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI79" s="94"/>
+        <v>193</v>
+      </c>
+      <c r="AI79" s="94" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="80" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="105"/>
+      <c r="B80" s="103"/>
       <c r="C80" s="49">
         <v>78</v>
       </c>
@@ -6026,12 +7097,14 @@
         <v>22</v>
       </c>
       <c r="AH80" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI80" s="94"/>
+        <v>194</v>
+      </c>
+      <c r="AI80" s="94" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="81" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="105"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="49">
         <v>79</v>
       </c>
@@ -6072,12 +7145,14 @@
         <v>22</v>
       </c>
       <c r="AH81" s="98" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI81" s="94"/>
+        <v>195</v>
+      </c>
+      <c r="AI81" s="94" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="82" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="105"/>
+      <c r="B82" s="103"/>
       <c r="C82" s="49">
         <v>80</v>
       </c>
@@ -6118,12 +7193,14 @@
         <v>22</v>
       </c>
       <c r="AH82" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI82" s="95"/>
+        <v>196</v>
+      </c>
+      <c r="AI82" s="94" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="83" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="105"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="49">
         <v>81</v>
       </c>
@@ -6164,12 +7241,14 @@
         <v>22</v>
       </c>
       <c r="AH83" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI83" s="95"/>
+        <v>197</v>
+      </c>
+      <c r="AI83" s="94" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="84" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="105"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="49">
         <v>82</v>
       </c>
@@ -6210,12 +7289,14 @@
         <v>22</v>
       </c>
       <c r="AH84" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI84" s="95"/>
+        <v>198</v>
+      </c>
+      <c r="AI84" s="94" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="85" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="105"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="49">
         <v>83</v>
       </c>
@@ -6256,12 +7337,14 @@
         <v>22</v>
       </c>
       <c r="AH85" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI85" s="95"/>
+        <v>199</v>
+      </c>
+      <c r="AI85" s="94" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="86" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="105"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="49">
         <v>84</v>
       </c>
@@ -6302,12 +7385,14 @@
         <v>22</v>
       </c>
       <c r="AH86" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI86" s="95"/>
+        <v>200</v>
+      </c>
+      <c r="AI86" s="94" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="87" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="105"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="49">
         <v>85</v>
       </c>
@@ -6348,12 +7433,14 @@
         <v>22</v>
       </c>
       <c r="AH87" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI87" s="95"/>
+        <v>201</v>
+      </c>
+      <c r="AI87" s="94" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="88" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="105"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="49">
         <v>86</v>
       </c>
@@ -6394,12 +7481,14 @@
         <v>22</v>
       </c>
       <c r="AH88" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI88" s="95"/>
+        <v>202</v>
+      </c>
+      <c r="AI88" s="94" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="89" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="105"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="49">
         <v>87</v>
       </c>
@@ -6440,12 +7529,14 @@
         <v>22</v>
       </c>
       <c r="AH89" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI89" s="95"/>
+        <v>203</v>
+      </c>
+      <c r="AI89" s="94" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="90" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="105"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="49">
         <v>88</v>
       </c>
@@ -6486,12 +7577,14 @@
         <v>22</v>
       </c>
       <c r="AH90" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI90" s="95"/>
+        <v>204</v>
+      </c>
+      <c r="AI90" s="94" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="91" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="105"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="49">
         <v>89</v>
       </c>
@@ -6532,12 +7625,14 @@
         <v>22</v>
       </c>
       <c r="AH91" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI91" s="95"/>
+        <v>205</v>
+      </c>
+      <c r="AI91" s="94" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="92" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="105"/>
+      <c r="B92" s="103"/>
       <c r="C92" s="49">
         <v>90</v>
       </c>
@@ -6578,12 +7673,14 @@
         <v>22</v>
       </c>
       <c r="AH92" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI92" s="95"/>
+        <v>206</v>
+      </c>
+      <c r="AI92" s="94" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="93" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="105"/>
+      <c r="B93" s="103"/>
       <c r="C93" s="49">
         <v>91</v>
       </c>
@@ -6624,12 +7721,14 @@
         <v>22</v>
       </c>
       <c r="AH93" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI93" s="95"/>
+        <v>207</v>
+      </c>
+      <c r="AI93" s="94" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="94" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="105"/>
+      <c r="B94" s="103"/>
       <c r="C94" s="49">
         <v>92</v>
       </c>
@@ -6670,12 +7769,14 @@
         <v>22</v>
       </c>
       <c r="AH94" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI94" s="95"/>
+        <v>208</v>
+      </c>
+      <c r="AI94" s="94" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="95" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="105"/>
+      <c r="B95" s="103"/>
       <c r="C95" s="49">
         <v>93</v>
       </c>
@@ -6716,12 +7817,14 @@
         <v>22</v>
       </c>
       <c r="AH95" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI95" s="95"/>
+        <v>209</v>
+      </c>
+      <c r="AI95" s="94" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="96" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="105"/>
+      <c r="B96" s="103"/>
       <c r="C96" s="49">
         <v>94</v>
       </c>
@@ -6762,12 +7865,14 @@
         <v>22</v>
       </c>
       <c r="AH96" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI96" s="98"/>
+        <v>210</v>
+      </c>
+      <c r="AI96" s="94" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="97" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="105"/>
+      <c r="B97" s="103"/>
       <c r="C97" s="49">
         <v>95</v>
       </c>
@@ -6808,12 +7913,14 @@
         <v>22</v>
       </c>
       <c r="AH97" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI97" s="99"/>
+        <v>211</v>
+      </c>
+      <c r="AI97" s="94" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="98" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="105"/>
+      <c r="B98" s="103"/>
       <c r="C98" s="49">
         <v>96</v>
       </c>
@@ -6854,12 +7961,14 @@
         <v>22</v>
       </c>
       <c r="AH98" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI98" s="99"/>
+        <v>212</v>
+      </c>
+      <c r="AI98" s="94" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="99" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="105"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="49">
         <v>97</v>
       </c>
@@ -6900,12 +8009,14 @@
         <v>22</v>
       </c>
       <c r="AH99" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI99" s="99"/>
+        <v>213</v>
+      </c>
+      <c r="AI99" s="94" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="100" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="105"/>
+      <c r="B100" s="103"/>
       <c r="C100" s="49">
         <v>98</v>
       </c>
@@ -6946,12 +8057,14 @@
         <v>22</v>
       </c>
       <c r="AH100" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI100" s="95"/>
+        <v>214</v>
+      </c>
+      <c r="AI100" s="94" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="101" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="105"/>
+      <c r="B101" s="103"/>
       <c r="C101" s="49">
         <v>99</v>
       </c>
@@ -6992,12 +8105,14 @@
         <v>22</v>
       </c>
       <c r="AH101" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI101" s="95"/>
+        <v>215</v>
+      </c>
+      <c r="AI101" s="94" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="102" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="105"/>
+      <c r="B102" s="103"/>
       <c r="C102" s="49">
         <v>100</v>
       </c>
@@ -7038,13 +8153,15 @@
         <v>22</v>
       </c>
       <c r="AH102" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI102" s="95"/>
+        <v>216</v>
+      </c>
+      <c r="AI102" s="94" t="s">
+        <v>375</v>
+      </c>
       <c r="AQ102" s="51"/>
     </row>
     <row r="103" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="105"/>
+      <c r="B103" s="103"/>
       <c r="C103" s="49">
         <v>101</v>
       </c>
@@ -7085,15 +8202,17 @@
         <v>22</v>
       </c>
       <c r="AH103" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI103" s="95"/>
+        <v>217</v>
+      </c>
+      <c r="AI103" s="94" t="s">
+        <v>376</v>
+      </c>
       <c r="AN103" s="51"/>
       <c r="AO103" s="51"/>
       <c r="AP103" s="51"/>
     </row>
     <row r="104" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="105"/>
+      <c r="B104" s="103"/>
       <c r="C104" s="49">
         <v>102</v>
       </c>
@@ -7133,16 +8252,23 @@
       <c r="W104" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC104" s="51"/>
+      <c r="AD104" s="51"/>
+      <c r="AE104" s="51"/>
+      <c r="AF104" s="51"/>
+      <c r="AG104" s="51"/>
       <c r="AH104" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI104" s="95"/>
+        <v>218</v>
+      </c>
+      <c r="AI104" s="94" t="s">
+        <v>377</v>
+      </c>
       <c r="AN104" s="51"/>
       <c r="AO104" s="51"/>
       <c r="AP104" s="51"/>
     </row>
     <row r="105" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="105"/>
+      <c r="B105" s="103"/>
       <c r="C105" s="49">
         <v>103</v>
       </c>
@@ -7182,16 +8308,23 @@
       <c r="W105" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC105" s="51"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="51"/>
+      <c r="AG105" s="51"/>
       <c r="AH105" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI105" s="95"/>
+        <v>219</v>
+      </c>
+      <c r="AI105" s="94" t="s">
+        <v>378</v>
+      </c>
       <c r="AN105" s="51"/>
       <c r="AO105" s="51"/>
       <c r="AP105" s="51"/>
     </row>
     <row r="106" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="105"/>
+      <c r="B106" s="103"/>
       <c r="C106" s="49">
         <v>104</v>
       </c>
@@ -7231,10 +8364,17 @@
       <c r="W106" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC106" s="51"/>
+      <c r="AD106" s="51"/>
+      <c r="AE106" s="51"/>
+      <c r="AF106" s="51"/>
+      <c r="AG106" s="51"/>
       <c r="AH106" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI106" s="95"/>
+        <v>220</v>
+      </c>
+      <c r="AI106" s="94" t="s">
+        <v>379</v>
+      </c>
       <c r="AN106" s="51"/>
       <c r="AO106" s="51"/>
       <c r="AP106" s="51"/>
@@ -7242,7 +8382,7 @@
       <c r="AR106" s="51"/>
     </row>
     <row r="107" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="105"/>
+      <c r="B107" s="103"/>
       <c r="C107" s="49">
         <v>105</v>
       </c>
@@ -7283,9 +8423,11 @@
         <v>22</v>
       </c>
       <c r="AH107" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI107" s="95"/>
+        <v>221</v>
+      </c>
+      <c r="AI107" s="94" t="s">
+        <v>380</v>
+      </c>
       <c r="AN107" s="51"/>
       <c r="AO107" s="51"/>
       <c r="AP107" s="51"/>
@@ -7293,7 +8435,7 @@
       <c r="AR107" s="51"/>
     </row>
     <row r="108" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="105"/>
+      <c r="B108" s="103"/>
       <c r="C108" s="49">
         <v>106</v>
       </c>
@@ -7334,14 +8476,16 @@
         <v>22</v>
       </c>
       <c r="AH108" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI108" s="95"/>
+        <v>222</v>
+      </c>
+      <c r="AI108" s="94" t="s">
+        <v>381</v>
+      </c>
       <c r="AQ108" s="51"/>
       <c r="AR108" s="51"/>
     </row>
     <row r="109" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="105"/>
+      <c r="B109" s="103"/>
       <c r="C109" s="49">
         <v>107</v>
       </c>
@@ -7382,13 +8526,15 @@
         <v>22</v>
       </c>
       <c r="AH109" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI109" s="95"/>
+        <v>223</v>
+      </c>
+      <c r="AI109" s="94" t="s">
+        <v>382</v>
+      </c>
       <c r="AQ109" s="51"/>
     </row>
     <row r="110" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="106"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="49">
         <v>108</v>
       </c>
@@ -7428,14 +8574,21 @@
       <c r="W110" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH110" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI110" s="95"/>
+      <c r="AC110" s="51"/>
+      <c r="AD110" s="51"/>
+      <c r="AE110" s="51"/>
+      <c r="AF110" s="51"/>
+      <c r="AG110" s="51"/>
+      <c r="AH110" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI110" s="94" t="s">
+        <v>383</v>
+      </c>
       <c r="AQ110" s="51"/>
     </row>
     <row r="111" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="104" t="s">
+      <c r="B111" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="49">
@@ -7477,10 +8630,12 @@
       <c r="W111" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH111" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI111" s="95"/>
+      <c r="AH111" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI111" s="95" t="s">
+        <v>384</v>
+      </c>
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
@@ -7488,7 +8643,7 @@
       <c r="AR111" s="1"/>
     </row>
     <row r="112" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="105"/>
+      <c r="B112" s="103"/>
       <c r="C112" s="49">
         <v>110</v>
       </c>
@@ -7528,14 +8683,16 @@
       <c r="W112" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH112" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI112" s="95"/>
+      <c r="AH112" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI112" s="95" t="s">
+        <v>386</v>
+      </c>
       <c r="AQ112" s="1"/>
     </row>
     <row r="113" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="105"/>
+      <c r="B113" s="103"/>
       <c r="C113" s="49">
         <v>111</v>
       </c>
@@ -7575,14 +8732,16 @@
       <c r="W113" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH113" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI113" s="95"/>
+      <c r="AH113" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI113" s="95" t="s">
+        <v>387</v>
+      </c>
       <c r="AQ113" s="1"/>
     </row>
     <row r="114" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="105"/>
+      <c r="B114" s="103"/>
       <c r="C114" s="49">
         <v>112</v>
       </c>
@@ -7622,17 +8781,24 @@
       <c r="W114" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH114" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI114" s="98"/>
+      <c r="AC114" s="51"/>
+      <c r="AD114" s="51"/>
+      <c r="AE114" s="51"/>
+      <c r="AF114" s="51"/>
+      <c r="AG114" s="51"/>
+      <c r="AH114" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI114" s="95" t="s">
+        <v>388</v>
+      </c>
       <c r="AN114" s="51"/>
       <c r="AO114" s="51"/>
       <c r="AP114" s="51"/>
       <c r="AR114" s="51"/>
     </row>
     <row r="115" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="105"/>
+      <c r="B115" s="103"/>
       <c r="C115" s="49">
         <v>113</v>
       </c>
@@ -7672,15 +8838,17 @@
       <c r="W115" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH115" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI115" s="99"/>
+      <c r="AH115" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI115" s="95" t="s">
+        <v>389</v>
+      </c>
       <c r="AQ115" s="51"/>
       <c r="AR115" s="51"/>
     </row>
     <row r="116" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="105"/>
+      <c r="B116" s="103"/>
       <c r="C116" s="49">
         <v>114</v>
       </c>
@@ -7720,15 +8888,17 @@
       <c r="W116" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH116" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI116" s="99"/>
+      <c r="AH116" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI116" s="95" t="s">
+        <v>390</v>
+      </c>
       <c r="AQ116" s="51"/>
       <c r="AR116" s="51"/>
     </row>
     <row r="117" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="105"/>
+      <c r="B117" s="103"/>
       <c r="C117" s="49">
         <v>115</v>
       </c>
@@ -7768,17 +8938,24 @@
       <c r="W117" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH117" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI117" s="99"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI117" s="95" t="s">
+        <v>391</v>
+      </c>
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
       <c r="AR117" s="1"/>
     </row>
     <row r="118" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="105"/>
+      <c r="B118" s="103"/>
       <c r="C118" s="49">
         <v>116</v>
       </c>
@@ -7818,10 +8995,17 @@
       <c r="W118" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
       <c r="AH118" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI118" s="95"/>
+        <v>232</v>
+      </c>
+      <c r="AI118" s="95" t="s">
+        <v>392</v>
+      </c>
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
@@ -7829,7 +9013,7 @@
       <c r="AR118" s="1"/>
     </row>
     <row r="119" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="105"/>
+      <c r="B119" s="103"/>
       <c r="C119" s="49">
         <v>117</v>
       </c>
@@ -7870,17 +9054,18 @@
         <v>22</v>
       </c>
       <c r="AH119" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI119" s="95"/>
+        <v>233</v>
+      </c>
+      <c r="AI119" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
-      <c r="AP119" s="1"/>
-      <c r="AQ119" s="1"/>
-      <c r="AR119" s="1"/>
     </row>
     <row r="120" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="105"/>
+      <c r="B120" s="103"/>
       <c r="C120" s="49">
         <v>118</v>
       </c>
@@ -7921,17 +9106,19 @@
         <v>22</v>
       </c>
       <c r="AH120" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI120" s="95"/>
+        <v>234</v>
+      </c>
+      <c r="AI120" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM120" s="1"/>
       <c r="AN120" s="1"/>
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
-      <c r="AR120" s="1"/>
     </row>
     <row r="121" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="105"/>
+      <c r="B121" s="103"/>
       <c r="C121" s="49">
         <v>119</v>
       </c>
@@ -7972,16 +9159,18 @@
         <v>22</v>
       </c>
       <c r="AH121" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI121" s="95"/>
+        <v>235</v>
+      </c>
+      <c r="AI121" s="95" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM121" s="1"/>
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
-      <c r="AQ121" s="1"/>
     </row>
     <row r="122" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="105"/>
+      <c r="B122" s="103"/>
       <c r="C122" s="49">
         <v>120</v>
       </c>
@@ -8022,13 +9211,15 @@
         <v>22</v>
       </c>
       <c r="AH122" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI122" s="95"/>
-      <c r="AR122" s="51"/>
+        <v>236</v>
+      </c>
+      <c r="AI122" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO122" s="51"/>
     </row>
     <row r="123" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="105"/>
+      <c r="B123" s="103"/>
       <c r="C123" s="49">
         <v>121</v>
       </c>
@@ -8069,13 +9260,15 @@
         <v>22</v>
       </c>
       <c r="AH123" s="97" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI123" s="95"/>
-      <c r="AR123" s="51"/>
+        <v>237</v>
+      </c>
+      <c r="AI123" s="95" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO123" s="51"/>
     </row>
     <row r="124" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="105"/>
+      <c r="B124" s="103"/>
       <c r="C124" s="49">
         <v>122</v>
       </c>
@@ -8116,12 +9309,14 @@
         <v>22</v>
       </c>
       <c r="AH124" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI124" s="95"/>
+        <v>238</v>
+      </c>
+      <c r="AI124" s="95" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="125" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="105"/>
+      <c r="B125" s="103"/>
       <c r="C125" s="49">
         <v>123</v>
       </c>
@@ -8162,12 +9357,14 @@
         <v>22</v>
       </c>
       <c r="AH125" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI125" s="95"/>
+        <v>239</v>
+      </c>
+      <c r="AI125" s="98" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="126" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="105"/>
+      <c r="B126" s="103"/>
       <c r="C126" s="49">
         <v>124</v>
       </c>
@@ -8207,13 +9404,20 @@
       <c r="W126" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
       <c r="AH126" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI126" s="95"/>
+        <v>240</v>
+      </c>
+      <c r="AI126" s="98" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="127" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="105"/>
+      <c r="B127" s="103"/>
       <c r="C127" s="49">
         <v>125</v>
       </c>
@@ -8253,13 +9457,20 @@
       <c r="W127" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
       <c r="AH127" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI127" s="95"/>
+        <v>241</v>
+      </c>
+      <c r="AI127" s="98" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="128" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="105"/>
+      <c r="B128" s="103"/>
       <c r="C128" s="49">
         <v>126</v>
       </c>
@@ -8299,13 +9510,20 @@
       <c r="W128" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
       <c r="AH128" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI128" s="95"/>
+        <v>242</v>
+      </c>
+      <c r="AI128" s="98" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="129" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="105"/>
+      <c r="B129" s="103"/>
       <c r="C129" s="49">
         <v>127</v>
       </c>
@@ -8346,12 +9564,14 @@
         <v>22</v>
       </c>
       <c r="AH129" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI129" s="95"/>
+        <v>243</v>
+      </c>
+      <c r="AI129" s="98" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="130" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="105"/>
+      <c r="B130" s="103"/>
       <c r="C130" s="49">
         <v>128</v>
       </c>
@@ -8392,12 +9612,14 @@
         <v>22</v>
       </c>
       <c r="AH130" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI130" s="95"/>
+        <v>244</v>
+      </c>
+      <c r="AI130" s="98" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="131" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="105"/>
+      <c r="B131" s="103"/>
       <c r="C131" s="49">
         <v>129</v>
       </c>
@@ -8438,12 +9660,14 @@
         <v>22</v>
       </c>
       <c r="AH131" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI131" s="95"/>
+        <v>245</v>
+      </c>
+      <c r="AI131" s="98" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="132" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="105"/>
+      <c r="B132" s="103"/>
       <c r="C132" s="49">
         <v>130</v>
       </c>
@@ -8484,12 +9708,14 @@
         <v>22</v>
       </c>
       <c r="AH132" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI132" s="98"/>
+        <v>246</v>
+      </c>
+      <c r="AI132" s="98" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="133" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="105"/>
+      <c r="B133" s="103"/>
       <c r="C133" s="49">
         <v>131</v>
       </c>
@@ -8530,12 +9756,14 @@
         <v>22</v>
       </c>
       <c r="AH133" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI133" s="99"/>
+        <v>247</v>
+      </c>
+      <c r="AI133" s="98" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="134" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="105"/>
+      <c r="B134" s="103"/>
       <c r="C134" s="49">
         <v>132</v>
       </c>
@@ -8576,12 +9804,14 @@
         <v>22</v>
       </c>
       <c r="AH134" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI134" s="99"/>
+        <v>248</v>
+      </c>
+      <c r="AI134" s="98" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="135" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="105"/>
+      <c r="B135" s="103"/>
       <c r="C135" s="49">
         <v>133</v>
       </c>
@@ -8622,12 +9852,14 @@
         <v>22</v>
       </c>
       <c r="AH135" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI135" s="99"/>
+        <v>249</v>
+      </c>
+      <c r="AI135" s="98" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="136" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="105"/>
+      <c r="B136" s="103"/>
       <c r="C136" s="49">
         <v>134</v>
       </c>
@@ -8668,12 +9900,14 @@
         <v>22</v>
       </c>
       <c r="AH136" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI136" s="95"/>
+        <v>250</v>
+      </c>
+      <c r="AI136" s="98" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="137" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="105"/>
+      <c r="B137" s="103"/>
       <c r="C137" s="49">
         <v>135</v>
       </c>
@@ -8714,12 +9948,14 @@
         <v>22</v>
       </c>
       <c r="AH137" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI137" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="AI137" s="98" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="138" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="105"/>
+      <c r="B138" s="103"/>
       <c r="C138" s="49">
         <v>136</v>
       </c>
@@ -8760,12 +9996,14 @@
         <v>22</v>
       </c>
       <c r="AH138" s="97" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI138" s="95"/>
+        <v>252</v>
+      </c>
+      <c r="AI138" s="98" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="139" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="105"/>
+      <c r="B139" s="103"/>
       <c r="C139" s="49">
         <v>137</v>
       </c>
@@ -8806,12 +10044,14 @@
         <v>22</v>
       </c>
       <c r="AH139" s="97" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI139" s="95"/>
+        <v>253</v>
+      </c>
+      <c r="AI139" s="98" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="140" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="105"/>
+      <c r="B140" s="103"/>
       <c r="C140" s="49">
         <v>138</v>
       </c>
@@ -8852,12 +10092,14 @@
         <v>22</v>
       </c>
       <c r="AH140" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI140" s="95"/>
+        <v>254</v>
+      </c>
+      <c r="AI140" s="98" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="141" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="105"/>
+      <c r="B141" s="103"/>
       <c r="C141" s="49">
         <v>139</v>
       </c>
@@ -8898,12 +10140,14 @@
         <v>22</v>
       </c>
       <c r="AH141" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI141" s="95"/>
+        <v>255</v>
+      </c>
+      <c r="AI141" s="98" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="142" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="105"/>
+      <c r="B142" s="103"/>
       <c r="C142" s="49">
         <v>140</v>
       </c>
@@ -8944,12 +10188,14 @@
         <v>22</v>
       </c>
       <c r="AH142" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI142" s="95"/>
+        <v>256</v>
+      </c>
+      <c r="AI142" s="98" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="143" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="105"/>
+      <c r="B143" s="103"/>
       <c r="C143" s="49">
         <v>141</v>
       </c>
@@ -8990,12 +10236,14 @@
         <v>22</v>
       </c>
       <c r="AH143" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI143" s="95"/>
+        <v>257</v>
+      </c>
+      <c r="AI143" s="98" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="144" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="105"/>
+      <c r="B144" s="103"/>
       <c r="C144" s="49">
         <v>142</v>
       </c>
@@ -9036,12 +10284,14 @@
         <v>22</v>
       </c>
       <c r="AH144" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI144" s="95"/>
+        <v>258</v>
+      </c>
+      <c r="AI144" s="98" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="145" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="105"/>
+      <c r="B145" s="103"/>
       <c r="C145" s="49">
         <v>143</v>
       </c>
@@ -9082,12 +10332,14 @@
         <v>22</v>
       </c>
       <c r="AH145" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI145" s="95"/>
+        <v>259</v>
+      </c>
+      <c r="AI145" s="98" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="146" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="105"/>
+      <c r="B146" s="103"/>
       <c r="C146" s="49">
         <v>144</v>
       </c>
@@ -9128,12 +10380,14 @@
         <v>22</v>
       </c>
       <c r="AH146" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI146" s="95"/>
+        <v>260</v>
+      </c>
+      <c r="AI146" s="98" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="147" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="105"/>
+      <c r="B147" s="103"/>
       <c r="C147" s="49">
         <v>145</v>
       </c>
@@ -9174,12 +10428,14 @@
         <v>22</v>
       </c>
       <c r="AH147" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI147" s="95"/>
+        <v>261</v>
+      </c>
+      <c r="AI147" s="98" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="148" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="105"/>
+      <c r="B148" s="103"/>
       <c r="C148" s="49">
         <v>146</v>
       </c>
@@ -9220,12 +10476,14 @@
         <v>22</v>
       </c>
       <c r="AH148" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI148" s="95"/>
+        <v>262</v>
+      </c>
+      <c r="AI148" s="98" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="149" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="105"/>
+      <c r="B149" s="103"/>
       <c r="C149" s="49">
         <v>147</v>
       </c>
@@ -9266,12 +10524,14 @@
         <v>22</v>
       </c>
       <c r="AH149" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI149" s="95"/>
+        <v>263</v>
+      </c>
+      <c r="AI149" s="98" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="150" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="105"/>
+      <c r="B150" s="103"/>
       <c r="C150" s="49">
         <v>148</v>
       </c>
@@ -9312,12 +10572,14 @@
         <v>22</v>
       </c>
       <c r="AH150" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI150" s="98"/>
+        <v>264</v>
+      </c>
+      <c r="AI150" s="98" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="151" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="105"/>
+      <c r="B151" s="103"/>
       <c r="C151" s="49">
         <v>149</v>
       </c>
@@ -9358,12 +10620,14 @@
         <v>22</v>
       </c>
       <c r="AH151" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI151" s="99"/>
+        <v>265</v>
+      </c>
+      <c r="AI151" s="98" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="152" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="105"/>
+      <c r="B152" s="103"/>
       <c r="C152" s="49">
         <v>150</v>
       </c>
@@ -9404,12 +10668,14 @@
         <v>22</v>
       </c>
       <c r="AH152" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI152" s="99"/>
+        <v>266</v>
+      </c>
+      <c r="AI152" s="98" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="153" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="105"/>
+      <c r="B153" s="103"/>
       <c r="C153" s="49">
         <v>151</v>
       </c>
@@ -9450,12 +10716,14 @@
         <v>22</v>
       </c>
       <c r="AH153" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI153" s="99"/>
+        <v>267</v>
+      </c>
+      <c r="AI153" s="98" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="154" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="105"/>
+      <c r="B154" s="103"/>
       <c r="C154" s="49">
         <v>152</v>
       </c>
@@ -9496,12 +10764,14 @@
         <v>22</v>
       </c>
       <c r="AH154" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI154" s="100"/>
+        <v>268</v>
+      </c>
+      <c r="AI154" s="98" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="155" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="105"/>
+      <c r="B155" s="103"/>
       <c r="C155" s="49">
         <v>153</v>
       </c>
@@ -9542,12 +10812,14 @@
         <v>22</v>
       </c>
       <c r="AH155" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI155" s="100"/>
+        <v>269</v>
+      </c>
+      <c r="AI155" s="98" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="156" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="105"/>
+      <c r="B156" s="103"/>
       <c r="C156" s="49">
         <v>154</v>
       </c>
@@ -9588,12 +10860,14 @@
         <v>22</v>
       </c>
       <c r="AH156" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI156" s="100"/>
+        <v>270</v>
+      </c>
+      <c r="AI156" s="98" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="157" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="105"/>
+      <c r="B157" s="103"/>
       <c r="C157" s="49">
         <v>155</v>
       </c>
@@ -9634,12 +10908,14 @@
         <v>22</v>
       </c>
       <c r="AH157" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI157" s="100"/>
+        <v>271</v>
+      </c>
+      <c r="AI157" s="98" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="158" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="105"/>
+      <c r="B158" s="103"/>
       <c r="C158" s="49">
         <v>156</v>
       </c>
@@ -9680,12 +10956,14 @@
         <v>22</v>
       </c>
       <c r="AH158" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI158" s="100"/>
+        <v>272</v>
+      </c>
+      <c r="AI158" s="98" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="159" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="105"/>
+      <c r="B159" s="103"/>
       <c r="C159" s="49">
         <v>157</v>
       </c>
@@ -9726,12 +11004,14 @@
         <v>22</v>
       </c>
       <c r="AH159" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI159" s="100"/>
+        <v>273</v>
+      </c>
+      <c r="AI159" s="98" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="160" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="105"/>
+      <c r="B160" s="103"/>
       <c r="C160" s="49">
         <v>158</v>
       </c>
@@ -9772,12 +11052,14 @@
         <v>22</v>
       </c>
       <c r="AH160" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI160" s="100"/>
+        <v>274</v>
+      </c>
+      <c r="AI160" s="98" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="161" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="105"/>
+      <c r="B161" s="103"/>
       <c r="C161" s="49">
         <v>159</v>
       </c>
@@ -9818,12 +11100,14 @@
         <v>22</v>
       </c>
       <c r="AH161" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI161" s="100"/>
+        <v>275</v>
+      </c>
+      <c r="AI161" s="98" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="162" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="105"/>
+      <c r="B162" s="103"/>
       <c r="C162" s="49">
         <v>160</v>
       </c>
@@ -9864,12 +11148,14 @@
         <v>22</v>
       </c>
       <c r="AH162" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI162" s="100"/>
+        <v>276</v>
+      </c>
+      <c r="AI162" s="98" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="163" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="105"/>
+      <c r="B163" s="103"/>
       <c r="C163" s="49">
         <v>161</v>
       </c>
@@ -9910,12 +11196,14 @@
         <v>22</v>
       </c>
       <c r="AH163" s="97" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI163" s="100"/>
+        <v>277</v>
+      </c>
+      <c r="AI163" s="98" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="164" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="105"/>
+      <c r="B164" s="103"/>
       <c r="C164" s="49">
         <v>162</v>
       </c>
@@ -9955,13 +11243,12 @@
       <c r="W164" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH164" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI164" s="100"/>
+      <c r="AI164" s="98" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="165" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="105"/>
+      <c r="B165" s="103"/>
       <c r="C165" s="49">
         <v>163</v>
       </c>
@@ -10001,13 +11288,12 @@
       <c r="W165" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH165" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI165" s="100"/>
+      <c r="AI165" s="98" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="166" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="105"/>
+      <c r="B166" s="103"/>
       <c r="C166" s="49">
         <v>164</v>
       </c>
@@ -10047,13 +11333,12 @@
       <c r="W166" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH166" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI166" s="100"/>
+      <c r="AI166" s="98" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="167" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="105"/>
+      <c r="B167" s="103"/>
       <c r="C167" s="49">
         <v>165</v>
       </c>
@@ -10093,13 +11378,12 @@
       <c r="W167" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH167" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI167" s="100"/>
+      <c r="AI167" s="98" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="168" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="105"/>
+      <c r="B168" s="103"/>
       <c r="C168" s="49">
         <v>166</v>
       </c>
@@ -10139,13 +11423,12 @@
       <c r="W168" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH168" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI168" s="100"/>
+      <c r="AI168" s="98" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="169" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="105"/>
+      <c r="B169" s="103"/>
       <c r="C169" s="49">
         <v>167</v>
       </c>
@@ -10185,13 +11468,12 @@
       <c r="W169" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH169" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI169" s="100"/>
+      <c r="AI169" s="98" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="170" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="105"/>
+      <c r="B170" s="103"/>
       <c r="C170" s="49">
         <v>168</v>
       </c>
@@ -10231,13 +11513,12 @@
       <c r="W170" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH170" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI170" s="100"/>
+      <c r="AI170" s="98" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="171" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="105"/>
+      <c r="B171" s="103"/>
       <c r="C171" s="49">
         <v>169</v>
       </c>
@@ -10277,10 +11558,12 @@
       <c r="W171" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI171" s="100"/>
+      <c r="AI171" s="98" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="172" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="105"/>
+      <c r="B172" s="103"/>
       <c r="C172" s="49">
         <v>170</v>
       </c>
@@ -10320,10 +11603,12 @@
       <c r="W172" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI172" s="100"/>
+      <c r="AI172" s="98" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="173" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="105"/>
+      <c r="B173" s="103"/>
       <c r="C173" s="49">
         <v>171</v>
       </c>
@@ -10363,10 +11648,12 @@
       <c r="W173" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI173" s="100"/>
+      <c r="AI173" s="98" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="174" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="105"/>
+      <c r="B174" s="103"/>
       <c r="C174" s="49">
         <v>172</v>
       </c>
@@ -10406,10 +11693,12 @@
       <c r="W174" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI174" s="100"/>
+      <c r="AI174" s="98" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="175" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="105"/>
+      <c r="B175" s="103"/>
       <c r="C175" s="49">
         <v>173</v>
       </c>
@@ -10449,10 +11738,12 @@
       <c r="W175" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI175" s="100"/>
+      <c r="AI175" s="98" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="176" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="105"/>
+      <c r="B176" s="103"/>
       <c r="C176" s="49">
         <v>174</v>
       </c>
@@ -10492,10 +11783,12 @@
       <c r="W176" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI176" s="100"/>
+      <c r="AI176" s="98" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="177" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="105"/>
+      <c r="B177" s="103"/>
       <c r="C177" s="49">
         <v>175</v>
       </c>
@@ -10535,10 +11828,12 @@
       <c r="W177" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI177" s="100"/>
+      <c r="AI177" s="98" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="178" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="105"/>
+      <c r="B178" s="103"/>
       <c r="C178" s="49">
         <v>176</v>
       </c>
@@ -10578,10 +11873,12 @@
       <c r="W178" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI178" s="100"/>
+      <c r="AI178" s="98" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="179" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="105"/>
+      <c r="B179" s="103"/>
       <c r="C179" s="49">
         <v>177</v>
       </c>
@@ -10621,10 +11918,12 @@
       <c r="W179" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI179" s="100"/>
+      <c r="AI179" s="98" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="180" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="105"/>
+      <c r="B180" s="103"/>
       <c r="C180" s="49">
         <v>178</v>
       </c>
@@ -10664,10 +11963,12 @@
       <c r="W180" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI180" s="100"/>
+      <c r="AI180" s="98" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="181" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="105"/>
+      <c r="B181" s="103"/>
       <c r="C181" s="49">
         <v>179</v>
       </c>
@@ -10707,10 +12008,12 @@
       <c r="W181" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI181" s="100"/>
+      <c r="AI181" s="98" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="182" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="105"/>
+      <c r="B182" s="103"/>
       <c r="C182" s="49">
         <v>180</v>
       </c>
@@ -10750,10 +12053,12 @@
       <c r="W182" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI182" s="100"/>
+      <c r="AI182" s="98" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="183" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="105"/>
+      <c r="B183" s="103"/>
       <c r="C183" s="49">
         <v>181</v>
       </c>
@@ -10793,10 +12098,12 @@
       <c r="W183" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI183" s="100"/>
+      <c r="AI183" s="98" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="184" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="105"/>
+      <c r="B184" s="103"/>
       <c r="C184" s="49">
         <v>182</v>
       </c>
@@ -10836,10 +12143,12 @@
       <c r="W184" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI184" s="100"/>
+      <c r="AI184" s="98" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="185" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="105"/>
+      <c r="B185" s="103"/>
       <c r="C185" s="49">
         <v>183</v>
       </c>
@@ -10879,10 +12188,12 @@
       <c r="W185" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI185" s="100"/>
+      <c r="AI185" s="98" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="186" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="105"/>
+      <c r="B186" s="103"/>
       <c r="C186" s="49">
         <v>184</v>
       </c>
@@ -10922,10 +12233,12 @@
       <c r="W186" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI186" s="100"/>
+      <c r="AI186" s="98" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="187" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="105"/>
+      <c r="B187" s="103"/>
       <c r="C187" s="49">
         <v>185</v>
       </c>
@@ -10965,10 +12278,12 @@
       <c r="W187" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI187" s="100"/>
+      <c r="AI187" s="98" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="188" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="105"/>
+      <c r="B188" s="103"/>
       <c r="C188" s="49">
         <v>186</v>
       </c>
@@ -11008,10 +12323,12 @@
       <c r="W188" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI188" s="100"/>
+      <c r="AI188" s="98" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="189" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="105"/>
+      <c r="B189" s="103"/>
       <c r="C189" s="49">
         <v>187</v>
       </c>
@@ -11051,10 +12368,12 @@
       <c r="W189" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI189" s="100"/>
+      <c r="AI189" s="98" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="190" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="105"/>
+      <c r="B190" s="103"/>
       <c r="C190" s="49">
         <v>188</v>
       </c>
@@ -11094,10 +12413,12 @@
       <c r="W190" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI190" s="100"/>
+      <c r="AI190" s="98" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="191" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="105"/>
+      <c r="B191" s="103"/>
       <c r="C191" s="49">
         <v>189</v>
       </c>
@@ -11137,10 +12458,12 @@
       <c r="W191" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI191" s="100"/>
+      <c r="AI191" s="98" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="192" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="105"/>
+      <c r="B192" s="103"/>
       <c r="C192" s="49">
         <v>190</v>
       </c>
@@ -11180,10 +12503,12 @@
       <c r="W192" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI192" s="100"/>
-    </row>
-    <row r="193" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="105"/>
+      <c r="AI192" s="98" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="103"/>
       <c r="C193" s="49">
         <v>191</v>
       </c>
@@ -11223,10 +12548,12 @@
       <c r="W193" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI193" s="100"/>
-    </row>
-    <row r="194" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="105"/>
+      <c r="AI193" s="98" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="103"/>
       <c r="C194" s="49">
         <v>192</v>
       </c>
@@ -11266,10 +12593,12 @@
       <c r="W194" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI194" s="100"/>
-    </row>
-    <row r="195" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="105"/>
+      <c r="AI194" s="98" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="103"/>
       <c r="C195" s="49">
         <v>193</v>
       </c>
@@ -11309,10 +12638,12 @@
       <c r="W195" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI195" s="100"/>
-    </row>
-    <row r="196" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="105"/>
+      <c r="AI195" s="98" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="103"/>
       <c r="C196" s="49">
         <v>194</v>
       </c>
@@ -11352,10 +12683,12 @@
       <c r="W196" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI196" s="100"/>
-    </row>
-    <row r="197" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="105"/>
+      <c r="AI196" s="98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="103"/>
       <c r="C197" s="49">
         <v>195</v>
       </c>
@@ -11395,10 +12728,12 @@
       <c r="W197" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI197" s="100"/>
-    </row>
-    <row r="198" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="105"/>
+      <c r="AI197" s="98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="103"/>
       <c r="C198" s="49">
         <v>196</v>
       </c>
@@ -11438,10 +12773,12 @@
       <c r="W198" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI198" s="100"/>
-    </row>
-    <row r="199" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="105"/>
+      <c r="AI198" s="98" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="103"/>
       <c r="C199" s="49">
         <v>197</v>
       </c>
@@ -11481,10 +12818,12 @@
       <c r="W199" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI199" s="100"/>
-    </row>
-    <row r="200" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="105"/>
+      <c r="AI199" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="103"/>
       <c r="C200" s="49">
         <v>198</v>
       </c>
@@ -11524,10 +12863,12 @@
       <c r="W200" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI200" s="100"/>
-    </row>
-    <row r="201" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="105"/>
+      <c r="AI200" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="201" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="103"/>
       <c r="C201" s="49">
         <v>199</v>
       </c>
@@ -11567,10 +12908,12 @@
       <c r="W201" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI201" s="100"/>
-    </row>
-    <row r="202" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="105"/>
+      <c r="AI201" s="98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="202" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="103"/>
       <c r="C202" s="49">
         <v>200</v>
       </c>
@@ -11610,10 +12953,12 @@
       <c r="W202" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI202" s="100"/>
-    </row>
-    <row r="203" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="105"/>
+      <c r="AI202" s="98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="103"/>
       <c r="C203" s="49">
         <v>201</v>
       </c>
@@ -11653,10 +12998,12 @@
       <c r="W203" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI203" s="100"/>
-    </row>
-    <row r="204" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="105"/>
+      <c r="AI203" s="98" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="204" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="103"/>
       <c r="C204" s="49">
         <v>202</v>
       </c>
@@ -11696,10 +13043,12 @@
       <c r="W204" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI204" s="100"/>
-    </row>
-    <row r="205" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="105"/>
+      <c r="AI204" s="98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="103"/>
       <c r="C205" s="49">
         <v>203</v>
       </c>
@@ -11739,13 +13088,15 @@
       <c r="W205" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI205" s="100"/>
+      <c r="AI205" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM205" s="51"/>
       <c r="AN205" s="51"/>
       <c r="AO205" s="51"/>
-      <c r="AP205" s="51"/>
-    </row>
-    <row r="206" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="105"/>
+    </row>
+    <row r="206" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="103"/>
       <c r="C206" s="49">
         <v>204</v>
       </c>
@@ -11785,13 +13136,15 @@
       <c r="W206" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI206" s="100"/>
+      <c r="AI206" s="98" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM206" s="51"/>
       <c r="AN206" s="51"/>
       <c r="AO206" s="51"/>
-      <c r="AP206" s="51"/>
-    </row>
-    <row r="207" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="105"/>
+    </row>
+    <row r="207" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="103"/>
       <c r="C207" s="49">
         <v>205</v>
       </c>
@@ -11831,13 +13184,15 @@
       <c r="W207" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI207" s="100"/>
+      <c r="AI207" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM207" s="51"/>
       <c r="AN207" s="51"/>
       <c r="AO207" s="51"/>
-      <c r="AP207" s="51"/>
-    </row>
-    <row r="208" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="105"/>
+    </row>
+    <row r="208" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="103"/>
       <c r="C208" s="49">
         <v>206</v>
       </c>
@@ -11877,11 +13232,13 @@
       <c r="W208" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI208" s="100"/>
-      <c r="AQ208" s="51"/>
-    </row>
-    <row r="209" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="105"/>
+      <c r="AI208" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP208" s="51"/>
+    </row>
+    <row r="209" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="103"/>
       <c r="C209" s="49">
         <v>207</v>
       </c>
@@ -11921,11 +13278,13 @@
       <c r="W209" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI209" s="100"/>
-      <c r="AQ209" s="51"/>
-    </row>
-    <row r="210" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="105"/>
+      <c r="AI209" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="AP209" s="51"/>
+    </row>
+    <row r="210" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="103"/>
       <c r="C210" s="49">
         <v>208</v>
       </c>
@@ -11965,11 +13324,13 @@
       <c r="W210" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI210" s="100"/>
-      <c r="AQ210" s="51"/>
-    </row>
-    <row r="211" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="105"/>
+      <c r="AI210" s="98" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP210" s="51"/>
+    </row>
+    <row r="211" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="103"/>
       <c r="C211" s="49">
         <v>209</v>
       </c>
@@ -12009,13 +13370,16 @@
       <c r="W211" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI211" s="100"/>
+      <c r="AI211" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="AJ211" s="51"/>
+      <c r="AM211" s="51"/>
       <c r="AN211" s="51"/>
       <c r="AO211" s="51"/>
-      <c r="AP211" s="51"/>
-    </row>
-    <row r="212" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="105"/>
+    </row>
+    <row r="212" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="103"/>
       <c r="C212" s="49">
         <v>210</v>
       </c>
@@ -12055,13 +13419,22 @@
       <c r="W212" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI212" s="100"/>
+      <c r="AC212" s="51"/>
+      <c r="AD212" s="51"/>
+      <c r="AE212" s="51"/>
+      <c r="AF212" s="51"/>
+      <c r="AG212" s="51"/>
+      <c r="AH212" s="51"/>
+      <c r="AI212" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="AJ212" s="51"/>
+      <c r="AM212" s="51"/>
       <c r="AN212" s="51"/>
       <c r="AO212" s="51"/>
-      <c r="AP212" s="51"/>
-    </row>
-    <row r="213" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="105"/>
+    </row>
+    <row r="213" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="103"/>
       <c r="C213" s="49">
         <v>211</v>
       </c>
@@ -12101,13 +13474,22 @@
       <c r="W213" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI213" s="100"/>
+      <c r="AC213" s="51"/>
+      <c r="AD213" s="51"/>
+      <c r="AE213" s="51"/>
+      <c r="AF213" s="51"/>
+      <c r="AG213" s="51"/>
+      <c r="AH213" s="51"/>
+      <c r="AI213" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ213" s="51"/>
+      <c r="AM213" s="51"/>
       <c r="AN213" s="51"/>
       <c r="AO213" s="51"/>
-      <c r="AP213" s="51"/>
-    </row>
-    <row r="214" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="105"/>
+    </row>
+    <row r="214" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="103"/>
       <c r="C214" s="49">
         <v>212</v>
       </c>
@@ -12147,15 +13529,23 @@
       <c r="W214" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI214" s="100"/>
+      <c r="AC214" s="51"/>
+      <c r="AD214" s="51"/>
+      <c r="AE214" s="51"/>
+      <c r="AF214" s="51"/>
+      <c r="AG214" s="51"/>
+      <c r="AH214" s="51"/>
+      <c r="AI214" s="98" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM214" s="51"/>
       <c r="AN214" s="51"/>
       <c r="AO214" s="51"/>
       <c r="AP214" s="51"/>
       <c r="AQ214" s="51"/>
-      <c r="AR214" s="51"/>
-    </row>
-    <row r="215" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="105"/>
+    </row>
+    <row r="215" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="103"/>
       <c r="C215" s="49">
         <v>213</v>
       </c>
@@ -12195,15 +13585,17 @@
       <c r="W215" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI215" s="100"/>
+      <c r="AI215" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="AM215" s="51"/>
       <c r="AN215" s="51"/>
       <c r="AO215" s="51"/>
       <c r="AP215" s="51"/>
       <c r="AQ215" s="51"/>
-      <c r="AR215" s="51"/>
-    </row>
-    <row r="216" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="105"/>
+    </row>
+    <row r="216" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="103"/>
       <c r="C216" s="49">
         <v>214</v>
       </c>
@@ -12243,12 +13635,14 @@
       <c r="W216" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI216" s="100"/>
+      <c r="AI216" s="98" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP216" s="51"/>
       <c r="AQ216" s="51"/>
-      <c r="AR216" s="51"/>
-    </row>
-    <row r="217" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="105"/>
+    </row>
+    <row r="217" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="103"/>
       <c r="C217" s="49">
         <v>215</v>
       </c>
@@ -12288,11 +13682,14 @@
       <c r="W217" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI217" s="100"/>
-      <c r="AQ217" s="51"/>
-    </row>
-    <row r="218" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="106"/>
+      <c r="AI217" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ217" s="51"/>
+      <c r="AP217" s="51"/>
+    </row>
+    <row r="218" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="104"/>
       <c r="C218" s="49">
         <v>216</v>
       </c>
@@ -12332,11 +13729,20 @@
       <c r="W218" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI218" s="100"/>
-      <c r="AQ218" s="51"/>
-    </row>
-    <row r="219" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="104" t="s">
+      <c r="AC218" s="51"/>
+      <c r="AD218" s="51"/>
+      <c r="AE218" s="51"/>
+      <c r="AF218" s="51"/>
+      <c r="AG218" s="51"/>
+      <c r="AH218" s="51"/>
+      <c r="AI218" s="98" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ218" s="51"/>
+      <c r="AP218" s="51"/>
+    </row>
+    <row r="219" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="49">
@@ -12378,15 +13784,17 @@
       <c r="W219" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI219" s="100"/>
+      <c r="AI219" s="97" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM219" s="1"/>
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
       <c r="AQ219" s="1"/>
-      <c r="AR219" s="1"/>
-    </row>
-    <row r="220" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="105"/>
+    </row>
+    <row r="220" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="103"/>
       <c r="C220" s="49">
         <v>218</v>
       </c>
@@ -12426,11 +13834,13 @@
       <c r="W220" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI220" s="100"/>
-      <c r="AQ220" s="1"/>
-    </row>
-    <row r="221" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="105"/>
+      <c r="AI220" s="97" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP220" s="1"/>
+    </row>
+    <row r="221" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="103"/>
       <c r="C221" s="49">
         <v>219</v>
       </c>
@@ -12470,11 +13880,13 @@
       <c r="W221" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI221" s="100"/>
-      <c r="AQ221" s="1"/>
-    </row>
-    <row r="222" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="105"/>
+      <c r="AI221" s="97" t="s">
+        <v>495</v>
+      </c>
+      <c r="AP221" s="1"/>
+    </row>
+    <row r="222" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="103"/>
       <c r="C222" s="49">
         <v>220</v>
       </c>
@@ -12514,14 +13926,22 @@
       <c r="W222" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI222" s="100"/>
+      <c r="AC222" s="51"/>
+      <c r="AD222" s="51"/>
+      <c r="AE222" s="51"/>
+      <c r="AF222" s="51"/>
+      <c r="AG222" s="51"/>
+      <c r="AH222" s="51"/>
+      <c r="AI222" s="97" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM222" s="51"/>
       <c r="AN222" s="51"/>
       <c r="AO222" s="51"/>
-      <c r="AP222" s="51"/>
-      <c r="AR222" s="51"/>
-    </row>
-    <row r="223" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="105"/>
+      <c r="AQ222" s="51"/>
+    </row>
+    <row r="223" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="103"/>
       <c r="C223" s="49">
         <v>221</v>
       </c>
@@ -12561,12 +13981,14 @@
       <c r="W223" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI223" s="100"/>
+      <c r="AI223" s="97" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP223" s="51"/>
       <c r="AQ223" s="51"/>
-      <c r="AR223" s="51"/>
-    </row>
-    <row r="224" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="105"/>
+    </row>
+    <row r="224" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="103"/>
       <c r="C224" s="49">
         <v>222</v>
       </c>
@@ -12606,12 +14028,14 @@
       <c r="W224" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI224" s="100"/>
+      <c r="AI224" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP224" s="51"/>
       <c r="AQ224" s="51"/>
-      <c r="AR224" s="51"/>
     </row>
     <row r="225" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="105"/>
+      <c r="B225" s="103"/>
       <c r="C225" s="49">
         <v>223</v>
       </c>
@@ -12651,14 +14075,23 @@
       <c r="W225" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI225" s="100"/>
+      <c r="AC225" s="1"/>
+      <c r="AD225" s="1"/>
+      <c r="AE225" s="1"/>
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+      <c r="AH225" s="1"/>
+      <c r="AI225" s="97" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ225" s="1"/>
+      <c r="AM225" s="1"/>
       <c r="AN225" s="1"/>
       <c r="AO225" s="1"/>
-      <c r="AP225" s="1"/>
-      <c r="AR225" s="1"/>
+      <c r="AQ225" s="1"/>
     </row>
     <row r="226" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="105"/>
+      <c r="B226" s="103"/>
       <c r="C226" s="49">
         <v>224</v>
       </c>
@@ -12698,14 +14131,23 @@
       <c r="W226" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+      <c r="AH226" s="1"/>
+      <c r="AI226" s="97" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM226" s="1"/>
       <c r="AN226" s="1"/>
       <c r="AO226" s="1"/>
       <c r="AP226" s="1"/>
       <c r="AQ226" s="1"/>
-      <c r="AR226" s="1"/>
     </row>
     <row r="227" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="105"/>
+      <c r="B227" s="103"/>
       <c r="C227" s="49">
         <v>225</v>
       </c>
@@ -12745,14 +14187,17 @@
       <c r="W227" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI227" s="97" t="s">
+        <v>501</v>
+      </c>
+      <c r="AM227" s="1"/>
       <c r="AN227" s="1"/>
       <c r="AO227" s="1"/>
       <c r="AP227" s="1"/>
       <c r="AQ227" s="1"/>
-      <c r="AR227" s="1"/>
     </row>
     <row r="228" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="105"/>
+      <c r="B228" s="103"/>
       <c r="C228" s="49">
         <v>226</v>
       </c>
@@ -12792,14 +14237,17 @@
       <c r="W228" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI228" s="97" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM228" s="1"/>
       <c r="AN228" s="1"/>
       <c r="AO228" s="1"/>
       <c r="AP228" s="1"/>
       <c r="AQ228" s="1"/>
-      <c r="AR228" s="1"/>
     </row>
     <row r="229" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="105"/>
+      <c r="B229" s="103"/>
       <c r="C229" s="49">
         <v>227</v>
       </c>
@@ -12839,13 +14287,17 @@
       <c r="W229" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI229" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ229" s="1"/>
+      <c r="AM229" s="1"/>
       <c r="AN229" s="1"/>
       <c r="AO229" s="1"/>
       <c r="AP229" s="1"/>
-      <c r="AQ229" s="1"/>
     </row>
     <row r="230" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="105"/>
+      <c r="B230" s="103"/>
       <c r="C230" s="49">
         <v>228</v>
       </c>
@@ -12885,10 +14337,13 @@
       <c r="W230" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AR230" s="51"/>
+      <c r="AI230" s="97" t="s">
+        <v>504</v>
+      </c>
+      <c r="AQ230" s="51"/>
     </row>
     <row r="231" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="105"/>
+      <c r="B231" s="103"/>
       <c r="C231" s="49">
         <v>229</v>
       </c>
@@ -12928,10 +14383,13 @@
       <c r="W231" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AR231" s="51"/>
+      <c r="AI231" s="97" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ231" s="51"/>
     </row>
     <row r="232" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="105"/>
+      <c r="B232" s="103"/>
       <c r="C232" s="49">
         <v>230</v>
       </c>
@@ -12971,9 +14429,12 @@
       <c r="W232" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI232" s="97" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="233" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="105"/>
+      <c r="B233" s="103"/>
       <c r="C233" s="49">
         <v>231</v>
       </c>
@@ -13013,9 +14474,12 @@
       <c r="W233" s="90" t="s">
         <v>23</v>
       </c>
+      <c r="AI233" s="97" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="234" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="105"/>
+      <c r="B234" s="103"/>
       <c r="C234" s="49">
         <v>232</v>
       </c>
@@ -13055,6 +14519,16 @@
       <c r="W234" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+      <c r="AH234" s="1"/>
+      <c r="AI234" s="97" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK234" s="1"/>
       <c r="AN234" s="1"/>
       <c r="AO234" s="1"/>
       <c r="AP234" s="1"/>
@@ -13062,7 +14536,7 @@
       <c r="AR234" s="1"/>
     </row>
     <row r="235" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="105"/>
+      <c r="B235" s="103"/>
       <c r="C235" s="49">
         <v>233</v>
       </c>
@@ -13102,6 +14576,16 @@
       <c r="W235" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+      <c r="AH235" s="1"/>
+      <c r="AI235" s="97" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK235" s="1"/>
       <c r="AN235" s="1"/>
       <c r="AO235" s="1"/>
       <c r="AP235" s="1"/>
@@ -13109,7 +14593,7 @@
       <c r="AR235" s="1"/>
     </row>
     <row r="236" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="105"/>
+      <c r="B236" s="103"/>
       <c r="C236" s="49">
         <v>234</v>
       </c>
@@ -13149,6 +14633,16 @@
       <c r="W236" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+      <c r="AH236" s="1"/>
+      <c r="AI236" s="97" t="s">
+        <v>510</v>
+      </c>
+      <c r="AK236" s="1"/>
       <c r="AN236" s="1"/>
       <c r="AO236" s="1"/>
       <c r="AP236" s="1"/>
@@ -13156,7 +14650,7 @@
       <c r="AR236" s="1"/>
     </row>
     <row r="237" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="105"/>
+      <c r="B237" s="103"/>
       <c r="C237" s="49">
         <v>235</v>
       </c>
@@ -13196,9 +14690,12 @@
       <c r="W237" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI237" s="97" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="238" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="105"/>
+      <c r="B238" s="103"/>
       <c r="C238" s="49">
         <v>236</v>
       </c>
@@ -13238,9 +14735,12 @@
       <c r="W238" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI238" s="97" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="239" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="105"/>
+      <c r="B239" s="103"/>
       <c r="C239" s="49">
         <v>237</v>
       </c>
@@ -13280,9 +14780,12 @@
       <c r="W239" s="82" t="s">
         <v>22</v>
       </c>
+      <c r="AI239" s="97" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="240" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="105"/>
+      <c r="B240" s="103"/>
       <c r="C240" s="49">
         <v>238</v>
       </c>
@@ -13322,9 +14825,12 @@
       <c r="W240" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="241" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="105"/>
+      <c r="AI240" s="97" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="103"/>
       <c r="C241" s="49">
         <v>239</v>
       </c>
@@ -13364,9 +14870,12 @@
       <c r="W241" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="105"/>
+      <c r="AI241" s="97" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="103"/>
       <c r="C242" s="49">
         <v>240</v>
       </c>
@@ -13406,9 +14915,12 @@
       <c r="W242" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="105"/>
+      <c r="AI242" s="97" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="243" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="103"/>
       <c r="C243" s="49">
         <v>241</v>
       </c>
@@ -13448,9 +14960,12 @@
       <c r="W243" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="244" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="105"/>
+      <c r="AI243" s="97" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="103"/>
       <c r="C244" s="49">
         <v>242</v>
       </c>
@@ -13490,9 +15005,12 @@
       <c r="W244" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="245" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="105"/>
+      <c r="AI244" s="97" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="245" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="103"/>
       <c r="C245" s="49">
         <v>243</v>
       </c>
@@ -13532,9 +15050,12 @@
       <c r="W245" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="105"/>
+      <c r="AI245" s="97" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="103"/>
       <c r="C246" s="49">
         <v>244</v>
       </c>
@@ -13574,9 +15095,12 @@
       <c r="W246" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="105"/>
+      <c r="AI246" s="97" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="247" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="103"/>
       <c r="C247" s="49">
         <v>245</v>
       </c>
@@ -13616,9 +15140,12 @@
       <c r="W247" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="248" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="105"/>
+      <c r="AI247" s="97" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="248" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="103"/>
       <c r="C248" s="49">
         <v>246</v>
       </c>
@@ -13658,9 +15185,12 @@
       <c r="W248" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="249" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="105"/>
+      <c r="AI248" s="97" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="103"/>
       <c r="C249" s="49">
         <v>247</v>
       </c>
@@ -13700,9 +15230,12 @@
       <c r="W249" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="105"/>
+      <c r="AI249" s="97" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="103"/>
       <c r="C250" s="49">
         <v>248</v>
       </c>
@@ -13742,9 +15275,12 @@
       <c r="W250" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="251" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="105"/>
+      <c r="AI250" s="97" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="251" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="103"/>
       <c r="C251" s="49">
         <v>249</v>
       </c>
@@ -13784,9 +15320,12 @@
       <c r="W251" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="252" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="105"/>
+      <c r="AI251" s="97" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="252" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="103"/>
       <c r="C252" s="49">
         <v>250</v>
       </c>
@@ -13826,9 +15365,12 @@
       <c r="W252" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="253" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="105"/>
+      <c r="AI252" s="97" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="253" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="103"/>
       <c r="C253" s="49">
         <v>251</v>
       </c>
@@ -13868,9 +15410,12 @@
       <c r="W253" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="254" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="105"/>
+      <c r="AI253" s="97" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="254" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="103"/>
       <c r="C254" s="49">
         <v>252</v>
       </c>
@@ -13910,9 +15455,12 @@
       <c r="W254" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="255" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="105"/>
+      <c r="AI254" s="97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="255" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="103"/>
       <c r="C255" s="49">
         <v>253</v>
       </c>
@@ -13952,9 +15500,12 @@
       <c r="W255" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="256" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="105"/>
+      <c r="AI255" s="97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="256" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="103"/>
       <c r="C256" s="49">
         <v>254</v>
       </c>
@@ -13994,9 +15545,12 @@
       <c r="W256" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="257" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="105"/>
+      <c r="AI256" s="97" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="103"/>
       <c r="C257" s="49">
         <v>255</v>
       </c>
@@ -14036,9 +15590,12 @@
       <c r="W257" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="258" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="105"/>
+      <c r="AI257" s="97" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="258" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="103"/>
       <c r="C258" s="49">
         <v>256</v>
       </c>
@@ -14078,9 +15635,12 @@
       <c r="W258" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="259" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="105"/>
+      <c r="AI258" s="97" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="259" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="103"/>
       <c r="C259" s="49">
         <v>257</v>
       </c>
@@ -14120,9 +15680,12 @@
       <c r="W259" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="260" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="105"/>
+      <c r="AI259" s="97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="103"/>
       <c r="C260" s="49">
         <v>258</v>
       </c>
@@ -14162,9 +15725,12 @@
       <c r="W260" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="261" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="105"/>
+      <c r="AI260" s="97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="261" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="103"/>
       <c r="C261" s="49">
         <v>259</v>
       </c>
@@ -14204,9 +15770,12 @@
       <c r="W261" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="262" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="105"/>
+      <c r="AI261" s="97" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="262" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="103"/>
       <c r="C262" s="49">
         <v>260</v>
       </c>
@@ -14246,9 +15815,12 @@
       <c r="W262" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="263" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="105"/>
+      <c r="AI262" s="97" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="263" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="103"/>
       <c r="C263" s="49">
         <v>261</v>
       </c>
@@ -14288,9 +15860,12 @@
       <c r="W263" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="264" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="105"/>
+      <c r="AI263" s="97" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="264" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="103"/>
       <c r="C264" s="49">
         <v>262</v>
       </c>
@@ -14330,9 +15905,12 @@
       <c r="W264" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="265" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="105"/>
+      <c r="AI264" s="97" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="265" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="103"/>
       <c r="C265" s="49">
         <v>263</v>
       </c>
@@ -14372,9 +15950,12 @@
       <c r="W265" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="266" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="105"/>
+      <c r="AI265" s="97" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="266" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="103"/>
       <c r="C266" s="49">
         <v>264</v>
       </c>
@@ -14414,9 +15995,12 @@
       <c r="W266" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="267" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="105"/>
+      <c r="AI266" s="97" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="267" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="103"/>
       <c r="C267" s="49">
         <v>265</v>
       </c>
@@ -14456,9 +16040,12 @@
       <c r="W267" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="268" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="105"/>
+      <c r="AI267" s="97" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="268" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="103"/>
       <c r="C268" s="49">
         <v>266</v>
       </c>
@@ -14498,9 +16085,12 @@
       <c r="W268" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="269" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="105"/>
+      <c r="AI268" s="97" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="269" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="103"/>
       <c r="C269" s="49">
         <v>267</v>
       </c>
@@ -14540,9 +16130,12 @@
       <c r="W269" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="270" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="105"/>
+      <c r="AI269" s="97" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="270" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="103"/>
       <c r="C270" s="49">
         <v>268</v>
       </c>
@@ -14582,9 +16175,12 @@
       <c r="W270" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="271" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="105"/>
+      <c r="AI270" s="97" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="271" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="103"/>
       <c r="C271" s="49">
         <v>269</v>
       </c>
@@ -14624,9 +16220,12 @@
       <c r="W271" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="272" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="105"/>
+      <c r="AI271" s="97" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="103"/>
       <c r="C272" s="49">
         <v>270</v>
       </c>
@@ -14666,9 +16265,12 @@
       <c r="W272" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="273" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="105"/>
+      <c r="AI272" s="97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="103"/>
       <c r="C273" s="49">
         <v>271</v>
       </c>
@@ -14708,9 +16310,12 @@
       <c r="W273" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="274" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="105"/>
+      <c r="AI273" s="97" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="274" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="103"/>
       <c r="C274" s="49">
         <v>272</v>
       </c>
@@ -14750,9 +16355,12 @@
       <c r="W274" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="275" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="105"/>
+      <c r="AI274" s="97" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="275" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="103"/>
       <c r="C275" s="49">
         <v>273</v>
       </c>
@@ -14792,9 +16400,12 @@
       <c r="W275" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="276" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="105"/>
+      <c r="AI275" s="97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="103"/>
       <c r="C276" s="49">
         <v>274</v>
       </c>
@@ -14834,9 +16445,12 @@
       <c r="W276" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="277" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="105"/>
+      <c r="AI276" s="97" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="277" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="103"/>
       <c r="C277" s="49">
         <v>275</v>
       </c>
@@ -14876,9 +16490,12 @@
       <c r="W277" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="278" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="105"/>
+      <c r="AI277" s="97" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="103"/>
       <c r="C278" s="49">
         <v>276</v>
       </c>
@@ -14918,9 +16535,12 @@
       <c r="W278" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="279" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="105"/>
+      <c r="AI278" s="97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="279" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="103"/>
       <c r="C279" s="49">
         <v>277</v>
       </c>
@@ -14960,9 +16580,12 @@
       <c r="W279" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="280" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="105"/>
+      <c r="AI279" s="97" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="280" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="103"/>
       <c r="C280" s="49">
         <v>278</v>
       </c>
@@ -15002,9 +16625,12 @@
       <c r="W280" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="281" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="105"/>
+      <c r="AI280" s="97" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="103"/>
       <c r="C281" s="49">
         <v>279</v>
       </c>
@@ -15044,9 +16670,12 @@
       <c r="W281" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="282" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="105"/>
+      <c r="AI281" s="97" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="282" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="103"/>
       <c r="C282" s="49">
         <v>280</v>
       </c>
@@ -15086,9 +16715,12 @@
       <c r="W282" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="283" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="105"/>
+      <c r="AI282" s="97" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="283" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="103"/>
       <c r="C283" s="49">
         <v>281</v>
       </c>
@@ -15128,9 +16760,12 @@
       <c r="W283" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="284" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="105"/>
+      <c r="AI283" s="97" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="284" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="103"/>
       <c r="C284" s="49">
         <v>282</v>
       </c>
@@ -15170,9 +16805,12 @@
       <c r="W284" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="285" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="105"/>
+      <c r="AI284" s="97" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="285" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="103"/>
       <c r="C285" s="49">
         <v>283</v>
       </c>
@@ -15212,9 +16850,12 @@
       <c r="W285" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="286" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="105"/>
+      <c r="AI285" s="97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="286" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="103"/>
       <c r="C286" s="49">
         <v>284</v>
       </c>
@@ -15254,9 +16895,12 @@
       <c r="W286" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="287" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="105"/>
+      <c r="AI286" s="97" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="287" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="103"/>
       <c r="C287" s="49">
         <v>285</v>
       </c>
@@ -15296,9 +16940,12 @@
       <c r="W287" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="288" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="105"/>
+      <c r="AI287" s="97" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="288" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="103"/>
       <c r="C288" s="49">
         <v>286</v>
       </c>
@@ -15338,9 +16985,12 @@
       <c r="W288" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="289" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="105"/>
+      <c r="AI288" s="97" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="289" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="103"/>
       <c r="C289" s="49">
         <v>287</v>
       </c>
@@ -15380,9 +17030,12 @@
       <c r="W289" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="290" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="105"/>
+      <c r="AI289" s="97" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="290" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="103"/>
       <c r="C290" s="49">
         <v>288</v>
       </c>
@@ -15422,9 +17075,12 @@
       <c r="W290" s="90" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="291" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="105"/>
+      <c r="AI290" s="97" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="291" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="103"/>
       <c r="C291" s="49">
         <v>289</v>
       </c>
@@ -15464,9 +17120,12 @@
       <c r="W291" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="292" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="105"/>
+      <c r="AI291" s="97" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="292" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="103"/>
       <c r="C292" s="49">
         <v>290</v>
       </c>
@@ -15506,9 +17165,12 @@
       <c r="W292" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="293" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="105"/>
+      <c r="AI292" s="97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="293" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="103"/>
       <c r="C293" s="49">
         <v>291</v>
       </c>
@@ -15548,9 +17210,12 @@
       <c r="W293" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="294" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="105"/>
+      <c r="AI293" s="97" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="294" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="103"/>
       <c r="C294" s="49">
         <v>292</v>
       </c>
@@ -15590,9 +17255,12 @@
       <c r="W294" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="295" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="105"/>
+      <c r="AI294" s="97" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="295" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="103"/>
       <c r="C295" s="49">
         <v>293</v>
       </c>
@@ -15632,9 +17300,12 @@
       <c r="W295" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="296" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="105"/>
+      <c r="AI295" s="97" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="296" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="103"/>
       <c r="C296" s="49">
         <v>294</v>
       </c>
@@ -15674,9 +17345,12 @@
       <c r="W296" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="297" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="105"/>
+      <c r="AI296" s="97" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="297" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="103"/>
       <c r="C297" s="49">
         <v>295</v>
       </c>
@@ -15716,9 +17390,12 @@
       <c r="W297" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="298" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="105"/>
+      <c r="AI297" s="97" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="298" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="103"/>
       <c r="C298" s="49">
         <v>296</v>
       </c>
@@ -15758,9 +17435,12 @@
       <c r="W298" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="299" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="105"/>
+      <c r="AI298" s="97" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="299" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="103"/>
       <c r="C299" s="49">
         <v>297</v>
       </c>
@@ -15800,9 +17480,12 @@
       <c r="W299" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="300" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="105"/>
+      <c r="AI299" s="97" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="300" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="103"/>
       <c r="C300" s="49">
         <v>298</v>
       </c>
@@ -15842,9 +17525,12 @@
       <c r="W300" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="301" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="105"/>
+      <c r="AI300" s="97" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="301" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="103"/>
       <c r="C301" s="49">
         <v>299</v>
       </c>
@@ -15884,9 +17570,12 @@
       <c r="W301" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="302" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="105"/>
+      <c r="AI301" s="97" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="302" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="103"/>
       <c r="C302" s="49">
         <v>300</v>
       </c>
@@ -15926,9 +17615,12 @@
       <c r="W302" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="303" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="105"/>
+      <c r="AI302" s="97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="303" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="103"/>
       <c r="C303" s="49">
         <v>301</v>
       </c>
@@ -15968,9 +17660,12 @@
       <c r="W303" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="304" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="105"/>
+      <c r="AI303" s="97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="304" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="103"/>
       <c r="C304" s="49">
         <v>302</v>
       </c>
@@ -16010,9 +17705,12 @@
       <c r="W304" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="305" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="105"/>
+      <c r="AI304" s="97" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="305" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="103"/>
       <c r="C305" s="49">
         <v>303</v>
       </c>
@@ -16052,9 +17750,12 @@
       <c r="W305" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="306" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="105"/>
+      <c r="AI305" s="97" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="306" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="103"/>
       <c r="C306" s="49">
         <v>304</v>
       </c>
@@ -16094,9 +17795,12 @@
       <c r="W306" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="307" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="105"/>
+      <c r="AI306" s="97" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="307" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="103"/>
       <c r="C307" s="49">
         <v>305</v>
       </c>
@@ -16136,9 +17840,12 @@
       <c r="W307" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="308" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="105"/>
+      <c r="AI307" s="97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="103"/>
       <c r="C308" s="49">
         <v>306</v>
       </c>
@@ -16178,9 +17885,12 @@
       <c r="W308" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="309" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="105"/>
+      <c r="AI308" s="97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="309" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="103"/>
       <c r="C309" s="49">
         <v>307</v>
       </c>
@@ -16220,9 +17930,12 @@
       <c r="W309" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="310" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="105"/>
+      <c r="AI309" s="97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="310" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="103"/>
       <c r="C310" s="49">
         <v>308</v>
       </c>
@@ -16262,9 +17975,12 @@
       <c r="W310" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="311" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="105"/>
+      <c r="AI310" s="97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="311" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="103"/>
       <c r="C311" s="49">
         <v>309</v>
       </c>
@@ -16304,9 +18020,12 @@
       <c r="W311" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="312" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="105"/>
+      <c r="AI311" s="97" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="312" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="103"/>
       <c r="C312" s="49">
         <v>310</v>
       </c>
@@ -16346,9 +18065,12 @@
       <c r="W312" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="313" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="105"/>
+      <c r="AI312" s="97" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="313" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="103"/>
       <c r="C313" s="49">
         <v>311</v>
       </c>
@@ -16388,9 +18110,12 @@
       <c r="W313" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="314" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="105"/>
+      <c r="AI313" s="97" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="314" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="103"/>
       <c r="C314" s="49">
         <v>312</v>
       </c>
@@ -16430,9 +18155,12 @@
       <c r="W314" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="315" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="105"/>
+      <c r="AI314" s="97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="315" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="103"/>
       <c r="C315" s="49">
         <v>313</v>
       </c>
@@ -16472,9 +18200,12 @@
       <c r="W315" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="316" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="105"/>
+      <c r="AI315" s="97" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="316" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="103"/>
       <c r="C316" s="49">
         <v>314</v>
       </c>
@@ -16514,9 +18245,12 @@
       <c r="W316" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="317" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="105"/>
+      <c r="AI316" s="97" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="317" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="103"/>
       <c r="C317" s="49">
         <v>315</v>
       </c>
@@ -16556,9 +18290,12 @@
       <c r="W317" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="318" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="105"/>
+      <c r="AI317" s="97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="318" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="103"/>
       <c r="C318" s="49">
         <v>316</v>
       </c>
@@ -16598,9 +18335,12 @@
       <c r="W318" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="319" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="105"/>
+      <c r="AI318" s="97" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="319" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="103"/>
       <c r="C319" s="49">
         <v>317</v>
       </c>
@@ -16640,9 +18380,12 @@
       <c r="W319" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="320" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="105"/>
+      <c r="AI319" s="97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="320" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="103"/>
       <c r="C320" s="49">
         <v>318</v>
       </c>
@@ -16682,9 +18425,12 @@
       <c r="W320" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="321" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="105"/>
+      <c r="AI320" s="97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="321" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="103"/>
       <c r="C321" s="49">
         <v>319</v>
       </c>
@@ -16724,9 +18470,12 @@
       <c r="W321" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="322" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="105"/>
+      <c r="AI321" s="97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="322" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="103"/>
       <c r="C322" s="49">
         <v>320</v>
       </c>
@@ -16766,9 +18515,12 @@
       <c r="W322" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="323" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="105"/>
+      <c r="AI322" s="97" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="323" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="103"/>
       <c r="C323" s="49">
         <v>321</v>
       </c>
@@ -16808,9 +18560,12 @@
       <c r="W323" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="324" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="105"/>
+      <c r="AI323" s="97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="324" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="103"/>
       <c r="C324" s="49">
         <v>322</v>
       </c>
@@ -16850,9 +18605,12 @@
       <c r="W324" s="82" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="325" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="105"/>
+      <c r="AI324" s="97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="325" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="103"/>
       <c r="C325" s="49">
         <v>323</v>
       </c>
@@ -16893,8 +18651,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="106"/>
+    <row r="326" spans="2:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="104"/>
       <c r="C326" s="86">
         <v>324</v>
       </c>
@@ -16935,7 +18693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="89">
         <v>325</v>
       </c>
@@ -16976,7 +18734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="87">
         <v>326</v>
       </c>
@@ -17017,7 +18775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="87">
         <v>327</v>
       </c>
@@ -17058,7 +18816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="87">
         <v>328</v>
       </c>
@@ -17099,7 +18857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="87">
         <v>329</v>
       </c>
@@ -17140,7 +18898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="87">
         <v>330</v>
       </c>
@@ -17181,7 +18939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="87">
         <v>331</v>
       </c>
@@ -17222,7 +18980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="87">
         <v>332</v>
       </c>
@@ -17263,7 +19021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="87">
         <v>333</v>
       </c>
@@ -17304,7 +19062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="87">
         <v>334</v>
       </c>
@@ -39727,7 +41485,7 @@
       </c>
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
-      <c r="W882" s="102" t="s">
+      <c r="W882" s="100" t="s">
         <v>23</v>
       </c>
     </row>
@@ -43519,7 +45277,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="AE10 AI10 AH11" twoDigitTextYear="1"/>
+    <ignoredError sqref="AE3 AI3 AH4:AI4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10AD1B7-B0DA-F042-8164-2CBC41A838B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422126C5-6D04-7D47-9DA2-1F032390FAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="7460" yWindow="22100" windowWidth="25640" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8375" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="600">
   <si>
     <t>X</t>
   </si>
@@ -155,9 +155,6 @@
     <t>111-165</t>
   </si>
   <si>
-    <t>219-263</t>
-  </si>
-  <si>
     <t>435-489</t>
   </si>
   <si>
@@ -1833,6 +1830,12 @@
   </si>
   <si>
     <t>970-971-972</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>219-273</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1941,6 +1944,13 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2157,7 +2167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2468,6 +2478,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2791,13 +2807,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BE3CE7-3163-6C44-9531-3B4B7F4EA802}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AR974"/>
+  <dimension ref="B1:AT974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AC46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E735" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A968" sqref="A968:XFD968"/>
+      <selection pane="bottomRight" activeCell="A687" sqref="A687:XFD687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2809,12 +2825,12 @@
     <col min="10" max="17" width="10.83203125" style="1" customWidth="1"/>
     <col min="18" max="19" width="10.83203125" style="1"/>
     <col min="20" max="22" width="10.83203125" style="2"/>
-    <col min="23" max="28" width="10.83203125" style="1"/>
-    <col min="29" max="35" width="15.83203125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="1"/>
+    <col min="23" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="37" width="15.83203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="105" t="s">
         <v>20</v>
       </c>
@@ -2848,29 +2864,29 @@
       </c>
       <c r="U1" s="101"/>
       <c r="V1" s="101"/>
-      <c r="AC1" s="1">
+      <c r="AE1" s="1">
         <v>324</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AF1" s="1">
         <v>108</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AG1" s="1">
         <v>54</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AH1" s="1">
         <v>18</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AI1" s="1">
         <v>6</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AJ1" s="1">
         <v>3</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AK1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="51" t="s">
         <v>14</v>
       </c>
@@ -2931,29 +2947,32 @@
       <c r="V2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="91" t="s">
+      <c r="W2" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="91" t="s">
+      <c r="AF2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="91" t="s">
+      <c r="AG2" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="91" t="s">
+      <c r="AH2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="91" t="s">
+      <c r="AI2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="91" t="s">
+      <c r="AJ2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="91" t="s">
+      <c r="AK2" s="91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="102" t="s">
         <v>3</v>
       </c>
@@ -2996,29 +3015,29 @@
       <c r="W3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="94" t="s">
+      <c r="AE3" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="94" t="s">
+      <c r="AF3" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="94" t="s">
+      <c r="AG3" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="94" t="s">
+      <c r="AH3" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="94" t="s">
-        <v>46</v>
-      </c>
       <c r="AI3" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="94" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK3" s="94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="49">
         <v>2</v>
@@ -3059,27 +3078,27 @@
       <c r="W4" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="95" t="s">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="94" t="s">
+      <c r="AG4" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG4" s="94" t="s">
-        <v>65</v>
-      </c>
       <c r="AH4" s="94" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="94" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="AJ4" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" s="94" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="49">
         <v>3</v>
@@ -3120,27 +3139,27 @@
       <c r="W5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="96" t="s">
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="94" t="s">
-        <v>48</v>
-      </c>
       <c r="AG5" s="94" t="s">
-        <v>66</v>
+        <v>599</v>
       </c>
       <c r="AH5" s="94" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="AI5" s="94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="AJ5" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK5" s="94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="103"/>
       <c r="C6" s="49">
         <v>4</v>
@@ -3181,25 +3200,25 @@
       <c r="W6" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="95" t="s">
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF6" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG6" s="94" t="s">
-        <v>67</v>
-      </c>
       <c r="AH6" s="94" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="AI6" s="94" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK6" s="94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="103"/>
       <c r="C7" s="49">
         <v>5</v>
@@ -3240,25 +3259,25 @@
       <c r="W7" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG7" s="94" t="s">
-        <v>68</v>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="AH7" s="94" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AI7" s="94" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK7" s="94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="103"/>
       <c r="C8" s="49">
         <v>6</v>
@@ -3299,25 +3318,25 @@
       <c r="W8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF8" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG8" s="94" t="s">
-        <v>69</v>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="95" t="s">
+        <v>40</v>
       </c>
       <c r="AH8" s="94" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AI8" s="94" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK8" s="94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="103"/>
       <c r="C9" s="49">
         <v>7</v>
@@ -3358,25 +3377,25 @@
       <c r="W9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG9" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH9" s="94" t="s">
-        <v>119</v>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="95" t="s">
+        <v>51</v>
       </c>
       <c r="AI9" s="94" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="AJ9" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="103"/>
       <c r="C10" s="49">
         <v>8</v>
@@ -3417,27 +3436,27 @@
       <c r="W10" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG10" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH10" s="94" t="s">
-        <v>120</v>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10" s="95" t="s">
+        <v>52</v>
       </c>
       <c r="AI10" s="94" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-    </row>
-    <row r="11" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="AJ10" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK10" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+    </row>
+    <row r="11" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="103"/>
       <c r="C11" s="49">
         <v>9</v>
@@ -3478,27 +3497,27 @@
       <c r="W11" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG11" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH11" s="94" t="s">
-        <v>121</v>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="95" t="s">
+        <v>53</v>
       </c>
       <c r="AI11" s="94" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-    </row>
-    <row r="12" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK11" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+    </row>
+    <row r="12" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="103"/>
       <c r="C12" s="49">
         <v>10</v>
@@ -3539,25 +3558,25 @@
       <c r="W12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
       <c r="AE12" s="93"/>
-      <c r="AF12" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG12" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH12" s="94" t="s">
-        <v>122</v>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="AI12" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-    </row>
-    <row r="13" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="AJ12" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+    </row>
+    <row r="13" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="103"/>
       <c r="C13" s="49">
         <v>11</v>
@@ -3598,25 +3617,25 @@
       <c r="W13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
       <c r="AE13" s="93"/>
-      <c r="AF13" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG13" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH13" s="94" t="s">
-        <v>123</v>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="95" t="s">
+        <v>55</v>
       </c>
       <c r="AI13" s="94" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-    </row>
-    <row r="14" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK13" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+    </row>
+    <row r="14" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="103"/>
       <c r="C14" s="49">
         <v>12</v>
@@ -3657,25 +3676,25 @@
       <c r="W14" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
       <c r="AE14" s="93"/>
-      <c r="AF14" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG14" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH14" s="94" t="s">
-        <v>124</v>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="AI14" s="94" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-    </row>
-    <row r="15" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AJ14" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK14" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+    </row>
+    <row r="15" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="103"/>
       <c r="C15" s="49">
         <v>13</v>
@@ -3716,25 +3735,25 @@
       <c r="W15" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
       <c r="AE15" s="93"/>
-      <c r="AF15" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG15" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH15" s="94" t="s">
-        <v>125</v>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="97" t="s">
+        <v>58</v>
       </c>
       <c r="AI15" s="94" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-    </row>
-    <row r="16" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK15" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="92"/>
+    </row>
+    <row r="16" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="103"/>
       <c r="C16" s="49">
         <v>14</v>
@@ -3775,25 +3794,25 @@
       <c r="W16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
       <c r="AE16" s="93"/>
-      <c r="AF16" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG16" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH16" s="94" t="s">
-        <v>126</v>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="97" t="s">
+        <v>59</v>
       </c>
       <c r="AI16" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-    </row>
-    <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK16" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+    </row>
+    <row r="17" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="103"/>
       <c r="C17" s="49">
         <v>15</v>
@@ -3834,25 +3853,25 @@
       <c r="W17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
       <c r="AE17" s="93"/>
-      <c r="AF17" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG17" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH17" s="94" t="s">
-        <v>127</v>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="97" t="s">
+        <v>60</v>
       </c>
       <c r="AI17" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="92"/>
-    </row>
-    <row r="18" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK17" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+    </row>
+    <row r="18" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="103"/>
       <c r="C18" s="49">
         <v>16</v>
@@ -3893,25 +3912,25 @@
       <c r="W18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
       <c r="AE18" s="93"/>
-      <c r="AF18" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG18" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH18" s="94" t="s">
-        <v>128</v>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="97" t="s">
+        <v>61</v>
       </c>
       <c r="AI18" s="94" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-    </row>
-    <row r="19" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="AJ18" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK18" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+    </row>
+    <row r="19" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="103"/>
       <c r="C19" s="49">
         <v>17</v>
@@ -3952,25 +3971,25 @@
       <c r="W19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
       <c r="AE19" s="93"/>
-      <c r="AF19" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH19" s="94" t="s">
-        <v>129</v>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="97" t="s">
+        <v>62</v>
       </c>
       <c r="AI19" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-    </row>
-    <row r="20" spans="2:37" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="AJ19" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK19" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+    </row>
+    <row r="20" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="103"/>
       <c r="C20" s="49">
         <v>18</v>
@@ -4011,25 +4030,25 @@
       <c r="W20" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
       <c r="AE20" s="93"/>
-      <c r="AF20" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG20" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH20" s="94" t="s">
-        <v>130</v>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="AI20" s="94" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-    </row>
-    <row r="21" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="AJ20" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK20" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+    </row>
+    <row r="21" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="103"/>
       <c r="C21" s="49">
         <v>19</v>
@@ -4070,23 +4089,23 @@
       <c r="W21" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
       <c r="AE21" s="93"/>
       <c r="AF21" s="93"/>
-      <c r="AG21" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH21" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI21" s="94" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-    </row>
-    <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ21" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK21" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="92"/>
+    </row>
+    <row r="22" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="103"/>
       <c r="C22" s="49">
         <v>20</v>
@@ -4127,23 +4146,23 @@
       <c r="W22" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
       <c r="AE22" s="93"/>
       <c r="AF22" s="93"/>
-      <c r="AG22" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH22" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI22" s="94" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-    </row>
-    <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ22" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK22" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="92"/>
+    </row>
+    <row r="23" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="103"/>
       <c r="C23" s="49">
         <v>21</v>
@@ -4184,23 +4203,23 @@
       <c r="W23" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
       <c r="AE23" s="93"/>
       <c r="AF23" s="93"/>
-      <c r="AG23" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH23" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI23" s="94" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-    </row>
-    <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ23" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK23" s="94" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="92"/>
+    </row>
+    <row r="24" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="103"/>
       <c r="C24" s="49">
         <v>22</v>
@@ -4241,23 +4260,23 @@
       <c r="W24" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
       <c r="AE24" s="93"/>
       <c r="AF24" s="93"/>
-      <c r="AG24" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH24" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI24" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-    </row>
-    <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ24" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK24" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+    </row>
+    <row r="25" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="103"/>
       <c r="C25" s="49">
         <v>23</v>
@@ -4298,23 +4317,23 @@
       <c r="W25" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
       <c r="AE25" s="93"/>
       <c r="AF25" s="93"/>
-      <c r="AG25" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH25" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI25" s="94" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="92"/>
-    </row>
-    <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ25" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK25" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="92"/>
+    </row>
+    <row r="26" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="103"/>
       <c r="C26" s="49">
         <v>24</v>
@@ -4355,23 +4374,23 @@
       <c r="W26" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
       <c r="AE26" s="93"/>
       <c r="AF26" s="93"/>
-      <c r="AG26" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH26" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI26" s="94" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="92"/>
-    </row>
-    <row r="27" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ26" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK26" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="92"/>
+    </row>
+    <row r="27" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="103"/>
       <c r="C27" s="49">
         <v>25</v>
@@ -4412,23 +4431,23 @@
       <c r="W27" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
       <c r="AE27" s="93"/>
       <c r="AF27" s="93"/>
-      <c r="AG27" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH27" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI27" s="94" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="92"/>
-    </row>
-    <row r="28" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ27" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK27" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="92"/>
+    </row>
+    <row r="28" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="103"/>
       <c r="C28" s="49">
         <v>26</v>
@@ -4469,23 +4488,23 @@
       <c r="W28" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
       <c r="AE28" s="93"/>
       <c r="AF28" s="93"/>
-      <c r="AG28" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH28" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI28" s="94" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-    </row>
-    <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ28" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK28" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+    </row>
+    <row r="29" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="103"/>
       <c r="C29" s="49">
         <v>27</v>
@@ -4526,23 +4545,23 @@
       <c r="W29" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
       <c r="AE29" s="93"/>
       <c r="AF29" s="93"/>
-      <c r="AG29" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH29" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI29" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="92"/>
-    </row>
-    <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ29" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK29" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL29" s="92"/>
+      <c r="AM29" s="92"/>
+    </row>
+    <row r="30" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="103"/>
       <c r="C30" s="49">
         <v>28</v>
@@ -4583,23 +4602,23 @@
       <c r="W30" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
       <c r="AE30" s="93"/>
       <c r="AF30" s="93"/>
-      <c r="AG30" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH30" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI30" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="92"/>
-    </row>
-    <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ30" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK30" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="92"/>
+    </row>
+    <row r="31" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="103"/>
       <c r="C31" s="49">
         <v>29</v>
@@ -4640,23 +4659,23 @@
       <c r="W31" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
       <c r="AE31" s="93"/>
       <c r="AF31" s="93"/>
-      <c r="AG31" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH31" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI31" s="94" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="92"/>
-    </row>
-    <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ31" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK31" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="92"/>
+    </row>
+    <row r="32" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="103"/>
       <c r="C32" s="49">
         <v>30</v>
@@ -4697,23 +4716,23 @@
       <c r="W32" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
       <c r="AE32" s="93"/>
       <c r="AF32" s="93"/>
-      <c r="AG32" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH32" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI32" s="94" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ32" s="92"/>
-      <c r="AK32" s="92"/>
-    </row>
-    <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ32" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK32" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="92"/>
+    </row>
+    <row r="33" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="103"/>
       <c r="C33" s="49">
         <v>31</v>
@@ -4754,23 +4773,23 @@
       <c r="W33" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
       <c r="AE33" s="93"/>
       <c r="AF33" s="93"/>
-      <c r="AG33" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH33" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI33" s="94" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-    </row>
-    <row r="34" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK33" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL33" s="92"/>
+      <c r="AM33" s="92"/>
+    </row>
+    <row r="34" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="103"/>
       <c r="C34" s="49">
         <v>32</v>
@@ -4811,21 +4830,21 @@
       <c r="W34" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
       <c r="AE34" s="93"/>
       <c r="AF34" s="93"/>
-      <c r="AG34" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH34" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI34" s="94" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ34" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK34" s="94" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="103"/>
       <c r="C35" s="49">
         <v>33</v>
@@ -4866,21 +4885,21 @@
       <c r="W35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
       <c r="AE35" s="92"/>
       <c r="AF35" s="92"/>
-      <c r="AG35" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH35" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI35" s="94" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ35" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK35" s="94" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="103"/>
       <c r="C36" s="49">
         <v>34</v>
@@ -4921,17 +4940,17 @@
       <c r="W36" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG36" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH36" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI36" s="94" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI36" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ36" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK36" s="94" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="103"/>
       <c r="C37" s="49">
         <v>35</v>
@@ -4972,17 +4991,17 @@
       <c r="W37" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG37" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH37" s="94" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI37" s="94" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI37" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ37" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK37" s="94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="103"/>
       <c r="C38" s="49">
         <v>36</v>
@@ -5023,17 +5042,17 @@
       <c r="W38" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG38" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH38" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI38" s="94" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI38" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ38" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK38" s="94" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="103"/>
       <c r="C39" s="49">
         <v>37</v>
@@ -5074,17 +5093,17 @@
       <c r="W39" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG39" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH39" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI39" s="94" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI39" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ39" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK39" s="94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="103"/>
       <c r="C40" s="49">
         <v>38</v>
@@ -5125,17 +5144,17 @@
       <c r="W40" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG40" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH40" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI40" s="94" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI40" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ40" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK40" s="94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="103"/>
       <c r="C41" s="49">
         <v>39</v>
@@ -5176,17 +5195,17 @@
       <c r="W41" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG41" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH41" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI41" s="94" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI41" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ41" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK41" s="94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="103"/>
       <c r="C42" s="49">
         <v>40</v>
@@ -5227,17 +5246,17 @@
       <c r="W42" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG42" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH42" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI42" s="94" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI42" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ42" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK42" s="94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="103"/>
       <c r="C43" s="49">
         <v>41</v>
@@ -5278,17 +5297,17 @@
       <c r="W43" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG43" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH43" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI43" s="94" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI43" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ43" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK43" s="94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="103"/>
       <c r="C44" s="49">
         <v>42</v>
@@ -5329,17 +5348,17 @@
       <c r="W44" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG44" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH44" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI44" s="94" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI44" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ44" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK44" s="94" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="103"/>
       <c r="C45" s="49">
         <v>43</v>
@@ -5380,17 +5399,17 @@
       <c r="W45" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG45" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH45" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI45" s="94" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI45" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ45" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK45" s="94" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="103"/>
       <c r="C46" s="49">
         <v>44</v>
@@ -5431,17 +5450,17 @@
       <c r="W46" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG46" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH46" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI46" s="94" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI46" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ46" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK46" s="94" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="103"/>
       <c r="C47" s="49">
         <v>45</v>
@@ -5482,17 +5501,17 @@
       <c r="W47" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG47" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH47" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI47" s="94" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI47" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ47" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK47" s="94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="103"/>
       <c r="C48" s="49">
         <v>46</v>
@@ -5533,17 +5552,17 @@
       <c r="W48" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG48" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH48" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI48" s="94" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI48" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ48" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK48" s="94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="103"/>
       <c r="C49" s="49">
         <v>47</v>
@@ -5584,17 +5603,17 @@
       <c r="W49" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG49" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH49" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI49" s="94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI49" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ49" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK49" s="94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="103"/>
       <c r="C50" s="49">
         <v>48</v>
@@ -5635,17 +5654,17 @@
       <c r="W50" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG50" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH50" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI50" s="94" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI50" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ50" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK50" s="94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="103"/>
       <c r="C51" s="49">
         <v>49</v>
@@ -5686,17 +5705,17 @@
       <c r="W51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG51" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH51" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI51" s="94" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI51" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ51" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK51" s="94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="103"/>
       <c r="C52" s="49">
         <v>50</v>
@@ -5737,17 +5756,17 @@
       <c r="W52" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG52" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH52" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI52" s="94" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI52" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ52" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK52" s="94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="103"/>
       <c r="C53" s="49">
         <v>51</v>
@@ -5788,17 +5807,17 @@
       <c r="W53" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG53" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH53" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI53" s="94" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI53" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ53" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK53" s="94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="103"/>
       <c r="C54" s="49">
         <v>52</v>
@@ -5839,17 +5858,17 @@
       <c r="W54" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG54" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH54" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI54" s="94" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI54" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ54" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK54" s="94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="103"/>
       <c r="C55" s="49">
         <v>53</v>
@@ -5890,17 +5909,17 @@
       <c r="W55" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG55" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH55" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI55" s="94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI55" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ55" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK55" s="94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="103"/>
       <c r="C56" s="49">
         <v>54</v>
@@ -5941,17 +5960,17 @@
       <c r="W56" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AG56" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH56" s="94" t="s">
+      <c r="AI56" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="AI56" s="94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK56" s="94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="103"/>
       <c r="C57" s="49">
         <v>55</v>
@@ -5992,14 +6011,14 @@
       <c r="W57" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH57" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI57" s="94" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK57" s="94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="103"/>
       <c r="C58" s="49">
         <v>56</v>
@@ -6040,14 +6059,14 @@
       <c r="W58" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH58" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI58" s="94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK58" s="94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="103"/>
       <c r="C59" s="49">
         <v>57</v>
@@ -6088,14 +6107,14 @@
       <c r="W59" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH59" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI59" s="94" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK59" s="94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="103"/>
       <c r="C60" s="49">
         <v>58</v>
@@ -6136,14 +6155,14 @@
       <c r="W60" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH60" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI60" s="94" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK60" s="94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="103"/>
       <c r="C61" s="49">
         <v>59</v>
@@ -6184,14 +6203,14 @@
       <c r="W61" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH61" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI61" s="94" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK61" s="94" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="103"/>
       <c r="C62" s="49">
         <v>60</v>
@@ -6232,14 +6251,14 @@
       <c r="W62" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH62" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI62" s="94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK62" s="94" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="103"/>
       <c r="C63" s="49">
         <v>61</v>
@@ -6280,14 +6299,14 @@
       <c r="W63" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH63" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI63" s="94" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK63" s="94" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="103"/>
       <c r="C64" s="49">
         <v>62</v>
@@ -6328,14 +6347,14 @@
       <c r="W64" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH64" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI64" s="94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK64" s="94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="103"/>
       <c r="C65" s="49">
         <v>63</v>
@@ -6376,14 +6395,14 @@
       <c r="W65" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH65" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI65" s="94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK65" s="94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="103"/>
       <c r="C66" s="49">
         <v>64</v>
@@ -6424,14 +6443,14 @@
       <c r="W66" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH66" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI66" s="94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK66" s="94" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="103"/>
       <c r="C67" s="49">
         <v>65</v>
@@ -6472,14 +6491,14 @@
       <c r="W67" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH67" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI67" s="94" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK67" s="94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="103"/>
       <c r="C68" s="49">
         <v>66</v>
@@ -6520,14 +6539,14 @@
       <c r="W68" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH68" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI68" s="94" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK68" s="94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="103"/>
       <c r="C69" s="49">
         <v>67</v>
@@ -6568,14 +6587,14 @@
       <c r="W69" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH69" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI69" s="94" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK69" s="94" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="103"/>
       <c r="C70" s="49">
         <v>68</v>
@@ -6616,14 +6635,14 @@
       <c r="W70" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH70" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI70" s="94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ70" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK70" s="94" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="103"/>
       <c r="C71" s="49">
         <v>69</v>
@@ -6664,14 +6683,14 @@
       <c r="W71" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH71" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI71" s="94" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ71" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK71" s="94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="103"/>
       <c r="C72" s="49">
         <v>70</v>
@@ -6712,14 +6731,14 @@
       <c r="W72" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH72" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI72" s="94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ72" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK72" s="94" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="103"/>
       <c r="C73" s="49">
         <v>71</v>
@@ -6760,14 +6779,14 @@
       <c r="W73" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH73" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI73" s="94" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ73" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK73" s="94" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="103"/>
       <c r="C74" s="49">
         <v>72</v>
@@ -6808,14 +6827,14 @@
       <c r="W74" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH74" s="98" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI74" s="94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ74" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK74" s="94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="103"/>
       <c r="C75" s="49">
         <v>73</v>
@@ -6856,14 +6875,14 @@
       <c r="W75" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH75" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI75" s="94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ75" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK75" s="94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="103"/>
       <c r="C76" s="49">
         <v>74</v>
@@ -6904,14 +6923,14 @@
       <c r="W76" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH76" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI76" s="94" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ76" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK76" s="94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="103"/>
       <c r="C77" s="49">
         <v>75</v>
@@ -6952,14 +6971,14 @@
       <c r="W77" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH77" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI77" s="94" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ77" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK77" s="94" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="103"/>
       <c r="C78" s="49">
         <v>76</v>
@@ -7000,14 +7019,14 @@
       <c r="W78" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH78" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI78" s="94" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK78" s="94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="103"/>
       <c r="C79" s="49">
         <v>77</v>
@@ -7048,14 +7067,14 @@
       <c r="W79" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH79" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI79" s="94" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ79" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK79" s="94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="103"/>
       <c r="C80" s="49">
         <v>78</v>
@@ -7096,14 +7115,14 @@
       <c r="W80" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH80" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI80" s="94" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ80" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK80" s="94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="103"/>
       <c r="C81" s="49">
         <v>79</v>
@@ -7144,14 +7163,14 @@
       <c r="W81" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH81" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI81" s="94" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ81" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK81" s="94" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="103"/>
       <c r="C82" s="49">
         <v>80</v>
@@ -7192,14 +7211,14 @@
       <c r="W82" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH82" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI82" s="94" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ82" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK82" s="94" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="103"/>
       <c r="C83" s="49">
         <v>81</v>
@@ -7240,14 +7259,14 @@
       <c r="W83" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH83" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI83" s="94" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ83" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK83" s="94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="103"/>
       <c r="C84" s="49">
         <v>82</v>
@@ -7288,14 +7307,14 @@
       <c r="W84" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH84" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI84" s="94" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="85" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ84" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK84" s="94" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="85" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="103"/>
       <c r="C85" s="49">
         <v>83</v>
@@ -7336,14 +7355,14 @@
       <c r="W85" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH85" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI85" s="94" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ85" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK85" s="94" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="103"/>
       <c r="C86" s="49">
         <v>84</v>
@@ -7384,14 +7403,14 @@
       <c r="W86" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH86" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI86" s="94" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ86" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK86" s="94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="103"/>
       <c r="C87" s="49">
         <v>85</v>
@@ -7432,14 +7451,14 @@
       <c r="W87" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH87" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI87" s="94" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ87" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK87" s="94" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="103"/>
       <c r="C88" s="49">
         <v>86</v>
@@ -7480,14 +7499,14 @@
       <c r="W88" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH88" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI88" s="94" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ88" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK88" s="94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="103"/>
       <c r="C89" s="49">
         <v>87</v>
@@ -7528,14 +7547,14 @@
       <c r="W89" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH89" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI89" s="94" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ89" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK89" s="94" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="103"/>
       <c r="C90" s="49">
         <v>88</v>
@@ -7576,14 +7595,14 @@
       <c r="W90" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH90" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI90" s="94" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ90" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK90" s="94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="103"/>
       <c r="C91" s="49">
         <v>89</v>
@@ -7624,14 +7643,14 @@
       <c r="W91" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH91" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI91" s="94" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ91" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK91" s="94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="103"/>
       <c r="C92" s="49">
         <v>90</v>
@@ -7672,14 +7691,14 @@
       <c r="W92" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH92" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI92" s="94" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ92" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK92" s="94" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="93" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="103"/>
       <c r="C93" s="49">
         <v>91</v>
@@ -7720,14 +7739,14 @@
       <c r="W93" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH93" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI93" s="94" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ93" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK93" s="94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="103"/>
       <c r="C94" s="49">
         <v>92</v>
@@ -7768,14 +7787,14 @@
       <c r="W94" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH94" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI94" s="94" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ94" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK94" s="94" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="103"/>
       <c r="C95" s="49">
         <v>93</v>
@@ -7816,14 +7835,14 @@
       <c r="W95" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH95" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI95" s="94" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ95" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK95" s="94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="103"/>
       <c r="C96" s="49">
         <v>94</v>
@@ -7864,14 +7883,14 @@
       <c r="W96" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH96" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI96" s="94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ96" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK96" s="94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="103"/>
       <c r="C97" s="49">
         <v>95</v>
@@ -7912,14 +7931,14 @@
       <c r="W97" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH97" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI97" s="94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK97" s="94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="103"/>
       <c r="C98" s="49">
         <v>96</v>
@@ -7960,14 +7979,14 @@
       <c r="W98" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH98" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI98" s="94" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ98" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK98" s="94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="103"/>
       <c r="C99" s="49">
         <v>97</v>
@@ -8008,14 +8027,14 @@
       <c r="W99" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH99" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI99" s="94" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ99" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK99" s="94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="103"/>
       <c r="C100" s="49">
         <v>98</v>
@@ -8056,14 +8075,14 @@
       <c r="W100" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH100" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI100" s="94" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK100" s="94" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="103"/>
       <c r="C101" s="49">
         <v>99</v>
@@ -8104,14 +8123,14 @@
       <c r="W101" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH101" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI101" s="94" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ101" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK101" s="94" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="103"/>
       <c r="C102" s="49">
         <v>100</v>
@@ -8152,15 +8171,15 @@
       <c r="W102" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH102" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI102" s="94" t="s">
-        <v>375</v>
-      </c>
-      <c r="AQ102" s="51"/>
-    </row>
-    <row r="103" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ102" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK102" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS102" s="51"/>
+    </row>
+    <row r="103" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="103"/>
       <c r="C103" s="49">
         <v>101</v>
@@ -8201,17 +8220,17 @@
       <c r="W103" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI103" s="94" t="s">
-        <v>376</v>
-      </c>
-      <c r="AN103" s="51"/>
-      <c r="AO103" s="51"/>
+      <c r="AJ103" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK103" s="94" t="s">
+        <v>375</v>
+      </c>
       <c r="AP103" s="51"/>
-    </row>
-    <row r="104" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+    </row>
+    <row r="104" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="103"/>
       <c r="C104" s="49">
         <v>102</v>
@@ -8252,22 +8271,22 @@
       <c r="W104" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC104" s="51"/>
-      <c r="AD104" s="51"/>
       <c r="AE104" s="51"/>
       <c r="AF104" s="51"/>
       <c r="AG104" s="51"/>
-      <c r="AH104" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI104" s="94" t="s">
-        <v>377</v>
-      </c>
-      <c r="AN104" s="51"/>
-      <c r="AO104" s="51"/>
+      <c r="AH104" s="51"/>
+      <c r="AI104" s="51"/>
+      <c r="AJ104" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK104" s="94" t="s">
+        <v>376</v>
+      </c>
       <c r="AP104" s="51"/>
-    </row>
-    <row r="105" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ104" s="51"/>
+      <c r="AR104" s="51"/>
+    </row>
+    <row r="105" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="103"/>
       <c r="C105" s="49">
         <v>103</v>
@@ -8308,22 +8327,22 @@
       <c r="W105" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC105" s="51"/>
-      <c r="AD105" s="51"/>
       <c r="AE105" s="51"/>
       <c r="AF105" s="51"/>
       <c r="AG105" s="51"/>
-      <c r="AH105" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI105" s="94" t="s">
-        <v>378</v>
-      </c>
-      <c r="AN105" s="51"/>
-      <c r="AO105" s="51"/>
+      <c r="AH105" s="51"/>
+      <c r="AI105" s="51"/>
+      <c r="AJ105" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK105" s="94" t="s">
+        <v>377</v>
+      </c>
       <c r="AP105" s="51"/>
-    </row>
-    <row r="106" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ105" s="51"/>
+      <c r="AR105" s="51"/>
+    </row>
+    <row r="106" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="103"/>
       <c r="C106" s="49">
         <v>104</v>
@@ -8364,24 +8383,24 @@
       <c r="W106" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC106" s="51"/>
-      <c r="AD106" s="51"/>
       <c r="AE106" s="51"/>
       <c r="AF106" s="51"/>
       <c r="AG106" s="51"/>
-      <c r="AH106" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI106" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="AN106" s="51"/>
-      <c r="AO106" s="51"/>
+      <c r="AH106" s="51"/>
+      <c r="AI106" s="51"/>
+      <c r="AJ106" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK106" s="94" t="s">
+        <v>378</v>
+      </c>
       <c r="AP106" s="51"/>
       <c r="AQ106" s="51"/>
       <c r="AR106" s="51"/>
-    </row>
-    <row r="107" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS106" s="51"/>
+      <c r="AT106" s="51"/>
+    </row>
+    <row r="107" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="103"/>
       <c r="C107" s="49">
         <v>105</v>
@@ -8422,19 +8441,19 @@
       <c r="W107" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH107" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI107" s="94" t="s">
-        <v>380</v>
-      </c>
-      <c r="AN107" s="51"/>
-      <c r="AO107" s="51"/>
+      <c r="AJ107" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK107" s="94" t="s">
+        <v>379</v>
+      </c>
       <c r="AP107" s="51"/>
       <c r="AQ107" s="51"/>
       <c r="AR107" s="51"/>
-    </row>
-    <row r="108" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS107" s="51"/>
+      <c r="AT107" s="51"/>
+    </row>
+    <row r="108" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="103"/>
       <c r="C108" s="49">
         <v>106</v>
@@ -8475,16 +8494,16 @@
       <c r="W108" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH108" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI108" s="94" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ108" s="51"/>
-      <c r="AR108" s="51"/>
-    </row>
-    <row r="109" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ108" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK108" s="94" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS108" s="51"/>
+      <c r="AT108" s="51"/>
+    </row>
+    <row r="109" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="103"/>
       <c r="C109" s="49">
         <v>107</v>
@@ -8525,15 +8544,15 @@
       <c r="W109" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH109" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI109" s="94" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ109" s="51"/>
-    </row>
-    <row r="110" spans="2:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK109" s="94" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS109" s="51"/>
+    </row>
+    <row r="110" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="104"/>
       <c r="C110" s="49">
         <v>108</v>
@@ -8574,20 +8593,20 @@
       <c r="W110" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC110" s="51"/>
-      <c r="AD110" s="51"/>
       <c r="AE110" s="51"/>
       <c r="AF110" s="51"/>
       <c r="AG110" s="51"/>
-      <c r="AH110" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI110" s="94" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ110" s="51"/>
-    </row>
-    <row r="111" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH110" s="51"/>
+      <c r="AI110" s="51"/>
+      <c r="AJ110" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK110" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS110" s="51"/>
+    </row>
+    <row r="111" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="102" t="s">
         <v>3</v>
       </c>
@@ -8630,19 +8649,19 @@
       <c r="W111" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH111" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI111" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN111" s="1"/>
-      <c r="AO111" s="1"/>
+      <c r="AJ111" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK111" s="95" t="s">
+        <v>383</v>
+      </c>
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
       <c r="AR111" s="1"/>
-    </row>
-    <row r="112" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+    </row>
+    <row r="112" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="103"/>
       <c r="C112" s="49">
         <v>110</v>
@@ -8683,15 +8702,15 @@
       <c r="W112" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH112" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI112" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ112" s="1"/>
-    </row>
-    <row r="113" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ112" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK112" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS112" s="1"/>
+    </row>
+    <row r="113" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="103"/>
       <c r="C113" s="49">
         <v>111</v>
@@ -8732,15 +8751,15 @@
       <c r="W113" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH113" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI113" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="AQ113" s="1"/>
-    </row>
-    <row r="114" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ113" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK113" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS113" s="1"/>
+    </row>
+    <row r="114" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="103"/>
       <c r="C114" s="49">
         <v>112</v>
@@ -8781,23 +8800,23 @@
       <c r="W114" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC114" s="51"/>
-      <c r="AD114" s="51"/>
       <c r="AE114" s="51"/>
       <c r="AF114" s="51"/>
       <c r="AG114" s="51"/>
-      <c r="AH114" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI114" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN114" s="51"/>
-      <c r="AO114" s="51"/>
+      <c r="AH114" s="51"/>
+      <c r="AI114" s="51"/>
+      <c r="AJ114" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK114" s="95" t="s">
+        <v>387</v>
+      </c>
       <c r="AP114" s="51"/>
+      <c r="AQ114" s="51"/>
       <c r="AR114" s="51"/>
-    </row>
-    <row r="115" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT114" s="51"/>
+    </row>
+    <row r="115" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="103"/>
       <c r="C115" s="49">
         <v>113</v>
@@ -8838,16 +8857,16 @@
       <c r="W115" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH115" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI115" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AQ115" s="51"/>
-      <c r="AR115" s="51"/>
-    </row>
-    <row r="116" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ115" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK115" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS115" s="51"/>
+      <c r="AT115" s="51"/>
+    </row>
+    <row r="116" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="103"/>
       <c r="C116" s="49">
         <v>114</v>
@@ -8888,16 +8907,16 @@
       <c r="W116" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH116" s="97" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI116" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ116" s="51"/>
-      <c r="AR116" s="51"/>
-    </row>
-    <row r="117" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ116" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK116" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AS116" s="51"/>
+      <c r="AT116" s="51"/>
+    </row>
+    <row r="117" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="103"/>
       <c r="C117" s="49">
         <v>115</v>
@@ -8938,23 +8957,23 @@
       <c r="W117" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
-      <c r="AH117" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI117" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="AN117" s="1"/>
-      <c r="AO117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK117" s="95" t="s">
+        <v>390</v>
+      </c>
       <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
       <c r="AR117" s="1"/>
-    </row>
-    <row r="118" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT117" s="1"/>
+    </row>
+    <row r="118" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="103"/>
       <c r="C118" s="49">
         <v>116</v>
@@ -8995,24 +9014,24 @@
       <c r="W118" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
-      <c r="AH118" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI118" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN118" s="1"/>
-      <c r="AO118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK118" s="95" t="s">
+        <v>391</v>
+      </c>
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
       <c r="AR118" s="1"/>
-    </row>
-    <row r="119" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+    </row>
+    <row r="119" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="103"/>
       <c r="C119" s="49">
         <v>117</v>
@@ -9053,18 +9072,18 @@
       <c r="W119" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH119" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI119" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL119" s="1"/>
-      <c r="AM119" s="1"/>
+      <c r="AJ119" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK119" s="95" t="s">
+        <v>392</v>
+      </c>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
-    </row>
-    <row r="120" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+    </row>
+    <row r="120" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="103"/>
       <c r="C120" s="49">
         <v>118</v>
@@ -9105,19 +9124,19 @@
       <c r="W120" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH120" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI120" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM120" s="1"/>
-      <c r="AN120" s="1"/>
+      <c r="AJ120" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK120" s="95" t="s">
+        <v>393</v>
+      </c>
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
-    </row>
-    <row r="121" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+    </row>
+    <row r="121" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="103"/>
       <c r="C121" s="49">
         <v>119</v>
@@ -9158,18 +9177,18 @@
       <c r="W121" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH121" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI121" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="AM121" s="1"/>
-      <c r="AN121" s="1"/>
+      <c r="AJ121" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK121" s="95" t="s">
+        <v>394</v>
+      </c>
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
-    </row>
-    <row r="122" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+    </row>
+    <row r="122" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="103"/>
       <c r="C122" s="49">
         <v>120</v>
@@ -9210,15 +9229,15 @@
       <c r="W122" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH122" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI122" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO122" s="51"/>
-    </row>
-    <row r="123" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ122" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK122" s="95" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ122" s="51"/>
+    </row>
+    <row r="123" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="103"/>
       <c r="C123" s="49">
         <v>121</v>
@@ -9259,15 +9278,15 @@
       <c r="W123" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH123" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI123" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="AO123" s="51"/>
-    </row>
-    <row r="124" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ123" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK123" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="AQ123" s="51"/>
+    </row>
+    <row r="124" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="103"/>
       <c r="C124" s="49">
         <v>122</v>
@@ -9308,14 +9327,14 @@
       <c r="W124" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH124" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI124" s="95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ124" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK124" s="95" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="103"/>
       <c r="C125" s="49">
         <v>123</v>
@@ -9356,14 +9375,14 @@
       <c r="W125" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH125" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI125" s="98" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="126" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ125" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK125" s="98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="126" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="103"/>
       <c r="C126" s="49">
         <v>124</v>
@@ -9404,19 +9423,19 @@
       <c r="W126" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
-      <c r="AH126" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI126" s="98" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK126" s="98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="103"/>
       <c r="C127" s="49">
         <v>125</v>
@@ -9457,19 +9476,19 @@
       <c r="W127" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
-      <c r="AH127" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI127" s="98" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK127" s="98" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="103"/>
       <c r="C128" s="49">
         <v>126</v>
@@ -9510,19 +9529,19 @@
       <c r="W128" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
-      <c r="AH128" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI128" s="98" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK128" s="98" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="103"/>
       <c r="C129" s="49">
         <v>127</v>
@@ -9563,14 +9582,14 @@
       <c r="W129" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH129" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI129" s="98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="130" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ129" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK129" s="98" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="103"/>
       <c r="C130" s="49">
         <v>128</v>
@@ -9611,14 +9630,14 @@
       <c r="W130" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH130" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI130" s="98" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ130" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK130" s="98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="103"/>
       <c r="C131" s="49">
         <v>129</v>
@@ -9659,14 +9678,14 @@
       <c r="W131" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH131" s="97" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI131" s="98" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ131" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK131" s="98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="103"/>
       <c r="C132" s="49">
         <v>130</v>
@@ -9707,14 +9726,14 @@
       <c r="W132" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH132" s="97" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI132" s="98" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ132" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK132" s="98" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="103"/>
       <c r="C133" s="49">
         <v>131</v>
@@ -9755,14 +9774,14 @@
       <c r="W133" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH133" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI133" s="98" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ133" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK133" s="98" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="103"/>
       <c r="C134" s="49">
         <v>132</v>
@@ -9803,14 +9822,14 @@
       <c r="W134" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH134" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI134" s="98" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ134" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK134" s="98" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="103"/>
       <c r="C135" s="49">
         <v>133</v>
@@ -9851,14 +9870,14 @@
       <c r="W135" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH135" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI135" s="98" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="136" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ135" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK135" s="98" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="103"/>
       <c r="C136" s="49">
         <v>134</v>
@@ -9899,14 +9918,14 @@
       <c r="W136" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH136" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI136" s="98" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="137" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ136" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK136" s="98" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="137" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="103"/>
       <c r="C137" s="49">
         <v>135</v>
@@ -9947,14 +9966,14 @@
       <c r="W137" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH137" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI137" s="98" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="138" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ137" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK137" s="98" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="103"/>
       <c r="C138" s="49">
         <v>136</v>
@@ -9995,14 +10014,14 @@
       <c r="W138" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH138" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI138" s="98" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ138" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK138" s="98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="103"/>
       <c r="C139" s="49">
         <v>137</v>
@@ -10043,14 +10062,14 @@
       <c r="W139" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH139" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI139" s="98" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ139" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK139" s="98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="103"/>
       <c r="C140" s="49">
         <v>138</v>
@@ -10091,14 +10110,14 @@
       <c r="W140" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH140" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI140" s="98" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="141" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ140" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK140" s="98" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="103"/>
       <c r="C141" s="49">
         <v>139</v>
@@ -10139,14 +10158,14 @@
       <c r="W141" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH141" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI141" s="98" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="142" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ141" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK141" s="98" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="142" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="103"/>
       <c r="C142" s="49">
         <v>140</v>
@@ -10187,14 +10206,14 @@
       <c r="W142" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH142" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI142" s="98" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="143" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ142" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK142" s="98" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="103"/>
       <c r="C143" s="49">
         <v>141</v>
@@ -10235,14 +10254,14 @@
       <c r="W143" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH143" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI143" s="98" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="144" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ143" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK143" s="98" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="144" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="103"/>
       <c r="C144" s="49">
         <v>142</v>
@@ -10283,14 +10302,14 @@
       <c r="W144" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH144" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI144" s="98" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ144" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK144" s="98" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="145" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="103"/>
       <c r="C145" s="49">
         <v>143</v>
@@ -10331,14 +10350,14 @@
       <c r="W145" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH145" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI145" s="98" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ145" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK145" s="98" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="103"/>
       <c r="C146" s="49">
         <v>144</v>
@@ -10379,14 +10398,14 @@
       <c r="W146" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH146" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI146" s="98" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ146" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK146" s="98" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="147" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="103"/>
       <c r="C147" s="49">
         <v>145</v>
@@ -10427,14 +10446,14 @@
       <c r="W147" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH147" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI147" s="98" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ147" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK147" s="98" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="103"/>
       <c r="C148" s="49">
         <v>146</v>
@@ -10475,14 +10494,14 @@
       <c r="W148" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH148" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI148" s="98" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="149" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ148" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK148" s="98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="103"/>
       <c r="C149" s="49">
         <v>147</v>
@@ -10523,14 +10542,14 @@
       <c r="W149" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH149" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI149" s="98" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="150" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ149" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK149" s="98" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="150" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="103"/>
       <c r="C150" s="49">
         <v>148</v>
@@ -10571,14 +10590,14 @@
       <c r="W150" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH150" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI150" s="98" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="151" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ150" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK150" s="98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="103"/>
       <c r="C151" s="49">
         <v>149</v>
@@ -10619,14 +10638,14 @@
       <c r="W151" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH151" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI151" s="98" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ151" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK151" s="98" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="103"/>
       <c r="C152" s="49">
         <v>150</v>
@@ -10667,14 +10686,14 @@
       <c r="W152" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH152" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI152" s="98" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="153" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ152" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK152" s="98" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="153" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="103"/>
       <c r="C153" s="49">
         <v>151</v>
@@ -10715,14 +10734,14 @@
       <c r="W153" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH153" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI153" s="98" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ153" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK153" s="98" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="103"/>
       <c r="C154" s="49">
         <v>152</v>
@@ -10763,14 +10782,14 @@
       <c r="W154" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH154" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI154" s="98" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ154" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK154" s="98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="103"/>
       <c r="C155" s="49">
         <v>153</v>
@@ -10811,14 +10830,14 @@
       <c r="W155" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH155" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI155" s="98" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="156" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ155" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK155" s="98" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="103"/>
       <c r="C156" s="49">
         <v>154</v>
@@ -10859,14 +10878,14 @@
       <c r="W156" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH156" s="97" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI156" s="98" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="157" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ156" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK156" s="98" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="103"/>
       <c r="C157" s="49">
         <v>155</v>
@@ -10907,14 +10926,14 @@
       <c r="W157" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH157" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI157" s="98" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="158" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ157" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK157" s="98" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="103"/>
       <c r="C158" s="49">
         <v>156</v>
@@ -10955,14 +10974,14 @@
       <c r="W158" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH158" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI158" s="98" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="159" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ158" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK158" s="98" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="103"/>
       <c r="C159" s="49">
         <v>157</v>
@@ -11003,14 +11022,14 @@
       <c r="W159" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH159" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI159" s="98" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="160" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ159" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK159" s="98" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="160" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="103"/>
       <c r="C160" s="49">
         <v>158</v>
@@ -11051,14 +11070,14 @@
       <c r="W160" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH160" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI160" s="98" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="161" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ160" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK160" s="98" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="103"/>
       <c r="C161" s="49">
         <v>159</v>
@@ -11099,14 +11118,14 @@
       <c r="W161" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH161" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI161" s="98" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="162" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ161" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK161" s="98" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="162" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="103"/>
       <c r="C162" s="49">
         <v>160</v>
@@ -11147,14 +11166,14 @@
       <c r="W162" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH162" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI162" s="98" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="163" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ162" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK162" s="98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="103"/>
       <c r="C163" s="49">
         <v>161</v>
@@ -11195,14 +11214,14 @@
       <c r="W163" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AH163" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI163" s="98" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="164" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ163" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK163" s="98" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="103"/>
       <c r="C164" s="49">
         <v>162</v>
@@ -11243,11 +11262,11 @@
       <c r="W164" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI164" s="98" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="165" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK164" s="98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="165" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="103"/>
       <c r="C165" s="49">
         <v>163</v>
@@ -11288,11 +11307,11 @@
       <c r="W165" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI165" s="98" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="166" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK165" s="98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="166" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="103"/>
       <c r="C166" s="49">
         <v>164</v>
@@ -11333,11 +11352,11 @@
       <c r="W166" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI166" s="98" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="167" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK166" s="98" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="103"/>
       <c r="C167" s="49">
         <v>165</v>
@@ -11378,11 +11397,11 @@
       <c r="W167" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI167" s="98" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="168" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK167" s="98" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="168" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="103"/>
       <c r="C168" s="49">
         <v>166</v>
@@ -11423,11 +11442,11 @@
       <c r="W168" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI168" s="98" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="169" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK168" s="98" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="103"/>
       <c r="C169" s="49">
         <v>167</v>
@@ -11468,11 +11487,11 @@
       <c r="W169" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI169" s="98" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="170" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK169" s="98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="103"/>
       <c r="C170" s="49">
         <v>168</v>
@@ -11513,11 +11532,11 @@
       <c r="W170" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI170" s="98" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="171" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK170" s="98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="103"/>
       <c r="C171" s="49">
         <v>169</v>
@@ -11558,11 +11577,11 @@
       <c r="W171" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI171" s="98" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="172" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK171" s="98" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="103"/>
       <c r="C172" s="49">
         <v>170</v>
@@ -11603,11 +11622,11 @@
       <c r="W172" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI172" s="98" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK172" s="98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="173" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="103"/>
       <c r="C173" s="49">
         <v>171</v>
@@ -11648,11 +11667,11 @@
       <c r="W173" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI173" s="98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="174" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK173" s="98" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="103"/>
       <c r="C174" s="49">
         <v>172</v>
@@ -11693,11 +11712,11 @@
       <c r="W174" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI174" s="98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="175" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK174" s="98" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="175" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="103"/>
       <c r="C175" s="49">
         <v>173</v>
@@ -11738,11 +11757,11 @@
       <c r="W175" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI175" s="98" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="176" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK175" s="98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="176" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="103"/>
       <c r="C176" s="49">
         <v>174</v>
@@ -11783,11 +11802,11 @@
       <c r="W176" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI176" s="98" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK176" s="98" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="177" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="103"/>
       <c r="C177" s="49">
         <v>175</v>
@@ -11828,11 +11847,11 @@
       <c r="W177" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI177" s="98" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="178" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK177" s="98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="178" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="103"/>
       <c r="C178" s="49">
         <v>176</v>
@@ -11873,11 +11892,11 @@
       <c r="W178" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI178" s="98" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="179" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK178" s="98" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="179" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="103"/>
       <c r="C179" s="49">
         <v>177</v>
@@ -11918,11 +11937,11 @@
       <c r="W179" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI179" s="98" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="180" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK179" s="98" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="103"/>
       <c r="C180" s="49">
         <v>178</v>
@@ -11963,11 +11982,11 @@
       <c r="W180" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI180" s="98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="181" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK180" s="98" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="103"/>
       <c r="C181" s="49">
         <v>179</v>
@@ -12008,11 +12027,11 @@
       <c r="W181" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI181" s="98" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="182" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK181" s="98" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="103"/>
       <c r="C182" s="49">
         <v>180</v>
@@ -12053,11 +12072,11 @@
       <c r="W182" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI182" s="98" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="183" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK182" s="98" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="103"/>
       <c r="C183" s="49">
         <v>181</v>
@@ -12098,11 +12117,11 @@
       <c r="W183" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI183" s="98" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="184" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK183" s="98" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="184" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="103"/>
       <c r="C184" s="49">
         <v>182</v>
@@ -12143,11 +12162,11 @@
       <c r="W184" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI184" s="98" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="185" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK184" s="98" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="185" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="103"/>
       <c r="C185" s="49">
         <v>183</v>
@@ -12188,11 +12207,11 @@
       <c r="W185" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI185" s="98" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="186" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK185" s="98" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="186" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="103"/>
       <c r="C186" s="49">
         <v>184</v>
@@ -12233,11 +12252,11 @@
       <c r="W186" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI186" s="98" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="187" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK186" s="98" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="187" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="103"/>
       <c r="C187" s="49">
         <v>185</v>
@@ -12278,11 +12297,11 @@
       <c r="W187" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI187" s="98" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="188" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK187" s="98" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="188" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="103"/>
       <c r="C188" s="49">
         <v>186</v>
@@ -12323,11 +12342,11 @@
       <c r="W188" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI188" s="98" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="189" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK188" s="98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="189" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="103"/>
       <c r="C189" s="49">
         <v>187</v>
@@ -12368,11 +12387,11 @@
       <c r="W189" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI189" s="98" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="190" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK189" s="98" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="190" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="103"/>
       <c r="C190" s="49">
         <v>188</v>
@@ -12413,11 +12432,11 @@
       <c r="W190" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI190" s="98" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="191" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK190" s="98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="103"/>
       <c r="C191" s="49">
         <v>189</v>
@@ -12458,11 +12477,11 @@
       <c r="W191" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI191" s="98" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="192" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK191" s="98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="192" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="103"/>
       <c r="C192" s="49">
         <v>190</v>
@@ -12503,11 +12522,11 @@
       <c r="W192" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI192" s="98" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="193" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK192" s="98" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="193" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="103"/>
       <c r="C193" s="49">
         <v>191</v>
@@ -12548,11 +12567,11 @@
       <c r="W193" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI193" s="98" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK193" s="98" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="103"/>
       <c r="C194" s="49">
         <v>192</v>
@@ -12593,11 +12612,11 @@
       <c r="W194" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI194" s="98" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="195" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK194" s="98" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="195" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="103"/>
       <c r="C195" s="49">
         <v>193</v>
@@ -12638,11 +12657,11 @@
       <c r="W195" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI195" s="98" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="196" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK195" s="98" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="196" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="103"/>
       <c r="C196" s="49">
         <v>194</v>
@@ -12683,11 +12702,11 @@
       <c r="W196" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI196" s="98" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="197" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK196" s="98" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="103"/>
       <c r="C197" s="49">
         <v>195</v>
@@ -12728,11 +12747,11 @@
       <c r="W197" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI197" s="98" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="198" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK197" s="98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="198" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="103"/>
       <c r="C198" s="49">
         <v>196</v>
@@ -12773,11 +12792,11 @@
       <c r="W198" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI198" s="98" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="199" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK198" s="98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="103"/>
       <c r="C199" s="49">
         <v>197</v>
@@ -12818,11 +12837,11 @@
       <c r="W199" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI199" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="200" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK199" s="98" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="200" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="103"/>
       <c r="C200" s="49">
         <v>198</v>
@@ -12863,11 +12882,11 @@
       <c r="W200" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI200" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="201" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK200" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="201" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="103"/>
       <c r="C201" s="49">
         <v>199</v>
@@ -12908,11 +12927,11 @@
       <c r="W201" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI201" s="98" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK201" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="103"/>
       <c r="C202" s="49">
         <v>200</v>
@@ -12953,11 +12972,11 @@
       <c r="W202" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI202" s="98" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="203" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK202" s="98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="103"/>
       <c r="C203" s="49">
         <v>201</v>
@@ -12998,11 +13017,11 @@
       <c r="W203" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI203" s="98" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="204" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK203" s="98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="103"/>
       <c r="C204" s="49">
         <v>202</v>
@@ -13043,11 +13062,11 @@
       <c r="W204" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI204" s="98" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="205" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK204" s="98" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="205" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="103"/>
       <c r="C205" s="49">
         <v>203</v>
@@ -13088,14 +13107,14 @@
       <c r="W205" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI205" s="98" t="s">
-        <v>479</v>
-      </c>
-      <c r="AM205" s="51"/>
-      <c r="AN205" s="51"/>
+      <c r="AK205" s="98" t="s">
+        <v>478</v>
+      </c>
       <c r="AO205" s="51"/>
-    </row>
-    <row r="206" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP205" s="51"/>
+      <c r="AQ205" s="51"/>
+    </row>
+    <row r="206" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="103"/>
       <c r="C206" s="49">
         <v>204</v>
@@ -13136,14 +13155,14 @@
       <c r="W206" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI206" s="98" t="s">
-        <v>480</v>
-      </c>
-      <c r="AM206" s="51"/>
-      <c r="AN206" s="51"/>
+      <c r="AK206" s="98" t="s">
+        <v>479</v>
+      </c>
       <c r="AO206" s="51"/>
-    </row>
-    <row r="207" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP206" s="51"/>
+      <c r="AQ206" s="51"/>
+    </row>
+    <row r="207" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="103"/>
       <c r="C207" s="49">
         <v>205</v>
@@ -13184,14 +13203,14 @@
       <c r="W207" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI207" s="98" t="s">
-        <v>481</v>
-      </c>
-      <c r="AM207" s="51"/>
-      <c r="AN207" s="51"/>
+      <c r="AK207" s="98" t="s">
+        <v>480</v>
+      </c>
       <c r="AO207" s="51"/>
-    </row>
-    <row r="208" spans="2:42" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP207" s="51"/>
+      <c r="AQ207" s="51"/>
+    </row>
+    <row r="208" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="103"/>
       <c r="C208" s="49">
         <v>206</v>
@@ -13232,12 +13251,12 @@
       <c r="W208" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI208" s="98" t="s">
-        <v>482</v>
-      </c>
-      <c r="AP208" s="51"/>
-    </row>
-    <row r="209" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK208" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR208" s="51"/>
+    </row>
+    <row r="209" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="103"/>
       <c r="C209" s="49">
         <v>207</v>
@@ -13278,12 +13297,12 @@
       <c r="W209" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI209" s="98" t="s">
-        <v>483</v>
-      </c>
-      <c r="AP209" s="51"/>
-    </row>
-    <row r="210" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK209" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR209" s="51"/>
+    </row>
+    <row r="210" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="103"/>
       <c r="C210" s="49">
         <v>208</v>
@@ -13324,12 +13343,12 @@
       <c r="W210" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI210" s="98" t="s">
-        <v>484</v>
-      </c>
-      <c r="AP210" s="51"/>
-    </row>
-    <row r="211" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK210" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="AR210" s="51"/>
+    </row>
+    <row r="211" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="103"/>
       <c r="C211" s="49">
         <v>209</v>
@@ -13370,15 +13389,15 @@
       <c r="W211" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI211" s="98" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ211" s="51"/>
-      <c r="AM211" s="51"/>
-      <c r="AN211" s="51"/>
+      <c r="AK211" s="98" t="s">
+        <v>484</v>
+      </c>
+      <c r="AL211" s="51"/>
       <c r="AO211" s="51"/>
-    </row>
-    <row r="212" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP211" s="51"/>
+      <c r="AQ211" s="51"/>
+    </row>
+    <row r="212" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="103"/>
       <c r="C212" s="49">
         <v>210</v>
@@ -13419,21 +13438,21 @@
       <c r="W212" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC212" s="51"/>
-      <c r="AD212" s="51"/>
       <c r="AE212" s="51"/>
       <c r="AF212" s="51"/>
       <c r="AG212" s="51"/>
       <c r="AH212" s="51"/>
-      <c r="AI212" s="98" t="s">
-        <v>486</v>
-      </c>
+      <c r="AI212" s="51"/>
       <c r="AJ212" s="51"/>
-      <c r="AM212" s="51"/>
-      <c r="AN212" s="51"/>
+      <c r="AK212" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL212" s="51"/>
       <c r="AO212" s="51"/>
-    </row>
-    <row r="213" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP212" s="51"/>
+      <c r="AQ212" s="51"/>
+    </row>
+    <row r="213" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="103"/>
       <c r="C213" s="49">
         <v>211</v>
@@ -13474,21 +13493,21 @@
       <c r="W213" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC213" s="51"/>
-      <c r="AD213" s="51"/>
       <c r="AE213" s="51"/>
       <c r="AF213" s="51"/>
       <c r="AG213" s="51"/>
       <c r="AH213" s="51"/>
-      <c r="AI213" s="98" t="s">
-        <v>487</v>
-      </c>
+      <c r="AI213" s="51"/>
       <c r="AJ213" s="51"/>
-      <c r="AM213" s="51"/>
-      <c r="AN213" s="51"/>
+      <c r="AK213" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL213" s="51"/>
       <c r="AO213" s="51"/>
-    </row>
-    <row r="214" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP213" s="51"/>
+      <c r="AQ213" s="51"/>
+    </row>
+    <row r="214" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="103"/>
       <c r="C214" s="49">
         <v>212</v>
@@ -13529,22 +13548,22 @@
       <c r="W214" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC214" s="51"/>
-      <c r="AD214" s="51"/>
       <c r="AE214" s="51"/>
       <c r="AF214" s="51"/>
       <c r="AG214" s="51"/>
       <c r="AH214" s="51"/>
-      <c r="AI214" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="AM214" s="51"/>
-      <c r="AN214" s="51"/>
+      <c r="AI214" s="51"/>
+      <c r="AJ214" s="51"/>
+      <c r="AK214" s="98" t="s">
+        <v>487</v>
+      </c>
       <c r="AO214" s="51"/>
       <c r="AP214" s="51"/>
       <c r="AQ214" s="51"/>
-    </row>
-    <row r="215" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR214" s="51"/>
+      <c r="AS214" s="51"/>
+    </row>
+    <row r="215" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="103"/>
       <c r="C215" s="49">
         <v>213</v>
@@ -13585,16 +13604,16 @@
       <c r="W215" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI215" s="98" t="s">
-        <v>489</v>
-      </c>
-      <c r="AM215" s="51"/>
-      <c r="AN215" s="51"/>
+      <c r="AK215" s="98" t="s">
+        <v>488</v>
+      </c>
       <c r="AO215" s="51"/>
       <c r="AP215" s="51"/>
       <c r="AQ215" s="51"/>
-    </row>
-    <row r="216" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR215" s="51"/>
+      <c r="AS215" s="51"/>
+    </row>
+    <row r="216" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="103"/>
       <c r="C216" s="49">
         <v>214</v>
@@ -13635,13 +13654,13 @@
       <c r="W216" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI216" s="98" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP216" s="51"/>
-      <c r="AQ216" s="51"/>
-    </row>
-    <row r="217" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK216" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="AR216" s="51"/>
+      <c r="AS216" s="51"/>
+    </row>
+    <row r="217" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="103"/>
       <c r="C217" s="49">
         <v>215</v>
@@ -13682,13 +13701,13 @@
       <c r="W217" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI217" s="98" t="s">
-        <v>491</v>
-      </c>
-      <c r="AJ217" s="51"/>
-      <c r="AP217" s="51"/>
-    </row>
-    <row r="218" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK217" s="98" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL217" s="51"/>
+      <c r="AR217" s="51"/>
+    </row>
+    <row r="218" spans="2:45" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="104"/>
       <c r="C218" s="49">
         <v>216</v>
@@ -13729,19 +13748,19 @@
       <c r="W218" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC218" s="51"/>
-      <c r="AD218" s="51"/>
       <c r="AE218" s="51"/>
       <c r="AF218" s="51"/>
       <c r="AG218" s="51"/>
       <c r="AH218" s="51"/>
-      <c r="AI218" s="98" t="s">
-        <v>492</v>
-      </c>
+      <c r="AI218" s="51"/>
       <c r="AJ218" s="51"/>
-      <c r="AP218" s="51"/>
-    </row>
-    <row r="219" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK218" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL218" s="51"/>
+      <c r="AR218" s="51"/>
+    </row>
+    <row r="219" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="102" t="s">
         <v>3</v>
       </c>
@@ -13784,16 +13803,16 @@
       <c r="W219" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI219" s="97" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM219" s="1"/>
-      <c r="AN219" s="1"/>
+      <c r="AK219" s="97" t="s">
+        <v>492</v>
+      </c>
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
       <c r="AQ219" s="1"/>
-    </row>
-    <row r="220" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR219" s="1"/>
+      <c r="AS219" s="1"/>
+    </row>
+    <row r="220" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="103"/>
       <c r="C220" s="49">
         <v>218</v>
@@ -13834,12 +13853,12 @@
       <c r="W220" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI220" s="97" t="s">
-        <v>494</v>
-      </c>
-      <c r="AP220" s="1"/>
-    </row>
-    <row r="221" spans="2:43" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK220" s="97" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR220" s="1"/>
+    </row>
+    <row r="221" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="103"/>
       <c r="C221" s="49">
         <v>219</v>
@@ -13880,12 +13899,12 @@
       <c r="W221" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI221" s="97" t="s">
-        <v>495</v>
-      </c>
-      <c r="AP221" s="1"/>
-    </row>
-    <row r="222" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK221" s="97" t="s">
+        <v>494</v>
+      </c>
+      <c r="AR221" s="1"/>
+    </row>
+    <row r="222" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="103"/>
       <c r="C222" s="49">
         <v>220</v>
@@ -13926,21 +13945,21 @@
       <c r="W222" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC222" s="51"/>
-      <c r="AD222" s="51"/>
       <c r="AE222" s="51"/>
       <c r="AF222" s="51"/>
       <c r="AG222" s="51"/>
       <c r="AH222" s="51"/>
-      <c r="AI222" s="97" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM222" s="51"/>
-      <c r="AN222" s="51"/>
+      <c r="AI222" s="51"/>
+      <c r="AJ222" s="51"/>
+      <c r="AK222" s="97" t="s">
+        <v>495</v>
+      </c>
       <c r="AO222" s="51"/>
+      <c r="AP222" s="51"/>
       <c r="AQ222" s="51"/>
-    </row>
-    <row r="223" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS222" s="51"/>
+    </row>
+    <row r="223" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="103"/>
       <c r="C223" s="49">
         <v>221</v>
@@ -13981,13 +14000,13 @@
       <c r="W223" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI223" s="97" t="s">
-        <v>497</v>
-      </c>
-      <c r="AP223" s="51"/>
-      <c r="AQ223" s="51"/>
-    </row>
-    <row r="224" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK223" s="97" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR223" s="51"/>
+      <c r="AS223" s="51"/>
+    </row>
+    <row r="224" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="103"/>
       <c r="C224" s="49">
         <v>222</v>
@@ -14028,13 +14047,13 @@
       <c r="W224" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI224" s="97" t="s">
-        <v>498</v>
-      </c>
-      <c r="AP224" s="51"/>
-      <c r="AQ224" s="51"/>
-    </row>
-    <row r="225" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK224" s="97" t="s">
+        <v>497</v>
+      </c>
+      <c r="AR224" s="51"/>
+      <c r="AS224" s="51"/>
+    </row>
+    <row r="225" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="103"/>
       <c r="C225" s="49">
         <v>223</v>
@@ -14075,22 +14094,22 @@
       <c r="W225" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC225" s="1"/>
-      <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
       <c r="AF225" s="1"/>
       <c r="AG225" s="1"/>
       <c r="AH225" s="1"/>
-      <c r="AI225" s="97" t="s">
-        <v>499</v>
-      </c>
+      <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
-      <c r="AM225" s="1"/>
-      <c r="AN225" s="1"/>
+      <c r="AK225" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL225" s="1"/>
       <c r="AO225" s="1"/>
+      <c r="AP225" s="1"/>
       <c r="AQ225" s="1"/>
-    </row>
-    <row r="226" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS225" s="1"/>
+    </row>
+    <row r="226" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="103"/>
       <c r="C226" s="49">
         <v>224</v>
@@ -14131,22 +14150,22 @@
       <c r="W226" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
       <c r="AG226" s="1"/>
       <c r="AH226" s="1"/>
-      <c r="AI226" s="97" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM226" s="1"/>
-      <c r="AN226" s="1"/>
+      <c r="AI226" s="1"/>
+      <c r="AJ226" s="1"/>
+      <c r="AK226" s="97" t="s">
+        <v>499</v>
+      </c>
       <c r="AO226" s="1"/>
       <c r="AP226" s="1"/>
       <c r="AQ226" s="1"/>
-    </row>
-    <row r="227" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR226" s="1"/>
+      <c r="AS226" s="1"/>
+    </row>
+    <row r="227" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="103"/>
       <c r="C227" s="49">
         <v>225</v>
@@ -14187,16 +14206,16 @@
       <c r="W227" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI227" s="97" t="s">
-        <v>501</v>
-      </c>
-      <c r="AM227" s="1"/>
-      <c r="AN227" s="1"/>
+      <c r="AK227" s="97" t="s">
+        <v>500</v>
+      </c>
       <c r="AO227" s="1"/>
       <c r="AP227" s="1"/>
       <c r="AQ227" s="1"/>
-    </row>
-    <row r="228" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR227" s="1"/>
+      <c r="AS227" s="1"/>
+    </row>
+    <row r="228" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="103"/>
       <c r="C228" s="49">
         <v>226</v>
@@ -14237,16 +14256,16 @@
       <c r="W228" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI228" s="97" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM228" s="1"/>
-      <c r="AN228" s="1"/>
+      <c r="AK228" s="97" t="s">
+        <v>501</v>
+      </c>
       <c r="AO228" s="1"/>
       <c r="AP228" s="1"/>
       <c r="AQ228" s="1"/>
-    </row>
-    <row r="229" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR228" s="1"/>
+      <c r="AS228" s="1"/>
+    </row>
+    <row r="229" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="103"/>
       <c r="C229" s="49">
         <v>227</v>
@@ -14287,16 +14306,16 @@
       <c r="W229" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI229" s="97" t="s">
-        <v>503</v>
-      </c>
-      <c r="AJ229" s="1"/>
-      <c r="AM229" s="1"/>
-      <c r="AN229" s="1"/>
+      <c r="AK229" s="97" t="s">
+        <v>502</v>
+      </c>
+      <c r="AL229" s="1"/>
       <c r="AO229" s="1"/>
       <c r="AP229" s="1"/>
-    </row>
-    <row r="230" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ229" s="1"/>
+      <c r="AR229" s="1"/>
+    </row>
+    <row r="230" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="103"/>
       <c r="C230" s="49">
         <v>228</v>
@@ -14337,12 +14356,12 @@
       <c r="W230" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI230" s="97" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ230" s="51"/>
-    </row>
-    <row r="231" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK230" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="AS230" s="51"/>
+    </row>
+    <row r="231" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="103"/>
       <c r="C231" s="49">
         <v>229</v>
@@ -14383,12 +14402,12 @@
       <c r="W231" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI231" s="97" t="s">
-        <v>505</v>
-      </c>
-      <c r="AQ231" s="51"/>
-    </row>
-    <row r="232" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK231" s="97" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS231" s="51"/>
+    </row>
+    <row r="232" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="103"/>
       <c r="C232" s="49">
         <v>230</v>
@@ -14429,11 +14448,11 @@
       <c r="W232" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI232" s="97" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="233" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK232" s="97" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="233" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="103"/>
       <c r="C233" s="49">
         <v>231</v>
@@ -14474,11 +14493,11 @@
       <c r="W233" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AI233" s="97" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="234" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK233" s="97" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="234" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="103"/>
       <c r="C234" s="49">
         <v>232</v>
@@ -14519,23 +14538,23 @@
       <c r="W234" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
       <c r="AF234" s="1"/>
       <c r="AG234" s="1"/>
       <c r="AH234" s="1"/>
-      <c r="AI234" s="97" t="s">
-        <v>508</v>
-      </c>
-      <c r="AK234" s="1"/>
-      <c r="AN234" s="1"/>
-      <c r="AO234" s="1"/>
+      <c r="AI234" s="1"/>
+      <c r="AJ234" s="1"/>
+      <c r="AK234" s="97" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM234" s="1"/>
       <c r="AP234" s="1"/>
       <c r="AQ234" s="1"/>
       <c r="AR234" s="1"/>
-    </row>
-    <row r="235" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS234" s="1"/>
+      <c r="AT234" s="1"/>
+    </row>
+    <row r="235" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="103"/>
       <c r="C235" s="49">
         <v>233</v>
@@ -14576,23 +14595,23 @@
       <c r="W235" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
       <c r="AF235" s="1"/>
       <c r="AG235" s="1"/>
       <c r="AH235" s="1"/>
-      <c r="AI235" s="97" t="s">
-        <v>509</v>
-      </c>
-      <c r="AK235" s="1"/>
-      <c r="AN235" s="1"/>
-      <c r="AO235" s="1"/>
+      <c r="AI235" s="1"/>
+      <c r="AJ235" s="1"/>
+      <c r="AK235" s="97" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM235" s="1"/>
       <c r="AP235" s="1"/>
       <c r="AQ235" s="1"/>
       <c r="AR235" s="1"/>
-    </row>
-    <row r="236" spans="2:44" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS235" s="1"/>
+      <c r="AT235" s="1"/>
+    </row>
+    <row r="236" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="103"/>
       <c r="C236" s="49">
         <v>234</v>
@@ -14633,23 +14652,23 @@
       <c r="W236" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AC236" s="1"/>
-      <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
       <c r="AF236" s="1"/>
       <c r="AG236" s="1"/>
       <c r="AH236" s="1"/>
-      <c r="AI236" s="97" t="s">
-        <v>510</v>
-      </c>
-      <c r="AK236" s="1"/>
-      <c r="AN236" s="1"/>
-      <c r="AO236" s="1"/>
+      <c r="AI236" s="1"/>
+      <c r="AJ236" s="1"/>
+      <c r="AK236" s="97" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM236" s="1"/>
       <c r="AP236" s="1"/>
       <c r="AQ236" s="1"/>
       <c r="AR236" s="1"/>
-    </row>
-    <row r="237" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS236" s="1"/>
+      <c r="AT236" s="1"/>
+    </row>
+    <row r="237" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="103"/>
       <c r="C237" s="49">
         <v>235</v>
@@ -14690,11 +14709,11 @@
       <c r="W237" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI237" s="97" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="238" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK237" s="97" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="238" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="103"/>
       <c r="C238" s="49">
         <v>236</v>
@@ -14735,11 +14754,11 @@
       <c r="W238" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI238" s="97" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="239" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK238" s="97" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="239" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="103"/>
       <c r="C239" s="49">
         <v>237</v>
@@ -14780,11 +14799,11 @@
       <c r="W239" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI239" s="97" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="240" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK239" s="97" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="240" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="103"/>
       <c r="C240" s="49">
         <v>238</v>
@@ -14825,11 +14844,11 @@
       <c r="W240" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI240" s="97" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="241" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK240" s="97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="241" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="103"/>
       <c r="C241" s="49">
         <v>239</v>
@@ -14870,11 +14889,11 @@
       <c r="W241" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI241" s="97" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="242" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK241" s="97" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="242" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="103"/>
       <c r="C242" s="49">
         <v>240</v>
@@ -14915,11 +14934,11 @@
       <c r="W242" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI242" s="97" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="243" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK242" s="97" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="243" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="103"/>
       <c r="C243" s="49">
         <v>241</v>
@@ -14960,11 +14979,11 @@
       <c r="W243" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI243" s="97" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="244" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK243" s="97" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="244" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="103"/>
       <c r="C244" s="49">
         <v>242</v>
@@ -15005,11 +15024,11 @@
       <c r="W244" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI244" s="97" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="245" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK244" s="97" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="245" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="103"/>
       <c r="C245" s="49">
         <v>243</v>
@@ -15050,11 +15069,11 @@
       <c r="W245" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI245" s="97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="246" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK245" s="97" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="246" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="103"/>
       <c r="C246" s="49">
         <v>244</v>
@@ -15095,11 +15114,11 @@
       <c r="W246" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI246" s="97" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="247" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK246" s="97" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="247" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="103"/>
       <c r="C247" s="49">
         <v>245</v>
@@ -15140,11 +15159,11 @@
       <c r="W247" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI247" s="97" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="248" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK247" s="97" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="248" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="103"/>
       <c r="C248" s="49">
         <v>246</v>
@@ -15185,11 +15204,11 @@
       <c r="W248" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI248" s="97" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="249" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK248" s="97" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="249" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="103"/>
       <c r="C249" s="49">
         <v>247</v>
@@ -15230,11 +15249,11 @@
       <c r="W249" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI249" s="97" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="250" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK249" s="97" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="250" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="103"/>
       <c r="C250" s="49">
         <v>248</v>
@@ -15275,11 +15294,11 @@
       <c r="W250" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI250" s="97" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="251" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK250" s="97" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="251" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="103"/>
       <c r="C251" s="49">
         <v>249</v>
@@ -15320,11 +15339,11 @@
       <c r="W251" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI251" s="97" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="252" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK251" s="97" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="252" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="103"/>
       <c r="C252" s="49">
         <v>250</v>
@@ -15365,11 +15384,11 @@
       <c r="W252" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI252" s="97" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="253" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK252" s="97" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="253" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="103"/>
       <c r="C253" s="49">
         <v>251</v>
@@ -15410,11 +15429,11 @@
       <c r="W253" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI253" s="97" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="254" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK253" s="97" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="254" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="103"/>
       <c r="C254" s="49">
         <v>252</v>
@@ -15455,11 +15474,11 @@
       <c r="W254" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI254" s="97" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="255" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK254" s="97" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="255" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="103"/>
       <c r="C255" s="49">
         <v>253</v>
@@ -15500,11 +15519,11 @@
       <c r="W255" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI255" s="97" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="256" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK255" s="97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="256" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="103"/>
       <c r="C256" s="49">
         <v>254</v>
@@ -15545,11 +15564,11 @@
       <c r="W256" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI256" s="97" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="257" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK256" s="97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="257" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="103"/>
       <c r="C257" s="49">
         <v>255</v>
@@ -15590,11 +15609,11 @@
       <c r="W257" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI257" s="97" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="258" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK257" s="97" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="258" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="103"/>
       <c r="C258" s="49">
         <v>256</v>
@@ -15635,11 +15654,11 @@
       <c r="W258" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI258" s="97" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="259" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK258" s="97" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="259" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="103"/>
       <c r="C259" s="49">
         <v>257</v>
@@ -15680,11 +15699,11 @@
       <c r="W259" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI259" s="97" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="260" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK259" s="97" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="260" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="103"/>
       <c r="C260" s="49">
         <v>258</v>
@@ -15725,11 +15744,11 @@
       <c r="W260" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI260" s="97" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="261" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK260" s="97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="261" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="103"/>
       <c r="C261" s="49">
         <v>259</v>
@@ -15770,11 +15789,11 @@
       <c r="W261" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI261" s="97" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="262" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK261" s="97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="262" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="103"/>
       <c r="C262" s="49">
         <v>260</v>
@@ -15815,11 +15834,11 @@
       <c r="W262" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI262" s="97" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="263" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK262" s="97" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="263" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="103"/>
       <c r="C263" s="49">
         <v>261</v>
@@ -15860,11 +15879,11 @@
       <c r="W263" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI263" s="97" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="264" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK263" s="97" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="264" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="103"/>
       <c r="C264" s="49">
         <v>262</v>
@@ -15905,11 +15924,11 @@
       <c r="W264" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI264" s="97" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="265" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK264" s="97" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="265" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="103"/>
       <c r="C265" s="49">
         <v>263</v>
@@ -15950,11 +15969,11 @@
       <c r="W265" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI265" s="97" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="266" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK265" s="97" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="266" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="103"/>
       <c r="C266" s="49">
         <v>264</v>
@@ -15995,11 +16014,11 @@
       <c r="W266" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI266" s="97" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="267" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK266" s="97" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="267" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="103"/>
       <c r="C267" s="49">
         <v>265</v>
@@ -16040,11 +16059,11 @@
       <c r="W267" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI267" s="97" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="268" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK267" s="97" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="268" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="103"/>
       <c r="C268" s="49">
         <v>266</v>
@@ -16085,11 +16104,11 @@
       <c r="W268" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI268" s="97" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="269" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK268" s="97" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="269" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="103"/>
       <c r="C269" s="49">
         <v>267</v>
@@ -16130,11 +16149,11 @@
       <c r="W269" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI269" s="97" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="270" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK269" s="97" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="270" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="103"/>
       <c r="C270" s="49">
         <v>268</v>
@@ -16175,11 +16194,11 @@
       <c r="W270" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI270" s="97" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="271" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK270" s="97" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="271" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="103"/>
       <c r="C271" s="49">
         <v>269</v>
@@ -16220,11 +16239,11 @@
       <c r="W271" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI271" s="97" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="272" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK271" s="97" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="103"/>
       <c r="C272" s="49">
         <v>270</v>
@@ -16265,11 +16284,11 @@
       <c r="W272" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI272" s="97" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="273" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK272" s="97" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="273" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="103"/>
       <c r="C273" s="49">
         <v>271</v>
@@ -16310,11 +16329,11 @@
       <c r="W273" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI273" s="97" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="274" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK273" s="97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="274" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="103"/>
       <c r="C274" s="49">
         <v>272</v>
@@ -16355,11 +16374,11 @@
       <c r="W274" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI274" s="97" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="275" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK274" s="97" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="103"/>
       <c r="C275" s="49">
         <v>273</v>
@@ -16400,11 +16419,11 @@
       <c r="W275" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI275" s="97" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="276" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK275" s="97" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="103"/>
       <c r="C276" s="49">
         <v>274</v>
@@ -16445,11 +16464,11 @@
       <c r="W276" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI276" s="97" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="277" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK276" s="97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="103"/>
       <c r="C277" s="49">
         <v>275</v>
@@ -16490,11 +16509,11 @@
       <c r="W277" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI277" s="97" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="278" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK277" s="97" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="278" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="103"/>
       <c r="C278" s="49">
         <v>276</v>
@@ -16535,11 +16554,11 @@
       <c r="W278" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI278" s="97" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="279" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK278" s="97" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="279" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="103"/>
       <c r="C279" s="49">
         <v>277</v>
@@ -16580,11 +16599,11 @@
       <c r="W279" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI279" s="97" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="280" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK279" s="97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="103"/>
       <c r="C280" s="49">
         <v>278</v>
@@ -16625,11 +16644,11 @@
       <c r="W280" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI280" s="97" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="281" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK280" s="97" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="281" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="103"/>
       <c r="C281" s="49">
         <v>279</v>
@@ -16670,11 +16689,11 @@
       <c r="W281" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI281" s="97" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="282" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK281" s="97" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="282" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="103"/>
       <c r="C282" s="49">
         <v>280</v>
@@ -16715,11 +16734,11 @@
       <c r="W282" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI282" s="97" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="283" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK282" s="97" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="283" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="103"/>
       <c r="C283" s="49">
         <v>281</v>
@@ -16760,11 +16779,11 @@
       <c r="W283" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI283" s="97" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="284" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK283" s="97" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="284" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="103"/>
       <c r="C284" s="49">
         <v>282</v>
@@ -16805,11 +16824,11 @@
       <c r="W284" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI284" s="97" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="285" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK284" s="97" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="285" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="103"/>
       <c r="C285" s="49">
         <v>283</v>
@@ -16850,11 +16869,11 @@
       <c r="W285" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI285" s="97" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="286" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK285" s="97" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="286" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="103"/>
       <c r="C286" s="49">
         <v>284</v>
@@ -16895,11 +16914,11 @@
       <c r="W286" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI286" s="97" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="287" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK286" s="97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="287" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="103"/>
       <c r="C287" s="49">
         <v>285</v>
@@ -16940,11 +16959,11 @@
       <c r="W287" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI287" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="288" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK287" s="97" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="288" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="103"/>
       <c r="C288" s="49">
         <v>286</v>
@@ -16985,11 +17004,11 @@
       <c r="W288" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI288" s="97" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="289" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK288" s="97" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="289" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="103"/>
       <c r="C289" s="49">
         <v>287</v>
@@ -17030,11 +17049,11 @@
       <c r="W289" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI289" s="97" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="290" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK289" s="97" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="290" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="103"/>
       <c r="C290" s="49">
         <v>288</v>
@@ -17075,11 +17094,11 @@
       <c r="W290" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AI290" s="97" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="291" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK290" s="97" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="291" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="103"/>
       <c r="C291" s="49">
         <v>289</v>
@@ -17120,11 +17139,11 @@
       <c r="W291" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI291" s="97" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="292" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK291" s="97" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="292" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="103"/>
       <c r="C292" s="49">
         <v>290</v>
@@ -17165,11 +17184,11 @@
       <c r="W292" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI292" s="97" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="293" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK292" s="97" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="293" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="103"/>
       <c r="C293" s="49">
         <v>291</v>
@@ -17210,11 +17229,11 @@
       <c r="W293" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI293" s="97" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="294" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK293" s="97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="294" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="103"/>
       <c r="C294" s="49">
         <v>292</v>
@@ -17255,11 +17274,11 @@
       <c r="W294" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI294" s="97" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="295" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK294" s="97" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="295" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="103"/>
       <c r="C295" s="49">
         <v>293</v>
@@ -17300,11 +17319,11 @@
       <c r="W295" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI295" s="97" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="296" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK295" s="97" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="296" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="103"/>
       <c r="C296" s="49">
         <v>294</v>
@@ -17345,11 +17364,11 @@
       <c r="W296" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI296" s="97" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="297" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK296" s="97" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="297" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="103"/>
       <c r="C297" s="49">
         <v>295</v>
@@ -17390,11 +17409,11 @@
       <c r="W297" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI297" s="97" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="298" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK297" s="97" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="298" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="103"/>
       <c r="C298" s="49">
         <v>296</v>
@@ -17435,11 +17454,11 @@
       <c r="W298" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI298" s="97" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="299" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK298" s="97" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="299" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="103"/>
       <c r="C299" s="49">
         <v>297</v>
@@ -17480,11 +17499,11 @@
       <c r="W299" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI299" s="97" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="300" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK299" s="97" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="300" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="103"/>
       <c r="C300" s="49">
         <v>298</v>
@@ -17525,11 +17544,11 @@
       <c r="W300" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI300" s="97" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="301" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK300" s="97" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="301" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="103"/>
       <c r="C301" s="49">
         <v>299</v>
@@ -17570,11 +17589,11 @@
       <c r="W301" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI301" s="97" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="302" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK301" s="97" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="302" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="103"/>
       <c r="C302" s="49">
         <v>300</v>
@@ -17615,11 +17634,11 @@
       <c r="W302" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI302" s="97" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="303" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK302" s="97" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="303" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="103"/>
       <c r="C303" s="49">
         <v>301</v>
@@ -17660,11 +17679,11 @@
       <c r="W303" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI303" s="97" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="304" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK303" s="97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="304" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="103"/>
       <c r="C304" s="49">
         <v>302</v>
@@ -17705,11 +17724,11 @@
       <c r="W304" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI304" s="97" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="305" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK304" s="97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="305" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="103"/>
       <c r="C305" s="49">
         <v>303</v>
@@ -17750,11 +17769,11 @@
       <c r="W305" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI305" s="97" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="306" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK305" s="97" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="306" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="103"/>
       <c r="C306" s="49">
         <v>304</v>
@@ -17795,11 +17814,11 @@
       <c r="W306" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI306" s="97" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="307" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK306" s="97" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="307" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="103"/>
       <c r="C307" s="49">
         <v>305</v>
@@ -17840,11 +17859,11 @@
       <c r="W307" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI307" s="97" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="308" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK307" s="97" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="308" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="103"/>
       <c r="C308" s="49">
         <v>306</v>
@@ -17885,11 +17904,11 @@
       <c r="W308" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI308" s="97" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="309" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK308" s="97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="309" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="103"/>
       <c r="C309" s="49">
         <v>307</v>
@@ -17930,11 +17949,11 @@
       <c r="W309" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI309" s="97" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="310" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK309" s="97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="310" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="103"/>
       <c r="C310" s="49">
         <v>308</v>
@@ -17975,11 +17994,11 @@
       <c r="W310" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI310" s="97" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="311" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK310" s="97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="311" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="103"/>
       <c r="C311" s="49">
         <v>309</v>
@@ -18020,11 +18039,11 @@
       <c r="W311" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI311" s="97" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="312" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK311" s="97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="312" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="103"/>
       <c r="C312" s="49">
         <v>310</v>
@@ -18065,11 +18084,11 @@
       <c r="W312" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI312" s="97" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="313" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK312" s="97" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="313" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="103"/>
       <c r="C313" s="49">
         <v>311</v>
@@ -18110,11 +18129,11 @@
       <c r="W313" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI313" s="97" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="314" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK313" s="97" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="314" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="103"/>
       <c r="C314" s="49">
         <v>312</v>
@@ -18155,11 +18174,11 @@
       <c r="W314" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI314" s="97" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="315" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK314" s="97" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="315" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="103"/>
       <c r="C315" s="49">
         <v>313</v>
@@ -18200,11 +18219,11 @@
       <c r="W315" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI315" s="97" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="316" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK315" s="97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="316" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="103"/>
       <c r="C316" s="49">
         <v>314</v>
@@ -18245,11 +18264,11 @@
       <c r="W316" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI316" s="97" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="317" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK316" s="97" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="317" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="103"/>
       <c r="C317" s="49">
         <v>315</v>
@@ -18290,11 +18309,11 @@
       <c r="W317" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI317" s="97" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="318" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK317" s="97" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="318" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="103"/>
       <c r="C318" s="49">
         <v>316</v>
@@ -18335,11 +18354,11 @@
       <c r="W318" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI318" s="97" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="319" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK318" s="97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="319" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="103"/>
       <c r="C319" s="49">
         <v>317</v>
@@ -18380,11 +18399,11 @@
       <c r="W319" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI319" s="97" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="320" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK319" s="97" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="320" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="103"/>
       <c r="C320" s="49">
         <v>318</v>
@@ -18425,11 +18444,11 @@
       <c r="W320" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI320" s="97" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="321" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK320" s="97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="321" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="103"/>
       <c r="C321" s="49">
         <v>319</v>
@@ -18470,11 +18489,11 @@
       <c r="W321" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI321" s="97" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="322" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK321" s="97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="322" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="103"/>
       <c r="C322" s="49">
         <v>320</v>
@@ -18515,11 +18534,11 @@
       <c r="W322" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI322" s="97" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="323" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK322" s="97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="323" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="103"/>
       <c r="C323" s="49">
         <v>321</v>
@@ -18560,11 +18579,11 @@
       <c r="W323" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI323" s="97" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="324" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK323" s="97" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="324" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="103"/>
       <c r="C324" s="49">
         <v>322</v>
@@ -18605,11 +18624,11 @@
       <c r="W324" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AI324" s="97" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="325" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK324" s="97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="325" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="103"/>
       <c r="C325" s="49">
         <v>323</v>
@@ -18651,7 +18670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="2:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B326" s="104"/>
       <c r="C326" s="86">
         <v>324</v>
@@ -18693,7 +18712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="89">
         <v>325</v>
       </c>
@@ -18734,7 +18753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="87">
         <v>326</v>
       </c>
@@ -18775,7 +18794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="87">
         <v>327</v>
       </c>
@@ -18816,7 +18835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="87">
         <v>328</v>
       </c>
@@ -18857,7 +18876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="87">
         <v>329</v>
       </c>
@@ -18898,7 +18917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="87">
         <v>330</v>
       </c>
@@ -18939,7 +18958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="87">
         <v>331</v>
       </c>
@@ -18980,7 +18999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="87">
         <v>332</v>
       </c>
@@ -19021,7 +19040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="87">
         <v>333</v>
       </c>
@@ -19062,7 +19081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="2:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="87">
         <v>334</v>
       </c>
@@ -45277,7 +45296,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="AE3 AI3 AH4:AI4" twoDigitTextYear="1"/>
+    <ignoredError sqref="AG3 AK3 AJ4:AK4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcualakus/Desktop/word-order-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422126C5-6D04-7D47-9DA2-1F032390FAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A07A2-4088-AA44-A828-3C3160E63622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="22100" windowWidth="25640" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
+    <workbookView xWindow="7960" yWindow="4100" windowWidth="25640" windowHeight="15740" xr2:uid="{C37FBE66-834D-2544-ACF2-D4ECF9C3B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="2" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2038,6 +2038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2465,6 +2471,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2480,12 +2492,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2807,13 +2814,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BE3CE7-3163-6C44-9531-3B4B7F4EA802}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AT974"/>
+  <dimension ref="A1:AT974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E735" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A687" sqref="A687:XFD687"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2831,39 +2838,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="101" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="105" t="s">
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="101" t="s">
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101" t="s">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101" t="s">
+      <c r="S1" s="103"/>
+      <c r="T1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
       <c r="AE1" s="1">
         <v>324</v>
       </c>
@@ -2973,7 +2980,7 @@
       </c>
     </row>
     <row r="3" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="52">
@@ -3015,7 +3022,7 @@
       <c r="W3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="106" t="s">
+      <c r="AE3" s="101" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="94" t="s">
@@ -3038,7 +3045,7 @@
       </c>
     </row>
     <row r="4" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -3099,7 +3106,7 @@
       </c>
     </row>
     <row r="5" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>22</v>
       </c>
       <c r="AE5" s="93"/>
-      <c r="AF5" s="107" t="s">
+      <c r="AF5" s="102" t="s">
         <v>33</v>
       </c>
       <c r="AG5" s="94" t="s">
@@ -3160,7 +3167,7 @@
       </c>
     </row>
     <row r="6" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -3219,7 +3226,7 @@
       </c>
     </row>
     <row r="7" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -3278,7 +3285,7 @@
       </c>
     </row>
     <row r="8" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -3337,7 +3344,7 @@
       </c>
     </row>
     <row r="9" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -3396,7 +3403,7 @@
       </c>
     </row>
     <row r="10" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -3457,7 +3464,7 @@
       <c r="AM10" s="92"/>
     </row>
     <row r="11" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -3518,7 +3525,7 @@
       <c r="AM11" s="92"/>
     </row>
     <row r="12" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -3577,7 +3584,7 @@
       <c r="AM12" s="92"/>
     </row>
     <row r="13" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="49">
         <v>11</v>
       </c>
@@ -3636,7 +3643,7 @@
       <c r="AM13" s="92"/>
     </row>
     <row r="14" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="49">
         <v>12</v>
       </c>
@@ -3695,7 +3702,7 @@
       <c r="AM14" s="92"/>
     </row>
     <row r="15" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="49">
         <v>13</v>
       </c>
@@ -3754,7 +3761,7 @@
       <c r="AM15" s="92"/>
     </row>
     <row r="16" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="49">
         <v>14</v>
       </c>
@@ -3812,8 +3819,8 @@
       <c r="AL16" s="92"/>
       <c r="AM16" s="92"/>
     </row>
-    <row r="17" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
+    <row r="17" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="105"/>
       <c r="C17" s="49">
         <v>15</v>
       </c>
@@ -3871,8 +3878,8 @@
       <c r="AL17" s="92"/>
       <c r="AM17" s="92"/>
     </row>
-    <row r="18" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
+    <row r="18" spans="1:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="105"/>
       <c r="C18" s="49">
         <v>16</v>
       </c>
@@ -3930,8 +3937,8 @@
       <c r="AL18" s="92"/>
       <c r="AM18" s="92"/>
     </row>
-    <row r="19" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
+    <row r="19" spans="1:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="105"/>
       <c r="C19" s="49">
         <v>17</v>
       </c>
@@ -3989,8 +3996,8 @@
       <c r="AL19" s="92"/>
       <c r="AM19" s="92"/>
     </row>
-    <row r="20" spans="2:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+    <row r="20" spans="1:39" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="105"/>
       <c r="C20" s="49">
         <v>18</v>
       </c>
@@ -4048,8 +4055,8 @@
       <c r="AL20" s="92"/>
       <c r="AM20" s="92"/>
     </row>
-    <row r="21" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+    <row r="21" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="105"/>
       <c r="C21" s="49">
         <v>19</v>
       </c>
@@ -4105,8 +4112,8 @@
       <c r="AL21" s="92"/>
       <c r="AM21" s="92"/>
     </row>
-    <row r="22" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
+    <row r="22" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="105"/>
       <c r="C22" s="49">
         <v>20</v>
       </c>
@@ -4162,8 +4169,8 @@
       <c r="AL22" s="92"/>
       <c r="AM22" s="92"/>
     </row>
-    <row r="23" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+    <row r="23" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="105"/>
       <c r="C23" s="49">
         <v>21</v>
       </c>
@@ -4219,8 +4226,8 @@
       <c r="AL23" s="92"/>
       <c r="AM23" s="92"/>
     </row>
-    <row r="24" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+    <row r="24" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="105"/>
       <c r="C24" s="49">
         <v>22</v>
       </c>
@@ -4276,8 +4283,9 @@
       <c r="AL24" s="92"/>
       <c r="AM24" s="92"/>
     </row>
-    <row r="25" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
+    <row r="25" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="108"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="49">
         <v>23</v>
       </c>
@@ -4333,8 +4341,8 @@
       <c r="AL25" s="92"/>
       <c r="AM25" s="92"/>
     </row>
-    <row r="26" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
+    <row r="26" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="105"/>
       <c r="C26" s="49">
         <v>24</v>
       </c>
@@ -4390,8 +4398,8 @@
       <c r="AL26" s="92"/>
       <c r="AM26" s="92"/>
     </row>
-    <row r="27" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
+    <row r="27" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="105"/>
       <c r="C27" s="49">
         <v>25</v>
       </c>
@@ -4447,8 +4455,8 @@
       <c r="AL27" s="92"/>
       <c r="AM27" s="92"/>
     </row>
-    <row r="28" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
+    <row r="28" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="105"/>
       <c r="C28" s="49">
         <v>26</v>
       </c>
@@ -4504,8 +4512,8 @@
       <c r="AL28" s="92"/>
       <c r="AM28" s="92"/>
     </row>
-    <row r="29" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
+    <row r="29" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="105"/>
       <c r="C29" s="49">
         <v>27</v>
       </c>
@@ -4561,8 +4569,8 @@
       <c r="AL29" s="92"/>
       <c r="AM29" s="92"/>
     </row>
-    <row r="30" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
+    <row r="30" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="105"/>
       <c r="C30" s="49">
         <v>28</v>
       </c>
@@ -4618,8 +4626,8 @@
       <c r="AL30" s="92"/>
       <c r="AM30" s="92"/>
     </row>
-    <row r="31" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
+    <row r="31" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="105"/>
       <c r="C31" s="49">
         <v>29</v>
       </c>
@@ -4675,8 +4683,8 @@
       <c r="AL31" s="92"/>
       <c r="AM31" s="92"/>
     </row>
-    <row r="32" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
+    <row r="32" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="105"/>
       <c r="C32" s="49">
         <v>30</v>
       </c>
@@ -4733,7 +4741,7 @@
       <c r="AM32" s="92"/>
     </row>
     <row r="33" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="49">
         <v>31</v>
       </c>
@@ -4790,7 +4798,7 @@
       <c r="AM33" s="92"/>
     </row>
     <row r="34" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="49">
         <v>32</v>
       </c>
@@ -4845,7 +4853,7 @@
       </c>
     </row>
     <row r="35" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="49">
         <v>33</v>
       </c>
@@ -4900,7 +4908,7 @@
       </c>
     </row>
     <row r="36" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="49">
         <v>34</v>
       </c>
@@ -4951,7 +4959,7 @@
       </c>
     </row>
     <row r="37" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="49">
         <v>35</v>
       </c>
@@ -5002,7 +5010,7 @@
       </c>
     </row>
     <row r="38" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="49">
         <v>36</v>
       </c>
@@ -5053,7 +5061,7 @@
       </c>
     </row>
     <row r="39" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="49">
         <v>37</v>
       </c>
@@ -5104,7 +5112,7 @@
       </c>
     </row>
     <row r="40" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="49">
         <v>38</v>
       </c>
@@ -5155,7 +5163,7 @@
       </c>
     </row>
     <row r="41" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="49">
         <v>39</v>
       </c>
@@ -5206,7 +5214,7 @@
       </c>
     </row>
     <row r="42" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="103"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="49">
         <v>40</v>
       </c>
@@ -5257,7 +5265,7 @@
       </c>
     </row>
     <row r="43" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="49">
         <v>41</v>
       </c>
@@ -5308,7 +5316,7 @@
       </c>
     </row>
     <row r="44" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="49">
         <v>42</v>
       </c>
@@ -5359,7 +5367,7 @@
       </c>
     </row>
     <row r="45" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="103"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="49">
         <v>43</v>
       </c>
@@ -5410,7 +5418,7 @@
       </c>
     </row>
     <row r="46" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="49">
         <v>44</v>
       </c>
@@ -5461,7 +5469,7 @@
       </c>
     </row>
     <row r="47" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="103"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="49">
         <v>45</v>
       </c>
@@ -5512,7 +5520,7 @@
       </c>
     </row>
     <row r="48" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="103"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="49">
         <v>46</v>
       </c>
@@ -5563,7 +5571,7 @@
       </c>
     </row>
     <row r="49" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="49">
         <v>47</v>
       </c>
@@ -5614,7 +5622,7 @@
       </c>
     </row>
     <row r="50" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="103"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="49">
         <v>48</v>
       </c>
@@ -5665,7 +5673,7 @@
       </c>
     </row>
     <row r="51" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="103"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="49">
         <v>49</v>
       </c>
@@ -5716,7 +5724,7 @@
       </c>
     </row>
     <row r="52" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="103"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="49">
         <v>50</v>
       </c>
@@ -5767,7 +5775,7 @@
       </c>
     </row>
     <row r="53" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="103"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="49">
         <v>51</v>
       </c>
@@ -5818,7 +5826,7 @@
       </c>
     </row>
     <row r="54" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="103"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="49">
         <v>52</v>
       </c>
@@ -5869,7 +5877,7 @@
       </c>
     </row>
     <row r="55" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="103"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="49">
         <v>53</v>
       </c>
@@ -5920,7 +5928,7 @@
       </c>
     </row>
     <row r="56" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="103"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="49">
         <v>54</v>
       </c>
@@ -5971,7 +5979,7 @@
       </c>
     </row>
     <row r="57" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="103"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="49">
         <v>55</v>
       </c>
@@ -6019,7 +6027,7 @@
       </c>
     </row>
     <row r="58" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="103"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="49">
         <v>56</v>
       </c>
@@ -6067,7 +6075,7 @@
       </c>
     </row>
     <row r="59" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="103"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="49">
         <v>57</v>
       </c>
@@ -6115,7 +6123,7 @@
       </c>
     </row>
     <row r="60" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="103"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="49">
         <v>58</v>
       </c>
@@ -6163,7 +6171,7 @@
       </c>
     </row>
     <row r="61" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="103"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="49">
         <v>59</v>
       </c>
@@ -6211,7 +6219,7 @@
       </c>
     </row>
     <row r="62" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="103"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="49">
         <v>60</v>
       </c>
@@ -6259,7 +6267,7 @@
       </c>
     </row>
     <row r="63" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="103"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="49">
         <v>61</v>
       </c>
@@ -6307,7 +6315,7 @@
       </c>
     </row>
     <row r="64" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="103"/>
+      <c r="B64" s="105"/>
       <c r="C64" s="49">
         <v>62</v>
       </c>
@@ -6355,7 +6363,7 @@
       </c>
     </row>
     <row r="65" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="103"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="49">
         <v>63</v>
       </c>
@@ -6403,7 +6411,7 @@
       </c>
     </row>
     <row r="66" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="103"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="49">
         <v>64</v>
       </c>
@@ -6451,7 +6459,7 @@
       </c>
     </row>
     <row r="67" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="103"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="49">
         <v>65</v>
       </c>
@@ -6499,7 +6507,7 @@
       </c>
     </row>
     <row r="68" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="49">
         <v>66</v>
       </c>
@@ -6547,7 +6555,7 @@
       </c>
     </row>
     <row r="69" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="103"/>
+      <c r="B69" s="105"/>
       <c r="C69" s="49">
         <v>67</v>
       </c>
@@ -6595,7 +6603,7 @@
       </c>
     </row>
     <row r="70" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="103"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="49">
         <v>68</v>
       </c>
@@ -6643,7 +6651,7 @@
       </c>
     </row>
     <row r="71" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="103"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="49">
         <v>69</v>
       </c>
@@ -6691,7 +6699,7 @@
       </c>
     </row>
     <row r="72" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="103"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="49">
         <v>70</v>
       </c>
@@ -6739,7 +6747,7 @@
       </c>
     </row>
     <row r="73" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="103"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="49">
         <v>71</v>
       </c>
@@ -6787,7 +6795,7 @@
       </c>
     </row>
     <row r="74" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="103"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="49">
         <v>72</v>
       </c>
@@ -6835,7 +6843,7 @@
       </c>
     </row>
     <row r="75" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="103"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="49">
         <v>73</v>
       </c>
@@ -6883,7 +6891,7 @@
       </c>
     </row>
     <row r="76" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="103"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="49">
         <v>74</v>
       </c>
@@ -6931,7 +6939,7 @@
       </c>
     </row>
     <row r="77" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="103"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="49">
         <v>75</v>
       </c>
@@ -6979,7 +6987,7 @@
       </c>
     </row>
     <row r="78" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="103"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="49">
         <v>76</v>
       </c>
@@ -7027,7 +7035,7 @@
       </c>
     </row>
     <row r="79" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="103"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="49">
         <v>77</v>
       </c>
@@ -7075,7 +7083,7 @@
       </c>
     </row>
     <row r="80" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="103"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="49">
         <v>78</v>
       </c>
@@ -7123,7 +7131,7 @@
       </c>
     </row>
     <row r="81" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="103"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="49">
         <v>79</v>
       </c>
@@ -7171,7 +7179,7 @@
       </c>
     </row>
     <row r="82" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="103"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="49">
         <v>80</v>
       </c>
@@ -7219,7 +7227,7 @@
       </c>
     </row>
     <row r="83" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="103"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="49">
         <v>81</v>
       </c>
@@ -7267,7 +7275,7 @@
       </c>
     </row>
     <row r="84" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="103"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="49">
         <v>82</v>
       </c>
@@ -7315,7 +7323,7 @@
       </c>
     </row>
     <row r="85" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="103"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="49">
         <v>83</v>
       </c>
@@ -7363,7 +7371,7 @@
       </c>
     </row>
     <row r="86" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="103"/>
+      <c r="B86" s="105"/>
       <c r="C86" s="49">
         <v>84</v>
       </c>
@@ -7411,7 +7419,7 @@
       </c>
     </row>
     <row r="87" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="103"/>
+      <c r="B87" s="105"/>
       <c r="C87" s="49">
         <v>85</v>
       </c>
@@ -7459,7 +7467,7 @@
       </c>
     </row>
     <row r="88" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="103"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="49">
         <v>86</v>
       </c>
@@ -7507,7 +7515,7 @@
       </c>
     </row>
     <row r="89" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="103"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="49">
         <v>87</v>
       </c>
@@ -7555,7 +7563,7 @@
       </c>
     </row>
     <row r="90" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="103"/>
+      <c r="B90" s="105"/>
       <c r="C90" s="49">
         <v>88</v>
       </c>
@@ -7603,7 +7611,7 @@
       </c>
     </row>
     <row r="91" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="103"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="49">
         <v>89</v>
       </c>
@@ -7651,7 +7659,7 @@
       </c>
     </row>
     <row r="92" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="103"/>
+      <c r="B92" s="105"/>
       <c r="C92" s="49">
         <v>90</v>
       </c>
@@ -7699,7 +7707,7 @@
       </c>
     </row>
     <row r="93" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="103"/>
+      <c r="B93" s="105"/>
       <c r="C93" s="49">
         <v>91</v>
       </c>
@@ -7747,7 +7755,7 @@
       </c>
     </row>
     <row r="94" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="103"/>
+      <c r="B94" s="105"/>
       <c r="C94" s="49">
         <v>92</v>
       </c>
@@ -7795,7 +7803,7 @@
       </c>
     </row>
     <row r="95" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="103"/>
+      <c r="B95" s="105"/>
       <c r="C95" s="49">
         <v>93</v>
       </c>
@@ -7843,7 +7851,7 @@
       </c>
     </row>
     <row r="96" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="103"/>
+      <c r="B96" s="105"/>
       <c r="C96" s="49">
         <v>94</v>
       </c>
@@ -7891,7 +7899,7 @@
       </c>
     </row>
     <row r="97" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="103"/>
+      <c r="B97" s="105"/>
       <c r="C97" s="49">
         <v>95</v>
       </c>
@@ -7939,7 +7947,7 @@
       </c>
     </row>
     <row r="98" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="103"/>
+      <c r="B98" s="105"/>
       <c r="C98" s="49">
         <v>96</v>
       </c>
@@ -7987,7 +7995,7 @@
       </c>
     </row>
     <row r="99" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="103"/>
+      <c r="B99" s="105"/>
       <c r="C99" s="49">
         <v>97</v>
       </c>
@@ -8035,7 +8043,7 @@
       </c>
     </row>
     <row r="100" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="103"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="49">
         <v>98</v>
       </c>
@@ -8083,7 +8091,7 @@
       </c>
     </row>
     <row r="101" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="103"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="49">
         <v>99</v>
       </c>
@@ -8131,7 +8139,7 @@
       </c>
     </row>
     <row r="102" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="103"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="49">
         <v>100</v>
       </c>
@@ -8180,7 +8188,7 @@
       <c r="AS102" s="51"/>
     </row>
     <row r="103" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="103"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="49">
         <v>101</v>
       </c>
@@ -8231,7 +8239,7 @@
       <c r="AR103" s="51"/>
     </row>
     <row r="104" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="103"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="49">
         <v>102</v>
       </c>
@@ -8287,7 +8295,7 @@
       <c r="AR104" s="51"/>
     </row>
     <row r="105" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="103"/>
+      <c r="B105" s="105"/>
       <c r="C105" s="49">
         <v>103</v>
       </c>
@@ -8343,7 +8351,7 @@
       <c r="AR105" s="51"/>
     </row>
     <row r="106" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="103"/>
+      <c r="B106" s="105"/>
       <c r="C106" s="49">
         <v>104</v>
       </c>
@@ -8401,7 +8409,7 @@
       <c r="AT106" s="51"/>
     </row>
     <row r="107" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="103"/>
+      <c r="B107" s="105"/>
       <c r="C107" s="49">
         <v>105</v>
       </c>
@@ -8454,7 +8462,7 @@
       <c r="AT107" s="51"/>
     </row>
     <row r="108" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="103"/>
+      <c r="B108" s="105"/>
       <c r="C108" s="49">
         <v>106</v>
       </c>
@@ -8504,7 +8512,7 @@
       <c r="AT108" s="51"/>
     </row>
     <row r="109" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="103"/>
+      <c r="B109" s="105"/>
       <c r="C109" s="49">
         <v>107</v>
       </c>
@@ -8553,7 +8561,7 @@
       <c r="AS109" s="51"/>
     </row>
     <row r="110" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="104"/>
+      <c r="B110" s="106"/>
       <c r="C110" s="49">
         <v>108</v>
       </c>
@@ -8607,7 +8615,7 @@
       <c r="AS110" s="51"/>
     </row>
     <row r="111" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="49">
@@ -8662,7 +8670,7 @@
       <c r="AT111" s="1"/>
     </row>
     <row r="112" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="103"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="49">
         <v>110</v>
       </c>
@@ -8711,7 +8719,7 @@
       <c r="AS112" s="1"/>
     </row>
     <row r="113" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="103"/>
+      <c r="B113" s="105"/>
       <c r="C113" s="49">
         <v>111</v>
       </c>
@@ -8760,7 +8768,7 @@
       <c r="AS113" s="1"/>
     </row>
     <row r="114" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="103"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="49">
         <v>112</v>
       </c>
@@ -8817,7 +8825,7 @@
       <c r="AT114" s="51"/>
     </row>
     <row r="115" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="103"/>
+      <c r="B115" s="105"/>
       <c r="C115" s="49">
         <v>113</v>
       </c>
@@ -8867,7 +8875,7 @@
       <c r="AT115" s="51"/>
     </row>
     <row r="116" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="103"/>
+      <c r="B116" s="105"/>
       <c r="C116" s="49">
         <v>114</v>
       </c>
@@ -8917,7 +8925,7 @@
       <c r="AT116" s="51"/>
     </row>
     <row r="117" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="103"/>
+      <c r="B117" s="105"/>
       <c r="C117" s="49">
         <v>115</v>
       </c>
@@ -8974,7 +8982,7 @@
       <c r="AT117" s="1"/>
     </row>
     <row r="118" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="103"/>
+      <c r="B118" s="105"/>
       <c r="C118" s="49">
         <v>116</v>
       </c>
@@ -9032,7 +9040,7 @@
       <c r="AT118" s="1"/>
     </row>
     <row r="119" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="103"/>
+      <c r="B119" s="105"/>
       <c r="C119" s="49">
         <v>117</v>
       </c>
@@ -9084,7 +9092,7 @@
       <c r="AQ119" s="1"/>
     </row>
     <row r="120" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="103"/>
+      <c r="B120" s="105"/>
       <c r="C120" s="49">
         <v>118</v>
       </c>
@@ -9137,7 +9145,7 @@
       <c r="AS120" s="1"/>
     </row>
     <row r="121" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="103"/>
+      <c r="B121" s="105"/>
       <c r="C121" s="49">
         <v>119</v>
       </c>
@@ -9189,7 +9197,7 @@
       <c r="AR121" s="1"/>
     </row>
     <row r="122" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="103"/>
+      <c r="B122" s="105"/>
       <c r="C122" s="49">
         <v>120</v>
       </c>
@@ -9238,7 +9246,7 @@
       <c r="AQ122" s="51"/>
     </row>
     <row r="123" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="103"/>
+      <c r="B123" s="105"/>
       <c r="C123" s="49">
         <v>121</v>
       </c>
@@ -9287,7 +9295,7 @@
       <c r="AQ123" s="51"/>
     </row>
     <row r="124" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="103"/>
+      <c r="B124" s="105"/>
       <c r="C124" s="49">
         <v>122</v>
       </c>
@@ -9335,7 +9343,7 @@
       </c>
     </row>
     <row r="125" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="103"/>
+      <c r="B125" s="105"/>
       <c r="C125" s="49">
         <v>123</v>
       </c>
@@ -9383,7 +9391,7 @@
       </c>
     </row>
     <row r="126" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="103"/>
+      <c r="B126" s="105"/>
       <c r="C126" s="49">
         <v>124</v>
       </c>
@@ -9436,7 +9444,7 @@
       </c>
     </row>
     <row r="127" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="103"/>
+      <c r="B127" s="105"/>
       <c r="C127" s="49">
         <v>125</v>
       </c>
@@ -9489,7 +9497,7 @@
       </c>
     </row>
     <row r="128" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="103"/>
+      <c r="B128" s="105"/>
       <c r="C128" s="49">
         <v>126</v>
       </c>
@@ -9541,8 +9549,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="103"/>
+    <row r="129" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="105"/>
       <c r="C129" s="49">
         <v>127</v>
       </c>
@@ -9589,8 +9597,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="103"/>
+    <row r="130" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="105"/>
       <c r="C130" s="49">
         <v>128</v>
       </c>
@@ -9637,8 +9645,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="131" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="103"/>
+    <row r="131" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="105"/>
       <c r="C131" s="49">
         <v>129</v>
       </c>
@@ -9685,8 +9693,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="103"/>
+    <row r="132" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="105"/>
       <c r="C132" s="49">
         <v>130</v>
       </c>
@@ -9733,8 +9741,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="133" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="103"/>
+    <row r="133" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="108"/>
+      <c r="B133" s="105"/>
       <c r="C133" s="49">
         <v>131</v>
       </c>
@@ -9781,8 +9790,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="103"/>
+    <row r="134" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="105"/>
       <c r="C134" s="49">
         <v>132</v>
       </c>
@@ -9829,8 +9838,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="103"/>
+    <row r="135" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="105"/>
       <c r="C135" s="49">
         <v>133</v>
       </c>
@@ -9877,8 +9886,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="103"/>
+    <row r="136" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="105"/>
       <c r="C136" s="49">
         <v>134</v>
       </c>
@@ -9925,8 +9934,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="137" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="103"/>
+    <row r="137" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="105"/>
       <c r="C137" s="49">
         <v>135</v>
       </c>
@@ -9973,8 +9982,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="103"/>
+    <row r="138" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="105"/>
       <c r="C138" s="49">
         <v>136</v>
       </c>
@@ -10021,8 +10030,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="103"/>
+    <row r="139" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="105"/>
       <c r="C139" s="49">
         <v>137</v>
       </c>
@@ -10069,8 +10078,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="103"/>
+    <row r="140" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="105"/>
       <c r="C140" s="49">
         <v>138</v>
       </c>
@@ -10117,8 +10126,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="141" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="103"/>
+    <row r="141" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="105"/>
       <c r="C141" s="49">
         <v>139</v>
       </c>
@@ -10165,8 +10174,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="142" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="103"/>
+    <row r="142" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="105"/>
       <c r="C142" s="49">
         <v>140</v>
       </c>
@@ -10213,8 +10222,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="103"/>
+    <row r="143" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="105"/>
       <c r="C143" s="49">
         <v>141</v>
       </c>
@@ -10261,8 +10270,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="144" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="103"/>
+    <row r="144" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="105"/>
       <c r="C144" s="49">
         <v>142</v>
       </c>
@@ -10310,7 +10319,7 @@
       </c>
     </row>
     <row r="145" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="103"/>
+      <c r="B145" s="105"/>
       <c r="C145" s="49">
         <v>143</v>
       </c>
@@ -10358,7 +10367,7 @@
       </c>
     </row>
     <row r="146" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="103"/>
+      <c r="B146" s="105"/>
       <c r="C146" s="49">
         <v>144</v>
       </c>
@@ -10406,7 +10415,7 @@
       </c>
     </row>
     <row r="147" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="103"/>
+      <c r="B147" s="105"/>
       <c r="C147" s="49">
         <v>145</v>
       </c>
@@ -10454,7 +10463,7 @@
       </c>
     </row>
     <row r="148" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="103"/>
+      <c r="B148" s="105"/>
       <c r="C148" s="49">
         <v>146</v>
       </c>
@@ -10502,7 +10511,7 @@
       </c>
     </row>
     <row r="149" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="103"/>
+      <c r="B149" s="105"/>
       <c r="C149" s="49">
         <v>147</v>
       </c>
@@ -10550,7 +10559,7 @@
       </c>
     </row>
     <row r="150" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="103"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="49">
         <v>148</v>
       </c>
@@ -10598,7 +10607,7 @@
       </c>
     </row>
     <row r="151" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="103"/>
+      <c r="B151" s="105"/>
       <c r="C151" s="49">
         <v>149</v>
       </c>
@@ -10646,7 +10655,7 @@
       </c>
     </row>
     <row r="152" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="103"/>
+      <c r="B152" s="105"/>
       <c r="C152" s="49">
         <v>150</v>
       </c>
@@ -10694,7 +10703,7 @@
       </c>
     </row>
     <row r="153" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="103"/>
+      <c r="B153" s="105"/>
       <c r="C153" s="49">
         <v>151</v>
       </c>
@@ -10742,7 +10751,7 @@
       </c>
     </row>
     <row r="154" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="103"/>
+      <c r="B154" s="105"/>
       <c r="C154" s="49">
         <v>152</v>
       </c>
@@ -10790,7 +10799,7 @@
       </c>
     </row>
     <row r="155" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="103"/>
+      <c r="B155" s="105"/>
       <c r="C155" s="49">
         <v>153</v>
       </c>
@@ -10838,7 +10847,7 @@
       </c>
     </row>
     <row r="156" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="103"/>
+      <c r="B156" s="105"/>
       <c r="C156" s="49">
         <v>154</v>
       </c>
@@ -10886,7 +10895,7 @@
       </c>
     </row>
     <row r="157" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="103"/>
+      <c r="B157" s="105"/>
       <c r="C157" s="49">
         <v>155</v>
       </c>
@@ -10934,7 +10943,7 @@
       </c>
     </row>
     <row r="158" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="103"/>
+      <c r="B158" s="105"/>
       <c r="C158" s="49">
         <v>156</v>
       </c>
@@ -10982,7 +10991,7 @@
       </c>
     </row>
     <row r="159" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="103"/>
+      <c r="B159" s="105"/>
       <c r="C159" s="49">
         <v>157</v>
       </c>
@@ -11030,7 +11039,7 @@
       </c>
     </row>
     <row r="160" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="103"/>
+      <c r="B160" s="105"/>
       <c r="C160" s="49">
         <v>158</v>
       </c>
@@ -11078,7 +11087,7 @@
       </c>
     </row>
     <row r="161" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="103"/>
+      <c r="B161" s="105"/>
       <c r="C161" s="49">
         <v>159</v>
       </c>
@@ -11126,7 +11135,7 @@
       </c>
     </row>
     <row r="162" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="103"/>
+      <c r="B162" s="105"/>
       <c r="C162" s="49">
         <v>160</v>
       </c>
@@ -11174,7 +11183,7 @@
       </c>
     </row>
     <row r="163" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="103"/>
+      <c r="B163" s="105"/>
       <c r="C163" s="49">
         <v>161</v>
       </c>
@@ -11222,7 +11231,7 @@
       </c>
     </row>
     <row r="164" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="103"/>
+      <c r="B164" s="105"/>
       <c r="C164" s="49">
         <v>162</v>
       </c>
@@ -11267,7 +11276,7 @@
       </c>
     </row>
     <row r="165" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="103"/>
+      <c r="B165" s="105"/>
       <c r="C165" s="49">
         <v>163</v>
       </c>
@@ -11312,7 +11321,7 @@
       </c>
     </row>
     <row r="166" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="103"/>
+      <c r="B166" s="105"/>
       <c r="C166" s="49">
         <v>164</v>
       </c>
@@ -11357,7 +11366,7 @@
       </c>
     </row>
     <row r="167" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="103"/>
+      <c r="B167" s="105"/>
       <c r="C167" s="49">
         <v>165</v>
       </c>
@@ -11402,7 +11411,7 @@
       </c>
     </row>
     <row r="168" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="103"/>
+      <c r="B168" s="105"/>
       <c r="C168" s="49">
         <v>166</v>
       </c>
@@ -11447,7 +11456,7 @@
       </c>
     </row>
     <row r="169" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="103"/>
+      <c r="B169" s="105"/>
       <c r="C169" s="49">
         <v>167</v>
       </c>
@@ -11492,7 +11501,7 @@
       </c>
     </row>
     <row r="170" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="103"/>
+      <c r="B170" s="105"/>
       <c r="C170" s="49">
         <v>168</v>
       </c>
@@ -11537,7 +11546,7 @@
       </c>
     </row>
     <row r="171" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="103"/>
+      <c r="B171" s="105"/>
       <c r="C171" s="49">
         <v>169</v>
       </c>
@@ -11582,7 +11591,7 @@
       </c>
     </row>
     <row r="172" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="103"/>
+      <c r="B172" s="105"/>
       <c r="C172" s="49">
         <v>170</v>
       </c>
@@ -11627,7 +11636,7 @@
       </c>
     </row>
     <row r="173" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="103"/>
+      <c r="B173" s="105"/>
       <c r="C173" s="49">
         <v>171</v>
       </c>
@@ -11672,7 +11681,7 @@
       </c>
     </row>
     <row r="174" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="103"/>
+      <c r="B174" s="105"/>
       <c r="C174" s="49">
         <v>172</v>
       </c>
@@ -11717,7 +11726,7 @@
       </c>
     </row>
     <row r="175" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="103"/>
+      <c r="B175" s="105"/>
       <c r="C175" s="49">
         <v>173</v>
       </c>
@@ -11762,7 +11771,7 @@
       </c>
     </row>
     <row r="176" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="103"/>
+      <c r="B176" s="105"/>
       <c r="C176" s="49">
         <v>174</v>
       </c>
@@ -11807,7 +11816,7 @@
       </c>
     </row>
     <row r="177" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="103"/>
+      <c r="B177" s="105"/>
       <c r="C177" s="49">
         <v>175</v>
       </c>
@@ -11852,7 +11861,7 @@
       </c>
     </row>
     <row r="178" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="103"/>
+      <c r="B178" s="105"/>
       <c r="C178" s="49">
         <v>176</v>
       </c>
@@ -11897,7 +11906,7 @@
       </c>
     </row>
     <row r="179" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="103"/>
+      <c r="B179" s="105"/>
       <c r="C179" s="49">
         <v>177</v>
       </c>
@@ -11942,7 +11951,7 @@
       </c>
     </row>
     <row r="180" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="103"/>
+      <c r="B180" s="105"/>
       <c r="C180" s="49">
         <v>178</v>
       </c>
@@ -11987,7 +11996,7 @@
       </c>
     </row>
     <row r="181" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="103"/>
+      <c r="B181" s="105"/>
       <c r="C181" s="49">
         <v>179</v>
       </c>
@@ -12032,7 +12041,7 @@
       </c>
     </row>
     <row r="182" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="103"/>
+      <c r="B182" s="105"/>
       <c r="C182" s="49">
         <v>180</v>
       </c>
@@ -12077,7 +12086,7 @@
       </c>
     </row>
     <row r="183" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="103"/>
+      <c r="B183" s="105"/>
       <c r="C183" s="49">
         <v>181</v>
       </c>
@@ -12122,7 +12131,7 @@
       </c>
     </row>
     <row r="184" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="103"/>
+      <c r="B184" s="105"/>
       <c r="C184" s="49">
         <v>182</v>
       </c>
@@ -12167,7 +12176,7 @@
       </c>
     </row>
     <row r="185" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="103"/>
+      <c r="B185" s="105"/>
       <c r="C185" s="49">
         <v>183</v>
       </c>
@@ -12212,7 +12221,7 @@
       </c>
     </row>
     <row r="186" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="103"/>
+      <c r="B186" s="105"/>
       <c r="C186" s="49">
         <v>184</v>
       </c>
@@ -12257,7 +12266,7 @@
       </c>
     </row>
     <row r="187" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="103"/>
+      <c r="B187" s="105"/>
       <c r="C187" s="49">
         <v>185</v>
       </c>
@@ -12302,7 +12311,7 @@
       </c>
     </row>
     <row r="188" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="103"/>
+      <c r="B188" s="105"/>
       <c r="C188" s="49">
         <v>186</v>
       </c>
@@ -12347,7 +12356,7 @@
       </c>
     </row>
     <row r="189" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="103"/>
+      <c r="B189" s="105"/>
       <c r="C189" s="49">
         <v>187</v>
       </c>
@@ -12392,7 +12401,7 @@
       </c>
     </row>
     <row r="190" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="103"/>
+      <c r="B190" s="105"/>
       <c r="C190" s="49">
         <v>188</v>
       </c>
@@ -12437,7 +12446,7 @@
       </c>
     </row>
     <row r="191" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="103"/>
+      <c r="B191" s="105"/>
       <c r="C191" s="49">
         <v>189</v>
       </c>
@@ -12482,7 +12491,7 @@
       </c>
     </row>
     <row r="192" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="103"/>
+      <c r="B192" s="105"/>
       <c r="C192" s="49">
         <v>190</v>
       </c>
@@ -12527,7 +12536,7 @@
       </c>
     </row>
     <row r="193" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="103"/>
+      <c r="B193" s="105"/>
       <c r="C193" s="49">
         <v>191</v>
       </c>
@@ -12572,7 +12581,7 @@
       </c>
     </row>
     <row r="194" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="103"/>
+      <c r="B194" s="105"/>
       <c r="C194" s="49">
         <v>192</v>
       </c>
@@ -12617,7 +12626,7 @@
       </c>
     </row>
     <row r="195" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="103"/>
+      <c r="B195" s="105"/>
       <c r="C195" s="49">
         <v>193</v>
       </c>
@@ -12662,7 +12671,7 @@
       </c>
     </row>
     <row r="196" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="103"/>
+      <c r="B196" s="105"/>
       <c r="C196" s="49">
         <v>194</v>
       </c>
@@ -12707,7 +12716,7 @@
       </c>
     </row>
     <row r="197" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="103"/>
+      <c r="B197" s="105"/>
       <c r="C197" s="49">
         <v>195</v>
       </c>
@@ -12752,7 +12761,7 @@
       </c>
     </row>
     <row r="198" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="103"/>
+      <c r="B198" s="105"/>
       <c r="C198" s="49">
         <v>196</v>
       </c>
@@ -12797,7 +12806,7 @@
       </c>
     </row>
     <row r="199" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="103"/>
+      <c r="B199" s="105"/>
       <c r="C199" s="49">
         <v>197</v>
       </c>
@@ -12842,7 +12851,7 @@
       </c>
     </row>
     <row r="200" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="103"/>
+      <c r="B200" s="105"/>
       <c r="C200" s="49">
         <v>198</v>
       </c>
@@ -12887,7 +12896,7 @@
       </c>
     </row>
     <row r="201" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="103"/>
+      <c r="B201" s="105"/>
       <c r="C201" s="49">
         <v>199</v>
       </c>
@@ -12932,7 +12941,7 @@
       </c>
     </row>
     <row r="202" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="103"/>
+      <c r="B202" s="105"/>
       <c r="C202" s="49">
         <v>200</v>
       </c>
@@ -12977,7 +12986,7 @@
       </c>
     </row>
     <row r="203" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="103"/>
+      <c r="B203" s="105"/>
       <c r="C203" s="49">
         <v>201</v>
       </c>
@@ -13022,7 +13031,7 @@
       </c>
     </row>
     <row r="204" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="103"/>
+      <c r="B204" s="105"/>
       <c r="C204" s="49">
         <v>202</v>
       </c>
@@ -13067,7 +13076,7 @@
       </c>
     </row>
     <row r="205" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="103"/>
+      <c r="B205" s="105"/>
       <c r="C205" s="49">
         <v>203</v>
       </c>
@@ -13115,7 +13124,7 @@
       <c r="AQ205" s="51"/>
     </row>
     <row r="206" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="103"/>
+      <c r="B206" s="105"/>
       <c r="C206" s="49">
         <v>204</v>
       </c>
@@ -13163,7 +13172,7 @@
       <c r="AQ206" s="51"/>
     </row>
     <row r="207" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="103"/>
+      <c r="B207" s="105"/>
       <c r="C207" s="49">
         <v>205</v>
       </c>
@@ -13211,7 +13220,7 @@
       <c r="AQ207" s="51"/>
     </row>
     <row r="208" spans="2:44" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="103"/>
+      <c r="B208" s="105"/>
       <c r="C208" s="49">
         <v>206</v>
       </c>
@@ -13257,7 +13266,7 @@
       <c r="AR208" s="51"/>
     </row>
     <row r="209" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="103"/>
+      <c r="B209" s="105"/>
       <c r="C209" s="49">
         <v>207</v>
       </c>
@@ -13303,7 +13312,7 @@
       <c r="AR209" s="51"/>
     </row>
     <row r="210" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="103"/>
+      <c r="B210" s="105"/>
       <c r="C210" s="49">
         <v>208</v>
       </c>
@@ -13349,7 +13358,7 @@
       <c r="AR210" s="51"/>
     </row>
     <row r="211" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="103"/>
+      <c r="B211" s="105"/>
       <c r="C211" s="49">
         <v>209</v>
       </c>
@@ -13398,7 +13407,7 @@
       <c r="AQ211" s="51"/>
     </row>
     <row r="212" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="103"/>
+      <c r="B212" s="105"/>
       <c r="C212" s="49">
         <v>210</v>
       </c>
@@ -13453,7 +13462,7 @@
       <c r="AQ212" s="51"/>
     </row>
     <row r="213" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="103"/>
+      <c r="B213" s="105"/>
       <c r="C213" s="49">
         <v>211</v>
       </c>
@@ -13508,7 +13517,7 @@
       <c r="AQ213" s="51"/>
     </row>
     <row r="214" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="103"/>
+      <c r="B214" s="105"/>
       <c r="C214" s="49">
         <v>212</v>
       </c>
@@ -13564,7 +13573,7 @@
       <c r="AS214" s="51"/>
     </row>
     <row r="215" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="103"/>
+      <c r="B215" s="105"/>
       <c r="C215" s="49">
         <v>213</v>
       </c>
@@ -13614,7 +13623,7 @@
       <c r="AS215" s="51"/>
     </row>
     <row r="216" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="103"/>
+      <c r="B216" s="105"/>
       <c r="C216" s="49">
         <v>214</v>
       </c>
@@ -13661,7 +13670,7 @@
       <c r="AS216" s="51"/>
     </row>
     <row r="217" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="103"/>
+      <c r="B217" s="105"/>
       <c r="C217" s="49">
         <v>215</v>
       </c>
@@ -13708,7 +13717,7 @@
       <c r="AR217" s="51"/>
     </row>
     <row r="218" spans="2:45" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="104"/>
+      <c r="B218" s="106"/>
       <c r="C218" s="49">
         <v>216</v>
       </c>
@@ -13761,7 +13770,7 @@
       <c r="AR218" s="51"/>
     </row>
     <row r="219" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="102" t="s">
+      <c r="B219" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="49">
@@ -13813,7 +13822,7 @@
       <c r="AS219" s="1"/>
     </row>
     <row r="220" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="103"/>
+      <c r="B220" s="105"/>
       <c r="C220" s="49">
         <v>218</v>
       </c>
@@ -13859,7 +13868,7 @@
       <c r="AR220" s="1"/>
     </row>
     <row r="221" spans="2:45" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="103"/>
+      <c r="B221" s="105"/>
       <c r="C221" s="49">
         <v>219</v>
       </c>
@@ -13905,7 +13914,7 @@
       <c r="AR221" s="1"/>
     </row>
     <row r="222" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="103"/>
+      <c r="B222" s="105"/>
       <c r="C222" s="49">
         <v>220</v>
       </c>
@@ -13960,7 +13969,7 @@
       <c r="AS222" s="51"/>
     </row>
     <row r="223" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="103"/>
+      <c r="B223" s="105"/>
       <c r="C223" s="49">
         <v>221</v>
       </c>
@@ -14007,7 +14016,7 @@
       <c r="AS223" s="51"/>
     </row>
     <row r="224" spans="2:45" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="103"/>
+      <c r="B224" s="105"/>
       <c r="C224" s="49">
         <v>222</v>
       </c>
@@ -14054,7 +14063,7 @@
       <c r="AS224" s="51"/>
     </row>
     <row r="225" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="103"/>
+      <c r="B225" s="105"/>
       <c r="C225" s="49">
         <v>223</v>
       </c>
@@ -14110,7 +14119,7 @@
       <c r="AS225" s="1"/>
     </row>
     <row r="226" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="103"/>
+      <c r="B226" s="105"/>
       <c r="C226" s="49">
         <v>224</v>
       </c>
@@ -14166,7 +14175,7 @@
       <c r="AS226" s="1"/>
     </row>
     <row r="227" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="103"/>
+      <c r="B227" s="105"/>
       <c r="C227" s="49">
         <v>225</v>
       </c>
@@ -14216,7 +14225,7 @@
       <c r="AS227" s="1"/>
     </row>
     <row r="228" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="103"/>
+      <c r="B228" s="105"/>
       <c r="C228" s="49">
         <v>226</v>
       </c>
@@ -14266,7 +14275,7 @@
       <c r="AS228" s="1"/>
     </row>
     <row r="229" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="103"/>
+      <c r="B229" s="105"/>
       <c r="C229" s="49">
         <v>227</v>
       </c>
@@ -14316,7 +14325,7 @@
       <c r="AR229" s="1"/>
     </row>
     <row r="230" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="103"/>
+      <c r="B230" s="105"/>
       <c r="C230" s="49">
         <v>228</v>
       </c>
@@ -14362,7 +14371,7 @@
       <c r="AS230" s="51"/>
     </row>
     <row r="231" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="103"/>
+      <c r="B231" s="105"/>
       <c r="C231" s="49">
         <v>229</v>
       </c>
@@ -14408,7 +14417,7 @@
       <c r="AS231" s="51"/>
     </row>
     <row r="232" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="103"/>
+      <c r="B232" s="105"/>
       <c r="C232" s="49">
         <v>230</v>
       </c>
@@ -14453,7 +14462,7 @@
       </c>
     </row>
     <row r="233" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="103"/>
+      <c r="B233" s="105"/>
       <c r="C233" s="49">
         <v>231</v>
       </c>
@@ -14498,7 +14507,7 @@
       </c>
     </row>
     <row r="234" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="103"/>
+      <c r="B234" s="105"/>
       <c r="C234" s="49">
         <v>232</v>
       </c>
@@ -14555,7 +14564,7 @@
       <c r="AT234" s="1"/>
     </row>
     <row r="235" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="103"/>
+      <c r="B235" s="105"/>
       <c r="C235" s="49">
         <v>233</v>
       </c>
@@ -14612,7 +14621,7 @@
       <c r="AT235" s="1"/>
     </row>
     <row r="236" spans="2:46" s="51" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="103"/>
+      <c r="B236" s="105"/>
       <c r="C236" s="49">
         <v>234</v>
       </c>
@@ -14669,7 +14678,7 @@
       <c r="AT236" s="1"/>
     </row>
     <row r="237" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="103"/>
+      <c r="B237" s="105"/>
       <c r="C237" s="49">
         <v>235</v>
       </c>
@@ -14714,7 +14723,7 @@
       </c>
     </row>
     <row r="238" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="103"/>
+      <c r="B238" s="105"/>
       <c r="C238" s="49">
         <v>236</v>
       </c>
@@ -14759,7 +14768,7 @@
       </c>
     </row>
     <row r="239" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="103"/>
+      <c r="B239" s="105"/>
       <c r="C239" s="49">
         <v>237</v>
       </c>
@@ -14804,7 +14813,7 @@
       </c>
     </row>
     <row r="240" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="103"/>
+      <c r="B240" s="105"/>
       <c r="C240" s="49">
         <v>238</v>
       </c>
@@ -14848,8 +14857,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="103"/>
+    <row r="241" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="108"/>
+      <c r="B241" s="105"/>
       <c r="C241" s="49">
         <v>239</v>
       </c>
@@ -14893,8 +14903,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="242" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="103"/>
+    <row r="242" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="105"/>
       <c r="C242" s="49">
         <v>240</v>
       </c>
@@ -14938,8 +14948,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="243" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="103"/>
+    <row r="243" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="105"/>
       <c r="C243" s="49">
         <v>241</v>
       </c>
@@ -14983,8 +14993,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="244" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="103"/>
+    <row r="244" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="105"/>
       <c r="C244" s="49">
         <v>242</v>
       </c>
@@ -15028,8 +15038,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="245" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="103"/>
+    <row r="245" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="105"/>
       <c r="C245" s="49">
         <v>243</v>
       </c>
@@ -15073,8 +15083,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="103"/>
+    <row r="246" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="105"/>
       <c r="C246" s="49">
         <v>244</v>
       </c>
@@ -15118,8 +15128,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="103"/>
+    <row r="247" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="105"/>
       <c r="C247" s="49">
         <v>245</v>
       </c>
@@ -15163,8 +15173,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="248" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="103"/>
+    <row r="248" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="105"/>
       <c r="C248" s="49">
         <v>246</v>
       </c>
@@ -15208,8 +15218,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="249" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="103"/>
+    <row r="249" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="105"/>
       <c r="C249" s="49">
         <v>247</v>
       </c>
@@ -15253,8 +15263,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="250" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="103"/>
+    <row r="250" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="105"/>
       <c r="C250" s="49">
         <v>248</v>
       </c>
@@ -15298,8 +15308,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="251" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="103"/>
+    <row r="251" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="105"/>
       <c r="C251" s="49">
         <v>249</v>
       </c>
@@ -15343,8 +15353,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="252" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="103"/>
+    <row r="252" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="105"/>
       <c r="C252" s="49">
         <v>250</v>
       </c>
@@ -15388,8 +15398,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="253" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="103"/>
+    <row r="253" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="105"/>
       <c r="C253" s="49">
         <v>251</v>
       </c>
@@ -15433,8 +15443,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="254" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="103"/>
+    <row r="254" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="105"/>
       <c r="C254" s="49">
         <v>252</v>
       </c>
@@ -15478,8 +15488,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="255" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="103"/>
+    <row r="255" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="105"/>
       <c r="C255" s="49">
         <v>253</v>
       </c>
@@ -15523,8 +15533,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="103"/>
+    <row r="256" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="105"/>
       <c r="C256" s="49">
         <v>254</v>
       </c>
@@ -15569,7 +15579,7 @@
       </c>
     </row>
     <row r="257" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="103"/>
+      <c r="B257" s="105"/>
       <c r="C257" s="49">
         <v>255</v>
       </c>
@@ -15614,7 +15624,7 @@
       </c>
     </row>
     <row r="258" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="103"/>
+      <c r="B258" s="105"/>
       <c r="C258" s="49">
         <v>256</v>
       </c>
@@ -15659,7 +15669,7 @@
       </c>
     </row>
     <row r="259" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="103"/>
+      <c r="B259" s="105"/>
       <c r="C259" s="49">
         <v>257</v>
       </c>
@@ -15704,7 +15714,7 @@
       </c>
     </row>
     <row r="260" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="103"/>
+      <c r="B260" s="105"/>
       <c r="C260" s="49">
         <v>258</v>
       </c>
@@ -15749,7 +15759,7 @@
       </c>
     </row>
     <row r="261" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="103"/>
+      <c r="B261" s="105"/>
       <c r="C261" s="49">
         <v>259</v>
       </c>
@@ -15794,7 +15804,7 @@
       </c>
     </row>
     <row r="262" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="103"/>
+      <c r="B262" s="105"/>
       <c r="C262" s="49">
         <v>260</v>
       </c>
@@ -15839,7 +15849,7 @@
       </c>
     </row>
     <row r="263" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="103"/>
+      <c r="B263" s="105"/>
       <c r="C263" s="49">
         <v>261</v>
       </c>
@@ -15884,7 +15894,7 @@
       </c>
     </row>
     <row r="264" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="103"/>
+      <c r="B264" s="105"/>
       <c r="C264" s="49">
         <v>262</v>
       </c>
@@ -15929,7 +15939,7 @@
       </c>
     </row>
     <row r="265" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="103"/>
+      <c r="B265" s="105"/>
       <c r="C265" s="49">
         <v>263</v>
       </c>
@@ -15974,7 +15984,7 @@
       </c>
     </row>
     <row r="266" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="103"/>
+      <c r="B266" s="105"/>
       <c r="C266" s="49">
         <v>264</v>
       </c>
@@ -16019,7 +16029,7 @@
       </c>
     </row>
     <row r="267" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="103"/>
+      <c r="B267" s="105"/>
       <c r="C267" s="49">
         <v>265</v>
       </c>
@@ -16064,7 +16074,7 @@
       </c>
     </row>
     <row r="268" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="103"/>
+      <c r="B268" s="105"/>
       <c r="C268" s="49">
         <v>266</v>
       </c>
@@ -16109,7 +16119,7 @@
       </c>
     </row>
     <row r="269" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="103"/>
+      <c r="B269" s="105"/>
       <c r="C269" s="49">
         <v>267</v>
       </c>
@@ -16154,7 +16164,7 @@
       </c>
     </row>
     <row r="270" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="103"/>
+      <c r="B270" s="105"/>
       <c r="C270" s="49">
         <v>268</v>
       </c>
@@ -16199,7 +16209,7 @@
       </c>
     </row>
     <row r="271" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="103"/>
+      <c r="B271" s="105"/>
       <c r="C271" s="49">
         <v>269</v>
       </c>
@@ -16244,7 +16254,7 @@
       </c>
     </row>
     <row r="272" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="103"/>
+      <c r="B272" s="105"/>
       <c r="C272" s="49">
         <v>270</v>
       </c>
@@ -16289,7 +16299,7 @@
       </c>
     </row>
     <row r="273" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="103"/>
+      <c r="B273" s="105"/>
       <c r="C273" s="49">
         <v>271</v>
       </c>
@@ -16334,7 +16344,7 @@
       </c>
     </row>
     <row r="274" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="103"/>
+      <c r="B274" s="105"/>
       <c r="C274" s="49">
         <v>272</v>
       </c>
@@ -16379,7 +16389,7 @@
       </c>
     </row>
     <row r="275" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="103"/>
+      <c r="B275" s="105"/>
       <c r="C275" s="49">
         <v>273</v>
       </c>
@@ -16424,7 +16434,7 @@
       </c>
     </row>
     <row r="276" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="103"/>
+      <c r="B276" s="105"/>
       <c r="C276" s="49">
         <v>274</v>
       </c>
@@ -16469,7 +16479,7 @@
       </c>
     </row>
     <row r="277" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="103"/>
+      <c r="B277" s="105"/>
       <c r="C277" s="49">
         <v>275</v>
       </c>
@@ -16514,7 +16524,7 @@
       </c>
     </row>
     <row r="278" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="103"/>
+      <c r="B278" s="105"/>
       <c r="C278" s="49">
         <v>276</v>
       </c>
@@ -16559,7 +16569,7 @@
       </c>
     </row>
     <row r="279" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="103"/>
+      <c r="B279" s="105"/>
       <c r="C279" s="49">
         <v>277</v>
       </c>
@@ -16604,7 +16614,7 @@
       </c>
     </row>
     <row r="280" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="103"/>
+      <c r="B280" s="105"/>
       <c r="C280" s="49">
         <v>278</v>
       </c>
@@ -16649,7 +16659,7 @@
       </c>
     </row>
     <row r="281" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="103"/>
+      <c r="B281" s="105"/>
       <c r="C281" s="49">
         <v>279</v>
       </c>
@@ -16694,7 +16704,7 @@
       </c>
     </row>
     <row r="282" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="103"/>
+      <c r="B282" s="105"/>
       <c r="C282" s="49">
         <v>280</v>
       </c>
@@ -16739,7 +16749,7 @@
       </c>
     </row>
     <row r="283" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="103"/>
+      <c r="B283" s="105"/>
       <c r="C283" s="49">
         <v>281</v>
       </c>
@@ -16784,7 +16794,7 @@
       </c>
     </row>
     <row r="284" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="103"/>
+      <c r="B284" s="105"/>
       <c r="C284" s="49">
         <v>282</v>
       </c>
@@ -16829,7 +16839,7 @@
       </c>
     </row>
     <row r="285" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="103"/>
+      <c r="B285" s="105"/>
       <c r="C285" s="49">
         <v>283</v>
       </c>
@@ -16874,7 +16884,7 @@
       </c>
     </row>
     <row r="286" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="103"/>
+      <c r="B286" s="105"/>
       <c r="C286" s="49">
         <v>284</v>
       </c>
@@ -16919,7 +16929,7 @@
       </c>
     </row>
     <row r="287" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="103"/>
+      <c r="B287" s="105"/>
       <c r="C287" s="49">
         <v>285</v>
       </c>
@@ -16964,7 +16974,7 @@
       </c>
     </row>
     <row r="288" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="103"/>
+      <c r="B288" s="105"/>
       <c r="C288" s="49">
         <v>286</v>
       </c>
@@ -17009,7 +17019,7 @@
       </c>
     </row>
     <row r="289" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="103"/>
+      <c r="B289" s="105"/>
       <c r="C289" s="49">
         <v>287</v>
       </c>
@@ -17054,7 +17064,7 @@
       </c>
     </row>
     <row r="290" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="103"/>
+      <c r="B290" s="105"/>
       <c r="C290" s="49">
         <v>288</v>
       </c>
@@ -17099,7 +17109,7 @@
       </c>
     </row>
     <row r="291" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="103"/>
+      <c r="B291" s="105"/>
       <c r="C291" s="49">
         <v>289</v>
       </c>
@@ -17144,7 +17154,7 @@
       </c>
     </row>
     <row r="292" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="103"/>
+      <c r="B292" s="105"/>
       <c r="C292" s="49">
         <v>290</v>
       </c>
@@ -17189,7 +17199,7 @@
       </c>
     </row>
     <row r="293" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="103"/>
+      <c r="B293" s="105"/>
       <c r="C293" s="49">
         <v>291</v>
       </c>
@@ -17234,7 +17244,7 @@
       </c>
     </row>
     <row r="294" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="103"/>
+      <c r="B294" s="105"/>
       <c r="C294" s="49">
         <v>292</v>
       </c>
@@ -17279,7 +17289,7 @@
       </c>
     </row>
     <row r="295" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="103"/>
+      <c r="B295" s="105"/>
       <c r="C295" s="49">
         <v>293</v>
       </c>
@@ -17324,7 +17334,7 @@
       </c>
     </row>
     <row r="296" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="103"/>
+      <c r="B296" s="105"/>
       <c r="C296" s="49">
         <v>294</v>
       </c>
@@ -17369,7 +17379,7 @@
       </c>
     </row>
     <row r="297" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="103"/>
+      <c r="B297" s="105"/>
       <c r="C297" s="49">
         <v>295</v>
       </c>
@@ -17414,7 +17424,7 @@
       </c>
     </row>
     <row r="298" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="103"/>
+      <c r="B298" s="105"/>
       <c r="C298" s="49">
         <v>296</v>
       </c>
@@ -17459,7 +17469,7 @@
       </c>
     </row>
     <row r="299" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="103"/>
+      <c r="B299" s="105"/>
       <c r="C299" s="49">
         <v>297</v>
       </c>
@@ -17504,7 +17514,7 @@
       </c>
     </row>
     <row r="300" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="103"/>
+      <c r="B300" s="105"/>
       <c r="C300" s="49">
         <v>298</v>
       </c>
@@ -17549,7 +17559,7 @@
       </c>
     </row>
     <row r="301" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="103"/>
+      <c r="B301" s="105"/>
       <c r="C301" s="49">
         <v>299</v>
       </c>
@@ -17594,7 +17604,7 @@
       </c>
     </row>
     <row r="302" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="103"/>
+      <c r="B302" s="105"/>
       <c r="C302" s="49">
         <v>300</v>
       </c>
@@ -17639,7 +17649,7 @@
       </c>
     </row>
     <row r="303" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="103"/>
+      <c r="B303" s="105"/>
       <c r="C303" s="49">
         <v>301</v>
       </c>
@@ -17684,7 +17694,7 @@
       </c>
     </row>
     <row r="304" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="103"/>
+      <c r="B304" s="105"/>
       <c r="C304" s="49">
         <v>302</v>
       </c>
@@ -17729,7 +17739,7 @@
       </c>
     </row>
     <row r="305" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="103"/>
+      <c r="B305" s="105"/>
       <c r="C305" s="49">
         <v>303</v>
       </c>
@@ -17774,7 +17784,7 @@
       </c>
     </row>
     <row r="306" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="103"/>
+      <c r="B306" s="105"/>
       <c r="C306" s="49">
         <v>304</v>
       </c>
@@ -17819,7 +17829,7 @@
       </c>
     </row>
     <row r="307" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="103"/>
+      <c r="B307" s="105"/>
       <c r="C307" s="49">
         <v>305</v>
       </c>
@@ -17864,7 +17874,7 @@
       </c>
     </row>
     <row r="308" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="103"/>
+      <c r="B308" s="105"/>
       <c r="C308" s="49">
         <v>306</v>
       </c>
@@ -17909,7 +17919,7 @@
       </c>
     </row>
     <row r="309" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="103"/>
+      <c r="B309" s="105"/>
       <c r="C309" s="49">
         <v>307</v>
       </c>
@@ -17954,7 +17964,7 @@
       </c>
     </row>
     <row r="310" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="103"/>
+      <c r="B310" s="105"/>
       <c r="C310" s="49">
         <v>308</v>
       </c>
@@ -17999,7 +18009,7 @@
       </c>
     </row>
     <row r="311" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="103"/>
+      <c r="B311" s="105"/>
       <c r="C311" s="49">
         <v>309</v>
       </c>
@@ -18044,7 +18054,7 @@
       </c>
     </row>
     <row r="312" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="103"/>
+      <c r="B312" s="105"/>
       <c r="C312" s="49">
         <v>310</v>
       </c>
@@ -18089,7 +18099,7 @@
       </c>
     </row>
     <row r="313" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="103"/>
+      <c r="B313" s="105"/>
       <c r="C313" s="49">
         <v>311</v>
       </c>
@@ -18134,7 +18144,7 @@
       </c>
     </row>
     <row r="314" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="103"/>
+      <c r="B314" s="105"/>
       <c r="C314" s="49">
         <v>312</v>
       </c>
@@ -18179,7 +18189,7 @@
       </c>
     </row>
     <row r="315" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="103"/>
+      <c r="B315" s="105"/>
       <c r="C315" s="49">
         <v>313</v>
       </c>
@@ -18224,7 +18234,7 @@
       </c>
     </row>
     <row r="316" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="103"/>
+      <c r="B316" s="105"/>
       <c r="C316" s="49">
         <v>314</v>
       </c>
@@ -18269,7 +18279,7 @@
       </c>
     </row>
     <row r="317" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="103"/>
+      <c r="B317" s="105"/>
       <c r="C317" s="49">
         <v>315</v>
       </c>
@@ -18314,7 +18324,7 @@
       </c>
     </row>
     <row r="318" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="103"/>
+      <c r="B318" s="105"/>
       <c r="C318" s="49">
         <v>316</v>
       </c>
@@ -18359,7 +18369,7 @@
       </c>
     </row>
     <row r="319" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="103"/>
+      <c r="B319" s="105"/>
       <c r="C319" s="49">
         <v>317</v>
       </c>
@@ -18404,7 +18414,7 @@
       </c>
     </row>
     <row r="320" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="103"/>
+      <c r="B320" s="105"/>
       <c r="C320" s="49">
         <v>318</v>
       </c>
@@ -18449,7 +18459,7 @@
       </c>
     </row>
     <row r="321" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="103"/>
+      <c r="B321" s="105"/>
       <c r="C321" s="49">
         <v>319</v>
       </c>
@@ -18494,7 +18504,7 @@
       </c>
     </row>
     <row r="322" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="103"/>
+      <c r="B322" s="105"/>
       <c r="C322" s="49">
         <v>320</v>
       </c>
@@ -18539,7 +18549,7 @@
       </c>
     </row>
     <row r="323" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="103"/>
+      <c r="B323" s="105"/>
       <c r="C323" s="49">
         <v>321</v>
       </c>
@@ -18584,7 +18594,7 @@
       </c>
     </row>
     <row r="324" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="103"/>
+      <c r="B324" s="105"/>
       <c r="C324" s="49">
         <v>322</v>
       </c>
@@ -18629,7 +18639,7 @@
       </c>
     </row>
     <row r="325" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="103"/>
+      <c r="B325" s="105"/>
       <c r="C325" s="49">
         <v>323</v>
       </c>
@@ -18671,7 +18681,7 @@
       </c>
     </row>
     <row r="326" spans="2:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="104"/>
+      <c r="B326" s="106"/>
       <c r="C326" s="86">
         <v>324</v>
       </c>
